--- a/carriers_source_analyses/wood_pellets.carrier.xlsx
+++ b/carriers_source_analyses/wood_pellets.carrier.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="28800" windowHeight="16140" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -17,7 +17,6 @@
   <externalReferences>
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
-    <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
     <definedName name="exchange_rate_2011_2010">#REF!</definedName>
@@ -44,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="168">
   <si>
     <t>Source</t>
   </si>
@@ -550,13 +549,16 @@
     <t>This sheet summarizes the Fuel Chain Emissions attributes formatted in the way they are used by the Energy Transition Model. These FCE are only specified for carriers and at the moment only for NL.</t>
   </si>
   <si>
-    <t>N.B. These FCE attributes have to be exported to ETSource manually as this is not automated yet.</t>
-  </si>
-  <si>
     <t>EUR/tonne</t>
   </si>
   <si>
     <t>MJ/tonne</t>
+  </si>
+  <si>
+    <t>from wood_pellets</t>
+  </si>
+  <si>
+    <t>start_value</t>
   </si>
 </sst>
 </file>
@@ -573,16 +575,30 @@
     <numFmt numFmtId="170" formatCode="#,##0.00000000000000000"/>
     <numFmt numFmtId="171" formatCode="0.00000000000000"/>
     <numFmt numFmtId="172" formatCode="0.00000000000000000"/>
-    <numFmt numFmtId="176" formatCode="0.000000000000"/>
-    <numFmt numFmtId="183" formatCode="#,##0.0000000000"/>
-    <numFmt numFmtId="189" formatCode="0.0000000000000000"/>
+    <numFmt numFmtId="173" formatCode="0.000000000000"/>
+    <numFmt numFmtId="174" formatCode="#,##0.0000000000"/>
+    <numFmt numFmtId="175" formatCode="0.0000000000000000"/>
   </numFmts>
-  <fonts count="41" x14ac:knownFonts="1">
+  <fonts count="43" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1313,752 +1329,757 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="399">
+  <cellStyleXfs count="400">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="221">
+  <cellXfs count="223">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="20" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="183" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="183" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="19" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="14" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="183" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="183" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="31" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="31" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="31" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="33" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="33" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="33" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="4" fontId="31" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="31" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="33" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="33" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="33" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="170" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="31" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="31" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="33" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="33" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="31" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="31" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="31" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="33" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="33" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="33" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="183" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="183" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="17" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="38" fillId="13" borderId="0" xfId="396" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" xfId="396" applyFill="1"/>
-    <xf numFmtId="14" fontId="38" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" xfId="183" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="166" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="17" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="40" fillId="13" borderId="0" xfId="396" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="40" fillId="13" borderId="0" xfId="396" applyFill="1"/>
+    <xf numFmtId="14" fontId="40" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="183" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="173" fontId="11" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="9" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="183" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="189" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="399">
+  <cellStyles count="400">
     <cellStyle name="Excel Built-in Normal" xfId="396"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -2368,6 +2389,7 @@
     <cellStyle name="Followed Hyperlink" xfId="395" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="397" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="398" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="399" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2468,6 +2490,10 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -2476,14 +2502,14 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>165100</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>3949700</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2522,6 +2548,67 @@
                   <a:cs typeface="Lucida Grande"/>
                 </a:rPr>
                 <a:t>Update carrier attributes on ETSource</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>165100</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>165100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>3949700</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>177800</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2051" name="export_fce" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2051"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Lucida Grande"/>
+                  <a:ea typeface="Lucida Grande"/>
+                  <a:cs typeface="Lucida Grande"/>
+                </a:rPr>
+                <a:t>Update FCE attributes on ETSource (next sheet)</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -3336,29 +3423,10 @@
     <sheetNames>
       <sheetName val="Cover sheet"/>
       <sheetName val="Dashboard"/>
-      <sheetName val="carrier_manager.xlsm"/>
     </sheetNames>
     <definedNames>
       <definedName name="update_attributes"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Cover sheet"/>
-      <sheetName val="Dashboard"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="update_attributes"/>
+      <definedName name="update_fce"/>
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -3900,9 +3968,7 @@
   </sheetPr>
   <dimension ref="B1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -3926,28 +3992,28 @@
       <c r="G1" s="35"/>
     </row>
     <row r="2" spans="2:11" ht="15" customHeight="1">
-      <c r="B2" s="204" t="s">
+      <c r="B2" s="211" t="s">
         <v>162</v>
       </c>
-      <c r="C2" s="205"/>
-      <c r="D2" s="205"/>
-      <c r="E2" s="206"/>
+      <c r="C2" s="212"/>
+      <c r="D2" s="212"/>
+      <c r="E2" s="213"/>
       <c r="F2" s="35"/>
       <c r="G2" s="35"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="207"/>
-      <c r="C3" s="208"/>
-      <c r="D3" s="208"/>
-      <c r="E3" s="209"/>
+      <c r="B3" s="214"/>
+      <c r="C3" s="215"/>
+      <c r="D3" s="215"/>
+      <c r="E3" s="216"/>
       <c r="F3" s="35"/>
       <c r="G3" s="35"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="210"/>
-      <c r="C4" s="211"/>
-      <c r="D4" s="211"/>
-      <c r="E4" s="212"/>
+      <c r="B4" s="217"/>
+      <c r="C4" s="218"/>
+      <c r="D4" s="218"/>
+      <c r="E4" s="219"/>
       <c r="F4" s="35"/>
       <c r="G4" s="35"/>
     </row>
@@ -4040,7 +4106,7 @@
       <c r="D11" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="220">
+      <c r="E11" s="208">
         <f>'Research data'!G7</f>
         <v>7.6845303867403318E-3</v>
       </c>
@@ -4081,7 +4147,7 @@
         <v>49</v>
       </c>
       <c r="E13" s="193">
-        <f>nl_fce!E15</f>
+        <f>nl_fce!E16</f>
         <v>0</v>
       </c>
       <c r="F13" s="36"/>
@@ -4139,19 +4205,42 @@
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
             <control shapeId="2049" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[3]!update_attributes">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[2]!update_attributes">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>165100</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>3949700</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>25400</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+          <mc:Fallback/>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2051" r:id="rId4" name="export_fce">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[2]!update_fce">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>165100</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>3949700</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>177800</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4176,7 +4265,7 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:J17"/>
+  <dimension ref="B1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4202,30 +4291,28 @@
       <c r="G1" s="35"/>
     </row>
     <row r="2" spans="2:10" ht="15" customHeight="1">
-      <c r="B2" s="204" t="s">
+      <c r="B2" s="211" t="s">
         <v>163</v>
       </c>
-      <c r="C2" s="205"/>
-      <c r="D2" s="205"/>
-      <c r="E2" s="206"/>
+      <c r="C2" s="212"/>
+      <c r="D2" s="212"/>
+      <c r="E2" s="213"/>
       <c r="F2" s="35"/>
       <c r="G2" s="35"/>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="207"/>
-      <c r="C3" s="208"/>
-      <c r="D3" s="208"/>
-      <c r="E3" s="209"/>
+      <c r="B3" s="214"/>
+      <c r="C3" s="215"/>
+      <c r="D3" s="215"/>
+      <c r="E3" s="216"/>
       <c r="F3" s="35"/>
       <c r="G3" s="35"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="213" t="s">
-        <v>164</v>
-      </c>
-      <c r="C4" s="214"/>
-      <c r="D4" s="214"/>
-      <c r="E4" s="215"/>
+      <c r="B4" s="220"/>
+      <c r="C4" s="221"/>
+      <c r="D4" s="221"/>
+      <c r="E4" s="222"/>
       <c r="F4" s="35"/>
       <c r="G4" s="35"/>
     </row>
@@ -4288,50 +4375,41 @@
       <c r="I9" s="35"/>
       <c r="J9" s="102"/>
     </row>
-    <row r="10" spans="2:10" ht="16" thickBot="1">
+    <row r="10" spans="2:10">
       <c r="B10" s="40"/>
-      <c r="C10" s="114"/>
-      <c r="D10" s="114"/>
-      <c r="E10" s="114"/>
-      <c r="F10" s="114"/>
-      <c r="G10" s="114"/>
-      <c r="H10" s="114"/>
-      <c r="I10" s="114"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="99"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
       <c r="J10" s="102"/>
     </row>
     <row r="11" spans="2:10" ht="16" thickBot="1">
       <c r="B11" s="40"/>
-      <c r="C11" s="117" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="138">
-        <f>'Research data'!G13</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="36"/>
-      <c r="G11" s="114" t="s">
-        <v>50</v>
-      </c>
-      <c r="H11" s="36"/>
-      <c r="I11" s="134" t="s">
-        <v>51</v>
-      </c>
+      <c r="C11" s="209" t="s">
+        <v>166</v>
+      </c>
+      <c r="D11" s="114"/>
+      <c r="E11" s="114"/>
+      <c r="F11" s="114"/>
+      <c r="G11" s="114"/>
+      <c r="H11" s="114"/>
+      <c r="I11" s="114"/>
       <c r="J11" s="102"/>
     </row>
     <row r="12" spans="2:10" ht="16" thickBot="1">
       <c r="B12" s="40"/>
       <c r="C12" s="117" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D12" s="24" t="s">
         <v>49</v>
       </c>
       <c r="E12" s="138">
-        <f>'Research data'!G14</f>
-        <v>1.1470417155166664E-3</v>
+        <f>'Research data'!G13</f>
+        <v>0</v>
       </c>
       <c r="F12" s="36"/>
       <c r="G12" s="114" t="s">
@@ -4346,14 +4424,14 @@
     <row r="13" spans="2:10" ht="16" thickBot="1">
       <c r="B13" s="40"/>
       <c r="C13" s="117" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D13" s="24" t="s">
         <v>49</v>
       </c>
       <c r="E13" s="138">
-        <f>'Research data'!G15</f>
-        <v>0</v>
+        <f>'Research data'!G14</f>
+        <v>1.1470417155166664E-3</v>
       </c>
       <c r="F13" s="36"/>
       <c r="G13" s="114" t="s">
@@ -4368,14 +4446,14 @@
     <row r="14" spans="2:10" ht="16" thickBot="1">
       <c r="B14" s="40"/>
       <c r="C14" s="117" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D14" s="24" t="s">
         <v>49</v>
       </c>
       <c r="E14" s="138">
-        <f>'Research data'!G16</f>
-        <v>8.0811981354912427E-3</v>
+        <f>'Research data'!G15</f>
+        <v>0</v>
       </c>
       <c r="F14" s="36"/>
       <c r="G14" s="114" t="s">
@@ -4390,14 +4468,14 @@
     <row r="15" spans="2:10" ht="16" thickBot="1">
       <c r="B15" s="40"/>
       <c r="C15" s="117" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D15" s="24" t="s">
         <v>49</v>
       </c>
       <c r="E15" s="138">
-        <f>'Research data'!G17</f>
-        <v>0</v>
+        <f>'Research data'!G16</f>
+        <v>8.0811981354912427E-3</v>
       </c>
       <c r="F15" s="36"/>
       <c r="G15" s="114" t="s">
@@ -4412,13 +4490,13 @@
     <row r="16" spans="2:10" ht="16" thickBot="1">
       <c r="B16" s="40"/>
       <c r="C16" s="117" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D16" s="24" t="s">
         <v>49</v>
       </c>
       <c r="E16" s="138">
-        <f>'Research data'!G18</f>
+        <f>'Research data'!G17</f>
         <v>0</v>
       </c>
       <c r="F16" s="36"/>
@@ -4431,16 +4509,57 @@
       </c>
       <c r="J16" s="102"/>
     </row>
-    <row r="17" spans="2:10" ht="20" customHeight="1" thickBot="1">
-      <c r="B17" s="41"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="43"/>
+    <row r="17" spans="2:10" ht="16" thickBot="1">
+      <c r="B17" s="40"/>
+      <c r="C17" s="117" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="138">
+        <f>'Research data'!G18</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="36"/>
+      <c r="G17" s="114" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" s="36"/>
+      <c r="I17" s="134" t="s">
+        <v>51</v>
+      </c>
+      <c r="J17" s="102"/>
+    </row>
+    <row r="18" spans="2:10" ht="16" thickBot="1">
+      <c r="B18" s="40"/>
+      <c r="C18" s="210" t="s">
+        <v>167</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="138">
+        <v>1</v>
+      </c>
+      <c r="F18" s="36"/>
+      <c r="G18" s="114"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="134" t="s">
+        <v>51</v>
+      </c>
+      <c r="J18" s="102"/>
+    </row>
+    <row r="19" spans="2:10" ht="20" customHeight="1" thickBot="1">
+      <c r="B19" s="41"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4448,6 +4567,7 @@
     <mergeCell ref="B4:E4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4649,7 +4769,7 @@
       <c r="N7" s="18"/>
       <c r="O7" s="16"/>
       <c r="P7" s="16"/>
-      <c r="Q7" s="219">
+      <c r="Q7" s="207">
         <f>Notes!F383</f>
         <v>7.6845303867403318E-3</v>
       </c>
@@ -10925,7 +11045,7 @@
         <v>139.09</v>
       </c>
       <c r="G380" s="172" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H380" s="190" t="s">
         <v>151</v>
@@ -10939,7 +11059,7 @@
     </row>
     <row r="381" spans="1:25">
       <c r="B381" s="110"/>
-      <c r="F381" s="217">
+      <c r="F381" s="205">
         <f>'Research data'!G8</f>
         <v>18.100000000000001</v>
       </c>
@@ -10954,13 +11074,13 @@
         <f>F381*1000</f>
         <v>18100</v>
       </c>
-      <c r="G382" s="216" t="s">
-        <v>166</v>
+      <c r="G382" s="204" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="383" spans="1:25">
       <c r="B383" s="110"/>
-      <c r="F383" s="218">
+      <c r="F383" s="206">
         <f>F380/F382</f>
         <v>7.6845303867403318E-3</v>
       </c>

--- a/carriers_source_analyses/wood_pellets.carrier.xlsx
+++ b/carriers_source_analyses/wood_pellets.carrier.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="23460" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="169">
   <si>
     <t>Source</t>
   </si>
@@ -353,15 +353,9 @@
     <t>residential wood pellets price</t>
   </si>
   <si>
-    <t>17,5 GJ per tonne with tonne costing 135</t>
-  </si>
-  <si>
     <t>Industrial</t>
   </si>
   <si>
-    <t>17,5 GJ per tonne with tonne costing 220</t>
-  </si>
-  <si>
     <t>Residential</t>
   </si>
   <si>
@@ -447,9 +441,6 @@
   </si>
   <si>
     <t>144-145</t>
-  </si>
-  <si>
-    <t>a tonne of woodpellets has 17,5 GJ</t>
   </si>
   <si>
     <t>kg CO2e per tonne woodpellets</t>
@@ -559,6 +550,18 @@
   </si>
   <si>
     <t>start_value</t>
+  </si>
+  <si>
+    <t>a tonne of woodpellets has 17,6 GJ</t>
+  </si>
+  <si>
+    <t>17,6 GJ per tonne with tonne costing 135</t>
+  </si>
+  <si>
+    <t>17,6 GJ per tonne with tonne costing 220</t>
+  </si>
+  <si>
+    <t>Sikkema</t>
   </si>
 </sst>
 </file>
@@ -1734,7 +1737,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="223">
+  <cellXfs count="224">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -2042,6 +2045,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="3" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3283,7 +3287,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="11668952" y="36867612"/>
+          <a:off x="11707052" y="36867612"/>
           <a:ext cx="7355648" cy="8391186"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3792,10 +3796,10 @@
     <row r="4" spans="1:4">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3992,28 +3996,28 @@
       <c r="G1" s="35"/>
     </row>
     <row r="2" spans="2:11" ht="15" customHeight="1">
-      <c r="B2" s="211" t="s">
-        <v>162</v>
-      </c>
-      <c r="C2" s="212"/>
-      <c r="D2" s="212"/>
-      <c r="E2" s="213"/>
+      <c r="B2" s="212" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="213"/>
+      <c r="D2" s="213"/>
+      <c r="E2" s="214"/>
       <c r="F2" s="35"/>
       <c r="G2" s="35"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="214"/>
-      <c r="C3" s="215"/>
-      <c r="D3" s="215"/>
-      <c r="E3" s="216"/>
+      <c r="B3" s="215"/>
+      <c r="C3" s="216"/>
+      <c r="D3" s="216"/>
+      <c r="E3" s="217"/>
       <c r="F3" s="35"/>
       <c r="G3" s="35"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="217"/>
-      <c r="C4" s="218"/>
-      <c r="D4" s="218"/>
-      <c r="E4" s="219"/>
+      <c r="B4" s="218"/>
+      <c r="C4" s="219"/>
+      <c r="D4" s="219"/>
+      <c r="E4" s="220"/>
       <c r="F4" s="35"/>
       <c r="G4" s="35"/>
     </row>
@@ -4066,7 +4070,7 @@
     <row r="9" spans="2:11" s="44" customFormat="1" ht="19" thickBot="1">
       <c r="B9" s="25"/>
       <c r="C9" s="20" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D9" s="33"/>
       <c r="E9" s="20"/>
@@ -4108,33 +4112,33 @@
       </c>
       <c r="E11" s="208">
         <f>'Research data'!G7</f>
-        <v>7.6845303867403318E-3</v>
+        <v>7.7272222222222221E-3</v>
       </c>
       <c r="F11" s="36"/>
       <c r="G11" s="114"/>
       <c r="H11" s="32"/>
       <c r="I11" s="198" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J11" s="45"/>
     </row>
     <row r="12" spans="2:11" s="44" customFormat="1" ht="19" thickBot="1">
       <c r="B12" s="25"/>
       <c r="C12" s="114" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D12" s="24" t="s">
         <v>53</v>
       </c>
       <c r="E12" s="47">
         <f>'Research data'!G8</f>
-        <v>18.100000000000001</v>
+        <v>18</v>
       </c>
       <c r="F12" s="36"/>
       <c r="G12" s="114"/>
       <c r="H12" s="32"/>
       <c r="I12" s="198" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J12" s="45"/>
     </row>
@@ -4291,28 +4295,28 @@
       <c r="G1" s="35"/>
     </row>
     <row r="2" spans="2:10" ht="15" customHeight="1">
-      <c r="B2" s="211" t="s">
-        <v>163</v>
-      </c>
-      <c r="C2" s="212"/>
-      <c r="D2" s="212"/>
-      <c r="E2" s="213"/>
+      <c r="B2" s="212" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="213"/>
+      <c r="D2" s="213"/>
+      <c r="E2" s="214"/>
       <c r="F2" s="35"/>
       <c r="G2" s="35"/>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="214"/>
-      <c r="C3" s="215"/>
-      <c r="D3" s="215"/>
-      <c r="E3" s="216"/>
+      <c r="B3" s="215"/>
+      <c r="C3" s="216"/>
+      <c r="D3" s="216"/>
+      <c r="E3" s="217"/>
       <c r="F3" s="35"/>
       <c r="G3" s="35"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="220"/>
-      <c r="C4" s="221"/>
-      <c r="D4" s="221"/>
-      <c r="E4" s="222"/>
+      <c r="B4" s="221"/>
+      <c r="C4" s="222"/>
+      <c r="D4" s="222"/>
+      <c r="E4" s="223"/>
       <c r="F4" s="35"/>
       <c r="G4" s="35"/>
     </row>
@@ -4389,7 +4393,7 @@
     <row r="11" spans="2:10" ht="16" thickBot="1">
       <c r="B11" s="40"/>
       <c r="C11" s="209" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D11" s="114"/>
       <c r="E11" s="114"/>
@@ -4534,7 +4538,7 @@
     <row r="18" spans="2:10" ht="16" thickBot="1">
       <c r="B18" s="40"/>
       <c r="C18" s="210" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D18" s="24" t="s">
         <v>1</v>
@@ -4581,10 +4585,10 @@
   <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B1:S18"/>
+  <dimension ref="B1:U18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4605,14 +4609,16 @@
     <col min="14" max="14" width="2.75" style="66" customWidth="1"/>
     <col min="15" max="15" width="8.5" style="66" customWidth="1"/>
     <col min="16" max="16" width="2.75" style="66" customWidth="1"/>
-    <col min="17" max="17" width="9.625" style="66" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.5" style="66" customWidth="1"/>
     <col min="18" max="18" width="2.75" style="66" customWidth="1"/>
-    <col min="19" max="19" width="60" style="65" customWidth="1"/>
-    <col min="20" max="16384" width="10.625" style="65"/>
+    <col min="19" max="19" width="9.625" style="66" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="2.75" style="66" customWidth="1"/>
+    <col min="21" max="21" width="60" style="65" customWidth="1"/>
+    <col min="22" max="16384" width="10.625" style="65"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="16" thickBot="1"/>
-    <row r="2" spans="2:19">
+    <row r="1" spans="2:21" ht="16" thickBot="1"/>
+    <row r="2" spans="2:21">
       <c r="B2" s="67"/>
       <c r="C2" s="68"/>
       <c r="D2" s="68"/>
@@ -4630,9 +4636,11 @@
       <c r="P2" s="69"/>
       <c r="Q2" s="69"/>
       <c r="R2" s="69"/>
-      <c r="S2" s="70"/>
-    </row>
-    <row r="3" spans="2:19" s="26" customFormat="1">
+      <c r="S2" s="69"/>
+      <c r="T2" s="69"/>
+      <c r="U2" s="70"/>
+    </row>
+    <row r="3" spans="2:21" s="26" customFormat="1">
       <c r="B3" s="25"/>
       <c r="C3" s="106" t="s">
         <v>30</v>
@@ -4647,7 +4655,7 @@
       </c>
       <c r="H3" s="106"/>
       <c r="I3" s="64" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J3" s="64"/>
       <c r="K3" s="64" t="s">
@@ -4655,22 +4663,26 @@
       </c>
       <c r="L3" s="64"/>
       <c r="M3" s="64" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="N3" s="64"/>
       <c r="O3" s="64" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="P3" s="64"/>
       <c r="Q3" s="64" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="R3" s="64"/>
-      <c r="S3" s="1" t="s">
+      <c r="S3" s="64" t="s">
+        <v>149</v>
+      </c>
+      <c r="T3" s="64"/>
+      <c r="U3" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:19">
+    <row r="4" spans="2:21">
       <c r="B4" s="71"/>
       <c r="C4" s="72"/>
       <c r="D4" s="72"/>
@@ -4688,9 +4700,11 @@
       <c r="P4" s="105"/>
       <c r="Q4" s="103"/>
       <c r="R4" s="105"/>
-      <c r="S4" s="2"/>
-    </row>
-    <row r="5" spans="2:19" ht="16" thickBot="1">
+      <c r="S4" s="103"/>
+      <c r="T4" s="105"/>
+      <c r="U4" s="2"/>
+    </row>
+    <row r="5" spans="2:21" ht="16" thickBot="1">
       <c r="B5" s="71"/>
       <c r="C5" s="20" t="s">
         <v>55</v>
@@ -4710,9 +4724,11 @@
       <c r="P5" s="16"/>
       <c r="Q5" s="16"/>
       <c r="R5" s="16"/>
-      <c r="S5" s="3"/>
-    </row>
-    <row r="6" spans="2:19" ht="16" thickBot="1">
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="3"/>
+    </row>
+    <row r="6" spans="2:21" ht="16" thickBot="1">
       <c r="B6" s="71"/>
       <c r="C6" s="118" t="s">
         <v>38</v>
@@ -4740,9 +4756,11 @@
       <c r="P6" s="16"/>
       <c r="Q6" s="16"/>
       <c r="R6" s="16"/>
-      <c r="S6" s="3"/>
-    </row>
-    <row r="7" spans="2:19" s="6" customFormat="1" ht="16" thickBot="1">
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="3"/>
+    </row>
+    <row r="7" spans="2:21" s="6" customFormat="1" ht="16" thickBot="1">
       <c r="B7" s="5"/>
       <c r="C7" s="119" t="s">
         <v>39</v>
@@ -4757,8 +4775,8 @@
         <v>54</v>
       </c>
       <c r="G7" s="137">
-        <f>Q7</f>
-        <v>7.6845303867403318E-3</v>
+        <f>S7</f>
+        <v>7.7272222222222221E-3</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="18"/>
@@ -4769,19 +4787,21 @@
       <c r="N7" s="18"/>
       <c r="O7" s="16"/>
       <c r="P7" s="16"/>
-      <c r="Q7" s="207">
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="207">
         <f>Notes!F383</f>
-        <v>7.6845303867403318E-3</v>
-      </c>
-      <c r="R7" s="16"/>
-      <c r="S7" s="186" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8" spans="2:19" s="6" customFormat="1" ht="16" thickBot="1">
+        <v>7.7272222222222221E-3</v>
+      </c>
+      <c r="T7" s="16"/>
+      <c r="U7" s="186" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" s="6" customFormat="1" ht="16" thickBot="1">
       <c r="B8" s="5"/>
       <c r="C8" s="119" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D8" s="119" t="s">
         <v>52</v>
@@ -4793,8 +4813,8 @@
         <v>53</v>
       </c>
       <c r="G8" s="46">
-        <f>ROUND(AVERAGE(I8,K8,M8),1)</f>
-        <v>18.100000000000001</v>
+        <f>ROUND(AVERAGE(I8,K8,M8,Q8),1)</f>
+        <v>18</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="47">
@@ -4814,11 +4834,16 @@
       <c r="N8" s="18"/>
       <c r="O8" s="16"/>
       <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
+      <c r="Q8" s="47">
+        <f>Notes!G189</f>
+        <v>17.600000000000001</v>
+      </c>
       <c r="R8" s="16"/>
-      <c r="S8" s="3"/>
-    </row>
-    <row r="9" spans="2:19" s="6" customFormat="1" ht="16" thickBot="1">
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="3"/>
+    </row>
+    <row r="9" spans="2:21" s="6" customFormat="1" ht="16" thickBot="1">
       <c r="B9" s="5"/>
       <c r="C9" s="120" t="s">
         <v>40</v>
@@ -4850,9 +4875,11 @@
       <c r="P9" s="16"/>
       <c r="Q9" s="16"/>
       <c r="R9" s="16"/>
-      <c r="S9" s="3"/>
-    </row>
-    <row r="10" spans="2:19" ht="16" thickBot="1">
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="3"/>
+    </row>
+    <row r="10" spans="2:21" ht="16" thickBot="1">
       <c r="B10" s="71"/>
       <c r="C10" s="120" t="s">
         <v>41</v>
@@ -4888,12 +4915,14 @@
         <v>18879000</v>
       </c>
       <c r="P10" s="16"/>
+      <c r="Q10" s="211"/>
       <c r="R10" s="16"/>
-      <c r="S10" s="186" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="11" spans="2:19">
+      <c r="T10" s="16"/>
+      <c r="U10" s="186" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21">
       <c r="B11" s="71"/>
       <c r="C11" s="34"/>
       <c r="D11" s="34"/>
@@ -4911,9 +4940,11 @@
       <c r="P11" s="16"/>
       <c r="Q11" s="16"/>
       <c r="R11" s="16"/>
-      <c r="S11" s="126"/>
-    </row>
-    <row r="12" spans="2:19" ht="16" thickBot="1">
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="126"/>
+    </row>
+    <row r="12" spans="2:21" ht="16" thickBot="1">
       <c r="B12" s="71"/>
       <c r="C12" s="20" t="s">
         <v>37</v>
@@ -4933,9 +4964,11 @@
       <c r="P12" s="16"/>
       <c r="Q12" s="16"/>
       <c r="R12" s="16"/>
-      <c r="S12" s="126"/>
-    </row>
-    <row r="13" spans="2:19" ht="16" thickBot="1">
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="126"/>
+    </row>
+    <row r="13" spans="2:21" ht="16" thickBot="1">
       <c r="B13" s="71"/>
       <c r="C13" s="121" t="s">
         <v>44</v>
@@ -4963,11 +4996,13 @@
       <c r="P13" s="75"/>
       <c r="Q13" s="18"/>
       <c r="R13" s="75"/>
-      <c r="S13" s="136" t="s">
+      <c r="S13" s="18"/>
+      <c r="T13" s="75"/>
+      <c r="U13" s="136" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="2:19" ht="16" thickBot="1">
+    <row r="14" spans="2:21" ht="16" thickBot="1">
       <c r="B14" s="71"/>
       <c r="C14" s="121" t="s">
         <v>45</v>
@@ -4995,11 +5030,13 @@
       <c r="P14" s="6"/>
       <c r="Q14" s="18"/>
       <c r="R14" s="6"/>
-      <c r="S14" s="136" t="s">
+      <c r="S14" s="18"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="136" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="2:19" ht="16" thickBot="1">
+    <row r="15" spans="2:21" ht="16" thickBot="1">
       <c r="B15" s="71"/>
       <c r="C15" s="121" t="s">
         <v>48</v>
@@ -5027,11 +5064,13 @@
       <c r="P15" s="6"/>
       <c r="Q15" s="18"/>
       <c r="R15" s="6"/>
-      <c r="S15" s="136" t="s">
+      <c r="S15" s="18"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="136" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="2:19" ht="16" thickBot="1">
+    <row r="16" spans="2:21" ht="16" thickBot="1">
       <c r="B16" s="71"/>
       <c r="C16" s="121" t="s">
         <v>47</v>
@@ -5059,11 +5098,13 @@
       <c r="P16" s="6"/>
       <c r="Q16" s="18"/>
       <c r="R16" s="6"/>
-      <c r="S16" s="136" t="s">
+      <c r="S16" s="18"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="136" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="2:19" ht="16" thickBot="1">
+    <row r="17" spans="2:21" ht="16" thickBot="1">
       <c r="B17" s="71"/>
       <c r="C17" s="121" t="s">
         <v>40</v>
@@ -5091,11 +5132,13 @@
       <c r="P17" s="75"/>
       <c r="Q17" s="18"/>
       <c r="R17" s="75"/>
-      <c r="S17" s="136" t="s">
+      <c r="S17" s="18"/>
+      <c r="T17" s="75"/>
+      <c r="U17" s="136" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="2:19" ht="16" thickBot="1">
+    <row r="18" spans="2:21" ht="16" thickBot="1">
       <c r="B18" s="71"/>
       <c r="C18" s="121" t="s">
         <v>46</v>
@@ -5123,7 +5166,9 @@
       <c r="P18" s="75"/>
       <c r="Q18" s="18"/>
       <c r="R18" s="75"/>
-      <c r="S18" s="136" t="s">
+      <c r="S18" s="18"/>
+      <c r="T18" s="75"/>
+      <c r="U18" s="136" t="s">
         <v>88</v>
       </c>
     </row>
@@ -5252,13 +5297,13 @@
         <v>39</v>
       </c>
       <c r="E7" s="187" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H7" s="48">
         <v>2013</v>
       </c>
       <c r="L7" s="49" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="2:12">
@@ -5269,7 +5314,7 @@
     <row r="9" spans="2:12">
       <c r="B9" s="53"/>
       <c r="C9" s="132" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D9" s="61"/>
       <c r="E9" s="131" t="s">
@@ -5358,7 +5403,7 @@
         <v>2008</v>
       </c>
       <c r="K16" s="49" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="2:11">
@@ -5376,13 +5421,13 @@
         <v>52</v>
       </c>
       <c r="E19" s="48" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H19" s="48">
         <v>2002</v>
       </c>
       <c r="K19" s="49" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="2:11">
@@ -5397,13 +5442,13 @@
     <row r="22" spans="2:11">
       <c r="B22" s="53"/>
       <c r="E22" s="48" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H22" s="48">
         <v>2010</v>
       </c>
       <c r="K22" s="49" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="2:11">
@@ -5418,7 +5463,7 @@
         <v>2010</v>
       </c>
       <c r="K24" s="49" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="2:11">
@@ -5448,8 +5493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y387"/>
   <sheetViews>
-    <sheetView topLeftCell="A380" workbookViewId="0">
-      <selection activeCell="F383" sqref="F383"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6354,10 +6399,10 @@
     <row r="66" spans="2:8" s="139" customFormat="1">
       <c r="B66" s="110"/>
       <c r="D66" s="172" t="s">
+        <v>105</v>
+      </c>
+      <c r="F66" s="140" t="s">
         <v>107</v>
-      </c>
-      <c r="F66" s="140" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="67" spans="2:8" s="139" customFormat="1">
@@ -6423,7 +6468,7 @@
       <c r="B83" s="110"/>
       <c r="D83"/>
       <c r="F83" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H83">
         <v>16.899999999999999</v>
@@ -6432,7 +6477,7 @@
         <v>53</v>
       </c>
       <c r="J83" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="84" spans="2:10" s="139" customFormat="1" ht="16">
@@ -6446,21 +6491,21 @@
         <v>53</v>
       </c>
       <c r="J84" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="85" spans="2:10" s="139" customFormat="1" ht="16">
       <c r="B85" s="110"/>
       <c r="D85"/>
       <c r="F85" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H85" s="179">
         <v>0.12</v>
       </c>
       <c r="I85"/>
       <c r="J85" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="86" spans="2:10" s="139" customFormat="1" ht="16">
@@ -6472,7 +6517,7 @@
       </c>
       <c r="I86"/>
       <c r="J86" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="87" spans="2:10" s="139" customFormat="1">
@@ -6523,7 +6568,7 @@
     <row r="101" spans="2:9" s="139" customFormat="1" ht="16">
       <c r="B101" s="110"/>
       <c r="F101" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H101">
         <v>17.7</v>
@@ -6553,7 +6598,7 @@
     <row r="108" spans="2:9" s="139" customFormat="1">
       <c r="B108" s="110"/>
       <c r="F108" s="140" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H108" s="178">
         <v>0.84</v>
@@ -6574,7 +6619,7 @@
         <v>1216</v>
       </c>
       <c r="F112" s="140" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="113" spans="2:10" s="139" customFormat="1">
@@ -6616,13 +6661,13 @@
     <row r="121" spans="2:10" s="139" customFormat="1">
       <c r="B121" s="110"/>
       <c r="F121" s="180" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H121" s="139">
         <v>22.4</v>
       </c>
       <c r="I121" s="180" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="122" spans="2:10" s="139" customFormat="1">
@@ -6632,7 +6677,7 @@
         <v>22400</v>
       </c>
       <c r="I122" s="180" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="123" spans="2:10" s="139" customFormat="1">
@@ -6642,7 +6687,7 @@
         <v>2240000</v>
       </c>
       <c r="I123" s="180" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="124" spans="2:10" s="139" customFormat="1">
@@ -6657,20 +6702,20 @@
         <v>39648000</v>
       </c>
       <c r="I125" s="180" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="126" spans="2:10" s="139" customFormat="1">
       <c r="B126" s="110"/>
       <c r="F126" s="180" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H126" s="181">
         <f>H125*H108</f>
         <v>33304320</v>
       </c>
       <c r="I126" s="180" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="127" spans="2:10" s="139" customFormat="1">
@@ -6685,7 +6730,7 @@
         <v>1222</v>
       </c>
       <c r="F129" s="140" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H129" s="172">
         <v>17.7</v>
@@ -6788,7 +6833,7 @@
     <row r="143" spans="1:25" customFormat="1" ht="16">
       <c r="B143" s="110"/>
       <c r="C143" s="182" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D143" s="172"/>
       <c r="E143" s="172"/>
@@ -6820,7 +6865,7 @@
       </c>
       <c r="E144" s="109"/>
       <c r="F144" s="172" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G144" s="172"/>
       <c r="H144" s="172"/>
@@ -6922,7 +6967,7 @@
       <c r="D148" s="172"/>
       <c r="E148" s="109"/>
       <c r="F148" s="173" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G148" s="172"/>
       <c r="H148" s="172"/>
@@ -6976,10 +7021,10 @@
       <c r="F150" s="175"/>
       <c r="G150" s="109"/>
       <c r="H150" s="175" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I150" s="175" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J150" s="175"/>
       <c r="K150" s="172"/>
@@ -7003,7 +7048,7 @@
       <c r="D151" s="175"/>
       <c r="E151" s="109"/>
       <c r="F151" s="175" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G151" s="109"/>
       <c r="H151" s="175">
@@ -7034,7 +7079,7 @@
       <c r="D152" s="175"/>
       <c r="E152" s="109"/>
       <c r="F152" s="175" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G152" s="109"/>
       <c r="H152" s="175">
@@ -7067,10 +7112,10 @@
       <c r="F153" s="175"/>
       <c r="G153" s="109"/>
       <c r="H153" s="175" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I153" s="175" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J153" s="175"/>
       <c r="K153" s="172"/>
@@ -7094,7 +7139,7 @@
       <c r="D154" s="175"/>
       <c r="E154" s="109"/>
       <c r="F154" s="175" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G154" s="109"/>
       <c r="H154" s="175">
@@ -7127,7 +7172,7 @@
       <c r="D155" s="175"/>
       <c r="E155" s="109"/>
       <c r="F155" s="175" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G155" s="109"/>
       <c r="H155" s="175">
@@ -7169,7 +7214,7 @@
       </c>
       <c r="J156" s="175"/>
       <c r="K156" s="172" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L156" s="172"/>
       <c r="M156" s="172"/>
@@ -7191,7 +7236,7 @@
       <c r="D157" s="175"/>
       <c r="E157" s="109"/>
       <c r="F157" s="175" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G157" s="109"/>
       <c r="H157" s="183">
@@ -7227,7 +7272,7 @@
       <c r="D158" s="175"/>
       <c r="E158" s="109"/>
       <c r="F158" s="175" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G158" s="109"/>
       <c r="H158" s="183">
@@ -7291,7 +7336,7 @@
       <c r="D160" s="175"/>
       <c r="E160" s="109"/>
       <c r="F160" s="180" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G160" s="109"/>
       <c r="H160" s="183">
@@ -7927,7 +7972,7 @@
     <row r="185" spans="1:25" customFormat="1" ht="16">
       <c r="B185" s="110"/>
       <c r="C185" s="172" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D185" s="172"/>
       <c r="E185" s="109"/>
@@ -7957,7 +8002,7 @@
       <c r="D186" s="172"/>
       <c r="E186" s="109"/>
       <c r="F186" s="172" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G186" s="172"/>
       <c r="H186" s="172"/>
@@ -8010,7 +8055,7 @@
       <c r="B188" s="110"/>
       <c r="C188" s="172"/>
       <c r="D188" s="172" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E188" s="109"/>
       <c r="F188" s="172"/>
@@ -8039,10 +8084,13 @@
       <c r="D189" s="172"/>
       <c r="E189" s="109"/>
       <c r="F189" s="184" t="s">
-        <v>108</v>
+        <v>106</v>
+      </c>
+      <c r="G189">
+        <v>17.600000000000001</v>
       </c>
       <c r="H189" s="172" t="s">
-        <v>131</v>
+        <v>165</v>
       </c>
       <c r="I189" s="172"/>
       <c r="J189" s="172"/>
@@ -8068,7 +8116,7 @@
       <c r="E190" s="109"/>
       <c r="F190" s="172"/>
       <c r="H190" s="172" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="I190" s="172"/>
       <c r="J190" s="172"/>
@@ -8097,7 +8145,7 @@
         <v>50</v>
       </c>
       <c r="H191" s="175" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I191" s="175"/>
       <c r="J191" s="175"/>
@@ -8126,7 +8174,7 @@
         <v>200</v>
       </c>
       <c r="H192" s="175" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I192" s="175"/>
       <c r="J192" s="175"/>
@@ -8152,10 +8200,10 @@
       <c r="E193" s="109"/>
       <c r="F193" s="175"/>
       <c r="G193" s="175" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H193" s="175" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I193" s="175"/>
       <c r="J193" s="175"/>
@@ -8181,12 +8229,12 @@
       <c r="E194" s="109"/>
       <c r="F194" s="175"/>
       <c r="G194" s="175" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H194" s="175"/>
       <c r="I194" s="175"/>
       <c r="J194" s="175" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K194" s="172"/>
       <c r="L194" s="172"/>
@@ -8209,7 +8257,7 @@
       <c r="D195" s="175"/>
       <c r="E195" s="109"/>
       <c r="F195" s="175" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G195" s="175">
         <f>50/17500</f>
@@ -8242,7 +8290,7 @@
       <c r="D196" s="175"/>
       <c r="E196" s="109"/>
       <c r="F196" s="175" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G196" s="175">
         <f>200/17500</f>
@@ -8274,7 +8322,7 @@
       <c r="D197" s="175"/>
       <c r="E197" s="175"/>
       <c r="F197" s="175" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G197" s="175">
         <f>170/17500</f>
@@ -9228,7 +9276,7 @@
       <c r="F235" s="109"/>
       <c r="G235" s="172">
         <f>J258</f>
-        <v>7.7142857142857143E-3</v>
+        <v>7.6704545454545454E-3</v>
       </c>
       <c r="H235" s="175" t="s">
         <v>97</v>
@@ -9260,7 +9308,7 @@
       <c r="F236" s="109"/>
       <c r="G236" s="172">
         <f>N258</f>
-        <v>1.2571428571428572E-2</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="H236" s="175" t="s">
         <v>97</v>
@@ -9742,18 +9790,18 @@
       <c r="H255" s="172"/>
       <c r="I255" s="175"/>
       <c r="J255" s="175" t="s">
+        <v>166</v>
+      </c>
+      <c r="K255" s="175" t="s">
         <v>99</v>
-      </c>
-      <c r="K255" s="175" t="s">
-        <v>100</v>
       </c>
       <c r="L255" s="175"/>
       <c r="M255" s="175"/>
       <c r="N255" s="175" t="s">
-        <v>101</v>
+        <v>167</v>
       </c>
       <c r="O255" s="175" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="P255" s="172"/>
       <c r="Q255" s="172"/>
@@ -9778,7 +9826,7 @@
         <v>135</v>
       </c>
       <c r="K256" s="175" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L256" s="175"/>
       <c r="M256" s="175"/>
@@ -9786,7 +9834,7 @@
         <v>220</v>
       </c>
       <c r="O256" s="175" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="P256" s="172"/>
       <c r="Q256" s="172"/>
@@ -9808,20 +9856,20 @@
       <c r="H257" s="172"/>
       <c r="I257" s="175"/>
       <c r="J257" s="175">
-        <f>17.5*1000</f>
-        <v>17500</v>
+        <f>17.6*1000</f>
+        <v>17600</v>
       </c>
       <c r="K257" s="175" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L257" s="175"/>
       <c r="M257" s="175"/>
       <c r="N257" s="175">
-        <f xml:space="preserve"> 17500</f>
-        <v>17500</v>
+        <f xml:space="preserve"> 17.6 *1000</f>
+        <v>17600</v>
       </c>
       <c r="O257" s="175" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P257" s="172"/>
       <c r="Q257" s="172"/>
@@ -9844,19 +9892,19 @@
       <c r="I258" s="175"/>
       <c r="J258" s="175">
         <f>J256/J257</f>
-        <v>7.7142857142857143E-3</v>
+        <v>7.6704545454545454E-3</v>
       </c>
       <c r="K258" s="175" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L258" s="175"/>
       <c r="M258" s="175"/>
       <c r="N258" s="175">
         <f>N256/N257</f>
-        <v>1.2571428571428572E-2</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="O258" s="175" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="P258" s="172"/>
       <c r="Q258" s="172"/>
@@ -9928,7 +9976,7 @@
       <c r="H261" s="172"/>
       <c r="I261" s="175"/>
       <c r="J261" s="175" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K261" s="177">
         <v>0.40100000000000002</v>
@@ -10123,13 +10171,13 @@
     <row r="274" spans="2:10" s="139" customFormat="1">
       <c r="B274" s="110"/>
       <c r="F274" s="180" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H274" s="139">
         <v>10</v>
       </c>
       <c r="I274" s="180" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="275" spans="2:10" s="139" customFormat="1">
@@ -10139,7 +10187,7 @@
         <v>185000</v>
       </c>
       <c r="I275" s="180" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="276" spans="2:10" s="139" customFormat="1">
@@ -10152,7 +10200,7 @@
         <v>56</v>
       </c>
       <c r="J276" s="180" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="277" spans="2:10" s="139" customFormat="1">
@@ -10165,7 +10213,7 @@
         <v>56</v>
       </c>
       <c r="J277" s="180" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="278" spans="2:10" s="139" customFormat="1">
@@ -11039,29 +11087,29 @@
     <row r="380" spans="1:25" ht="16">
       <c r="B380" s="110"/>
       <c r="C380" s="187" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F380" s="189">
         <v>139.09</v>
       </c>
       <c r="G380" s="172" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H380" s="190" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="I380" s="191">
         <v>41327</v>
       </c>
       <c r="J380" s="192" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="381" spans="1:25">
       <c r="B381" s="110"/>
       <c r="F381" s="205">
         <f>'Research data'!G8</f>
-        <v>18.100000000000001</v>
+        <v>18</v>
       </c>
       <c r="G381" s="172" t="s">
         <v>53</v>
@@ -11072,17 +11120,17 @@
       <c r="B382" s="110"/>
       <c r="F382" s="109">
         <f>F381*1000</f>
-        <v>18100</v>
+        <v>18000</v>
       </c>
       <c r="G382" s="204" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="383" spans="1:25">
       <c r="B383" s="110"/>
       <c r="F383" s="206">
         <f>F380/F382</f>
-        <v>7.6845303867403318E-3</v>
+        <v>7.7272222222222221E-3</v>
       </c>
     </row>
     <row r="384" spans="1:25">

--- a/carriers_source_analyses/wood_pellets.carrier.xlsx
+++ b/carriers_source_analyses/wood_pellets.carrier.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="23460" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16100" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="180">
   <si>
     <t>Source</t>
   </si>
@@ -260,12 +260,6 @@
     <t>Fuel Chain Emission attributes</t>
   </si>
   <si>
-    <t>kg CO2/MJ</t>
-  </si>
-  <si>
-    <t>Co2 emission factor</t>
-  </si>
-  <si>
     <t>2011</t>
   </si>
   <si>
@@ -562,6 +556,64 @@
   </si>
   <si>
     <t>Sikkema</t>
+  </si>
+  <si>
+    <t>CO2 emission from biomass is defined as 0</t>
+  </si>
+  <si>
+    <t>Actual CO2 emission from biomass</t>
+  </si>
+  <si>
+    <t>potential_co2_conversion_per_mj</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>potential_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>co2_conversion_per_mj</t>
+    </r>
+  </si>
+  <si>
+    <t>Quintel</t>
+  </si>
+  <si>
+    <t>Quintel definition</t>
+  </si>
+  <si>
+    <t>IPCC</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>http://refman.et-model.com/publications/1710</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IPCC_2006_Guidelines for National Greenhouse Gas Inventories - Vol 2 Energy - Ch 1 Introduction.pdf</t>
+  </si>
+  <si>
+    <t>kg CO2/TJ</t>
+  </si>
+  <si>
+    <t>TJ/MJ</t>
+  </si>
+  <si>
+    <t>wood</t>
   </si>
 </sst>
 </file>
@@ -582,12 +634,33 @@
     <numFmt numFmtId="174" formatCode="#,##0.0000000000"/>
     <numFmt numFmtId="175" formatCode="0.0000000000000000"/>
   </numFmts>
-  <fonts count="43" x14ac:knownFonts="1">
+  <fonts count="52" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -857,6 +930,39 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF474747"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Lettertype hoofdtekst"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="14">
@@ -1332,758 +1438,802 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="400">
+  <cellStyleXfs count="412">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="224">
+  <cellXfs count="248">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="20" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="23" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="26" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="28" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="183" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="183" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="19" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="22" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="14" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="183" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="183" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="33" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="33" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="33" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="36" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="36" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="36" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="4" fontId="33" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="33" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="33" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="36" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="36" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="36" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="33" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="33" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="36" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="36" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="33" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="33" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="33" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="36" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="36" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="36" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="183" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="183" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="17" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="40" fillId="13" borderId="0" xfId="396" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="40" fillId="13" borderId="0" xfId="396" applyFill="1"/>
-    <xf numFmtId="14" fontId="40" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="183" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="166" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="17" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="43" fillId="13" borderId="0" xfId="396" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="43" fillId="13" borderId="0" xfId="396" applyFill="1"/>
+    <xf numFmtId="14" fontId="43" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" xfId="183" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="173" fontId="11" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="173" fontId="14" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="174" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="22" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="46" fillId="4" borderId="0" xfId="183" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="47" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="47" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="47" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="400">
+  <cellStyles count="412">
     <cellStyle name="Excel Built-in Normal" xfId="396"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -2394,6 +2544,18 @@
     <cellStyle name="Followed Hyperlink" xfId="397" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="398" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="399" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="400" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="401" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="402" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="403" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="404" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="405" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="406" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="407" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="408" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="409" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="410" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="411" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -3305,6 +3467,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>392</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>433</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7086600" y="81026000"/>
+          <a:ext cx="9779000" cy="8293100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3427,6 +3627,7 @@
     <sheetNames>
       <sheetName val="Cover sheet"/>
       <sheetName val="Dashboard"/>
+      <sheetName val="carrier_manager.xlsm"/>
     </sheetNames>
     <definedNames>
       <definedName name="update_attributes"/>
@@ -3435,6 +3636,7 @@
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3796,10 +3998,10 @@
     <row r="4" spans="1:4">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3970,9 +4172,11 @@
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:K15"/>
+  <dimension ref="B1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -3996,28 +4200,28 @@
       <c r="G1" s="35"/>
     </row>
     <row r="2" spans="2:11" ht="15" customHeight="1">
-      <c r="B2" s="212" t="s">
-        <v>159</v>
-      </c>
-      <c r="C2" s="213"/>
-      <c r="D2" s="213"/>
-      <c r="E2" s="214"/>
+      <c r="B2" s="234" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="235"/>
+      <c r="D2" s="235"/>
+      <c r="E2" s="236"/>
       <c r="F2" s="35"/>
       <c r="G2" s="35"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="215"/>
-      <c r="C3" s="216"/>
-      <c r="D3" s="216"/>
-      <c r="E3" s="217"/>
+      <c r="B3" s="237"/>
+      <c r="C3" s="238"/>
+      <c r="D3" s="238"/>
+      <c r="E3" s="239"/>
       <c r="F3" s="35"/>
       <c r="G3" s="35"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="218"/>
-      <c r="C4" s="219"/>
-      <c r="D4" s="219"/>
-      <c r="E4" s="220"/>
+      <c r="B4" s="240"/>
+      <c r="C4" s="241"/>
+      <c r="D4" s="241"/>
+      <c r="E4" s="242"/>
       <c r="F4" s="35"/>
       <c r="G4" s="35"/>
     </row>
@@ -4070,7 +4274,7 @@
     <row r="9" spans="2:11" s="44" customFormat="1" ht="19" thickBot="1">
       <c r="B9" s="25"/>
       <c r="C9" s="20" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D9" s="33"/>
       <c r="E9" s="20"/>
@@ -4118,14 +4322,14 @@
       <c r="G11" s="114"/>
       <c r="H11" s="32"/>
       <c r="I11" s="198" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J11" s="45"/>
     </row>
     <row r="12" spans="2:11" s="44" customFormat="1" ht="19" thickBot="1">
       <c r="B12" s="25"/>
       <c r="C12" s="114" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D12" s="24" t="s">
         <v>53</v>
@@ -4138,7 +4342,7 @@
       <c r="G12" s="114"/>
       <c r="H12" s="32"/>
       <c r="I12" s="198" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J12" s="45"/>
     </row>
@@ -4155,45 +4359,69 @@
         <v>0</v>
       </c>
       <c r="F13" s="36"/>
-      <c r="G13" s="114"/>
+      <c r="G13" s="212" t="s">
+        <v>167</v>
+      </c>
       <c r="H13" s="32"/>
       <c r="I13" s="198" t="s">
         <v>51</v>
       </c>
       <c r="J13" s="45"/>
     </row>
-    <row r="14" spans="2:11" ht="16" thickBot="1">
-      <c r="B14" s="40"/>
-      <c r="C14" s="36" t="s">
+    <row r="14" spans="2:11" s="44" customFormat="1" ht="19" thickBot="1">
+      <c r="B14" s="25"/>
+      <c r="C14" s="212" t="s">
+        <v>169</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="193">
+        <f>'Research data'!G10</f>
+        <v>0.112</v>
+      </c>
+      <c r="F14" s="36"/>
+      <c r="G14" s="212" t="s">
+        <v>168</v>
+      </c>
+      <c r="H14" s="32"/>
+      <c r="I14" s="247" t="s">
+        <v>173</v>
+      </c>
+      <c r="J14" s="45"/>
+    </row>
+    <row r="15" spans="2:11" ht="16" thickBot="1">
+      <c r="B15" s="40"/>
+      <c r="C15" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D15" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="185">
-        <f>'Research data'!G10</f>
+      <c r="E15" s="185">
+        <f>'Research data'!G11</f>
         <v>16095000</v>
       </c>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="134" t="str">
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="134" t="str">
         <f>I13</f>
         <v>http://refman.et-model.com/publications/1623</v>
       </c>
-      <c r="J14" s="102"/>
-      <c r="K14" s="35"/>
-    </row>
-    <row r="15" spans="2:11" ht="20" customHeight="1" thickBot="1">
-      <c r="B15" s="41"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="43"/>
+      <c r="J15" s="102"/>
+      <c r="K15" s="35"/>
+    </row>
+    <row r="16" spans="2:11" ht="20" customHeight="1" thickBot="1">
+      <c r="B16" s="41"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4295,28 +4523,28 @@
       <c r="G1" s="35"/>
     </row>
     <row r="2" spans="2:10" ht="15" customHeight="1">
-      <c r="B2" s="212" t="s">
-        <v>160</v>
-      </c>
-      <c r="C2" s="213"/>
-      <c r="D2" s="213"/>
-      <c r="E2" s="214"/>
+      <c r="B2" s="234" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="235"/>
+      <c r="D2" s="235"/>
+      <c r="E2" s="236"/>
       <c r="F2" s="35"/>
       <c r="G2" s="35"/>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="215"/>
-      <c r="C3" s="216"/>
-      <c r="D3" s="216"/>
-      <c r="E3" s="217"/>
+      <c r="B3" s="237"/>
+      <c r="C3" s="238"/>
+      <c r="D3" s="238"/>
+      <c r="E3" s="239"/>
       <c r="F3" s="35"/>
       <c r="G3" s="35"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="221"/>
-      <c r="C4" s="222"/>
-      <c r="D4" s="222"/>
-      <c r="E4" s="223"/>
+      <c r="B4" s="243"/>
+      <c r="C4" s="244"/>
+      <c r="D4" s="244"/>
+      <c r="E4" s="245"/>
       <c r="F4" s="35"/>
       <c r="G4" s="35"/>
     </row>
@@ -4393,7 +4621,7 @@
     <row r="11" spans="2:10" ht="16" thickBot="1">
       <c r="B11" s="40"/>
       <c r="C11" s="209" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D11" s="114"/>
       <c r="E11" s="114"/>
@@ -4412,7 +4640,7 @@
         <v>49</v>
       </c>
       <c r="E12" s="138">
-        <f>'Research data'!G13</f>
+        <f>'Research data'!G14</f>
         <v>0</v>
       </c>
       <c r="F12" s="36"/>
@@ -4434,7 +4662,7 @@
         <v>49</v>
       </c>
       <c r="E13" s="138">
-        <f>'Research data'!G14</f>
+        <f>'Research data'!G15</f>
         <v>1.1470417155166664E-3</v>
       </c>
       <c r="F13" s="36"/>
@@ -4456,7 +4684,7 @@
         <v>49</v>
       </c>
       <c r="E14" s="138">
-        <f>'Research data'!G15</f>
+        <f>'Research data'!G16</f>
         <v>0</v>
       </c>
       <c r="F14" s="36"/>
@@ -4478,7 +4706,7 @@
         <v>49</v>
       </c>
       <c r="E15" s="138">
-        <f>'Research data'!G16</f>
+        <f>'Research data'!G17</f>
         <v>8.0811981354912427E-3</v>
       </c>
       <c r="F15" s="36"/>
@@ -4500,7 +4728,7 @@
         <v>49</v>
       </c>
       <c r="E16" s="138">
-        <f>'Research data'!G17</f>
+        <f>'Research data'!G18</f>
         <v>0</v>
       </c>
       <c r="F16" s="36"/>
@@ -4522,7 +4750,7 @@
         <v>49</v>
       </c>
       <c r="E17" s="138">
-        <f>'Research data'!G18</f>
+        <f>'Research data'!G19</f>
         <v>0</v>
       </c>
       <c r="F17" s="36"/>
@@ -4538,7 +4766,7 @@
     <row r="18" spans="2:10" ht="16" thickBot="1">
       <c r="B18" s="40"/>
       <c r="C18" s="210" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D18" s="24" t="s">
         <v>1</v>
@@ -4585,10 +4813,10 @@
   <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B1:U18"/>
+  <dimension ref="B1:W23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4612,13 +4840,14 @@
     <col min="17" max="17" width="8.5" style="66" customWidth="1"/>
     <col min="18" max="18" width="2.75" style="66" customWidth="1"/>
     <col min="19" max="19" width="9.625" style="66" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="2.75" style="66" customWidth="1"/>
-    <col min="21" max="21" width="60" style="65" customWidth="1"/>
-    <col min="22" max="16384" width="10.625" style="65"/>
+    <col min="20" max="21" width="9.625" style="66" customWidth="1"/>
+    <col min="22" max="22" width="2.75" style="66" customWidth="1"/>
+    <col min="23" max="23" width="60" style="65" customWidth="1"/>
+    <col min="24" max="16384" width="10.625" style="65"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="16" thickBot="1"/>
-    <row r="2" spans="2:21">
+    <row r="1" spans="2:23" ht="16" thickBot="1"/>
+    <row r="2" spans="2:23">
       <c r="B2" s="67"/>
       <c r="C2" s="68"/>
       <c r="D2" s="68"/>
@@ -4638,9 +4867,11 @@
       <c r="R2" s="69"/>
       <c r="S2" s="69"/>
       <c r="T2" s="69"/>
-      <c r="U2" s="70"/>
-    </row>
-    <row r="3" spans="2:21" s="26" customFormat="1">
+      <c r="U2" s="69"/>
+      <c r="V2" s="69"/>
+      <c r="W2" s="70"/>
+    </row>
+    <row r="3" spans="2:23" s="26" customFormat="1">
       <c r="B3" s="25"/>
       <c r="C3" s="106" t="s">
         <v>30</v>
@@ -4655,34 +4886,40 @@
       </c>
       <c r="H3" s="106"/>
       <c r="I3" s="64" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J3" s="64"/>
       <c r="K3" s="64" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L3" s="64"/>
       <c r="M3" s="64" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N3" s="64"/>
       <c r="O3" s="64" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="P3" s="64"/>
       <c r="Q3" s="64" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="R3" s="64"/>
       <c r="S3" s="64" t="s">
-        <v>149</v>
-      </c>
-      <c r="T3" s="64"/>
-      <c r="U3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="T3" s="64" t="s">
+        <v>171</v>
+      </c>
+      <c r="U3" s="64" t="s">
+        <v>173</v>
+      </c>
+      <c r="V3" s="64"/>
+      <c r="W3" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:21">
+    <row r="4" spans="2:23">
       <c r="B4" s="71"/>
       <c r="C4" s="72"/>
       <c r="D4" s="72"/>
@@ -4701,10 +4938,12 @@
       <c r="Q4" s="103"/>
       <c r="R4" s="105"/>
       <c r="S4" s="103"/>
-      <c r="T4" s="105"/>
-      <c r="U4" s="2"/>
-    </row>
-    <row r="5" spans="2:21" ht="16" thickBot="1">
+      <c r="T4" s="103"/>
+      <c r="U4" s="103"/>
+      <c r="V4" s="105"/>
+      <c r="W4" s="2"/>
+    </row>
+    <row r="5" spans="2:23" ht="16" thickBot="1">
       <c r="B5" s="71"/>
       <c r="C5" s="20" t="s">
         <v>55</v>
@@ -4726,9 +4965,11 @@
       <c r="R5" s="16"/>
       <c r="S5" s="16"/>
       <c r="T5" s="16"/>
-      <c r="U5" s="3"/>
-    </row>
-    <row r="6" spans="2:21" ht="16" thickBot="1">
+      <c r="U5" s="16"/>
+      <c r="V5" s="16"/>
+      <c r="W5" s="3"/>
+    </row>
+    <row r="6" spans="2:23" ht="16" thickBot="1">
       <c r="B6" s="71"/>
       <c r="C6" s="118" t="s">
         <v>38</v>
@@ -4758,9 +4999,11 @@
       <c r="R6" s="16"/>
       <c r="S6" s="16"/>
       <c r="T6" s="16"/>
-      <c r="U6" s="3"/>
-    </row>
-    <row r="7" spans="2:21" s="6" customFormat="1" ht="16" thickBot="1">
+      <c r="U6" s="16"/>
+      <c r="V6" s="16"/>
+      <c r="W6" s="3"/>
+    </row>
+    <row r="7" spans="2:23" s="6" customFormat="1" ht="16" thickBot="1">
       <c r="B7" s="5"/>
       <c r="C7" s="119" t="s">
         <v>39</v>
@@ -4793,15 +5036,17 @@
         <f>Notes!F383</f>
         <v>7.7272222222222221E-3</v>
       </c>
-      <c r="T7" s="16"/>
-      <c r="U7" s="186" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="8" spans="2:21" s="6" customFormat="1" ht="16" thickBot="1">
+      <c r="T7" s="214"/>
+      <c r="U7" s="214"/>
+      <c r="V7" s="16"/>
+      <c r="W7" s="186" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="2:23" s="6" customFormat="1" ht="16" thickBot="1">
       <c r="B8" s="5"/>
       <c r="C8" s="119" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D8" s="119" t="s">
         <v>52</v>
@@ -4841,9 +5086,11 @@
       <c r="R8" s="16"/>
       <c r="S8" s="16"/>
       <c r="T8" s="16"/>
-      <c r="U8" s="3"/>
-    </row>
-    <row r="9" spans="2:21" s="6" customFormat="1" ht="16" thickBot="1">
+      <c r="U8" s="16"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="3"/>
+    </row>
+    <row r="9" spans="2:23" s="6" customFormat="1" ht="16" thickBot="1">
       <c r="B9" s="5"/>
       <c r="C9" s="120" t="s">
         <v>40</v>
@@ -4862,10 +5109,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="4"/>
-      <c r="I9" s="108">
-        <f>Notes!F12</f>
-        <v>0</v>
-      </c>
+      <c r="I9" s="18"/>
       <c r="J9" s="18"/>
       <c r="K9" s="18"/>
       <c r="L9" s="18"/>
@@ -4876,84 +5120,99 @@
       <c r="Q9" s="16"/>
       <c r="R9" s="16"/>
       <c r="S9" s="16"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="3"/>
-    </row>
-    <row r="10" spans="2:21" ht="16" thickBot="1">
-      <c r="B10" s="71"/>
-      <c r="C10" s="120" t="s">
+      <c r="T9" s="216">
+        <v>0</v>
+      </c>
+      <c r="U9" s="16"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="215" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" s="6" customFormat="1" ht="16" thickBot="1">
+      <c r="B10" s="5"/>
+      <c r="C10" s="213" t="s">
+        <v>170</v>
+      </c>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
+      <c r="F10" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="108">
+        <f>U10</f>
+        <v>0.112</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="108">
+        <f>Notes!G414</f>
+        <v>0.112</v>
+      </c>
+      <c r="V10" s="16"/>
+      <c r="W10" s="3"/>
+    </row>
+    <row r="11" spans="2:23" ht="16" thickBot="1">
+      <c r="B11" s="71"/>
+      <c r="C11" s="120" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="120" t="s">
+      <c r="D11" s="120" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="120" t="s">
+      <c r="E11" s="120" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F11" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="G10" s="185">
-        <f>K10</f>
+      <c r="G11" s="185">
+        <f>K11</f>
         <v>16095000</v>
       </c>
-      <c r="H10" s="78"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="185">
+      <c r="H11" s="78"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="185">
         <f>Notes!H277</f>
         <v>16095000</v>
       </c>
-      <c r="L10" s="18"/>
-      <c r="M10" s="185">
+      <c r="L11" s="18"/>
+      <c r="M11" s="185">
         <f>Notes!H126</f>
         <v>33304320</v>
       </c>
-      <c r="N10" s="18"/>
-      <c r="O10" s="185">
+      <c r="N11" s="18"/>
+      <c r="O11" s="185">
         <f>Notes!H160</f>
         <v>18879000</v>
       </c>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="211"/>
-      <c r="R10" s="16"/>
-      <c r="T10" s="16"/>
-      <c r="U10" s="186" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="11" spans="2:21">
-      <c r="B11" s="71"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="16"/>
       <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
+      <c r="Q11" s="211"/>
       <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="126"/>
-    </row>
-    <row r="12" spans="2:21" ht="16" thickBot="1">
+      <c r="V11" s="16"/>
+      <c r="W11" s="186" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23">
       <c r="B12" s="71"/>
-      <c r="C12" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="99"/>
-      <c r="G12" s="99"/>
-      <c r="H12" s="77"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
       <c r="K12" s="18"/>
@@ -4966,96 +5225,92 @@
       <c r="R12" s="16"/>
       <c r="S12" s="16"/>
       <c r="T12" s="16"/>
-      <c r="U12" s="126"/>
-    </row>
-    <row r="13" spans="2:21" ht="16" thickBot="1">
+      <c r="U12" s="16"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="126"/>
+    </row>
+    <row r="13" spans="2:23" ht="16" thickBot="1">
       <c r="B13" s="71"/>
-      <c r="C13" s="121" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="80"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="G13" s="137">
-        <f>K13</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="78"/>
+      <c r="C13" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="77"/>
       <c r="I13" s="18"/>
       <c r="J13" s="18"/>
-      <c r="K13" s="130">
-        <f>Notes!J346</f>
-        <v>0</v>
-      </c>
+      <c r="K13" s="18"/>
       <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
+      <c r="M13" s="16"/>
       <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="75"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="75"/>
-      <c r="S13" s="18"/>
-      <c r="T13" s="75"/>
-      <c r="U13" s="136" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" spans="2:21" ht="16" thickBot="1">
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="126"/>
+    </row>
+    <row r="14" spans="2:23" ht="16" thickBot="1">
       <c r="B14" s="71"/>
       <c r="C14" s="121" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
+        <v>44</v>
+      </c>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
       <c r="F14" s="24" t="s">
         <v>49</v>
       </c>
       <c r="G14" s="137">
-        <f t="shared" ref="G14:G18" si="0">K14</f>
-        <v>1.1470417155166664E-3</v>
-      </c>
-      <c r="H14" s="18"/>
+        <f>K14</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="78"/>
       <c r="I14" s="18"/>
       <c r="J14" s="18"/>
       <c r="K14" s="130">
-        <f>Notes!J347</f>
-        <v>1.1470417155166664E-3</v>
+        <f>Notes!J346</f>
+        <v>0</v>
       </c>
       <c r="L14" s="18"/>
       <c r="M14" s="18"/>
       <c r="N14" s="18"/>
       <c r="O14" s="18"/>
-      <c r="P14" s="6"/>
+      <c r="P14" s="75"/>
       <c r="Q14" s="18"/>
-      <c r="R14" s="6"/>
+      <c r="R14" s="75"/>
       <c r="S14" s="18"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="136" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15" spans="2:21" ht="16" thickBot="1">
+      <c r="T14" s="18"/>
+      <c r="U14" s="18"/>
+      <c r="V14" s="75"/>
+      <c r="W14" s="136" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" ht="16" thickBot="1">
       <c r="B15" s="71"/>
       <c r="C15" s="121" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
+        <v>45</v>
+      </c>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
       <c r="F15" s="24" t="s">
         <v>49</v>
       </c>
       <c r="G15" s="137">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="G15:G19" si="0">K15</f>
+        <v>1.1470417155166664E-3</v>
       </c>
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
       <c r="J15" s="18"/>
       <c r="K15" s="130">
-        <f>Notes!J348</f>
-        <v>0</v>
+        <f>Notes!J347</f>
+        <v>1.1470417155166664E-3</v>
       </c>
       <c r="L15" s="18"/>
       <c r="M15" s="18"/>
@@ -5065,15 +5320,17 @@
       <c r="Q15" s="18"/>
       <c r="R15" s="6"/>
       <c r="S15" s="18"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="136" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="2:21" ht="16" thickBot="1">
+      <c r="T15" s="18"/>
+      <c r="U15" s="18"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="136" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23" ht="16" thickBot="1">
       <c r="B16" s="71"/>
       <c r="C16" s="121" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
@@ -5082,14 +5339,14 @@
       </c>
       <c r="G16" s="137">
         <f t="shared" si="0"/>
-        <v>8.0811981354912427E-3</v>
+        <v>0</v>
       </c>
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
       <c r="J16" s="18"/>
       <c r="K16" s="130">
-        <f>Notes!J349</f>
-        <v>8.0811981354912427E-3</v>
+        <f>Notes!J348</f>
+        <v>0</v>
       </c>
       <c r="L16" s="18"/>
       <c r="M16" s="18"/>
@@ -5099,52 +5356,56 @@
       <c r="Q16" s="18"/>
       <c r="R16" s="6"/>
       <c r="S16" s="18"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="136" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="2:21" ht="16" thickBot="1">
+      <c r="T16" s="18"/>
+      <c r="U16" s="18"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="136" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" ht="16" thickBot="1">
       <c r="B17" s="71"/>
       <c r="C17" s="121" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="81"/>
-      <c r="E17" s="81"/>
+        <v>47</v>
+      </c>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
       <c r="F17" s="24" t="s">
         <v>49</v>
       </c>
       <c r="G17" s="137">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="78"/>
+        <v>8.0811981354912427E-3</v>
+      </c>
+      <c r="H17" s="18"/>
       <c r="I17" s="18"/>
       <c r="J17" s="18"/>
       <c r="K17" s="130">
-        <f>Notes!J350</f>
-        <v>0</v>
+        <f>Notes!J349</f>
+        <v>8.0811981354912427E-3</v>
       </c>
       <c r="L17" s="18"/>
       <c r="M17" s="18"/>
       <c r="N17" s="18"/>
       <c r="O17" s="18"/>
-      <c r="P17" s="75"/>
+      <c r="P17" s="6"/>
       <c r="Q17" s="18"/>
-      <c r="R17" s="75"/>
+      <c r="R17" s="6"/>
       <c r="S17" s="18"/>
-      <c r="T17" s="75"/>
-      <c r="U17" s="136" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="2:21" ht="16" thickBot="1">
+      <c r="T17" s="18"/>
+      <c r="U17" s="18"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="136" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" ht="16" thickBot="1">
       <c r="B18" s="71"/>
       <c r="C18" s="121" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
+        <v>40</v>
+      </c>
+      <c r="D18" s="81"/>
+      <c r="E18" s="81"/>
       <c r="F18" s="24" t="s">
         <v>49</v>
       </c>
@@ -5152,11 +5413,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H18" s="18"/>
+      <c r="H18" s="78"/>
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
       <c r="K18" s="130">
-        <f>Notes!J351</f>
+        <f>Notes!J350</f>
         <v>0</v>
       </c>
       <c r="L18" s="18"/>
@@ -5167,10 +5428,57 @@
       <c r="Q18" s="18"/>
       <c r="R18" s="75"/>
       <c r="S18" s="18"/>
-      <c r="T18" s="75"/>
-      <c r="U18" s="136" t="s">
-        <v>88</v>
-      </c>
+      <c r="T18" s="18"/>
+      <c r="U18" s="18"/>
+      <c r="V18" s="75"/>
+      <c r="W18" s="136" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" ht="16" thickBot="1">
+      <c r="B19" s="71"/>
+      <c r="C19" s="121" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" s="137">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="130">
+        <f>Notes!J351</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="75"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="75"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="18"/>
+      <c r="V19" s="75"/>
+      <c r="W19" s="136" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23" ht="16" thickBot="1"/>
+    <row r="23" spans="2:23" ht="16" thickBot="1">
+      <c r="D23" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="193"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="212"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5188,9 +5496,11 @@
   <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="B1:L28"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -5207,8 +5517,8 @@
     <col min="13" max="16384" width="33.125" style="48"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="16" thickBot="1"/>
-    <row r="2" spans="2:12">
+    <row r="1" spans="1:12" ht="16" thickBot="1"/>
+    <row r="2" spans="1:12">
       <c r="B2" s="50"/>
       <c r="C2" s="51"/>
       <c r="D2" s="51"/>
@@ -5221,7 +5531,7 @@
       <c r="K2" s="52"/>
       <c r="L2" s="51"/>
     </row>
-    <row r="3" spans="2:12">
+    <row r="3" spans="1:12">
       <c r="B3" s="53"/>
       <c r="C3" s="54" t="s">
         <v>11</v>
@@ -5236,7 +5546,7 @@
       <c r="K3" s="55"/>
       <c r="L3" s="56"/>
     </row>
-    <row r="4" spans="2:12">
+    <row r="4" spans="1:12">
       <c r="B4" s="53"/>
       <c r="C4" s="56"/>
       <c r="D4" s="56"/>
@@ -5249,7 +5559,7 @@
       <c r="K4" s="57"/>
       <c r="L4" s="56"/>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="1:12">
       <c r="B5" s="58"/>
       <c r="C5" s="59" t="s">
         <v>13</v>
@@ -5278,7 +5588,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="1:12">
       <c r="B6" s="53"/>
       <c r="C6" s="54"/>
       <c r="D6" s="54"/>
@@ -5291,30 +5601,30 @@
       <c r="K6" s="55"/>
       <c r="L6" s="54"/>
     </row>
-    <row r="7" spans="2:12">
+    <row r="7" spans="1:12">
       <c r="B7" s="53"/>
       <c r="C7" s="48" t="s">
         <v>39</v>
       </c>
       <c r="E7" s="187" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H7" s="48">
         <v>2013</v>
       </c>
       <c r="L7" s="49" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="B8" s="53"/>
       <c r="E8" s="187"/>
       <c r="L8" s="49"/>
     </row>
-    <row r="9" spans="2:12">
+    <row r="9" spans="1:12">
       <c r="B9" s="53"/>
       <c r="C9" s="132" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D9" s="61"/>
       <c r="E9" s="131" t="s">
@@ -5327,25 +5637,25 @@
         <v>64</v>
       </c>
       <c r="H9" s="194" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I9" s="194" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J9" s="57"/>
       <c r="K9" s="57" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L9" s="62"/>
     </row>
-    <row r="10" spans="2:12">
+    <row r="10" spans="1:12">
       <c r="B10" s="53"/>
       <c r="E10" s="129"/>
       <c r="F10" s="129"/>
       <c r="H10" s="195"/>
       <c r="I10" s="195"/>
     </row>
-    <row r="11" spans="2:12">
+    <row r="11" spans="1:12">
       <c r="B11" s="53"/>
       <c r="C11" s="133" t="s">
         <v>40</v>
@@ -5368,106 +5678,127 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="2:12">
-      <c r="B12" s="53"/>
-      <c r="C12" s="61" t="s">
+    <row r="12" spans="1:12" s="224" customFormat="1">
+      <c r="A12" s="217"/>
+      <c r="B12" s="218"/>
+      <c r="C12" s="219" t="s">
+        <v>169</v>
+      </c>
+      <c r="D12" s="220"/>
+      <c r="E12" s="219" t="s">
+        <v>173</v>
+      </c>
+      <c r="F12" s="219"/>
+      <c r="G12" s="217" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="221" t="s">
+        <v>174</v>
+      </c>
+      <c r="I12" s="221"/>
+      <c r="J12" s="221"/>
+      <c r="K12" s="223" t="s">
+        <v>175</v>
+      </c>
+      <c r="L12" s="222"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="B13" s="53"/>
+      <c r="C13" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="61"/>
-      <c r="L12" s="62"/>
-    </row>
-    <row r="13" spans="2:12">
-      <c r="B13" s="53"/>
-      <c r="C13" s="197" t="s">
+      <c r="D13" s="61"/>
+      <c r="L13" s="62"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="B14" s="53"/>
+      <c r="C14" s="197" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="2:12">
-      <c r="B14" s="53"/>
-      <c r="C14" s="48" t="s">
+    <row r="15" spans="1:12">
+      <c r="B15" s="53"/>
+      <c r="C15" s="48" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="2:12">
-      <c r="B15" s="53"/>
-    </row>
-    <row r="16" spans="2:12">
+    <row r="16" spans="1:12">
       <c r="B16" s="53"/>
-      <c r="C16" s="132" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" s="139" t="s">
-        <v>94</v>
-      </c>
-      <c r="H16" s="48">
-        <v>2008</v>
-      </c>
-      <c r="K16" s="49" t="s">
-        <v>150</v>
-      </c>
     </row>
     <row r="17" spans="2:11">
       <c r="B17" s="53"/>
-      <c r="C17" s="48" t="s">
-        <v>41</v>
+      <c r="C17" s="132" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="139" t="s">
+        <v>92</v>
+      </c>
+      <c r="H17" s="48">
+        <v>2008</v>
+      </c>
+      <c r="K17" s="49" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="2:11">
       <c r="B18" s="53"/>
+      <c r="C18" s="48" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="19" spans="2:11">
       <c r="B19" s="53"/>
-      <c r="C19" s="132" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" s="48" t="s">
-        <v>119</v>
-      </c>
-      <c r="H19" s="48">
-        <v>2002</v>
-      </c>
-      <c r="K19" s="49" t="s">
-        <v>151</v>
-      </c>
     </row>
     <row r="20" spans="2:11">
       <c r="B20" s="53"/>
-      <c r="C20" s="48" t="s">
-        <v>41</v>
+      <c r="C20" s="132" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="H20" s="48">
+        <v>2002</v>
+      </c>
+      <c r="K20" s="49" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="2:11">
       <c r="B21" s="53"/>
+      <c r="C21" s="48" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="22" spans="2:11">
       <c r="B22" s="53"/>
-      <c r="E22" s="48" t="s">
-        <v>126</v>
-      </c>
-      <c r="H22" s="48">
-        <v>2010</v>
-      </c>
-      <c r="K22" s="49" t="s">
-        <v>153</v>
-      </c>
     </row>
     <row r="23" spans="2:11">
       <c r="B23" s="53"/>
+      <c r="E23" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="H23" s="48">
+        <v>2010</v>
+      </c>
+      <c r="K23" s="49" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="24" spans="2:11">
       <c r="B24" s="53"/>
-      <c r="E24" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="H24" s="48">
-        <v>2010</v>
-      </c>
-      <c r="K24" s="49" t="s">
-        <v>152</v>
-      </c>
     </row>
     <row r="25" spans="2:11">
       <c r="B25" s="53"/>
+      <c r="E25" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="H25" s="48">
+        <v>2010</v>
+      </c>
+      <c r="K25" s="49" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="26" spans="2:11">
       <c r="B26" s="53"/>
@@ -5478,7 +5809,13 @@
     <row r="28" spans="2:11">
       <c r="B28" s="53"/>
     </row>
+    <row r="29" spans="2:11">
+      <c r="B29" s="53"/>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K12" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -5491,10 +5828,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y387"/>
+  <dimension ref="A1:AI449"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
+    <sheetView topLeftCell="A374" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="50" workbookViewId="0">
+      <selection activeCell="I413" sqref="I413"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5503,7 +5840,7 @@
     <col min="2" max="2" width="5" style="109" customWidth="1"/>
     <col min="3" max="5" width="7" style="109"/>
     <col min="6" max="6" width="11.25" style="109" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7" style="109"/>
+    <col min="7" max="7" width="7.125" style="109" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.125" style="109" customWidth="1"/>
     <col min="9" max="9" width="7.75" style="109" customWidth="1"/>
     <col min="10" max="10" width="16.5" style="109" bestFit="1" customWidth="1"/>
@@ -5675,7 +6012,7 @@
         <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F8" s="122"/>
       <c r="G8" s="123"/>
@@ -5793,12 +6130,8 @@
       <c r="D12" s="122"/>
       <c r="E12" s="122"/>
       <c r="F12" s="122"/>
-      <c r="G12" s="122" t="s">
-        <v>68</v>
-      </c>
-      <c r="H12" s="122" t="s">
-        <v>69</v>
-      </c>
+      <c r="G12" s="122"/>
+      <c r="H12" s="122"/>
       <c r="I12" s="122"/>
       <c r="J12" s="122"/>
       <c r="K12" s="122"/>
@@ -6390,7 +6723,7 @@
     <row r="64" spans="1:25" s="139" customFormat="1">
       <c r="B64" s="110"/>
       <c r="C64" s="139" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="65" spans="2:8" s="139" customFormat="1">
@@ -6399,10 +6732,10 @@
     <row r="66" spans="2:8" s="139" customFormat="1">
       <c r="B66" s="110"/>
       <c r="D66" s="172" t="s">
+        <v>103</v>
+      </c>
+      <c r="F66" s="140" t="s">
         <v>105</v>
-      </c>
-      <c r="F66" s="140" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="67" spans="2:8" s="139" customFormat="1">
@@ -6468,7 +6801,7 @@
       <c r="B83" s="110"/>
       <c r="D83"/>
       <c r="F83" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H83">
         <v>16.899999999999999</v>
@@ -6477,7 +6810,7 @@
         <v>53</v>
       </c>
       <c r="J83" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="84" spans="2:10" s="139" customFormat="1" ht="16">
@@ -6491,21 +6824,21 @@
         <v>53</v>
       </c>
       <c r="J84" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="85" spans="2:10" s="139" customFormat="1" ht="16">
       <c r="B85" s="110"/>
       <c r="D85"/>
       <c r="F85" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H85" s="179">
         <v>0.12</v>
       </c>
       <c r="I85"/>
       <c r="J85" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="86" spans="2:10" s="139" customFormat="1" ht="16">
@@ -6517,7 +6850,7 @@
       </c>
       <c r="I86"/>
       <c r="J86" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="87" spans="2:10" s="139" customFormat="1">
@@ -6568,7 +6901,7 @@
     <row r="101" spans="2:9" s="139" customFormat="1" ht="16">
       <c r="B101" s="110"/>
       <c r="F101" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H101">
         <v>17.7</v>
@@ -6598,7 +6931,7 @@
     <row r="108" spans="2:9" s="139" customFormat="1">
       <c r="B108" s="110"/>
       <c r="F108" s="140" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H108" s="178">
         <v>0.84</v>
@@ -6619,7 +6952,7 @@
         <v>1216</v>
       </c>
       <c r="F112" s="140" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="113" spans="2:10" s="139" customFormat="1">
@@ -6661,13 +6994,13 @@
     <row r="121" spans="2:10" s="139" customFormat="1">
       <c r="B121" s="110"/>
       <c r="F121" s="180" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H121" s="139">
         <v>22.4</v>
       </c>
       <c r="I121" s="180" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="122" spans="2:10" s="139" customFormat="1">
@@ -6677,7 +7010,7 @@
         <v>22400</v>
       </c>
       <c r="I122" s="180" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="123" spans="2:10" s="139" customFormat="1">
@@ -6687,7 +7020,7 @@
         <v>2240000</v>
       </c>
       <c r="I123" s="180" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="124" spans="2:10" s="139" customFormat="1">
@@ -6702,20 +7035,20 @@
         <v>39648000</v>
       </c>
       <c r="I125" s="180" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="126" spans="2:10" s="139" customFormat="1">
       <c r="B126" s="110"/>
       <c r="F126" s="180" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H126" s="181">
         <f>H125*H108</f>
         <v>33304320</v>
       </c>
       <c r="I126" s="180" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="127" spans="2:10" s="139" customFormat="1">
@@ -6730,7 +7063,7 @@
         <v>1222</v>
       </c>
       <c r="F129" s="140" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H129" s="172">
         <v>17.7</v>
@@ -6833,7 +7166,7 @@
     <row r="143" spans="1:25" customFormat="1" ht="16">
       <c r="B143" s="110"/>
       <c r="C143" s="182" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D143" s="172"/>
       <c r="E143" s="172"/>
@@ -6865,7 +7198,7 @@
       </c>
       <c r="E144" s="109"/>
       <c r="F144" s="172" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G144" s="172"/>
       <c r="H144" s="172"/>
@@ -6967,7 +7300,7 @@
       <c r="D148" s="172"/>
       <c r="E148" s="109"/>
       <c r="F148" s="173" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G148" s="172"/>
       <c r="H148" s="172"/>
@@ -7021,10 +7354,10 @@
       <c r="F150" s="175"/>
       <c r="G150" s="109"/>
       <c r="H150" s="175" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I150" s="175" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J150" s="175"/>
       <c r="K150" s="172"/>
@@ -7048,7 +7381,7 @@
       <c r="D151" s="175"/>
       <c r="E151" s="109"/>
       <c r="F151" s="175" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G151" s="109"/>
       <c r="H151" s="175">
@@ -7079,7 +7412,7 @@
       <c r="D152" s="175"/>
       <c r="E152" s="109"/>
       <c r="F152" s="175" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G152" s="109"/>
       <c r="H152" s="175">
@@ -7112,10 +7445,10 @@
       <c r="F153" s="175"/>
       <c r="G153" s="109"/>
       <c r="H153" s="175" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I153" s="175" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J153" s="175"/>
       <c r="K153" s="172"/>
@@ -7139,7 +7472,7 @@
       <c r="D154" s="175"/>
       <c r="E154" s="109"/>
       <c r="F154" s="175" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G154" s="109"/>
       <c r="H154" s="175">
@@ -7172,7 +7505,7 @@
       <c r="D155" s="175"/>
       <c r="E155" s="109"/>
       <c r="F155" s="175" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G155" s="109"/>
       <c r="H155" s="175">
@@ -7214,7 +7547,7 @@
       </c>
       <c r="J156" s="175"/>
       <c r="K156" s="172" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L156" s="172"/>
       <c r="M156" s="172"/>
@@ -7236,7 +7569,7 @@
       <c r="D157" s="175"/>
       <c r="E157" s="109"/>
       <c r="F157" s="175" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G157" s="109"/>
       <c r="H157" s="183">
@@ -7272,7 +7605,7 @@
       <c r="D158" s="175"/>
       <c r="E158" s="109"/>
       <c r="F158" s="175" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G158" s="109"/>
       <c r="H158" s="183">
@@ -7336,7 +7669,7 @@
       <c r="D160" s="175"/>
       <c r="E160" s="109"/>
       <c r="F160" s="180" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G160" s="109"/>
       <c r="H160" s="183">
@@ -7972,7 +8305,7 @@
     <row r="185" spans="1:25" customFormat="1" ht="16">
       <c r="B185" s="110"/>
       <c r="C185" s="172" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D185" s="172"/>
       <c r="E185" s="109"/>
@@ -8002,7 +8335,7 @@
       <c r="D186" s="172"/>
       <c r="E186" s="109"/>
       <c r="F186" s="172" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G186" s="172"/>
       <c r="H186" s="172"/>
@@ -8055,7 +8388,7 @@
       <c r="B188" s="110"/>
       <c r="C188" s="172"/>
       <c r="D188" s="172" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E188" s="109"/>
       <c r="F188" s="172"/>
@@ -8084,13 +8417,13 @@
       <c r="D189" s="172"/>
       <c r="E189" s="109"/>
       <c r="F189" s="184" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G189">
         <v>17.600000000000001</v>
       </c>
       <c r="H189" s="172" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I189" s="172"/>
       <c r="J189" s="172"/>
@@ -8116,7 +8449,7 @@
       <c r="E190" s="109"/>
       <c r="F190" s="172"/>
       <c r="H190" s="172" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I190" s="172"/>
       <c r="J190" s="172"/>
@@ -8145,7 +8478,7 @@
         <v>50</v>
       </c>
       <c r="H191" s="175" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I191" s="175"/>
       <c r="J191" s="175"/>
@@ -8174,7 +8507,7 @@
         <v>200</v>
       </c>
       <c r="H192" s="175" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I192" s="175"/>
       <c r="J192" s="175"/>
@@ -8200,10 +8533,10 @@
       <c r="E193" s="109"/>
       <c r="F193" s="175"/>
       <c r="G193" s="175" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H193" s="175" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I193" s="175"/>
       <c r="J193" s="175"/>
@@ -8229,12 +8562,12 @@
       <c r="E194" s="109"/>
       <c r="F194" s="175"/>
       <c r="G194" s="175" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H194" s="175"/>
       <c r="I194" s="175"/>
       <c r="J194" s="175" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K194" s="172"/>
       <c r="L194" s="172"/>
@@ -8257,7 +8590,7 @@
       <c r="D195" s="175"/>
       <c r="E195" s="109"/>
       <c r="F195" s="175" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G195" s="175">
         <f>50/17500</f>
@@ -8290,7 +8623,7 @@
       <c r="D196" s="175"/>
       <c r="E196" s="109"/>
       <c r="F196" s="175" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G196" s="175">
         <f>200/17500</f>
@@ -8322,7 +8655,7 @@
       <c r="D197" s="175"/>
       <c r="E197" s="175"/>
       <c r="F197" s="175" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G197" s="175">
         <f>170/17500</f>
@@ -9190,7 +9523,7 @@
       <c r="A232" s="139"/>
       <c r="B232" s="110"/>
       <c r="C232" s="172" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D232" s="139"/>
       <c r="E232" s="139"/>
@@ -9271,7 +9604,7 @@
       <c r="C235" s="172"/>
       <c r="D235" s="172"/>
       <c r="E235" s="172" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F235" s="109"/>
       <c r="G235" s="172">
@@ -9279,7 +9612,7 @@
         <v>7.6704545454545454E-3</v>
       </c>
       <c r="H235" s="175" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I235" s="172"/>
       <c r="J235" s="172"/>
@@ -9303,7 +9636,7 @@
       <c r="C236" s="172"/>
       <c r="D236" s="172"/>
       <c r="E236" s="172" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F236" s="109"/>
       <c r="G236" s="172">
@@ -9311,7 +9644,7 @@
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="H236" s="175" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I236" s="172"/>
       <c r="J236" s="172"/>
@@ -9790,18 +10123,18 @@
       <c r="H255" s="172"/>
       <c r="I255" s="175"/>
       <c r="J255" s="175" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K255" s="175" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L255" s="175"/>
       <c r="M255" s="175"/>
       <c r="N255" s="175" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="O255" s="175" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="P255" s="172"/>
       <c r="Q255" s="172"/>
@@ -9826,7 +10159,7 @@
         <v>135</v>
       </c>
       <c r="K256" s="175" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L256" s="175"/>
       <c r="M256" s="175"/>
@@ -9834,7 +10167,7 @@
         <v>220</v>
       </c>
       <c r="O256" s="175" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P256" s="172"/>
       <c r="Q256" s="172"/>
@@ -9860,7 +10193,7 @@
         <v>17600</v>
       </c>
       <c r="K257" s="175" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L257" s="175"/>
       <c r="M257" s="175"/>
@@ -9869,7 +10202,7 @@
         <v>17600</v>
       </c>
       <c r="O257" s="175" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="P257" s="172"/>
       <c r="Q257" s="172"/>
@@ -9895,7 +10228,7 @@
         <v>7.6704545454545454E-3</v>
       </c>
       <c r="K258" s="175" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L258" s="175"/>
       <c r="M258" s="175"/>
@@ -9904,7 +10237,7 @@
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="O258" s="175" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="P258" s="172"/>
       <c r="Q258" s="172"/>
@@ -9976,7 +10309,7 @@
       <c r="H261" s="172"/>
       <c r="I261" s="175"/>
       <c r="J261" s="175" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K261" s="177">
         <v>0.40100000000000002</v>
@@ -10171,13 +10504,13 @@
     <row r="274" spans="2:10" s="139" customFormat="1">
       <c r="B274" s="110"/>
       <c r="F274" s="180" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H274" s="139">
         <v>10</v>
       </c>
       <c r="I274" s="180" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="275" spans="2:10" s="139" customFormat="1">
@@ -10187,7 +10520,7 @@
         <v>185000</v>
       </c>
       <c r="I275" s="180" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="276" spans="2:10" s="139" customFormat="1">
@@ -10200,7 +10533,7 @@
         <v>56</v>
       </c>
       <c r="J276" s="180" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="277" spans="2:10" s="139" customFormat="1">
@@ -10213,7 +10546,7 @@
         <v>56</v>
       </c>
       <c r="J277" s="180" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="278" spans="2:10" s="139" customFormat="1">
@@ -10249,13 +10582,13 @@
     <row r="288" spans="2:10" s="139" customFormat="1">
       <c r="B288" s="110"/>
       <c r="F288" s="140" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H288" s="139">
         <v>18.5</v>
       </c>
       <c r="I288" s="140" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="289" spans="2:9" s="139" customFormat="1">
@@ -10265,7 +10598,7 @@
         <v>18500</v>
       </c>
       <c r="I289" s="140" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="290" spans="2:9" s="139" customFormat="1">
@@ -10434,39 +10767,39 @@
       <c r="B344" s="110"/>
       <c r="O344" s="141"/>
       <c r="P344" s="167" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q344" s="167" t="s">
+        <v>71</v>
+      </c>
+      <c r="R344" s="168" t="s">
         <v>72</v>
-      </c>
-      <c r="Q344" s="167" t="s">
-        <v>73</v>
-      </c>
-      <c r="R344" s="168" t="s">
-        <v>74</v>
       </c>
       <c r="S344" s="142"/>
       <c r="T344" s="169" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="U344" s="167" t="s">
+        <v>70</v>
+      </c>
+      <c r="V344" s="167" t="s">
+        <v>71</v>
+      </c>
+      <c r="W344" s="168" t="s">
         <v>72</v>
-      </c>
-      <c r="V344" s="167" t="s">
-        <v>73</v>
-      </c>
-      <c r="W344" s="168" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="345" spans="2:23" s="139" customFormat="1" ht="16">
       <c r="B345" s="110"/>
       <c r="O345" s="143" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P345" s="144"/>
       <c r="Q345" s="145"/>
       <c r="R345" s="146"/>
       <c r="S345" s="142"/>
       <c r="T345" s="143" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="U345" s="144"/>
       <c r="V345" s="145"/>
@@ -10484,7 +10817,7 @@
         <v>0</v>
       </c>
       <c r="O346" s="147" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P346" s="148">
         <v>7.9890805766714692</v>
@@ -10497,7 +10830,7 @@
       </c>
       <c r="S346" s="142"/>
       <c r="T346" s="151" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="U346" s="148"/>
       <c r="V346" s="149"/>
@@ -10516,7 +10849,7 @@
         <v>1.1470417155166664E-3</v>
       </c>
       <c r="O347" s="147" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="P347" s="148">
         <v>4.5482472277188012E-2</v>
@@ -10525,7 +10858,7 @@
       <c r="R347" s="150"/>
       <c r="S347" s="142"/>
       <c r="T347" s="151" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="U347" s="148"/>
       <c r="V347" s="149"/>
@@ -10544,7 +10877,7 @@
         <v>0</v>
       </c>
       <c r="O348" s="147" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="P348" s="148">
         <v>2.9196099920271799E-2</v>
@@ -10574,7 +10907,7 @@
         <v>8.0811981354912427E-3</v>
       </c>
       <c r="O349" s="147" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P349" s="148">
         <v>17.826580159842166</v>
@@ -10604,7 +10937,7 @@
         <v>0</v>
       </c>
       <c r="O350" s="135" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="P350" s="156"/>
       <c r="Q350" s="157"/>
@@ -10627,14 +10960,14 @@
         <v>0</v>
       </c>
       <c r="O351" s="143" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P351" s="144"/>
       <c r="Q351" s="145"/>
       <c r="R351" s="146"/>
       <c r="S351" s="142"/>
       <c r="T351" s="143" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="U351" s="144"/>
       <c r="V351" s="145"/>
@@ -10643,14 +10976,14 @@
     <row r="352" spans="2:23" s="139" customFormat="1" ht="16">
       <c r="B352" s="110"/>
       <c r="O352" s="147" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P352" s="148"/>
       <c r="Q352" s="149"/>
       <c r="R352" s="150"/>
       <c r="S352" s="142"/>
       <c r="T352" s="151" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="U352" s="148"/>
       <c r="V352" s="149"/>
@@ -10659,7 +10992,7 @@
     <row r="353" spans="2:23" s="139" customFormat="1" ht="16">
       <c r="B353" s="110"/>
       <c r="O353" s="147" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="P353" s="148">
         <v>6.6464692278060872E-2</v>
@@ -10668,7 +11001,7 @@
       <c r="R353" s="150"/>
       <c r="S353" s="142"/>
       <c r="T353" s="151" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="U353" s="148">
         <v>6.3635256261973708E-2</v>
@@ -10679,7 +11012,7 @@
     <row r="354" spans="2:23" s="139" customFormat="1" ht="16">
       <c r="B354" s="110"/>
       <c r="O354" s="147" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="P354" s="148"/>
       <c r="Q354" s="149"/>
@@ -10693,7 +11026,7 @@
     <row r="355" spans="2:23" s="139" customFormat="1" ht="16">
       <c r="B355" s="110"/>
       <c r="O355" s="147" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P355" s="148">
         <v>1.6616173069515219</v>
@@ -10713,7 +11046,7 @@
     <row r="356" spans="2:23" s="139" customFormat="1" ht="17" thickBot="1">
       <c r="B356" s="110"/>
       <c r="O356" s="135" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="P356" s="159">
         <v>6.3635256261973708E-2</v>
@@ -10729,14 +11062,14 @@
     <row r="357" spans="2:23" s="139" customFormat="1" ht="16">
       <c r="B357" s="110"/>
       <c r="O357" s="143" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P357" s="144"/>
       <c r="Q357" s="145"/>
       <c r="R357" s="146"/>
       <c r="S357" s="142"/>
       <c r="T357" s="143" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="U357" s="144"/>
       <c r="V357" s="145"/>
@@ -10745,7 +11078,7 @@
     <row r="358" spans="2:23" s="139" customFormat="1" ht="16">
       <c r="B358" s="110"/>
       <c r="O358" s="147" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P358" s="160"/>
       <c r="Q358" s="149">
@@ -10756,7 +11089,7 @@
       </c>
       <c r="S358" s="142"/>
       <c r="T358" s="151" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="U358" s="160"/>
       <c r="V358" s="149"/>
@@ -10765,14 +11098,14 @@
     <row r="359" spans="2:23" s="139" customFormat="1" ht="16">
       <c r="B359" s="110"/>
       <c r="O359" s="147" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="P359" s="160"/>
       <c r="Q359" s="149"/>
       <c r="R359" s="155"/>
       <c r="S359" s="142"/>
       <c r="T359" s="151" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="U359" s="160"/>
       <c r="V359" s="149"/>
@@ -10781,7 +11114,7 @@
     <row r="360" spans="2:23" s="139" customFormat="1" ht="16">
       <c r="B360" s="110"/>
       <c r="O360" s="147" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="P360" s="160"/>
       <c r="Q360" s="149"/>
@@ -10795,7 +11128,7 @@
     <row r="361" spans="2:23" s="139" customFormat="1" ht="16">
       <c r="B361" s="110"/>
       <c r="O361" s="147" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P361" s="148">
         <v>0</v>
@@ -10815,7 +11148,7 @@
     <row r="362" spans="2:23" s="139" customFormat="1" ht="17" thickBot="1">
       <c r="B362" s="110"/>
       <c r="O362" s="135" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="P362" s="161"/>
       <c r="Q362" s="157"/>
@@ -10829,14 +11162,14 @@
     <row r="363" spans="2:23" s="139" customFormat="1" ht="16">
       <c r="B363" s="110"/>
       <c r="O363" s="143" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="P363" s="160"/>
       <c r="Q363" s="162"/>
       <c r="R363" s="163"/>
       <c r="S363" s="142"/>
       <c r="T363" s="143" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="U363" s="160"/>
       <c r="V363" s="162"/>
@@ -10845,14 +11178,14 @@
     <row r="364" spans="2:23" s="139" customFormat="1" ht="16">
       <c r="B364" s="110"/>
       <c r="O364" s="147" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P364" s="160"/>
       <c r="Q364" s="149"/>
       <c r="R364" s="155"/>
       <c r="S364" s="142"/>
       <c r="T364" s="151" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="U364" s="160"/>
       <c r="V364" s="149"/>
@@ -10861,14 +11194,14 @@
     <row r="365" spans="2:23" s="139" customFormat="1" ht="16">
       <c r="B365" s="110"/>
       <c r="O365" s="147" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="P365" s="160"/>
       <c r="Q365" s="149"/>
       <c r="R365" s="155"/>
       <c r="S365" s="142"/>
       <c r="T365" s="151" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="U365" s="160"/>
       <c r="V365" s="164">
@@ -10881,7 +11214,7 @@
     <row r="366" spans="2:23" s="139" customFormat="1" ht="16">
       <c r="B366" s="110"/>
       <c r="O366" s="147" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="P366" s="160"/>
       <c r="Q366" s="149"/>
@@ -10895,7 +11228,7 @@
     <row r="367" spans="2:23" s="139" customFormat="1" ht="16">
       <c r="B367" s="110"/>
       <c r="O367" s="147" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P367" s="148">
         <v>0</v>
@@ -10915,7 +11248,7 @@
     <row r="368" spans="2:23" s="139" customFormat="1" ht="17" thickBot="1">
       <c r="B368" s="110"/>
       <c r="O368" s="135" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="P368" s="160"/>
       <c r="Q368" s="165">
@@ -10933,14 +11266,14 @@
     <row r="369" spans="1:25" s="139" customFormat="1" ht="16">
       <c r="B369" s="110"/>
       <c r="O369" s="143" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="P369" s="144"/>
       <c r="Q369" s="145"/>
       <c r="R369" s="146"/>
       <c r="S369" s="142"/>
       <c r="T369" s="143" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="U369" s="144"/>
       <c r="V369" s="145"/>
@@ -10949,14 +11282,14 @@
     <row r="370" spans="1:25" s="139" customFormat="1" ht="16">
       <c r="B370" s="110"/>
       <c r="O370" s="147" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P370" s="148"/>
       <c r="Q370" s="149"/>
       <c r="R370" s="150"/>
       <c r="S370" s="142"/>
       <c r="T370" s="151" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="U370" s="148"/>
       <c r="V370" s="149"/>
@@ -10965,14 +11298,14 @@
     <row r="371" spans="1:25" s="139" customFormat="1" ht="16">
       <c r="B371" s="110"/>
       <c r="O371" s="147" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="P371" s="148"/>
       <c r="Q371" s="149"/>
       <c r="R371" s="150"/>
       <c r="S371" s="142"/>
       <c r="T371" s="151" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="U371" s="148"/>
       <c r="V371" s="149"/>
@@ -10981,7 +11314,7 @@
     <row r="372" spans="1:25" s="139" customFormat="1" ht="16">
       <c r="B372" s="110"/>
       <c r="O372" s="147" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="P372" s="148"/>
       <c r="Q372" s="149"/>
@@ -10995,7 +11328,7 @@
     <row r="373" spans="1:25" s="139" customFormat="1" ht="16">
       <c r="B373" s="110"/>
       <c r="O373" s="147" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P373" s="148"/>
       <c r="Q373" s="149"/>
@@ -11009,7 +11342,7 @@
     <row r="374" spans="1:25" s="139" customFormat="1" ht="17" thickBot="1">
       <c r="B374" s="110"/>
       <c r="O374" s="135" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="P374" s="156"/>
       <c r="Q374" s="157"/>
@@ -11087,22 +11420,22 @@
     <row r="380" spans="1:25" ht="16">
       <c r="B380" s="110"/>
       <c r="C380" s="187" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F380" s="189">
         <v>139.09</v>
       </c>
       <c r="G380" s="172" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H380" s="190" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I380" s="191">
         <v>41327</v>
       </c>
       <c r="J380" s="192" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="381" spans="1:25">
@@ -11123,7 +11456,7 @@
         <v>18000</v>
       </c>
       <c r="G382" s="204" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="383" spans="1:25">
@@ -11136,15 +11469,2188 @@
     <row r="384" spans="1:25">
       <c r="B384" s="110"/>
     </row>
-    <row r="385" spans="2:2">
+    <row r="385" spans="2:35">
       <c r="B385" s="110"/>
     </row>
-    <row r="386" spans="2:2">
+    <row r="386" spans="2:35">
       <c r="B386" s="110"/>
     </row>
-    <row r="387" spans="2:2">
+    <row r="387" spans="2:35">
       <c r="B387" s="110"/>
     </row>
+    <row r="388" spans="2:35" s="225" customFormat="1" ht="16" thickBot="1"/>
+    <row r="389" spans="2:35" s="225" customFormat="1">
+      <c r="B389" s="226"/>
+      <c r="C389" s="227" t="s">
+        <v>25</v>
+      </c>
+      <c r="D389" s="227" t="s">
+        <v>57</v>
+      </c>
+      <c r="E389" s="227"/>
+      <c r="F389" s="227" t="s">
+        <v>32</v>
+      </c>
+      <c r="G389" s="227"/>
+      <c r="H389" s="227"/>
+      <c r="I389" s="227"/>
+      <c r="J389" s="227"/>
+      <c r="K389" s="227"/>
+      <c r="L389" s="227"/>
+      <c r="M389" s="227"/>
+      <c r="N389" s="227"/>
+      <c r="O389" s="227"/>
+      <c r="P389" s="227"/>
+      <c r="Q389" s="227"/>
+      <c r="R389" s="227"/>
+      <c r="S389" s="227"/>
+      <c r="T389" s="227"/>
+      <c r="U389" s="227"/>
+      <c r="V389" s="228"/>
+      <c r="W389" s="228"/>
+      <c r="X389" s="228"/>
+      <c r="Y389" s="228"/>
+      <c r="Z389" s="228"/>
+      <c r="AA389" s="228"/>
+      <c r="AB389" s="228"/>
+      <c r="AC389" s="228"/>
+      <c r="AD389" s="228"/>
+      <c r="AE389" s="228"/>
+      <c r="AF389" s="228"/>
+      <c r="AG389" s="228"/>
+      <c r="AH389" s="228"/>
+      <c r="AI389" s="228"/>
+    </row>
+    <row r="390" spans="2:35" s="225" customFormat="1">
+      <c r="B390" s="229"/>
+      <c r="C390" s="219"/>
+      <c r="D390" s="219"/>
+      <c r="E390" s="219"/>
+      <c r="F390" s="219"/>
+      <c r="G390" s="219"/>
+      <c r="H390" s="219"/>
+      <c r="I390" s="219"/>
+      <c r="J390" s="219"/>
+      <c r="K390" s="219"/>
+      <c r="L390" s="219"/>
+      <c r="M390" s="219"/>
+      <c r="N390" s="219"/>
+      <c r="O390" s="219"/>
+      <c r="P390" s="219"/>
+      <c r="Q390" s="219"/>
+      <c r="R390" s="219"/>
+      <c r="S390" s="219"/>
+      <c r="T390" s="219"/>
+      <c r="U390" s="219"/>
+      <c r="V390" s="219"/>
+      <c r="W390" s="219"/>
+      <c r="X390" s="219"/>
+      <c r="Y390" s="219"/>
+      <c r="Z390" s="219"/>
+      <c r="AA390" s="219"/>
+      <c r="AB390" s="219"/>
+      <c r="AC390" s="219"/>
+      <c r="AD390" s="219"/>
+      <c r="AE390" s="219"/>
+      <c r="AF390" s="219"/>
+      <c r="AG390" s="219"/>
+      <c r="AH390" s="219"/>
+      <c r="AI390" s="219"/>
+    </row>
+    <row r="391" spans="2:35" s="225" customFormat="1" ht="16">
+      <c r="B391" s="229"/>
+      <c r="C391" s="230" t="s">
+        <v>176</v>
+      </c>
+      <c r="D391" s="231"/>
+      <c r="E391" s="231"/>
+      <c r="F391" s="231"/>
+      <c r="G391" s="231"/>
+      <c r="H391" s="231"/>
+      <c r="I391" s="231"/>
+      <c r="J391" s="122"/>
+      <c r="K391" s="122"/>
+      <c r="L391" s="122"/>
+      <c r="M391" s="122"/>
+      <c r="N391" s="122"/>
+      <c r="O391" s="122"/>
+      <c r="P391" s="122"/>
+      <c r="Q391" s="122"/>
+      <c r="R391" s="122"/>
+      <c r="S391" s="122"/>
+      <c r="T391" s="122"/>
+      <c r="U391" s="122"/>
+      <c r="V391" s="122"/>
+      <c r="W391" s="122"/>
+      <c r="X391" s="122"/>
+      <c r="Y391" s="122"/>
+      <c r="Z391" s="232"/>
+      <c r="AA391" s="232"/>
+      <c r="AB391" s="232"/>
+      <c r="AC391" s="232"/>
+      <c r="AD391" s="232"/>
+      <c r="AE391" s="232"/>
+      <c r="AF391" s="232"/>
+      <c r="AG391" s="232"/>
+      <c r="AH391" s="232"/>
+      <c r="AI391" s="232"/>
+    </row>
+    <row r="392" spans="2:35" s="225" customFormat="1" ht="16">
+      <c r="B392" s="229"/>
+      <c r="C392" s="231"/>
+      <c r="D392" s="231"/>
+      <c r="E392" s="231"/>
+      <c r="F392" s="231"/>
+      <c r="G392" s="231"/>
+      <c r="H392" s="231"/>
+      <c r="I392" s="231"/>
+      <c r="J392" s="122"/>
+      <c r="K392" s="122"/>
+      <c r="L392" s="122"/>
+      <c r="M392" s="122"/>
+      <c r="N392" s="122"/>
+      <c r="O392" s="122"/>
+      <c r="P392" s="122"/>
+      <c r="Q392" s="122"/>
+      <c r="R392" s="122"/>
+      <c r="S392" s="122"/>
+      <c r="T392" s="122"/>
+      <c r="U392" s="122"/>
+      <c r="V392" s="122"/>
+      <c r="W392" s="122"/>
+      <c r="X392" s="122"/>
+      <c r="Y392" s="122"/>
+      <c r="Z392" s="232"/>
+      <c r="AA392" s="232"/>
+      <c r="AB392" s="232"/>
+      <c r="AC392" s="232"/>
+      <c r="AD392" s="232"/>
+      <c r="AE392" s="232"/>
+      <c r="AF392" s="232"/>
+      <c r="AG392" s="232"/>
+      <c r="AH392" s="232"/>
+      <c r="AI392" s="232"/>
+    </row>
+    <row r="393" spans="2:35" s="225" customFormat="1" ht="16">
+      <c r="B393" s="229"/>
+      <c r="C393" s="231"/>
+      <c r="D393" s="231"/>
+      <c r="E393" s="231"/>
+      <c r="F393" s="231"/>
+      <c r="G393" s="231"/>
+      <c r="H393" s="231"/>
+      <c r="I393" s="231"/>
+      <c r="J393" s="122"/>
+      <c r="K393" s="122"/>
+      <c r="L393" s="122"/>
+      <c r="M393" s="122"/>
+      <c r="N393" s="122"/>
+      <c r="O393" s="122"/>
+      <c r="P393" s="122"/>
+      <c r="Q393" s="122"/>
+      <c r="R393" s="122"/>
+      <c r="S393" s="122"/>
+      <c r="T393" s="122"/>
+      <c r="U393" s="122"/>
+      <c r="V393" s="122"/>
+      <c r="W393" s="122"/>
+      <c r="X393" s="122"/>
+      <c r="Y393" s="122"/>
+      <c r="Z393" s="232"/>
+      <c r="AA393" s="232"/>
+      <c r="AB393" s="232"/>
+      <c r="AC393" s="232"/>
+      <c r="AD393" s="232"/>
+      <c r="AE393" s="232"/>
+      <c r="AF393" s="232"/>
+      <c r="AG393" s="232"/>
+      <c r="AH393" s="232"/>
+      <c r="AI393" s="232"/>
+    </row>
+    <row r="394" spans="2:35" s="225" customFormat="1" ht="16">
+      <c r="B394" s="229"/>
+      <c r="C394" s="231"/>
+      <c r="D394" s="231"/>
+      <c r="E394" s="231"/>
+      <c r="F394" s="231"/>
+      <c r="G394" s="231"/>
+      <c r="H394" s="231"/>
+      <c r="I394" s="231"/>
+      <c r="J394" s="122"/>
+      <c r="K394" s="122"/>
+      <c r="L394" s="122"/>
+      <c r="M394" s="122"/>
+      <c r="N394" s="122"/>
+      <c r="O394" s="122"/>
+      <c r="P394" s="122"/>
+      <c r="Q394" s="122"/>
+      <c r="R394" s="122"/>
+      <c r="S394" s="122"/>
+      <c r="T394" s="122"/>
+      <c r="U394" s="122"/>
+      <c r="V394" s="122"/>
+      <c r="W394" s="122"/>
+      <c r="X394" s="122"/>
+      <c r="Y394" s="122"/>
+      <c r="Z394" s="232"/>
+      <c r="AA394" s="232"/>
+      <c r="AB394" s="232"/>
+      <c r="AC394" s="232"/>
+      <c r="AD394" s="232"/>
+      <c r="AE394" s="232"/>
+      <c r="AF394" s="232"/>
+      <c r="AG394" s="232"/>
+      <c r="AH394" s="232"/>
+      <c r="AI394" s="232"/>
+    </row>
+    <row r="395" spans="2:35" s="225" customFormat="1" ht="16">
+      <c r="B395" s="229"/>
+      <c r="C395" s="231"/>
+      <c r="D395" s="231"/>
+      <c r="E395" s="231"/>
+      <c r="F395" s="231"/>
+      <c r="G395" s="231"/>
+      <c r="H395" s="231"/>
+      <c r="I395" s="231"/>
+      <c r="J395" s="122"/>
+      <c r="K395" s="122"/>
+      <c r="L395" s="122"/>
+      <c r="M395" s="122"/>
+      <c r="N395" s="122"/>
+      <c r="O395" s="122"/>
+      <c r="P395" s="122"/>
+      <c r="Q395" s="122"/>
+      <c r="R395" s="122"/>
+      <c r="S395" s="122"/>
+      <c r="T395" s="122"/>
+      <c r="U395" s="122"/>
+      <c r="V395" s="122"/>
+      <c r="W395" s="122"/>
+      <c r="X395" s="122"/>
+      <c r="Y395" s="122"/>
+      <c r="Z395" s="232"/>
+      <c r="AA395" s="232"/>
+      <c r="AB395" s="232"/>
+      <c r="AC395" s="232"/>
+      <c r="AD395" s="232"/>
+      <c r="AE395" s="232"/>
+      <c r="AF395" s="232"/>
+      <c r="AG395" s="232"/>
+      <c r="AH395" s="232"/>
+      <c r="AI395" s="232"/>
+    </row>
+    <row r="396" spans="2:35" s="225" customFormat="1" ht="16">
+      <c r="B396" s="229"/>
+      <c r="C396" s="231"/>
+      <c r="I396" s="231"/>
+      <c r="J396" s="122"/>
+      <c r="K396" s="122"/>
+      <c r="L396" s="122"/>
+      <c r="M396" s="122"/>
+      <c r="N396" s="122"/>
+      <c r="O396" s="122"/>
+      <c r="P396" s="122"/>
+      <c r="Q396" s="122"/>
+      <c r="R396" s="122"/>
+      <c r="S396" s="122"/>
+      <c r="T396" s="122"/>
+      <c r="U396" s="122"/>
+      <c r="V396" s="122"/>
+      <c r="W396" s="122"/>
+      <c r="X396" s="122"/>
+      <c r="Y396" s="122"/>
+      <c r="Z396" s="232"/>
+      <c r="AA396" s="232"/>
+      <c r="AB396" s="232"/>
+      <c r="AC396" s="232"/>
+      <c r="AD396" s="232"/>
+      <c r="AE396" s="232"/>
+      <c r="AF396" s="232"/>
+      <c r="AG396" s="232"/>
+      <c r="AH396" s="232"/>
+      <c r="AI396" s="232"/>
+    </row>
+    <row r="397" spans="2:35" s="225" customFormat="1" ht="16">
+      <c r="B397" s="229"/>
+      <c r="C397" s="231"/>
+      <c r="I397" s="231"/>
+      <c r="J397" s="122"/>
+      <c r="K397" s="122"/>
+      <c r="L397" s="122"/>
+      <c r="M397" s="122"/>
+      <c r="N397" s="122"/>
+      <c r="O397" s="122"/>
+      <c r="P397" s="122"/>
+      <c r="Q397" s="122"/>
+      <c r="R397" s="122"/>
+      <c r="S397" s="122"/>
+      <c r="T397" s="122"/>
+      <c r="U397" s="122"/>
+      <c r="V397" s="122"/>
+      <c r="W397" s="122"/>
+      <c r="X397" s="122"/>
+      <c r="Y397" s="122"/>
+      <c r="Z397" s="232"/>
+      <c r="AA397" s="232"/>
+      <c r="AB397" s="232"/>
+      <c r="AC397" s="232"/>
+      <c r="AD397" s="232"/>
+      <c r="AE397" s="232"/>
+      <c r="AF397" s="232"/>
+      <c r="AG397" s="232"/>
+      <c r="AH397" s="232"/>
+      <c r="AI397" s="232"/>
+    </row>
+    <row r="398" spans="2:35" s="225" customFormat="1" ht="16">
+      <c r="B398" s="229"/>
+      <c r="C398" s="231"/>
+      <c r="I398" s="231"/>
+      <c r="J398" s="122"/>
+      <c r="K398" s="122"/>
+      <c r="L398" s="122"/>
+      <c r="M398" s="122"/>
+      <c r="N398" s="122"/>
+      <c r="O398" s="122"/>
+      <c r="P398" s="122"/>
+      <c r="Q398" s="122"/>
+      <c r="R398" s="122"/>
+      <c r="S398" s="122"/>
+      <c r="T398" s="122"/>
+      <c r="U398" s="122"/>
+      <c r="V398" s="122"/>
+      <c r="W398" s="122"/>
+      <c r="X398" s="122"/>
+      <c r="Y398" s="122"/>
+      <c r="Z398" s="232"/>
+      <c r="AA398" s="232"/>
+      <c r="AB398" s="232"/>
+      <c r="AC398" s="232"/>
+      <c r="AD398" s="232"/>
+      <c r="AE398" s="232"/>
+      <c r="AF398" s="232"/>
+      <c r="AG398" s="232"/>
+      <c r="AH398" s="232"/>
+      <c r="AI398" s="232"/>
+    </row>
+    <row r="399" spans="2:35" s="225" customFormat="1" ht="16">
+      <c r="B399" s="229"/>
+      <c r="C399" s="122"/>
+      <c r="D399" s="122"/>
+      <c r="E399" s="122"/>
+      <c r="F399" s="122"/>
+      <c r="G399" s="122"/>
+      <c r="H399" s="122"/>
+      <c r="I399" s="122"/>
+      <c r="J399" s="122"/>
+      <c r="K399" s="122"/>
+      <c r="L399" s="122"/>
+      <c r="M399" s="122"/>
+      <c r="N399" s="122"/>
+      <c r="O399" s="122"/>
+      <c r="P399" s="122"/>
+      <c r="Q399" s="122"/>
+      <c r="R399" s="122"/>
+      <c r="S399" s="122"/>
+      <c r="T399" s="122"/>
+      <c r="U399" s="122"/>
+      <c r="V399" s="122"/>
+      <c r="W399" s="122"/>
+      <c r="X399" s="122"/>
+      <c r="Y399" s="122"/>
+      <c r="Z399" s="232"/>
+      <c r="AA399" s="232"/>
+      <c r="AB399" s="232"/>
+      <c r="AC399" s="232"/>
+      <c r="AD399" s="232"/>
+      <c r="AE399" s="232"/>
+      <c r="AF399" s="232"/>
+      <c r="AG399" s="232"/>
+      <c r="AH399" s="232"/>
+      <c r="AI399" s="232"/>
+    </row>
+    <row r="400" spans="2:35" s="225" customFormat="1" ht="16">
+      <c r="B400" s="229"/>
+      <c r="C400" s="122"/>
+      <c r="D400" s="122"/>
+      <c r="E400" s="122"/>
+      <c r="F400" s="122"/>
+      <c r="G400" s="122"/>
+      <c r="H400" s="122"/>
+      <c r="I400" s="122"/>
+      <c r="J400" s="122"/>
+      <c r="K400" s="122"/>
+      <c r="L400" s="122"/>
+      <c r="M400" s="122"/>
+      <c r="N400" s="122"/>
+      <c r="O400" s="122"/>
+      <c r="P400" s="122"/>
+      <c r="Q400" s="122"/>
+      <c r="R400" s="122"/>
+      <c r="S400" s="122"/>
+      <c r="T400" s="122"/>
+      <c r="U400" s="122"/>
+      <c r="V400" s="122"/>
+      <c r="W400" s="122"/>
+      <c r="X400" s="122"/>
+      <c r="Y400" s="122"/>
+      <c r="Z400" s="232"/>
+      <c r="AA400" s="232"/>
+      <c r="AB400" s="232"/>
+      <c r="AC400" s="232"/>
+      <c r="AD400" s="232"/>
+      <c r="AE400" s="232"/>
+      <c r="AF400" s="232"/>
+      <c r="AG400" s="232"/>
+      <c r="AH400" s="232"/>
+      <c r="AI400" s="232"/>
+    </row>
+    <row r="401" spans="2:35" s="225" customFormat="1" ht="16">
+      <c r="B401" s="229"/>
+      <c r="C401" s="122"/>
+      <c r="D401" s="122"/>
+      <c r="E401" s="122"/>
+      <c r="F401" s="122"/>
+      <c r="G401" s="122"/>
+      <c r="H401" s="122"/>
+      <c r="I401" s="122"/>
+      <c r="J401" s="122"/>
+      <c r="K401" s="122"/>
+      <c r="L401" s="122"/>
+      <c r="M401" s="122"/>
+      <c r="N401" s="122"/>
+      <c r="O401" s="122"/>
+      <c r="P401" s="122"/>
+      <c r="Q401" s="122"/>
+      <c r="R401" s="122"/>
+      <c r="S401" s="122"/>
+      <c r="T401" s="122"/>
+      <c r="U401" s="122"/>
+      <c r="V401" s="122"/>
+      <c r="W401" s="122"/>
+      <c r="X401" s="122"/>
+      <c r="Y401" s="122"/>
+      <c r="Z401" s="232"/>
+      <c r="AA401" s="232"/>
+      <c r="AB401" s="232"/>
+      <c r="AC401" s="232"/>
+      <c r="AD401" s="232"/>
+      <c r="AE401" s="232"/>
+      <c r="AF401" s="232"/>
+      <c r="AG401" s="232"/>
+      <c r="AH401" s="232"/>
+      <c r="AI401" s="232"/>
+    </row>
+    <row r="402" spans="2:35" s="225" customFormat="1" ht="16">
+      <c r="B402" s="229"/>
+      <c r="C402" s="122"/>
+      <c r="D402" s="122"/>
+      <c r="E402" s="122"/>
+      <c r="F402" s="122"/>
+      <c r="G402" s="122"/>
+      <c r="H402" s="122"/>
+      <c r="I402" s="122"/>
+      <c r="J402" s="122"/>
+      <c r="K402" s="122"/>
+      <c r="L402" s="122"/>
+      <c r="M402" s="122"/>
+      <c r="N402" s="122"/>
+      <c r="O402" s="122"/>
+      <c r="P402" s="122"/>
+      <c r="Q402" s="122"/>
+      <c r="R402" s="122"/>
+      <c r="S402" s="122"/>
+      <c r="T402" s="122"/>
+      <c r="U402" s="122"/>
+      <c r="V402" s="122"/>
+      <c r="W402" s="122"/>
+      <c r="X402" s="122"/>
+      <c r="Y402" s="122"/>
+      <c r="Z402" s="232"/>
+      <c r="AA402" s="232"/>
+      <c r="AB402" s="232"/>
+      <c r="AC402" s="232"/>
+      <c r="AD402" s="232"/>
+      <c r="AE402" s="232"/>
+      <c r="AF402" s="232"/>
+      <c r="AG402" s="232"/>
+      <c r="AH402" s="232"/>
+      <c r="AI402" s="232"/>
+    </row>
+    <row r="403" spans="2:35" s="225" customFormat="1" ht="16">
+      <c r="B403" s="229"/>
+      <c r="C403" s="122"/>
+      <c r="D403" s="122"/>
+      <c r="E403" s="122"/>
+      <c r="F403" s="122"/>
+      <c r="G403" s="122"/>
+      <c r="H403" s="122"/>
+      <c r="I403" s="122"/>
+      <c r="J403" s="122"/>
+      <c r="K403" s="122"/>
+      <c r="L403" s="122"/>
+      <c r="M403" s="122"/>
+      <c r="N403" s="122"/>
+      <c r="O403" s="122"/>
+      <c r="P403" s="122"/>
+      <c r="Q403" s="122"/>
+      <c r="R403" s="122"/>
+      <c r="S403" s="122"/>
+      <c r="T403" s="122"/>
+      <c r="U403" s="122"/>
+      <c r="V403" s="122"/>
+      <c r="W403" s="122"/>
+      <c r="X403" s="122"/>
+      <c r="Y403" s="122"/>
+      <c r="Z403" s="232"/>
+      <c r="AA403" s="232"/>
+      <c r="AB403" s="232"/>
+      <c r="AC403" s="232"/>
+      <c r="AD403" s="232"/>
+      <c r="AE403" s="232"/>
+      <c r="AF403" s="232"/>
+      <c r="AG403" s="232"/>
+      <c r="AH403" s="232"/>
+      <c r="AI403" s="232"/>
+    </row>
+    <row r="404" spans="2:35" s="225" customFormat="1" ht="16">
+      <c r="B404" s="229"/>
+      <c r="C404" s="122"/>
+      <c r="D404" s="122"/>
+      <c r="E404" s="122"/>
+      <c r="F404" s="122"/>
+      <c r="G404" s="122"/>
+      <c r="H404" s="122"/>
+      <c r="I404" s="122"/>
+      <c r="J404" s="122"/>
+      <c r="K404" s="122"/>
+      <c r="L404" s="122"/>
+      <c r="M404" s="122"/>
+      <c r="N404" s="122"/>
+      <c r="O404" s="122"/>
+      <c r="P404" s="122"/>
+      <c r="Q404" s="122"/>
+      <c r="R404" s="122"/>
+      <c r="S404" s="122"/>
+      <c r="T404" s="122"/>
+      <c r="U404" s="122"/>
+      <c r="V404" s="122"/>
+      <c r="W404" s="122"/>
+      <c r="X404" s="122"/>
+      <c r="Y404" s="122"/>
+      <c r="Z404" s="232"/>
+      <c r="AA404" s="232"/>
+      <c r="AB404" s="232"/>
+      <c r="AC404" s="232"/>
+      <c r="AD404" s="232"/>
+      <c r="AE404" s="232"/>
+      <c r="AF404" s="232"/>
+      <c r="AG404" s="232"/>
+      <c r="AH404" s="232"/>
+      <c r="AI404" s="232"/>
+    </row>
+    <row r="405" spans="2:35" s="225" customFormat="1" ht="16">
+      <c r="B405" s="229"/>
+      <c r="C405" s="122"/>
+      <c r="D405" s="122"/>
+      <c r="E405" s="122"/>
+      <c r="F405" s="122"/>
+      <c r="G405" s="122"/>
+      <c r="H405" s="122"/>
+      <c r="I405" s="122"/>
+      <c r="J405" s="122"/>
+      <c r="K405" s="122"/>
+      <c r="L405" s="122"/>
+      <c r="M405" s="122"/>
+      <c r="N405" s="122"/>
+      <c r="O405" s="122"/>
+      <c r="P405" s="122"/>
+      <c r="Q405" s="122"/>
+      <c r="R405" s="122"/>
+      <c r="S405" s="122"/>
+      <c r="T405" s="122"/>
+      <c r="U405" s="122"/>
+      <c r="V405" s="122"/>
+      <c r="W405" s="122"/>
+      <c r="X405" s="122"/>
+      <c r="Y405" s="122"/>
+      <c r="Z405" s="232"/>
+      <c r="AA405" s="232"/>
+      <c r="AB405" s="232"/>
+      <c r="AC405" s="232"/>
+      <c r="AD405" s="232"/>
+      <c r="AE405" s="232"/>
+      <c r="AF405" s="232"/>
+      <c r="AG405" s="232"/>
+      <c r="AH405" s="232"/>
+      <c r="AI405" s="232"/>
+    </row>
+    <row r="406" spans="2:35" s="225" customFormat="1" ht="16">
+      <c r="B406" s="229"/>
+      <c r="C406" s="122"/>
+      <c r="D406" s="122"/>
+      <c r="E406" s="122"/>
+      <c r="F406" s="122"/>
+      <c r="G406" s="122"/>
+      <c r="H406" s="122"/>
+      <c r="I406" s="122"/>
+      <c r="J406" s="122"/>
+      <c r="K406" s="122"/>
+      <c r="L406" s="122"/>
+      <c r="M406" s="122"/>
+      <c r="N406" s="122"/>
+      <c r="O406" s="122"/>
+      <c r="P406" s="122"/>
+      <c r="Q406" s="122"/>
+      <c r="R406" s="122"/>
+      <c r="S406" s="122"/>
+      <c r="T406" s="122"/>
+      <c r="U406" s="122"/>
+      <c r="V406" s="122"/>
+      <c r="W406" s="122"/>
+      <c r="X406" s="122"/>
+      <c r="Y406" s="122"/>
+      <c r="Z406" s="232"/>
+      <c r="AA406" s="232"/>
+      <c r="AB406" s="232"/>
+      <c r="AC406" s="232"/>
+      <c r="AD406" s="232"/>
+      <c r="AE406" s="232"/>
+      <c r="AF406" s="232"/>
+      <c r="AG406" s="232"/>
+      <c r="AH406" s="232"/>
+      <c r="AI406" s="232"/>
+    </row>
+    <row r="407" spans="2:35" s="225" customFormat="1" ht="16">
+      <c r="B407" s="229"/>
+      <c r="C407" s="122"/>
+      <c r="D407" s="122"/>
+      <c r="E407" s="122"/>
+      <c r="F407" s="122"/>
+      <c r="G407" s="122"/>
+      <c r="H407" s="122"/>
+      <c r="I407" s="122"/>
+      <c r="J407" s="122"/>
+      <c r="K407" s="122"/>
+      <c r="L407" s="122"/>
+      <c r="M407" s="122"/>
+      <c r="N407" s="122"/>
+      <c r="O407" s="122"/>
+      <c r="P407" s="122"/>
+      <c r="Q407" s="122"/>
+      <c r="R407" s="122"/>
+      <c r="S407" s="122"/>
+      <c r="T407" s="122"/>
+      <c r="U407" s="122"/>
+      <c r="V407" s="122"/>
+      <c r="W407" s="122"/>
+      <c r="X407" s="122"/>
+      <c r="Y407" s="122"/>
+      <c r="Z407" s="232"/>
+      <c r="AA407" s="232"/>
+      <c r="AB407" s="232"/>
+      <c r="AC407" s="232"/>
+      <c r="AD407" s="232"/>
+      <c r="AE407" s="232"/>
+      <c r="AF407" s="232"/>
+      <c r="AG407" s="232"/>
+      <c r="AH407" s="232"/>
+      <c r="AI407" s="232"/>
+    </row>
+    <row r="408" spans="2:35" s="225" customFormat="1" ht="16">
+      <c r="B408" s="229"/>
+      <c r="C408" s="122"/>
+      <c r="D408" s="122"/>
+      <c r="E408" s="122"/>
+      <c r="F408" s="122"/>
+      <c r="G408" s="122"/>
+      <c r="H408" s="122"/>
+      <c r="I408" s="122"/>
+      <c r="J408" s="122"/>
+      <c r="K408" s="122"/>
+      <c r="L408" s="122"/>
+      <c r="M408" s="122"/>
+      <c r="N408" s="122"/>
+      <c r="O408" s="122"/>
+      <c r="P408" s="122"/>
+      <c r="Q408" s="122"/>
+      <c r="R408" s="122"/>
+      <c r="S408" s="122"/>
+      <c r="T408" s="122"/>
+      <c r="U408" s="122"/>
+      <c r="V408" s="122"/>
+      <c r="W408" s="122"/>
+      <c r="X408" s="122"/>
+      <c r="Y408" s="122"/>
+      <c r="Z408" s="232"/>
+      <c r="AA408" s="232"/>
+      <c r="AB408" s="232"/>
+      <c r="AC408" s="232"/>
+      <c r="AD408" s="232"/>
+      <c r="AE408" s="232"/>
+      <c r="AF408" s="232"/>
+      <c r="AG408" s="232"/>
+      <c r="AH408" s="232"/>
+      <c r="AI408" s="232"/>
+    </row>
+    <row r="409" spans="2:35" s="225" customFormat="1" ht="16">
+      <c r="B409" s="229"/>
+      <c r="C409" s="122"/>
+      <c r="D409" s="122"/>
+      <c r="E409" s="122"/>
+      <c r="F409" s="122"/>
+      <c r="G409" s="122"/>
+      <c r="H409" s="122"/>
+      <c r="I409" s="122"/>
+      <c r="J409" s="122"/>
+      <c r="K409" s="122"/>
+      <c r="L409" s="122"/>
+      <c r="M409" s="122"/>
+      <c r="N409" s="122"/>
+      <c r="O409" s="122"/>
+      <c r="P409" s="122"/>
+      <c r="Q409" s="122"/>
+      <c r="R409" s="122"/>
+      <c r="S409" s="122"/>
+      <c r="T409" s="122"/>
+      <c r="U409" s="122"/>
+      <c r="V409" s="122"/>
+      <c r="W409" s="122"/>
+      <c r="X409" s="122"/>
+      <c r="Y409" s="122"/>
+      <c r="Z409" s="232"/>
+      <c r="AA409" s="232"/>
+      <c r="AB409" s="232"/>
+      <c r="AC409" s="232"/>
+      <c r="AD409" s="232"/>
+      <c r="AE409" s="232"/>
+      <c r="AF409" s="232"/>
+      <c r="AG409" s="232"/>
+      <c r="AH409" s="232"/>
+      <c r="AI409" s="232"/>
+    </row>
+    <row r="410" spans="2:35" s="225" customFormat="1" ht="16">
+      <c r="B410" s="229"/>
+      <c r="C410" s="122"/>
+      <c r="D410" s="122"/>
+      <c r="E410" s="122"/>
+      <c r="F410" s="122"/>
+      <c r="G410" s="122"/>
+      <c r="H410" s="122"/>
+      <c r="I410" s="122"/>
+      <c r="J410" s="122"/>
+      <c r="K410" s="122"/>
+      <c r="L410" s="122"/>
+      <c r="M410" s="122"/>
+      <c r="N410" s="122"/>
+      <c r="O410" s="122"/>
+      <c r="P410" s="122"/>
+      <c r="Q410" s="122"/>
+      <c r="R410" s="122"/>
+      <c r="S410" s="122"/>
+      <c r="T410" s="122"/>
+      <c r="U410" s="122"/>
+      <c r="V410" s="122"/>
+      <c r="W410" s="122"/>
+      <c r="X410" s="122"/>
+      <c r="Y410" s="122"/>
+      <c r="Z410" s="232"/>
+      <c r="AA410" s="232"/>
+      <c r="AB410" s="232"/>
+      <c r="AC410" s="232"/>
+      <c r="AD410" s="232"/>
+      <c r="AE410" s="232"/>
+      <c r="AF410" s="232"/>
+      <c r="AG410" s="232"/>
+      <c r="AH410" s="232"/>
+      <c r="AI410" s="232"/>
+    </row>
+    <row r="411" spans="2:35" s="225" customFormat="1" ht="16">
+      <c r="B411" s="229"/>
+      <c r="C411" s="122"/>
+      <c r="D411" s="122"/>
+      <c r="E411" s="122"/>
+      <c r="F411" s="122"/>
+      <c r="G411" s="122"/>
+      <c r="H411" s="122"/>
+      <c r="I411" s="122"/>
+      <c r="J411" s="122"/>
+      <c r="K411" s="122"/>
+      <c r="L411" s="122"/>
+      <c r="M411" s="122"/>
+      <c r="N411" s="122"/>
+      <c r="O411" s="122"/>
+      <c r="P411" s="122"/>
+      <c r="Q411" s="122"/>
+      <c r="R411" s="122"/>
+      <c r="S411" s="122"/>
+      <c r="T411" s="122"/>
+      <c r="U411" s="122"/>
+      <c r="V411" s="122"/>
+      <c r="W411" s="122"/>
+      <c r="X411" s="122"/>
+      <c r="Y411" s="122"/>
+      <c r="Z411" s="232"/>
+      <c r="AA411" s="232"/>
+      <c r="AB411" s="232"/>
+      <c r="AC411" s="232"/>
+      <c r="AD411" s="232"/>
+      <c r="AE411" s="232"/>
+      <c r="AF411" s="232"/>
+      <c r="AG411" s="232"/>
+      <c r="AH411" s="232"/>
+      <c r="AI411" s="232"/>
+    </row>
+    <row r="412" spans="2:35" s="225" customFormat="1" ht="16">
+      <c r="B412" s="229"/>
+      <c r="C412" s="122"/>
+      <c r="D412" s="231">
+        <v>1.24</v>
+      </c>
+      <c r="E412" s="233"/>
+      <c r="F412" s="231"/>
+      <c r="G412" s="231">
+        <v>112000</v>
+      </c>
+      <c r="H412" s="231" t="s">
+        <v>177</v>
+      </c>
+      <c r="I412" s="122" t="s">
+        <v>179</v>
+      </c>
+      <c r="J412" s="122"/>
+      <c r="K412" s="122"/>
+      <c r="L412" s="122"/>
+      <c r="M412" s="122"/>
+      <c r="N412" s="122"/>
+      <c r="O412" s="122"/>
+      <c r="P412" s="122"/>
+      <c r="Q412" s="122"/>
+      <c r="R412" s="122"/>
+      <c r="S412" s="122"/>
+      <c r="T412" s="122"/>
+      <c r="U412" s="122"/>
+      <c r="V412" s="122"/>
+      <c r="W412" s="122"/>
+      <c r="X412" s="122"/>
+      <c r="Y412" s="122"/>
+      <c r="Z412" s="232"/>
+      <c r="AA412" s="232"/>
+      <c r="AB412" s="232"/>
+      <c r="AC412" s="232"/>
+      <c r="AD412" s="232"/>
+      <c r="AE412" s="232"/>
+      <c r="AF412" s="232"/>
+      <c r="AG412" s="232"/>
+      <c r="AH412" s="232"/>
+      <c r="AI412" s="232"/>
+    </row>
+    <row r="413" spans="2:35" s="225" customFormat="1" ht="16">
+      <c r="B413" s="229"/>
+      <c r="C413" s="122"/>
+      <c r="D413" s="231"/>
+      <c r="E413" s="233"/>
+      <c r="F413" s="231"/>
+      <c r="G413" s="231">
+        <f>10^6</f>
+        <v>1000000</v>
+      </c>
+      <c r="H413" s="231" t="s">
+        <v>178</v>
+      </c>
+      <c r="I413" s="246"/>
+      <c r="J413" s="122"/>
+      <c r="K413" s="122"/>
+      <c r="L413" s="122"/>
+      <c r="M413" s="122"/>
+      <c r="N413" s="122"/>
+      <c r="O413" s="122"/>
+      <c r="P413" s="122"/>
+      <c r="Q413" s="122"/>
+      <c r="R413" s="122"/>
+      <c r="S413" s="122"/>
+      <c r="T413" s="122"/>
+      <c r="U413" s="122"/>
+      <c r="V413" s="122"/>
+      <c r="W413" s="122"/>
+      <c r="X413" s="122"/>
+      <c r="Y413" s="122"/>
+      <c r="Z413" s="232"/>
+      <c r="AA413" s="232"/>
+      <c r="AB413" s="232"/>
+      <c r="AC413" s="232"/>
+      <c r="AD413" s="232"/>
+      <c r="AE413" s="232"/>
+      <c r="AF413" s="232"/>
+      <c r="AG413" s="232"/>
+      <c r="AH413" s="232"/>
+      <c r="AI413" s="232"/>
+    </row>
+    <row r="414" spans="2:35" s="225" customFormat="1" ht="16">
+      <c r="B414" s="229"/>
+      <c r="C414" s="122"/>
+      <c r="D414" s="231"/>
+      <c r="E414" s="233"/>
+      <c r="F414" s="231"/>
+      <c r="G414" s="231">
+        <f>G412/G413</f>
+        <v>0.112</v>
+      </c>
+      <c r="H414" s="231" t="s">
+        <v>177</v>
+      </c>
+      <c r="I414" s="122"/>
+      <c r="J414" s="122"/>
+      <c r="K414" s="122"/>
+      <c r="L414" s="122"/>
+      <c r="M414" s="122"/>
+      <c r="N414" s="122"/>
+      <c r="O414" s="122"/>
+      <c r="P414" s="122"/>
+      <c r="Q414" s="122"/>
+      <c r="R414" s="122"/>
+      <c r="S414" s="122"/>
+      <c r="T414" s="122"/>
+      <c r="U414" s="122"/>
+      <c r="V414" s="122"/>
+      <c r="W414" s="122"/>
+      <c r="X414" s="122"/>
+      <c r="Y414" s="122"/>
+      <c r="Z414" s="232"/>
+      <c r="AA414" s="232"/>
+      <c r="AB414" s="232"/>
+      <c r="AC414" s="232"/>
+      <c r="AD414" s="232"/>
+      <c r="AE414" s="232"/>
+      <c r="AF414" s="232"/>
+      <c r="AG414" s="232"/>
+      <c r="AH414" s="232"/>
+      <c r="AI414" s="232"/>
+    </row>
+    <row r="415" spans="2:35" s="225" customFormat="1" ht="16">
+      <c r="B415" s="229"/>
+      <c r="C415" s="122"/>
+      <c r="D415" s="122"/>
+      <c r="E415" s="122"/>
+      <c r="F415" s="122"/>
+      <c r="G415" s="122"/>
+      <c r="H415" s="122"/>
+      <c r="I415" s="122"/>
+      <c r="J415" s="122"/>
+      <c r="K415" s="122"/>
+      <c r="L415" s="122"/>
+      <c r="M415" s="122"/>
+      <c r="N415" s="122"/>
+      <c r="O415" s="122"/>
+      <c r="P415" s="122"/>
+      <c r="Q415" s="122"/>
+      <c r="R415" s="122"/>
+      <c r="S415" s="122"/>
+      <c r="T415" s="122"/>
+      <c r="U415" s="122"/>
+      <c r="V415" s="122"/>
+      <c r="W415" s="122"/>
+      <c r="X415" s="122"/>
+      <c r="Y415" s="122"/>
+      <c r="Z415" s="232"/>
+      <c r="AA415" s="232"/>
+      <c r="AB415" s="232"/>
+      <c r="AC415" s="232"/>
+      <c r="AD415" s="232"/>
+      <c r="AE415" s="232"/>
+      <c r="AF415" s="232"/>
+      <c r="AG415" s="232"/>
+      <c r="AH415" s="232"/>
+      <c r="AI415" s="232"/>
+    </row>
+    <row r="416" spans="2:35" s="225" customFormat="1" ht="16">
+      <c r="B416" s="229"/>
+      <c r="C416" s="232"/>
+      <c r="D416" s="232"/>
+      <c r="E416" s="232"/>
+      <c r="F416" s="232"/>
+      <c r="G416" s="232"/>
+      <c r="H416" s="232"/>
+      <c r="I416" s="232"/>
+      <c r="J416" s="232"/>
+      <c r="K416" s="232"/>
+      <c r="L416" s="232"/>
+      <c r="M416" s="232"/>
+      <c r="N416" s="232"/>
+      <c r="O416" s="232"/>
+      <c r="P416" s="232"/>
+      <c r="Q416" s="232"/>
+      <c r="R416" s="232"/>
+      <c r="S416" s="232"/>
+      <c r="T416" s="232"/>
+      <c r="U416" s="232"/>
+      <c r="V416" s="232"/>
+      <c r="W416" s="232"/>
+      <c r="X416" s="232"/>
+      <c r="Y416" s="232"/>
+      <c r="Z416" s="232"/>
+      <c r="AA416" s="232"/>
+      <c r="AB416" s="232"/>
+      <c r="AC416" s="232"/>
+      <c r="AD416" s="232"/>
+      <c r="AE416" s="232"/>
+      <c r="AF416" s="232"/>
+      <c r="AG416" s="232"/>
+      <c r="AH416" s="232"/>
+      <c r="AI416" s="232"/>
+    </row>
+    <row r="417" spans="2:35" s="225" customFormat="1" ht="16">
+      <c r="B417" s="229"/>
+      <c r="C417" s="232"/>
+      <c r="D417" s="232"/>
+      <c r="E417" s="232"/>
+      <c r="F417" s="232"/>
+      <c r="G417" s="232"/>
+      <c r="H417" s="232"/>
+      <c r="I417" s="232"/>
+      <c r="J417" s="232"/>
+      <c r="K417" s="232"/>
+      <c r="L417" s="232"/>
+      <c r="M417" s="232"/>
+      <c r="N417" s="232"/>
+      <c r="O417" s="232"/>
+      <c r="P417" s="232"/>
+      <c r="Q417" s="232"/>
+      <c r="R417" s="232"/>
+      <c r="S417" s="232"/>
+      <c r="T417" s="232"/>
+      <c r="U417" s="232"/>
+      <c r="V417" s="232"/>
+      <c r="W417" s="232"/>
+      <c r="X417" s="232"/>
+      <c r="Y417" s="232"/>
+      <c r="Z417" s="232"/>
+      <c r="AA417" s="232"/>
+      <c r="AB417" s="232"/>
+      <c r="AC417" s="232"/>
+      <c r="AD417" s="232"/>
+      <c r="AE417" s="232"/>
+      <c r="AF417" s="232"/>
+      <c r="AG417" s="232"/>
+      <c r="AH417" s="232"/>
+      <c r="AI417" s="232"/>
+    </row>
+    <row r="418" spans="2:35" s="225" customFormat="1" ht="16">
+      <c r="B418" s="229"/>
+      <c r="C418" s="232"/>
+      <c r="D418" s="232"/>
+      <c r="E418" s="232"/>
+      <c r="F418" s="232"/>
+      <c r="G418" s="232"/>
+      <c r="H418" s="232"/>
+      <c r="I418" s="232"/>
+      <c r="J418" s="232"/>
+      <c r="K418" s="232"/>
+      <c r="L418" s="232"/>
+      <c r="M418" s="232"/>
+      <c r="N418" s="232"/>
+      <c r="O418" s="232"/>
+      <c r="P418" s="232"/>
+      <c r="Q418" s="232"/>
+      <c r="R418" s="232"/>
+      <c r="S418" s="232"/>
+      <c r="T418" s="232"/>
+      <c r="U418" s="232"/>
+      <c r="V418" s="232"/>
+      <c r="W418" s="232"/>
+      <c r="X418" s="232"/>
+      <c r="Y418" s="232"/>
+      <c r="Z418" s="232"/>
+      <c r="AA418" s="232"/>
+      <c r="AB418" s="232"/>
+      <c r="AC418" s="232"/>
+      <c r="AD418" s="232"/>
+      <c r="AE418" s="232"/>
+      <c r="AF418" s="232"/>
+      <c r="AG418" s="232"/>
+      <c r="AH418" s="232"/>
+      <c r="AI418" s="232"/>
+    </row>
+    <row r="419" spans="2:35" s="225" customFormat="1" ht="16">
+      <c r="B419" s="229"/>
+      <c r="C419" s="232"/>
+      <c r="D419" s="232"/>
+      <c r="E419" s="232"/>
+      <c r="F419" s="232"/>
+      <c r="G419" s="232"/>
+      <c r="H419" s="232"/>
+      <c r="I419" s="232"/>
+      <c r="J419" s="232"/>
+      <c r="K419" s="232"/>
+      <c r="L419" s="232"/>
+      <c r="M419" s="232"/>
+      <c r="N419" s="232"/>
+      <c r="O419" s="232"/>
+      <c r="P419" s="232"/>
+      <c r="Q419" s="232"/>
+      <c r="R419" s="232"/>
+      <c r="S419" s="232"/>
+      <c r="T419" s="232"/>
+      <c r="U419" s="232"/>
+      <c r="V419" s="232"/>
+      <c r="W419" s="232"/>
+      <c r="X419" s="232"/>
+      <c r="Y419" s="232"/>
+      <c r="Z419" s="232"/>
+      <c r="AA419" s="232"/>
+      <c r="AB419" s="232"/>
+      <c r="AC419" s="232"/>
+      <c r="AD419" s="232"/>
+      <c r="AE419" s="232"/>
+      <c r="AF419" s="232"/>
+      <c r="AG419" s="232"/>
+      <c r="AH419" s="232"/>
+      <c r="AI419" s="232"/>
+    </row>
+    <row r="420" spans="2:35" s="225" customFormat="1" ht="16">
+      <c r="B420" s="229"/>
+      <c r="C420" s="232"/>
+      <c r="D420" s="232"/>
+      <c r="E420" s="232"/>
+      <c r="F420" s="232"/>
+      <c r="G420" s="232"/>
+      <c r="H420" s="232"/>
+      <c r="I420" s="232"/>
+      <c r="J420" s="232"/>
+      <c r="K420" s="232"/>
+      <c r="L420" s="232"/>
+      <c r="M420" s="232"/>
+      <c r="N420" s="232"/>
+      <c r="O420" s="232"/>
+      <c r="P420" s="232"/>
+      <c r="Q420" s="232"/>
+      <c r="R420" s="232"/>
+      <c r="S420" s="232"/>
+      <c r="T420" s="232"/>
+      <c r="U420" s="232"/>
+      <c r="V420" s="232"/>
+      <c r="W420" s="232"/>
+      <c r="X420" s="232"/>
+      <c r="Y420" s="232"/>
+      <c r="Z420" s="232"/>
+      <c r="AA420" s="232"/>
+      <c r="AB420" s="232"/>
+      <c r="AC420" s="232"/>
+      <c r="AD420" s="232"/>
+      <c r="AE420" s="232"/>
+      <c r="AF420" s="232"/>
+      <c r="AG420" s="232"/>
+      <c r="AH420" s="232"/>
+      <c r="AI420" s="232"/>
+    </row>
+    <row r="421" spans="2:35" s="225" customFormat="1" ht="16">
+      <c r="B421" s="229"/>
+      <c r="C421" s="232"/>
+      <c r="D421" s="232"/>
+      <c r="E421" s="232"/>
+      <c r="F421" s="232"/>
+      <c r="G421" s="232"/>
+      <c r="H421" s="232"/>
+      <c r="I421" s="232"/>
+      <c r="J421" s="232"/>
+      <c r="K421" s="232"/>
+      <c r="L421" s="232"/>
+      <c r="M421" s="232"/>
+      <c r="N421" s="232"/>
+      <c r="O421" s="232"/>
+      <c r="P421" s="232"/>
+      <c r="Q421" s="232"/>
+      <c r="R421" s="232"/>
+      <c r="S421" s="232"/>
+      <c r="T421" s="232"/>
+      <c r="U421" s="232"/>
+      <c r="V421" s="232"/>
+      <c r="W421" s="232"/>
+      <c r="X421" s="232"/>
+      <c r="Y421" s="232"/>
+      <c r="Z421" s="232"/>
+      <c r="AA421" s="232"/>
+      <c r="AB421" s="232"/>
+      <c r="AC421" s="232"/>
+      <c r="AD421" s="232"/>
+      <c r="AE421" s="232"/>
+      <c r="AF421" s="232"/>
+      <c r="AG421" s="232"/>
+      <c r="AH421" s="232"/>
+      <c r="AI421" s="232"/>
+    </row>
+    <row r="422" spans="2:35" s="225" customFormat="1" ht="16">
+      <c r="B422" s="229"/>
+      <c r="C422" s="232"/>
+      <c r="D422" s="232"/>
+      <c r="E422" s="232"/>
+      <c r="F422" s="232"/>
+      <c r="G422" s="232"/>
+      <c r="H422" s="232"/>
+      <c r="I422" s="232"/>
+      <c r="J422" s="232"/>
+      <c r="K422" s="232"/>
+      <c r="L422" s="232"/>
+      <c r="M422" s="232"/>
+      <c r="N422" s="232"/>
+      <c r="O422" s="232"/>
+      <c r="P422" s="232"/>
+      <c r="Q422" s="232"/>
+      <c r="R422" s="232"/>
+      <c r="S422" s="232"/>
+      <c r="T422" s="232"/>
+      <c r="U422" s="232"/>
+      <c r="V422" s="232"/>
+      <c r="W422" s="232"/>
+      <c r="X422" s="232"/>
+      <c r="Y422" s="232"/>
+      <c r="Z422" s="232"/>
+      <c r="AA422" s="232"/>
+      <c r="AB422" s="232"/>
+      <c r="AC422" s="232"/>
+      <c r="AD422" s="232"/>
+      <c r="AE422" s="232"/>
+      <c r="AF422" s="232"/>
+      <c r="AG422" s="232"/>
+      <c r="AH422" s="232"/>
+      <c r="AI422" s="232"/>
+    </row>
+    <row r="423" spans="2:35" s="225" customFormat="1" ht="16">
+      <c r="B423" s="229"/>
+      <c r="C423" s="232"/>
+      <c r="D423" s="232"/>
+      <c r="E423" s="232"/>
+      <c r="F423" s="232"/>
+      <c r="G423" s="232"/>
+      <c r="H423" s="232"/>
+      <c r="I423" s="232"/>
+      <c r="J423" s="232"/>
+      <c r="K423" s="232"/>
+      <c r="L423" s="232"/>
+      <c r="M423" s="232"/>
+      <c r="N423" s="232"/>
+      <c r="O423" s="232"/>
+      <c r="P423" s="232"/>
+      <c r="Q423" s="232"/>
+      <c r="R423" s="232"/>
+      <c r="S423" s="232"/>
+      <c r="T423" s="232"/>
+      <c r="U423" s="232"/>
+      <c r="V423" s="232"/>
+      <c r="W423" s="232"/>
+      <c r="X423" s="232"/>
+      <c r="Y423" s="232"/>
+      <c r="Z423" s="232"/>
+      <c r="AA423" s="232"/>
+      <c r="AB423" s="232"/>
+      <c r="AC423" s="232"/>
+      <c r="AD423" s="232"/>
+      <c r="AE423" s="232"/>
+      <c r="AF423" s="232"/>
+      <c r="AG423" s="232"/>
+      <c r="AH423" s="232"/>
+      <c r="AI423" s="232"/>
+    </row>
+    <row r="424" spans="2:35" s="225" customFormat="1" ht="16">
+      <c r="B424" s="229"/>
+      <c r="C424" s="232"/>
+      <c r="D424" s="232"/>
+      <c r="E424" s="232"/>
+      <c r="F424" s="232"/>
+      <c r="G424" s="232"/>
+      <c r="H424" s="232"/>
+      <c r="I424" s="232"/>
+      <c r="J424" s="232"/>
+      <c r="K424" s="232"/>
+      <c r="L424" s="232"/>
+      <c r="M424" s="232"/>
+      <c r="N424" s="232"/>
+      <c r="O424" s="232"/>
+      <c r="P424" s="232"/>
+      <c r="Q424" s="232"/>
+      <c r="R424" s="232"/>
+      <c r="S424" s="232"/>
+      <c r="T424" s="232"/>
+      <c r="U424" s="232"/>
+      <c r="V424" s="232"/>
+      <c r="W424" s="232"/>
+      <c r="X424" s="232"/>
+      <c r="Y424" s="232"/>
+      <c r="Z424" s="232"/>
+      <c r="AA424" s="232"/>
+      <c r="AB424" s="232"/>
+      <c r="AC424" s="232"/>
+      <c r="AD424" s="232"/>
+      <c r="AE424" s="232"/>
+      <c r="AF424" s="232"/>
+      <c r="AG424" s="232"/>
+      <c r="AH424" s="232"/>
+      <c r="AI424" s="232"/>
+    </row>
+    <row r="425" spans="2:35" s="225" customFormat="1" ht="16">
+      <c r="B425" s="229"/>
+      <c r="C425" s="232"/>
+      <c r="D425" s="232"/>
+      <c r="E425" s="232"/>
+      <c r="F425" s="232"/>
+      <c r="G425" s="232"/>
+      <c r="H425" s="232"/>
+      <c r="I425" s="232"/>
+      <c r="J425" s="232"/>
+      <c r="K425" s="232"/>
+      <c r="L425" s="232"/>
+      <c r="M425" s="232"/>
+      <c r="N425" s="232"/>
+      <c r="O425" s="232"/>
+      <c r="P425" s="232"/>
+      <c r="Q425" s="232"/>
+      <c r="R425" s="232"/>
+      <c r="S425" s="232"/>
+      <c r="T425" s="232"/>
+      <c r="U425" s="232"/>
+      <c r="V425" s="232"/>
+      <c r="W425" s="232"/>
+      <c r="X425" s="232"/>
+      <c r="Y425" s="232"/>
+      <c r="Z425" s="232"/>
+      <c r="AA425" s="232"/>
+      <c r="AB425" s="232"/>
+      <c r="AC425" s="232"/>
+      <c r="AD425" s="232"/>
+      <c r="AE425" s="232"/>
+      <c r="AF425" s="232"/>
+      <c r="AG425" s="232"/>
+      <c r="AH425" s="232"/>
+      <c r="AI425" s="232"/>
+    </row>
+    <row r="426" spans="2:35" s="225" customFormat="1" ht="16">
+      <c r="B426" s="229"/>
+      <c r="C426" s="232"/>
+      <c r="D426" s="232"/>
+      <c r="E426" s="232"/>
+      <c r="F426" s="232"/>
+      <c r="G426" s="232"/>
+      <c r="H426" s="232"/>
+      <c r="I426" s="232"/>
+      <c r="J426" s="232"/>
+      <c r="K426" s="232"/>
+      <c r="L426" s="232"/>
+      <c r="M426" s="232"/>
+      <c r="N426" s="232"/>
+      <c r="O426" s="232"/>
+      <c r="P426" s="232"/>
+      <c r="Q426" s="232"/>
+      <c r="R426" s="232"/>
+      <c r="S426" s="232"/>
+      <c r="T426" s="232"/>
+      <c r="U426" s="232"/>
+      <c r="V426" s="232"/>
+      <c r="W426" s="232"/>
+      <c r="X426" s="232"/>
+      <c r="Y426" s="232"/>
+      <c r="Z426" s="232"/>
+      <c r="AA426" s="232"/>
+      <c r="AB426" s="232"/>
+      <c r="AC426" s="232"/>
+      <c r="AD426" s="232"/>
+      <c r="AE426" s="232"/>
+      <c r="AF426" s="232"/>
+      <c r="AG426" s="232"/>
+      <c r="AH426" s="232"/>
+      <c r="AI426" s="232"/>
+    </row>
+    <row r="427" spans="2:35" s="225" customFormat="1" ht="16">
+      <c r="B427" s="229"/>
+      <c r="C427" s="232"/>
+      <c r="D427" s="232"/>
+      <c r="E427" s="232"/>
+      <c r="F427" s="232"/>
+      <c r="G427" s="232"/>
+      <c r="H427" s="232"/>
+      <c r="I427" s="232"/>
+      <c r="J427" s="232"/>
+      <c r="K427" s="232"/>
+      <c r="L427" s="232"/>
+      <c r="M427" s="232"/>
+      <c r="N427" s="232"/>
+      <c r="O427" s="232"/>
+      <c r="P427" s="232"/>
+      <c r="Q427" s="232"/>
+      <c r="R427" s="232"/>
+      <c r="S427" s="232"/>
+      <c r="T427" s="232"/>
+      <c r="U427" s="232"/>
+      <c r="V427" s="232"/>
+      <c r="W427" s="232"/>
+      <c r="X427" s="232"/>
+      <c r="Y427" s="232"/>
+      <c r="Z427" s="232"/>
+      <c r="AA427" s="232"/>
+      <c r="AB427" s="232"/>
+      <c r="AC427" s="232"/>
+      <c r="AD427" s="232"/>
+      <c r="AE427" s="232"/>
+      <c r="AF427" s="232"/>
+      <c r="AG427" s="232"/>
+      <c r="AH427" s="232"/>
+      <c r="AI427" s="232"/>
+    </row>
+    <row r="428" spans="2:35" s="225" customFormat="1" ht="16">
+      <c r="B428" s="229"/>
+      <c r="C428" s="232"/>
+      <c r="D428" s="232"/>
+      <c r="E428" s="232"/>
+      <c r="F428" s="232"/>
+      <c r="G428" s="232"/>
+      <c r="H428" s="232"/>
+      <c r="I428" s="232"/>
+      <c r="J428" s="232"/>
+      <c r="K428" s="232"/>
+      <c r="L428" s="232"/>
+      <c r="M428" s="232"/>
+      <c r="N428" s="232"/>
+      <c r="O428" s="232"/>
+      <c r="P428" s="232"/>
+      <c r="Q428" s="232"/>
+      <c r="R428" s="232"/>
+      <c r="S428" s="232"/>
+      <c r="T428" s="232"/>
+      <c r="U428" s="232"/>
+      <c r="V428" s="232"/>
+      <c r="W428" s="232"/>
+      <c r="X428" s="232"/>
+      <c r="Y428" s="232"/>
+      <c r="Z428" s="232"/>
+      <c r="AA428" s="232"/>
+      <c r="AB428" s="232"/>
+      <c r="AC428" s="232"/>
+      <c r="AD428" s="232"/>
+      <c r="AE428" s="232"/>
+      <c r="AF428" s="232"/>
+      <c r="AG428" s="232"/>
+      <c r="AH428" s="232"/>
+      <c r="AI428" s="232"/>
+    </row>
+    <row r="429" spans="2:35" s="225" customFormat="1" ht="16">
+      <c r="B429" s="229"/>
+      <c r="C429" s="232"/>
+      <c r="D429" s="232"/>
+      <c r="E429" s="232"/>
+      <c r="F429" s="232"/>
+      <c r="G429" s="232"/>
+      <c r="H429" s="232"/>
+      <c r="I429" s="232"/>
+      <c r="J429" s="232"/>
+      <c r="K429" s="232"/>
+      <c r="L429" s="232"/>
+      <c r="M429" s="232"/>
+      <c r="N429" s="232"/>
+      <c r="O429" s="232"/>
+      <c r="P429" s="232"/>
+      <c r="Q429" s="232"/>
+      <c r="R429" s="232"/>
+      <c r="S429" s="232"/>
+      <c r="T429" s="232"/>
+      <c r="U429" s="232"/>
+      <c r="V429" s="232"/>
+      <c r="W429" s="232"/>
+      <c r="X429" s="232"/>
+      <c r="Y429" s="232"/>
+      <c r="Z429" s="232"/>
+      <c r="AA429" s="232"/>
+      <c r="AB429" s="232"/>
+      <c r="AC429" s="232"/>
+      <c r="AD429" s="232"/>
+      <c r="AE429" s="232"/>
+      <c r="AF429" s="232"/>
+      <c r="AG429" s="232"/>
+      <c r="AH429" s="232"/>
+      <c r="AI429" s="232"/>
+    </row>
+    <row r="430" spans="2:35" s="225" customFormat="1" ht="16">
+      <c r="B430" s="229"/>
+      <c r="C430" s="232"/>
+      <c r="D430" s="232"/>
+      <c r="E430" s="232"/>
+      <c r="F430" s="232"/>
+      <c r="G430" s="232"/>
+      <c r="H430" s="232"/>
+      <c r="I430" s="232"/>
+      <c r="J430" s="232"/>
+      <c r="K430" s="232"/>
+      <c r="L430" s="232"/>
+      <c r="M430" s="232"/>
+      <c r="N430" s="232"/>
+      <c r="O430" s="232"/>
+      <c r="P430" s="232"/>
+      <c r="Q430" s="232"/>
+      <c r="R430" s="232"/>
+      <c r="S430" s="232"/>
+      <c r="T430" s="232"/>
+      <c r="U430" s="232"/>
+      <c r="V430" s="232"/>
+      <c r="W430" s="232"/>
+      <c r="X430" s="232"/>
+      <c r="Y430" s="232"/>
+      <c r="Z430" s="232"/>
+      <c r="AA430" s="232"/>
+      <c r="AB430" s="232"/>
+      <c r="AC430" s="232"/>
+      <c r="AD430" s="232"/>
+      <c r="AE430" s="232"/>
+      <c r="AF430" s="232"/>
+      <c r="AG430" s="232"/>
+      <c r="AH430" s="232"/>
+      <c r="AI430" s="232"/>
+    </row>
+    <row r="431" spans="2:35" s="225" customFormat="1" ht="16">
+      <c r="B431" s="229"/>
+      <c r="C431" s="232"/>
+      <c r="D431" s="232"/>
+      <c r="E431" s="232"/>
+      <c r="F431" s="232"/>
+      <c r="G431" s="232"/>
+      <c r="H431" s="232"/>
+      <c r="I431" s="232"/>
+      <c r="J431" s="232"/>
+      <c r="K431" s="232"/>
+      <c r="L431" s="232"/>
+      <c r="M431" s="232"/>
+      <c r="N431" s="232"/>
+      <c r="O431" s="232"/>
+      <c r="P431" s="232"/>
+      <c r="Q431" s="232"/>
+      <c r="R431" s="232"/>
+      <c r="S431" s="232"/>
+      <c r="T431" s="232"/>
+      <c r="U431" s="232"/>
+      <c r="V431" s="232"/>
+      <c r="W431" s="232"/>
+      <c r="X431" s="232"/>
+      <c r="Y431" s="232"/>
+      <c r="Z431" s="232"/>
+      <c r="AA431" s="232"/>
+      <c r="AB431" s="232"/>
+      <c r="AC431" s="232"/>
+      <c r="AD431" s="232"/>
+      <c r="AE431" s="232"/>
+      <c r="AF431" s="232"/>
+      <c r="AG431" s="232"/>
+      <c r="AH431" s="232"/>
+      <c r="AI431" s="232"/>
+    </row>
+    <row r="432" spans="2:35" s="225" customFormat="1" ht="16">
+      <c r="B432" s="229"/>
+      <c r="C432" s="232"/>
+      <c r="D432" s="232"/>
+      <c r="E432" s="232"/>
+      <c r="F432" s="232"/>
+      <c r="G432" s="232"/>
+      <c r="H432" s="232"/>
+      <c r="I432" s="232"/>
+      <c r="J432" s="232"/>
+      <c r="K432" s="232"/>
+      <c r="L432" s="232"/>
+      <c r="M432" s="232"/>
+      <c r="N432" s="232"/>
+      <c r="O432" s="232"/>
+      <c r="P432" s="232"/>
+      <c r="Q432" s="232"/>
+      <c r="R432" s="232"/>
+      <c r="S432" s="232"/>
+      <c r="T432" s="232"/>
+      <c r="U432" s="232"/>
+      <c r="V432" s="232"/>
+      <c r="W432" s="232"/>
+      <c r="X432" s="232"/>
+      <c r="Y432" s="232"/>
+      <c r="Z432" s="232"/>
+      <c r="AA432" s="232"/>
+      <c r="AB432" s="232"/>
+      <c r="AC432" s="232"/>
+      <c r="AD432" s="232"/>
+      <c r="AE432" s="232"/>
+      <c r="AF432" s="232"/>
+      <c r="AG432" s="232"/>
+      <c r="AH432" s="232"/>
+      <c r="AI432" s="232"/>
+    </row>
+    <row r="433" spans="2:35" s="225" customFormat="1" ht="16">
+      <c r="B433" s="229"/>
+      <c r="C433" s="232"/>
+      <c r="D433" s="232"/>
+      <c r="E433" s="232"/>
+      <c r="F433" s="232"/>
+      <c r="G433" s="232"/>
+      <c r="H433" s="232"/>
+      <c r="I433" s="232"/>
+      <c r="J433" s="232"/>
+      <c r="K433" s="232"/>
+      <c r="L433" s="232"/>
+      <c r="M433" s="232"/>
+      <c r="N433" s="232"/>
+      <c r="O433" s="232"/>
+      <c r="P433" s="232"/>
+      <c r="Q433" s="232"/>
+      <c r="R433" s="232"/>
+      <c r="S433" s="232"/>
+      <c r="T433" s="232"/>
+      <c r="U433" s="232"/>
+      <c r="V433" s="232"/>
+      <c r="W433" s="232"/>
+      <c r="X433" s="232"/>
+      <c r="Y433" s="232"/>
+      <c r="Z433" s="232"/>
+      <c r="AA433" s="232"/>
+      <c r="AB433" s="232"/>
+      <c r="AC433" s="232"/>
+      <c r="AD433" s="232"/>
+      <c r="AE433" s="232"/>
+      <c r="AF433" s="232"/>
+      <c r="AG433" s="232"/>
+      <c r="AH433" s="232"/>
+      <c r="AI433" s="232"/>
+    </row>
+    <row r="434" spans="2:35" s="225" customFormat="1" ht="16">
+      <c r="B434" s="229"/>
+      <c r="C434" s="232"/>
+      <c r="D434" s="232"/>
+      <c r="E434" s="232"/>
+      <c r="F434" s="232"/>
+      <c r="G434" s="232"/>
+      <c r="H434" s="232"/>
+      <c r="I434" s="232"/>
+      <c r="J434" s="232"/>
+      <c r="K434" s="232"/>
+      <c r="L434" s="232"/>
+      <c r="M434" s="232"/>
+      <c r="N434" s="232"/>
+      <c r="O434" s="232"/>
+      <c r="P434" s="232"/>
+      <c r="Q434" s="232"/>
+      <c r="R434" s="232"/>
+      <c r="S434" s="232"/>
+      <c r="T434" s="232"/>
+      <c r="U434" s="232"/>
+      <c r="V434" s="232"/>
+      <c r="W434" s="232"/>
+      <c r="X434" s="232"/>
+      <c r="Y434" s="232"/>
+      <c r="Z434" s="232"/>
+      <c r="AA434" s="232"/>
+      <c r="AB434" s="232"/>
+      <c r="AC434" s="232"/>
+      <c r="AD434" s="232"/>
+      <c r="AE434" s="232"/>
+      <c r="AF434" s="232"/>
+      <c r="AG434" s="232"/>
+      <c r="AH434" s="232"/>
+      <c r="AI434" s="232"/>
+    </row>
+    <row r="435" spans="2:35" s="225" customFormat="1" ht="16">
+      <c r="B435" s="229"/>
+      <c r="C435" s="232"/>
+      <c r="D435" s="232"/>
+      <c r="E435" s="232"/>
+      <c r="F435" s="232"/>
+      <c r="G435" s="232"/>
+      <c r="H435" s="232"/>
+      <c r="I435" s="232"/>
+      <c r="J435" s="232"/>
+      <c r="K435" s="232"/>
+      <c r="L435" s="232"/>
+      <c r="M435" s="232"/>
+      <c r="N435" s="232"/>
+      <c r="O435" s="232"/>
+      <c r="P435" s="232"/>
+      <c r="Q435" s="232"/>
+      <c r="R435" s="232"/>
+      <c r="S435" s="232"/>
+      <c r="T435" s="232"/>
+      <c r="U435" s="232"/>
+      <c r="V435" s="232"/>
+      <c r="W435" s="232"/>
+      <c r="X435" s="232"/>
+      <c r="Y435" s="232"/>
+      <c r="Z435" s="232"/>
+      <c r="AA435" s="232"/>
+      <c r="AB435" s="232"/>
+      <c r="AC435" s="232"/>
+      <c r="AD435" s="232"/>
+      <c r="AE435" s="232"/>
+      <c r="AF435" s="232"/>
+      <c r="AG435" s="232"/>
+      <c r="AH435" s="232"/>
+      <c r="AI435" s="232"/>
+    </row>
+    <row r="436" spans="2:35" s="225" customFormat="1" ht="16">
+      <c r="B436" s="229"/>
+      <c r="C436" s="232"/>
+      <c r="D436" s="232"/>
+      <c r="E436" s="232"/>
+      <c r="F436" s="232"/>
+      <c r="G436" s="232"/>
+      <c r="H436" s="232"/>
+      <c r="I436" s="232"/>
+      <c r="J436" s="232"/>
+      <c r="K436" s="232"/>
+      <c r="L436" s="232"/>
+      <c r="M436" s="232"/>
+      <c r="N436" s="232"/>
+      <c r="O436" s="232"/>
+      <c r="P436" s="232"/>
+      <c r="Q436" s="232"/>
+      <c r="R436" s="232"/>
+      <c r="S436" s="232"/>
+      <c r="T436" s="232"/>
+      <c r="U436" s="232"/>
+      <c r="V436" s="232"/>
+      <c r="W436" s="232"/>
+      <c r="X436" s="232"/>
+      <c r="Y436" s="232"/>
+      <c r="Z436" s="232"/>
+      <c r="AA436" s="232"/>
+      <c r="AB436" s="232"/>
+      <c r="AC436" s="232"/>
+      <c r="AD436" s="232"/>
+      <c r="AE436" s="232"/>
+      <c r="AF436" s="232"/>
+      <c r="AG436" s="232"/>
+      <c r="AH436" s="232"/>
+      <c r="AI436" s="232"/>
+    </row>
+    <row r="437" spans="2:35" s="225" customFormat="1" ht="16">
+      <c r="B437" s="229"/>
+      <c r="C437" s="232"/>
+      <c r="D437" s="232"/>
+      <c r="E437" s="232"/>
+      <c r="F437" s="232"/>
+      <c r="G437" s="232"/>
+      <c r="H437" s="232"/>
+      <c r="I437" s="232"/>
+      <c r="J437" s="232"/>
+      <c r="K437" s="232"/>
+      <c r="L437" s="232"/>
+      <c r="M437" s="232"/>
+      <c r="N437" s="232"/>
+      <c r="O437" s="232"/>
+      <c r="P437" s="232"/>
+      <c r="Q437" s="232"/>
+      <c r="R437" s="232"/>
+      <c r="S437" s="232"/>
+      <c r="T437" s="232"/>
+      <c r="U437" s="232"/>
+      <c r="V437" s="232"/>
+      <c r="W437" s="232"/>
+      <c r="X437" s="232"/>
+      <c r="Y437" s="232"/>
+      <c r="Z437" s="232"/>
+      <c r="AA437" s="232"/>
+      <c r="AB437" s="232"/>
+      <c r="AC437" s="232"/>
+      <c r="AD437" s="232"/>
+      <c r="AE437" s="232"/>
+      <c r="AF437" s="232"/>
+      <c r="AG437" s="232"/>
+      <c r="AH437" s="232"/>
+      <c r="AI437" s="232"/>
+    </row>
+    <row r="438" spans="2:35" s="225" customFormat="1" ht="16">
+      <c r="B438" s="229"/>
+      <c r="C438" s="232"/>
+      <c r="D438" s="232"/>
+      <c r="E438" s="232"/>
+      <c r="F438" s="232"/>
+      <c r="G438" s="232"/>
+      <c r="H438" s="232"/>
+      <c r="I438" s="232"/>
+      <c r="J438" s="232"/>
+      <c r="K438" s="232"/>
+      <c r="L438" s="232"/>
+      <c r="M438" s="232"/>
+      <c r="N438" s="232"/>
+      <c r="O438" s="232"/>
+      <c r="P438" s="232"/>
+      <c r="Q438" s="232"/>
+      <c r="R438" s="232"/>
+      <c r="S438" s="232"/>
+      <c r="T438" s="232"/>
+      <c r="U438" s="232"/>
+      <c r="V438" s="232"/>
+      <c r="W438" s="232"/>
+      <c r="X438" s="232"/>
+      <c r="Y438" s="232"/>
+      <c r="Z438" s="232"/>
+      <c r="AA438" s="232"/>
+      <c r="AB438" s="232"/>
+      <c r="AC438" s="232"/>
+      <c r="AD438" s="232"/>
+      <c r="AE438" s="232"/>
+      <c r="AF438" s="232"/>
+      <c r="AG438" s="232"/>
+      <c r="AH438" s="232"/>
+      <c r="AI438" s="232"/>
+    </row>
+    <row r="439" spans="2:35" s="225" customFormat="1" ht="16">
+      <c r="B439" s="229"/>
+      <c r="C439" s="232"/>
+      <c r="D439" s="232"/>
+      <c r="E439" s="232"/>
+      <c r="F439" s="232"/>
+      <c r="G439" s="232"/>
+      <c r="H439" s="232"/>
+      <c r="I439" s="232"/>
+      <c r="J439" s="232"/>
+      <c r="K439" s="232"/>
+      <c r="L439" s="232"/>
+      <c r="M439" s="232"/>
+      <c r="N439" s="232"/>
+      <c r="O439" s="232"/>
+      <c r="P439" s="232"/>
+      <c r="Q439" s="232"/>
+      <c r="R439" s="232"/>
+      <c r="S439" s="232"/>
+      <c r="T439" s="232"/>
+      <c r="U439" s="232"/>
+      <c r="V439" s="232"/>
+      <c r="W439" s="232"/>
+      <c r="X439" s="232"/>
+      <c r="Y439" s="232"/>
+      <c r="Z439" s="232"/>
+      <c r="AA439" s="232"/>
+      <c r="AB439" s="232"/>
+      <c r="AC439" s="232"/>
+      <c r="AD439" s="232"/>
+      <c r="AE439" s="232"/>
+      <c r="AF439" s="232"/>
+      <c r="AG439" s="232"/>
+      <c r="AH439" s="232"/>
+      <c r="AI439" s="232"/>
+    </row>
+    <row r="440" spans="2:35" s="225" customFormat="1" ht="16">
+      <c r="B440" s="229"/>
+      <c r="C440" s="232"/>
+      <c r="D440" s="232"/>
+      <c r="E440" s="232"/>
+      <c r="F440" s="232"/>
+      <c r="G440" s="232"/>
+      <c r="H440" s="232"/>
+      <c r="I440" s="232"/>
+      <c r="J440" s="232"/>
+      <c r="K440" s="232"/>
+      <c r="L440" s="232"/>
+      <c r="M440" s="232"/>
+      <c r="N440" s="232"/>
+      <c r="O440" s="232"/>
+      <c r="P440" s="232"/>
+      <c r="Q440" s="232"/>
+      <c r="R440" s="232"/>
+      <c r="S440" s="232"/>
+      <c r="T440" s="232"/>
+      <c r="U440" s="232"/>
+      <c r="V440" s="232"/>
+      <c r="W440" s="232"/>
+      <c r="X440" s="232"/>
+      <c r="Y440" s="232"/>
+      <c r="Z440" s="232"/>
+      <c r="AA440" s="232"/>
+      <c r="AB440" s="232"/>
+      <c r="AC440" s="232"/>
+      <c r="AD440" s="232"/>
+      <c r="AE440" s="232"/>
+      <c r="AF440" s="232"/>
+      <c r="AG440" s="232"/>
+      <c r="AH440" s="232"/>
+      <c r="AI440" s="232"/>
+    </row>
+    <row r="441" spans="2:35" s="225" customFormat="1" ht="16">
+      <c r="B441" s="229"/>
+      <c r="C441" s="232"/>
+      <c r="D441" s="232"/>
+      <c r="E441" s="232"/>
+      <c r="F441" s="232"/>
+      <c r="G441" s="232"/>
+      <c r="H441" s="232"/>
+      <c r="I441" s="232"/>
+      <c r="J441" s="232"/>
+      <c r="K441" s="232"/>
+      <c r="L441" s="232"/>
+      <c r="M441" s="232"/>
+      <c r="N441" s="232"/>
+      <c r="O441" s="232"/>
+      <c r="P441" s="232"/>
+      <c r="Q441" s="232"/>
+      <c r="R441" s="232"/>
+      <c r="S441" s="232"/>
+      <c r="T441" s="232"/>
+      <c r="U441" s="232"/>
+      <c r="V441" s="232"/>
+      <c r="W441" s="232"/>
+      <c r="X441" s="232"/>
+      <c r="Y441" s="232"/>
+      <c r="Z441" s="232"/>
+      <c r="AA441" s="232"/>
+      <c r="AB441" s="232"/>
+      <c r="AC441" s="232"/>
+      <c r="AD441" s="232"/>
+      <c r="AE441" s="232"/>
+      <c r="AF441" s="232"/>
+      <c r="AG441" s="232"/>
+      <c r="AH441" s="232"/>
+      <c r="AI441" s="232"/>
+    </row>
+    <row r="442" spans="2:35" s="225" customFormat="1" ht="16">
+      <c r="B442" s="229"/>
+      <c r="C442" s="232"/>
+      <c r="D442" s="232"/>
+      <c r="E442" s="232"/>
+      <c r="F442" s="232"/>
+      <c r="G442" s="232"/>
+      <c r="H442" s="232"/>
+      <c r="I442" s="232"/>
+      <c r="J442" s="232"/>
+      <c r="K442" s="232"/>
+      <c r="L442" s="232"/>
+      <c r="M442" s="232"/>
+      <c r="N442" s="232"/>
+      <c r="O442" s="232"/>
+      <c r="P442" s="232"/>
+      <c r="Q442" s="232"/>
+      <c r="R442" s="232"/>
+      <c r="S442" s="232"/>
+      <c r="T442" s="232"/>
+      <c r="U442" s="232"/>
+      <c r="V442" s="232"/>
+      <c r="W442" s="232"/>
+      <c r="X442" s="232"/>
+      <c r="Y442" s="232"/>
+      <c r="Z442" s="232"/>
+      <c r="AA442" s="232"/>
+      <c r="AB442" s="232"/>
+      <c r="AC442" s="232"/>
+      <c r="AD442" s="232"/>
+      <c r="AE442" s="232"/>
+      <c r="AF442" s="232"/>
+      <c r="AG442" s="232"/>
+      <c r="AH442" s="232"/>
+      <c r="AI442" s="232"/>
+    </row>
+    <row r="443" spans="2:35" s="225" customFormat="1" ht="16">
+      <c r="B443" s="229"/>
+      <c r="C443" s="232"/>
+      <c r="D443" s="232"/>
+      <c r="E443" s="232"/>
+      <c r="F443" s="232"/>
+      <c r="G443" s="232"/>
+      <c r="H443" s="232"/>
+      <c r="I443" s="232"/>
+      <c r="J443" s="232"/>
+      <c r="K443" s="232"/>
+      <c r="L443" s="232"/>
+      <c r="M443" s="232"/>
+      <c r="N443" s="232"/>
+      <c r="O443" s="232"/>
+      <c r="P443" s="232"/>
+      <c r="Q443" s="232"/>
+      <c r="R443" s="232"/>
+      <c r="S443" s="232"/>
+      <c r="T443" s="232"/>
+      <c r="U443" s="232"/>
+      <c r="V443" s="232"/>
+      <c r="W443" s="232"/>
+      <c r="X443" s="232"/>
+      <c r="Y443" s="232"/>
+      <c r="Z443" s="232"/>
+      <c r="AA443" s="232"/>
+      <c r="AB443" s="232"/>
+      <c r="AC443" s="232"/>
+      <c r="AD443" s="232"/>
+      <c r="AE443" s="232"/>
+      <c r="AF443" s="232"/>
+      <c r="AG443" s="232"/>
+      <c r="AH443" s="232"/>
+      <c r="AI443" s="232"/>
+    </row>
+    <row r="444" spans="2:35" s="225" customFormat="1" ht="16">
+      <c r="B444" s="229"/>
+      <c r="C444" s="232"/>
+      <c r="D444" s="232"/>
+      <c r="E444" s="232"/>
+      <c r="F444" s="232"/>
+      <c r="G444" s="232"/>
+      <c r="H444" s="232"/>
+      <c r="I444" s="232"/>
+      <c r="J444" s="232"/>
+      <c r="K444" s="232"/>
+      <c r="L444" s="232"/>
+      <c r="M444" s="232"/>
+      <c r="N444" s="232"/>
+      <c r="O444" s="232"/>
+      <c r="P444" s="232"/>
+      <c r="Q444" s="232"/>
+      <c r="R444" s="232"/>
+      <c r="S444" s="232"/>
+      <c r="T444" s="232"/>
+      <c r="U444" s="232"/>
+      <c r="V444" s="232"/>
+      <c r="W444" s="232"/>
+      <c r="X444" s="232"/>
+      <c r="Y444" s="232"/>
+      <c r="Z444" s="232"/>
+      <c r="AA444" s="232"/>
+      <c r="AB444" s="232"/>
+      <c r="AC444" s="232"/>
+      <c r="AD444" s="232"/>
+      <c r="AE444" s="232"/>
+      <c r="AF444" s="232"/>
+      <c r="AG444" s="232"/>
+      <c r="AH444" s="232"/>
+      <c r="AI444" s="232"/>
+    </row>
+    <row r="445" spans="2:35" s="225" customFormat="1" ht="16">
+      <c r="B445" s="229"/>
+      <c r="C445" s="232"/>
+      <c r="D445" s="232"/>
+      <c r="E445" s="232"/>
+      <c r="F445" s="232"/>
+      <c r="G445" s="232"/>
+      <c r="H445" s="232"/>
+      <c r="I445" s="232"/>
+      <c r="J445" s="232"/>
+      <c r="K445" s="232"/>
+      <c r="L445" s="232"/>
+      <c r="M445" s="232"/>
+      <c r="N445" s="232"/>
+      <c r="O445" s="232"/>
+      <c r="P445" s="232"/>
+      <c r="Q445" s="232"/>
+      <c r="R445" s="232"/>
+      <c r="S445" s="232"/>
+      <c r="T445" s="232"/>
+      <c r="U445" s="232"/>
+      <c r="V445" s="232"/>
+      <c r="W445" s="232"/>
+      <c r="X445" s="232"/>
+      <c r="Y445" s="232"/>
+      <c r="Z445" s="232"/>
+      <c r="AA445" s="232"/>
+      <c r="AB445" s="232"/>
+      <c r="AC445" s="232"/>
+      <c r="AD445" s="232"/>
+      <c r="AE445" s="232"/>
+      <c r="AF445" s="232"/>
+      <c r="AG445" s="232"/>
+      <c r="AH445" s="232"/>
+      <c r="AI445" s="232"/>
+    </row>
+    <row r="446" spans="2:35" s="225" customFormat="1" ht="16">
+      <c r="B446" s="229"/>
+      <c r="C446" s="232"/>
+      <c r="D446" s="232"/>
+      <c r="E446" s="232"/>
+      <c r="F446" s="232"/>
+      <c r="G446" s="232"/>
+      <c r="H446" s="232"/>
+      <c r="I446" s="232"/>
+      <c r="J446" s="232"/>
+      <c r="K446" s="232"/>
+      <c r="L446" s="232"/>
+      <c r="M446" s="232"/>
+      <c r="N446" s="232"/>
+      <c r="O446" s="232"/>
+      <c r="P446" s="232"/>
+      <c r="Q446" s="232"/>
+      <c r="R446" s="232"/>
+      <c r="S446" s="232"/>
+      <c r="T446" s="232"/>
+      <c r="U446" s="232"/>
+      <c r="V446" s="232"/>
+      <c r="W446" s="232"/>
+      <c r="X446" s="232"/>
+      <c r="Y446" s="232"/>
+      <c r="Z446" s="232"/>
+      <c r="AA446" s="232"/>
+      <c r="AB446" s="232"/>
+      <c r="AC446" s="232"/>
+      <c r="AD446" s="232"/>
+      <c r="AE446" s="232"/>
+      <c r="AF446" s="232"/>
+      <c r="AG446" s="232"/>
+      <c r="AH446" s="232"/>
+      <c r="AI446" s="232"/>
+    </row>
+    <row r="447" spans="2:35" s="225" customFormat="1" ht="16">
+      <c r="B447" s="229"/>
+      <c r="C447" s="232"/>
+      <c r="D447" s="232"/>
+      <c r="E447" s="232"/>
+      <c r="F447" s="232"/>
+      <c r="G447" s="232"/>
+      <c r="H447" s="232"/>
+      <c r="I447" s="232"/>
+      <c r="J447" s="232"/>
+      <c r="K447" s="232"/>
+      <c r="L447" s="232"/>
+      <c r="M447" s="232"/>
+      <c r="N447" s="232"/>
+      <c r="O447" s="232"/>
+      <c r="P447" s="232"/>
+      <c r="Q447" s="232"/>
+      <c r="R447" s="232"/>
+      <c r="S447" s="232"/>
+      <c r="T447" s="232"/>
+      <c r="U447" s="232"/>
+      <c r="V447" s="232"/>
+      <c r="W447" s="232"/>
+      <c r="X447" s="232"/>
+      <c r="Y447" s="232"/>
+      <c r="Z447" s="232"/>
+      <c r="AA447" s="232"/>
+      <c r="AB447" s="232"/>
+      <c r="AC447" s="232"/>
+      <c r="AD447" s="232"/>
+      <c r="AE447" s="232"/>
+      <c r="AF447" s="232"/>
+      <c r="AG447" s="232"/>
+      <c r="AH447" s="232"/>
+      <c r="AI447" s="232"/>
+    </row>
+    <row r="448" spans="2:35" s="225" customFormat="1" ht="16">
+      <c r="B448" s="229"/>
+      <c r="C448" s="232"/>
+      <c r="D448" s="232"/>
+      <c r="E448" s="232"/>
+      <c r="F448" s="232"/>
+      <c r="G448" s="232"/>
+      <c r="H448" s="232"/>
+      <c r="I448" s="232"/>
+      <c r="J448" s="232"/>
+      <c r="K448" s="232"/>
+      <c r="L448" s="232"/>
+      <c r="M448" s="232"/>
+      <c r="N448" s="232"/>
+      <c r="O448" s="232"/>
+      <c r="P448" s="232"/>
+      <c r="Q448" s="232"/>
+      <c r="R448" s="232"/>
+      <c r="S448" s="232"/>
+      <c r="T448" s="232"/>
+      <c r="U448" s="232"/>
+      <c r="V448" s="232"/>
+      <c r="W448" s="232"/>
+      <c r="X448" s="232"/>
+      <c r="Y448" s="232"/>
+      <c r="Z448" s="232"/>
+      <c r="AA448" s="232"/>
+      <c r="AB448" s="232"/>
+      <c r="AC448" s="232"/>
+      <c r="AD448" s="232"/>
+      <c r="AE448" s="232"/>
+      <c r="AF448" s="232"/>
+      <c r="AG448" s="232"/>
+      <c r="AH448" s="232"/>
+      <c r="AI448" s="232"/>
+    </row>
+    <row r="449" s="225" customFormat="1"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="J380" r:id="rId1"/>

--- a/carriers_source_analyses/wood_pellets.carrier.xlsx
+++ b/carriers_source_analyses/wood_pellets.carrier.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/carriers_source_analyses/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16100" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="44760" yWindow="-5580" windowWidth="28800" windowHeight="16100" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -33,8 +38,11 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -525,10 +533,6 @@
   </si>
   <si>
     <t>Carrier (global properties)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This sheet summarizes all carrier attributes formatted in the way they are used by the Energy Transition Model. This sheet contains only pure carrier values. For some countries and carriers Fuel Chain Emissions are defined (only for NL); if so these FCE are documented in a separate sheet (e.g. nl_fce). Use the Excel formulas to find the original data and sources for these numbers. 
-</t>
   </si>
   <si>
     <t>This sheet summarizes the Fuel Chain Emissions attributes formatted in the way they are used by the Energy Transition Model. These FCE are only specified for carriers and at the moment only for NL.</t>
@@ -615,6 +619,11 @@
   <si>
     <t>wood</t>
   </si>
+  <si>
+    <t>This sheet summarizes all carrier attributes formatted in the way they are used by the Energy Transition Model. This sheet contains only pure carrier values. For some countries and carriers Fuel Chain Emissions are defined (only for NL); if so these FCE are documented in a separate sheet (e.g. nl_fce). Use the Excel formulas to find the original data and sources for these numbers. 
+- The carrier analysis can be imported on ETSource by running the following rake task: rake import:carrier CARRIER="carrier name" (eg rake import:carrier CARRIER=crude_oil) 
+- The fce analysis can be imported on ETSource by running the following rake task: rake import:fce DATASET="dataset" CARRIER="carrier name" (eg rake import:fce DATASET=nl CARRIER=bio_ethanol)</t>
+  </si>
 </sst>
 </file>
 
@@ -634,7 +643,7 @@
     <numFmt numFmtId="174" formatCode="#,##0.0000000000"/>
     <numFmt numFmtId="175" formatCode="0.0000000000000000"/>
   </numFmts>
-  <fonts count="52" x14ac:knownFonts="1">
+  <fonts count="51" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -918,11 +927,6 @@
       <sz val="10"/>
       <name val="Verdana"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2183,17 +2187,19 @@
     <xf numFmtId="0" fontId="32" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="46" fillId="4" borderId="0" xfId="183" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="45" fillId="4" borderId="0" xfId="183" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="47" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="47" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="47" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="46" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="30" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2221,17 +2227,15 @@
     <xf numFmtId="0" fontId="30" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="412">
     <cellStyle name="Excel Built-in Normal" xfId="396"/>
@@ -2649,145 +2653,15 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>165100</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>3949700</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="export_data" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2049"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update carrier attributes on ETSource</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>165100</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>165100</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>3949700</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>177800</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2051" name="export_fce" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2051"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update FCE attributes on ETSource (next sheet)</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3509,7 +3383,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -3622,12 +3496,13 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover sheet"/>
       <sheetName val="Dashboard"/>
       <sheetName val="carrier_manager.xlsm"/>
+      <sheetName val="carrier_manager"/>
     </sheetNames>
     <definedNames>
       <definedName name="update_attributes"/>
@@ -3637,6 +3512,7 @@
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3969,33 +3845,33 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="31" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="23" customWidth="1"/>
-    <col min="3" max="3" width="44.125" style="23" customWidth="1"/>
-    <col min="4" max="4" width="1.875" style="23" customWidth="1"/>
-    <col min="5" max="16384" width="10.625" style="23"/>
+    <col min="1" max="1" width="3.42578125" style="31" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="1.85546875" style="23" customWidth="1"/>
+    <col min="5" max="16384" width="10.7109375" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="29" customFormat="1">
+    <row r="1" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="27"/>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
     </row>
-    <row r="2" spans="1:4" ht="20">
+    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="30" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="30"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
         <v>155</v>
@@ -4004,7 +3880,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="10" t="s">
         <v>14</v>
@@ -4013,7 +3889,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="12" t="s">
         <v>9</v>
@@ -4022,17 +3898,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="82" t="s">
         <v>15</v>
@@ -4040,13 +3916,13 @@
       <c r="C9" s="83"/>
       <c r="D9" s="199"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="84"/>
       <c r="C10" s="85"/>
       <c r="D10" s="200"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="84" t="s">
         <v>16</v>
@@ -4056,7 +3932,7 @@
       </c>
       <c r="D11" s="200"/>
     </row>
-    <row r="12" spans="1:4" ht="16" thickBot="1">
+    <row r="12" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="84"/>
       <c r="C12" s="20" t="s">
@@ -4064,7 +3940,7 @@
       </c>
       <c r="D12" s="200"/>
     </row>
-    <row r="13" spans="1:4" ht="16" thickBot="1">
+    <row r="13" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="84"/>
       <c r="C13" s="87" t="s">
@@ -4072,7 +3948,7 @@
       </c>
       <c r="D13" s="200"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
       <c r="B14" s="84"/>
       <c r="C14" s="85" t="s">
@@ -4080,13 +3956,13 @@
       </c>
       <c r="D14" s="200"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="84"/>
       <c r="C15" s="85"/>
       <c r="D15" s="200"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="84" t="s">
         <v>21</v>
@@ -4096,7 +3972,7 @@
       </c>
       <c r="D16" s="200"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
       <c r="B17" s="84"/>
       <c r="C17" s="89" t="s">
@@ -4104,7 +3980,7 @@
       </c>
       <c r="D17" s="200"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
       <c r="B18" s="84"/>
       <c r="C18" s="90" t="s">
@@ -4112,7 +3988,7 @@
       </c>
       <c r="D18" s="200"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
       <c r="B19" s="84"/>
       <c r="C19" s="91" t="s">
@@ -4120,7 +3996,7 @@
       </c>
       <c r="D19" s="200"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
       <c r="B20" s="92"/>
       <c r="C20" s="93" t="s">
@@ -4128,7 +4004,7 @@
       </c>
       <c r="D20" s="200"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
       <c r="B21" s="92"/>
       <c r="C21" s="94" t="s">
@@ -4136,7 +4012,7 @@
       </c>
       <c r="D21" s="200"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
       <c r="B22" s="92"/>
       <c r="C22" s="95" t="s">
@@ -4144,14 +4020,14 @@
       </c>
       <c r="D22" s="200"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B23" s="92"/>
       <c r="C23" s="96" t="s">
         <v>29</v>
       </c>
       <c r="D23" s="200"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B24" s="201"/>
       <c r="C24" s="202"/>
       <c r="D24" s="203"/>
@@ -4159,76 +4035,71 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="37" customWidth="1"/>
-    <col min="2" max="2" width="3.75" style="37" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="37" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="37" customWidth="1"/>
     <col min="3" max="3" width="46" style="37" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="37" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="37" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="37" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="37" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="37" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="37" customWidth="1"/>
     <col min="7" max="7" width="45" style="37" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="37" customWidth="1"/>
-    <col min="9" max="9" width="51.5" style="37" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="37" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="37"/>
+    <col min="8" max="8" width="5.140625" style="37" customWidth="1"/>
+    <col min="9" max="9" width="51.42578125" style="37" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="37" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D1" s="35"/>
       <c r="E1" s="35"/>
       <c r="F1" s="35"/>
       <c r="G1" s="35"/>
     </row>
-    <row r="2" spans="2:11" ht="15" customHeight="1">
-      <c r="B2" s="234" t="s">
-        <v>157</v>
-      </c>
-      <c r="C2" s="235"/>
-      <c r="D2" s="235"/>
-      <c r="E2" s="236"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-    </row>
-    <row r="3" spans="2:11">
-      <c r="B3" s="237"/>
-      <c r="C3" s="238"/>
-      <c r="D3" s="238"/>
-      <c r="E3" s="239"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-    </row>
-    <row r="4" spans="2:11">
-      <c r="B4" s="240"/>
-      <c r="C4" s="241"/>
-      <c r="D4" s="241"/>
-      <c r="E4" s="242"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-    </row>
-    <row r="5" spans="2:11" ht="16" thickBot="1">
+    <row r="2" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="236" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" s="237"/>
+      <c r="D2" s="237"/>
+      <c r="E2" s="237"/>
+      <c r="F2" s="237"/>
+      <c r="G2" s="238"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B3" s="239"/>
+      <c r="C3" s="240"/>
+      <c r="D3" s="240"/>
+      <c r="E3" s="240"/>
+      <c r="F3" s="240"/>
+      <c r="G3" s="241"/>
+    </row>
+    <row r="4" spans="2:11" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="242"/>
+      <c r="C4" s="243"/>
+      <c r="D4" s="243"/>
+      <c r="E4" s="243"/>
+      <c r="F4" s="243"/>
+      <c r="G4" s="244"/>
+    </row>
+    <row r="5" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D5" s="35"/>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="38"/>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
@@ -4239,7 +4110,7 @@
       <c r="I6" s="22"/>
       <c r="J6" s="39"/>
     </row>
-    <row r="7" spans="2:11" s="44" customFormat="1" ht="18">
+    <row r="7" spans="2:11" s="44" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B7" s="97"/>
       <c r="C7" s="21" t="s">
         <v>13</v>
@@ -4260,7 +4131,7 @@
       </c>
       <c r="J7" s="101"/>
     </row>
-    <row r="8" spans="2:11" s="44" customFormat="1" ht="18">
+    <row r="8" spans="2:11" s="44" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B8" s="25"/>
       <c r="C8" s="20"/>
       <c r="D8" s="33"/>
@@ -4271,7 +4142,7 @@
       <c r="I8" s="20"/>
       <c r="J8" s="45"/>
     </row>
-    <row r="9" spans="2:11" s="44" customFormat="1" ht="19" thickBot="1">
+    <row r="9" spans="2:11" s="44" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="25"/>
       <c r="C9" s="20" t="s">
         <v>156</v>
@@ -4284,7 +4155,7 @@
       <c r="I9" s="20"/>
       <c r="J9" s="45"/>
     </row>
-    <row r="10" spans="2:11" s="44" customFormat="1" ht="19" thickBot="1">
+    <row r="10" spans="2:11" s="44" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="25"/>
       <c r="C10" s="107" t="s">
         <v>38</v>
@@ -4306,7 +4177,7 @@
       </c>
       <c r="J10" s="45"/>
     </row>
-    <row r="11" spans="2:11" s="44" customFormat="1" ht="19" thickBot="1">
+    <row r="11" spans="2:11" s="44" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="25"/>
       <c r="C11" s="114" t="s">
         <v>39</v>
@@ -4326,7 +4197,7 @@
       </c>
       <c r="J11" s="45"/>
     </row>
-    <row r="12" spans="2:11" s="44" customFormat="1" ht="19" thickBot="1">
+    <row r="12" spans="2:11" s="44" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="25"/>
       <c r="C12" s="114" t="s">
         <v>153</v>
@@ -4346,7 +4217,7 @@
       </c>
       <c r="J12" s="45"/>
     </row>
-    <row r="13" spans="2:11" s="44" customFormat="1" ht="19" thickBot="1">
+    <row r="13" spans="2:11" s="44" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="25"/>
       <c r="C13" s="36" t="s">
         <v>40</v>
@@ -4360,7 +4231,7 @@
       </c>
       <c r="F13" s="36"/>
       <c r="G13" s="212" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H13" s="32"/>
       <c r="I13" s="198" t="s">
@@ -4368,10 +4239,10 @@
       </c>
       <c r="J13" s="45"/>
     </row>
-    <row r="14" spans="2:11" s="44" customFormat="1" ht="19" thickBot="1">
+    <row r="14" spans="2:11" s="44" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="25"/>
       <c r="C14" s="212" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D14" s="24" t="s">
         <v>49</v>
@@ -4382,15 +4253,15 @@
       </c>
       <c r="F14" s="36"/>
       <c r="G14" s="212" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H14" s="32"/>
-      <c r="I14" s="247" t="s">
-        <v>173</v>
+      <c r="I14" s="235" t="s">
+        <v>172</v>
       </c>
       <c r="J14" s="45"/>
     </row>
-    <row r="15" spans="2:11" ht="16" thickBot="1">
+    <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="40"/>
       <c r="C15" s="36" t="s">
         <v>41</v>
@@ -4412,7 +4283,7 @@
       <c r="J15" s="102"/>
       <c r="K15" s="35"/>
     </row>
-    <row r="16" spans="2:11" ht="20" customHeight="1" thickBot="1">
+    <row r="16" spans="2:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="41"/>
       <c r="C16" s="42"/>
       <c r="D16" s="42"/>
@@ -4425,70 +4296,10 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:E4"/>
+    <mergeCell ref="B2:G4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2049" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[2]!update_attributes">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>165100</xdr:colOff>
-                    <xdr:row>1</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>3949700</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2051" r:id="rId4" name="export_fce">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[2]!update_fce">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>165100</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>165100</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>3949700</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>177800</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4501,57 +4312,57 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="37" customWidth="1"/>
-    <col min="2" max="2" width="3.75" style="37" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="37" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="37" customWidth="1"/>
     <col min="3" max="3" width="46" style="37" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="37" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="37" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="37" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="37" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="37" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="37" customWidth="1"/>
     <col min="7" max="7" width="45" style="37" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="37" customWidth="1"/>
-    <col min="9" max="9" width="51.5" style="37" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="37" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="37"/>
+    <col min="8" max="8" width="5.140625" style="37" customWidth="1"/>
+    <col min="9" max="9" width="51.42578125" style="37" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="37" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D1" s="35"/>
       <c r="E1" s="35"/>
       <c r="F1" s="35"/>
       <c r="G1" s="35"/>
     </row>
-    <row r="2" spans="2:10" ht="15" customHeight="1">
-      <c r="B2" s="234" t="s">
-        <v>158</v>
-      </c>
-      <c r="C2" s="235"/>
-      <c r="D2" s="235"/>
-      <c r="E2" s="236"/>
+    <row r="2" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="236" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="237"/>
+      <c r="D2" s="237"/>
+      <c r="E2" s="238"/>
       <c r="F2" s="35"/>
       <c r="G2" s="35"/>
     </row>
-    <row r="3" spans="2:10">
-      <c r="B3" s="237"/>
-      <c r="C3" s="238"/>
-      <c r="D3" s="238"/>
-      <c r="E3" s="239"/>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B3" s="239"/>
+      <c r="C3" s="240"/>
+      <c r="D3" s="240"/>
+      <c r="E3" s="241"/>
       <c r="F3" s="35"/>
       <c r="G3" s="35"/>
     </row>
-    <row r="4" spans="2:10">
-      <c r="B4" s="243"/>
-      <c r="C4" s="244"/>
-      <c r="D4" s="244"/>
-      <c r="E4" s="245"/>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="245"/>
+      <c r="C4" s="246"/>
+      <c r="D4" s="246"/>
+      <c r="E4" s="247"/>
       <c r="F4" s="35"/>
       <c r="G4" s="35"/>
     </row>
-    <row r="5" spans="2:10" ht="16" thickBot="1">
+    <row r="5" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D5" s="35"/>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="38"/>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
@@ -4562,7 +4373,7 @@
       <c r="I6" s="22"/>
       <c r="J6" s="39"/>
     </row>
-    <row r="7" spans="2:10" s="44" customFormat="1" ht="18">
+    <row r="7" spans="2:10" s="44" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B7" s="97"/>
       <c r="C7" s="21" t="s">
         <v>13</v>
@@ -4583,7 +4394,7 @@
       </c>
       <c r="J7" s="101"/>
     </row>
-    <row r="8" spans="2:10" s="44" customFormat="1" ht="18">
+    <row r="8" spans="2:10" s="44" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B8" s="25"/>
       <c r="C8" s="20"/>
       <c r="D8" s="33"/>
@@ -4594,7 +4405,7 @@
       <c r="I8" s="20"/>
       <c r="J8" s="45"/>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="40"/>
       <c r="C9" s="20" t="s">
         <v>37</v>
@@ -4607,7 +4418,7 @@
       <c r="I9" s="35"/>
       <c r="J9" s="102"/>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="40"/>
       <c r="C10" s="20"/>
       <c r="D10" s="99"/>
@@ -4618,10 +4429,10 @@
       <c r="I10" s="35"/>
       <c r="J10" s="102"/>
     </row>
-    <row r="11" spans="2:10" ht="16" thickBot="1">
+    <row r="11" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="40"/>
       <c r="C11" s="209" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D11" s="114"/>
       <c r="E11" s="114"/>
@@ -4631,7 +4442,7 @@
       <c r="I11" s="114"/>
       <c r="J11" s="102"/>
     </row>
-    <row r="12" spans="2:10" ht="16" thickBot="1">
+    <row r="12" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="40"/>
       <c r="C12" s="117" t="s">
         <v>44</v>
@@ -4653,7 +4464,7 @@
       </c>
       <c r="J12" s="102"/>
     </row>
-    <row r="13" spans="2:10" ht="16" thickBot="1">
+    <row r="13" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="40"/>
       <c r="C13" s="117" t="s">
         <v>45</v>
@@ -4675,7 +4486,7 @@
       </c>
       <c r="J13" s="102"/>
     </row>
-    <row r="14" spans="2:10" ht="16" thickBot="1">
+    <row r="14" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="40"/>
       <c r="C14" s="117" t="s">
         <v>48</v>
@@ -4697,7 +4508,7 @@
       </c>
       <c r="J14" s="102"/>
     </row>
-    <row r="15" spans="2:10" ht="16" thickBot="1">
+    <row r="15" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="40"/>
       <c r="C15" s="117" t="s">
         <v>47</v>
@@ -4719,7 +4530,7 @@
       </c>
       <c r="J15" s="102"/>
     </row>
-    <row r="16" spans="2:10" ht="16" thickBot="1">
+    <row r="16" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="40"/>
       <c r="C16" s="117" t="s">
         <v>40</v>
@@ -4741,7 +4552,7 @@
       </c>
       <c r="J16" s="102"/>
     </row>
-    <row r="17" spans="2:10" ht="16" thickBot="1">
+    <row r="17" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="40"/>
       <c r="C17" s="117" t="s">
         <v>46</v>
@@ -4763,10 +4574,10 @@
       </c>
       <c r="J17" s="102"/>
     </row>
-    <row r="18" spans="2:10" ht="16" thickBot="1">
+    <row r="18" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="40"/>
       <c r="C18" s="210" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D18" s="24" t="s">
         <v>1</v>
@@ -4782,7 +4593,7 @@
       </c>
       <c r="J18" s="102"/>
     </row>
-    <row r="19" spans="2:10" ht="20" customHeight="1" thickBot="1">
+    <row r="19" spans="2:10" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="41"/>
       <c r="C19" s="42"/>
       <c r="D19" s="42"/>
@@ -4800,11 +4611,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4819,35 +4625,34 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="65" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="65" customWidth="1"/>
-    <col min="3" max="3" width="35.875" style="65" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="65" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="65" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="65" customWidth="1"/>
-    <col min="7" max="7" width="12.875" style="65" customWidth="1"/>
-    <col min="8" max="8" width="4.75" style="65" customWidth="1"/>
-    <col min="9" max="9" width="9.875" style="66" customWidth="1"/>
+    <col min="1" max="2" width="3.42578125" style="65" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="65" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="65" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="65" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="65" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="65" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" style="65" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" style="66" customWidth="1"/>
     <col min="10" max="10" width="3" style="66" customWidth="1"/>
-    <col min="11" max="11" width="8.5" style="66" customWidth="1"/>
-    <col min="12" max="12" width="2.75" style="66" customWidth="1"/>
-    <col min="13" max="13" width="8.5" style="66" customWidth="1"/>
-    <col min="14" max="14" width="2.75" style="66" customWidth="1"/>
-    <col min="15" max="15" width="8.5" style="66" customWidth="1"/>
-    <col min="16" max="16" width="2.75" style="66" customWidth="1"/>
-    <col min="17" max="17" width="8.5" style="66" customWidth="1"/>
-    <col min="18" max="18" width="2.75" style="66" customWidth="1"/>
-    <col min="19" max="19" width="9.625" style="66" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="9.625" style="66" customWidth="1"/>
-    <col min="22" max="22" width="2.75" style="66" customWidth="1"/>
+    <col min="11" max="11" width="8.42578125" style="66" customWidth="1"/>
+    <col min="12" max="12" width="2.7109375" style="66" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" style="66" customWidth="1"/>
+    <col min="14" max="14" width="2.7109375" style="66" customWidth="1"/>
+    <col min="15" max="15" width="8.42578125" style="66" customWidth="1"/>
+    <col min="16" max="16" width="2.7109375" style="66" customWidth="1"/>
+    <col min="17" max="17" width="8.42578125" style="66" customWidth="1"/>
+    <col min="18" max="18" width="2.7109375" style="66" customWidth="1"/>
+    <col min="19" max="19" width="9.5703125" style="66" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="9.5703125" style="66" customWidth="1"/>
+    <col min="22" max="22" width="2.7109375" style="66" customWidth="1"/>
     <col min="23" max="23" width="60" style="65" customWidth="1"/>
-    <col min="24" max="16384" width="10.625" style="65"/>
+    <col min="24" max="16384" width="10.7109375" style="65"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" ht="16" thickBot="1"/>
-    <row r="2" spans="2:23">
+    <row r="1" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B2" s="67"/>
       <c r="C2" s="68"/>
       <c r="D2" s="68"/>
@@ -4871,7 +4676,7 @@
       <c r="V2" s="69"/>
       <c r="W2" s="70"/>
     </row>
-    <row r="3" spans="2:23" s="26" customFormat="1">
+    <row r="3" spans="2:23" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="25"/>
       <c r="C3" s="106" t="s">
         <v>30</v>
@@ -4902,24 +4707,24 @@
       </c>
       <c r="P3" s="64"/>
       <c r="Q3" s="64" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R3" s="64"/>
       <c r="S3" s="64" t="s">
         <v>147</v>
       </c>
       <c r="T3" s="64" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="U3" s="64" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="V3" s="64"/>
       <c r="W3" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:23">
+    <row r="4" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B4" s="71"/>
       <c r="C4" s="72"/>
       <c r="D4" s="72"/>
@@ -4943,7 +4748,7 @@
       <c r="V4" s="105"/>
       <c r="W4" s="2"/>
     </row>
-    <row r="5" spans="2:23" ht="16" thickBot="1">
+    <row r="5" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="71"/>
       <c r="C5" s="20" t="s">
         <v>55</v>
@@ -4969,7 +4774,7 @@
       <c r="V5" s="16"/>
       <c r="W5" s="3"/>
     </row>
-    <row r="6" spans="2:23" ht="16" thickBot="1">
+    <row r="6" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="71"/>
       <c r="C6" s="118" t="s">
         <v>38</v>
@@ -5003,7 +4808,7 @@
       <c r="V6" s="16"/>
       <c r="W6" s="3"/>
     </row>
-    <row r="7" spans="2:23" s="6" customFormat="1" ht="16" thickBot="1">
+    <row r="7" spans="2:23" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
       <c r="C7" s="119" t="s">
         <v>39</v>
@@ -5043,7 +4848,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="2:23" s="6" customFormat="1" ht="16" thickBot="1">
+    <row r="8" spans="2:23" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" s="119" t="s">
         <v>153</v>
@@ -5090,7 +4895,7 @@
       <c r="V8" s="16"/>
       <c r="W8" s="3"/>
     </row>
-    <row r="9" spans="2:23" s="6" customFormat="1" ht="16" thickBot="1">
+    <row r="9" spans="2:23" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
       <c r="C9" s="120" t="s">
         <v>40</v>
@@ -5126,13 +4931,13 @@
       <c r="U9" s="16"/>
       <c r="V9" s="16"/>
       <c r="W9" s="215" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="10" spans="2:23" s="6" customFormat="1" ht="16" thickBot="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
       <c r="C10" s="213" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D10" s="120"/>
       <c r="E10" s="120"/>
@@ -5162,7 +4967,7 @@
       <c r="V10" s="16"/>
       <c r="W10" s="3"/>
     </row>
-    <row r="11" spans="2:23" ht="16" thickBot="1">
+    <row r="11" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="71"/>
       <c r="C11" s="120" t="s">
         <v>41</v>
@@ -5205,7 +5010,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="12" spans="2:23">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B12" s="71"/>
       <c r="C12" s="34"/>
       <c r="D12" s="34"/>
@@ -5229,7 +5034,7 @@
       <c r="V12" s="16"/>
       <c r="W12" s="126"/>
     </row>
-    <row r="13" spans="2:23" ht="16" thickBot="1">
+    <row r="13" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="71"/>
       <c r="C13" s="20" t="s">
         <v>37</v>
@@ -5255,7 +5060,7 @@
       <c r="V13" s="16"/>
       <c r="W13" s="126"/>
     </row>
-    <row r="14" spans="2:23" ht="16" thickBot="1">
+    <row r="14" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="71"/>
       <c r="C14" s="121" t="s">
         <v>44</v>
@@ -5291,7 +5096,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="2:23" ht="16" thickBot="1">
+    <row r="15" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="71"/>
       <c r="C15" s="121" t="s">
         <v>45</v>
@@ -5327,7 +5132,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="2:23" ht="16" thickBot="1">
+    <row r="16" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="71"/>
       <c r="C16" s="121" t="s">
         <v>48</v>
@@ -5363,7 +5168,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="2:23" ht="16" thickBot="1">
+    <row r="17" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="71"/>
       <c r="C17" s="121" t="s">
         <v>47</v>
@@ -5399,7 +5204,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="2:23" ht="16" thickBot="1">
+    <row r="18" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="71"/>
       <c r="C18" s="121" t="s">
         <v>40</v>
@@ -5435,7 +5240,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="2:23" ht="16" thickBot="1">
+    <row r="19" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="71"/>
       <c r="C19" s="121" t="s">
         <v>46</v>
@@ -5471,8 +5276,8 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="2:23" ht="16" thickBot="1"/>
-    <row r="23" spans="2:23" ht="16" thickBot="1">
+    <row r="22" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D23" s="24" t="s">
         <v>49</v>
       </c>
@@ -5483,11 +5288,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -5502,23 +5302,23 @@
       <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="48" customWidth="1"/>
-    <col min="2" max="2" width="3.375" style="48" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="48" customWidth="1"/>
-    <col min="4" max="4" width="3.125" style="48" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="48" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="48" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="48" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" style="48" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" style="48" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="48" customWidth="1"/>
     <col min="6" max="6" width="5" style="48" customWidth="1"/>
-    <col min="7" max="7" width="10.25" style="48" customWidth="1"/>
-    <col min="8" max="10" width="12.125" style="48" customWidth="1"/>
-    <col min="11" max="11" width="33.125" style="49" customWidth="1"/>
-    <col min="12" max="12" width="87.25" style="48" customWidth="1"/>
-    <col min="13" max="16384" width="33.125" style="48"/>
+    <col min="7" max="7" width="10.28515625" style="48" customWidth="1"/>
+    <col min="8" max="10" width="12.140625" style="48" customWidth="1"/>
+    <col min="11" max="11" width="33.140625" style="49" customWidth="1"/>
+    <col min="12" max="12" width="87.28515625" style="48" customWidth="1"/>
+    <col min="13" max="16384" width="33.140625" style="48"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16" thickBot="1"/>
-    <row r="2" spans="1:12">
+    <row r="1" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" s="50"/>
       <c r="C2" s="51"/>
       <c r="D2" s="51"/>
@@ -5531,7 +5331,7 @@
       <c r="K2" s="52"/>
       <c r="L2" s="51"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" s="53"/>
       <c r="C3" s="54" t="s">
         <v>11</v>
@@ -5546,7 +5346,7 @@
       <c r="K3" s="55"/>
       <c r="L3" s="56"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="53"/>
       <c r="C4" s="56"/>
       <c r="D4" s="56"/>
@@ -5559,7 +5359,7 @@
       <c r="K4" s="57"/>
       <c r="L4" s="56"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="58"/>
       <c r="C5" s="59" t="s">
         <v>13</v>
@@ -5588,7 +5388,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="53"/>
       <c r="C6" s="54"/>
       <c r="D6" s="54"/>
@@ -5601,7 +5401,7 @@
       <c r="K6" s="55"/>
       <c r="L6" s="54"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7" s="53"/>
       <c r="C7" s="48" t="s">
         <v>39</v>
@@ -5616,12 +5416,12 @@
         <v>143</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B8" s="53"/>
       <c r="E8" s="187"/>
       <c r="L8" s="49"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B9" s="53"/>
       <c r="C9" s="132" t="s">
         <v>153</v>
@@ -5648,14 +5448,14 @@
       </c>
       <c r="L9" s="62"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B10" s="53"/>
       <c r="E10" s="129"/>
       <c r="F10" s="129"/>
       <c r="H10" s="195"/>
       <c r="I10" s="195"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B11" s="53"/>
       <c r="C11" s="133" t="s">
         <v>40</v>
@@ -5678,31 +5478,31 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="224" customFormat="1">
+    <row r="12" spans="1:12" s="224" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="217"/>
       <c r="B12" s="218"/>
       <c r="C12" s="219" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D12" s="220"/>
       <c r="E12" s="219" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F12" s="219"/>
       <c r="G12" s="217" t="s">
         <v>64</v>
       </c>
       <c r="H12" s="221" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I12" s="221"/>
       <c r="J12" s="221"/>
       <c r="K12" s="223" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L12" s="222"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B13" s="53"/>
       <c r="C13" s="61" t="s">
         <v>67</v>
@@ -5710,22 +5510,22 @@
       <c r="D13" s="61"/>
       <c r="L13" s="62"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B14" s="53"/>
       <c r="C14" s="197" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B15" s="53"/>
       <c r="C15" s="48" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B16" s="53"/>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" s="53"/>
       <c r="C17" s="132" t="s">
         <v>52</v>
@@ -5740,16 +5540,16 @@
         <v>148</v>
       </c>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" s="53"/>
       <c r="C18" s="48" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" s="53"/>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" s="53"/>
       <c r="C20" s="132" t="s">
         <v>52</v>
@@ -5764,16 +5564,16 @@
         <v>149</v>
       </c>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" s="53"/>
       <c r="C21" s="48" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="2:11">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" s="53"/>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23" s="53"/>
       <c r="E23" s="48" t="s">
         <v>124</v>
@@ -5785,10 +5585,10 @@
         <v>151</v>
       </c>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24" s="53"/>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" s="53"/>
       <c r="E25" s="48" t="s">
         <v>93</v>
@@ -5800,16 +5600,16 @@
         <v>150</v>
       </c>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B26" s="53"/>
     </row>
-    <row r="27" spans="2:11">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B27" s="53"/>
     </row>
-    <row r="28" spans="2:11">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B28" s="53"/>
     </row>
-    <row r="29" spans="2:11">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B29" s="53"/>
     </row>
   </sheetData>
@@ -5818,11 +5618,6 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -5834,22 +5629,22 @@
       <selection activeCell="I413" sqref="I413"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.625" style="109" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" style="109" customWidth="1"/>
     <col min="2" max="2" width="5" style="109" customWidth="1"/>
     <col min="3" max="5" width="7" style="109"/>
-    <col min="6" max="6" width="11.25" style="109" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.125" style="109" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.125" style="109" customWidth="1"/>
-    <col min="9" max="9" width="7.75" style="109" customWidth="1"/>
-    <col min="10" max="10" width="16.5" style="109" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.875" style="109" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="109" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" style="109" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" style="109" customWidth="1"/>
+    <col min="9" max="9" width="7.7109375" style="109" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" style="109" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.85546875" style="109" customWidth="1"/>
     <col min="12" max="16384" width="7" style="109"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" ht="16" thickBot="1"/>
-    <row r="2" spans="2:25" s="26" customFormat="1">
+    <row r="1" spans="2:25" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:25" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="112"/>
       <c r="C2" s="113" t="s">
         <v>25</v>
@@ -5877,7 +5672,7 @@
       <c r="T2" s="113"/>
       <c r="U2" s="113"/>
     </row>
-    <row r="3" spans="2:25">
+    <row r="3" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B3" s="110"/>
       <c r="C3" s="111"/>
       <c r="D3" s="111"/>
@@ -5899,7 +5694,7 @@
       <c r="T3" s="111"/>
       <c r="U3" s="111"/>
     </row>
-    <row r="4" spans="2:25" customFormat="1" ht="16">
+    <row r="4" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="110"/>
       <c r="C4" s="122" t="s">
         <v>58</v>
@@ -5927,7 +5722,7 @@
       <c r="X4" s="122"/>
       <c r="Y4" s="122"/>
     </row>
-    <row r="5" spans="2:25" customFormat="1" ht="16">
+    <row r="5" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="110"/>
       <c r="C5" s="122"/>
       <c r="D5" s="122"/>
@@ -5953,7 +5748,7 @@
       <c r="X5" s="122"/>
       <c r="Y5" s="122"/>
     </row>
-    <row r="6" spans="2:25" customFormat="1" ht="16">
+    <row r="6" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="110"/>
       <c r="C6" s="122"/>
       <c r="D6" s="122"/>
@@ -5979,7 +5774,7 @@
       <c r="X6" s="122"/>
       <c r="Y6" s="122"/>
     </row>
-    <row r="7" spans="2:25" customFormat="1" ht="16">
+    <row r="7" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="110"/>
       <c r="C7" s="122"/>
       <c r="D7" s="122"/>
@@ -6005,7 +5800,7 @@
       <c r="X7" s="122"/>
       <c r="Y7" s="122"/>
     </row>
-    <row r="8" spans="2:25" customFormat="1" ht="16">
+    <row r="8" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="110"/>
       <c r="C8" s="122"/>
       <c r="D8" s="122">
@@ -6035,7 +5830,7 @@
       <c r="X8" s="122"/>
       <c r="Y8" s="122"/>
     </row>
-    <row r="9" spans="2:25" customFormat="1" ht="16">
+    <row r="9" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="110"/>
       <c r="C9" s="122"/>
       <c r="D9" s="122"/>
@@ -6066,7 +5861,7 @@
       <c r="X9" s="122"/>
       <c r="Y9" s="122"/>
     </row>
-    <row r="10" spans="2:25" customFormat="1" ht="16">
+    <row r="10" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="110"/>
       <c r="C10" s="122"/>
       <c r="D10" s="122"/>
@@ -6095,7 +5890,7 @@
       <c r="X10" s="122"/>
       <c r="Y10" s="122"/>
     </row>
-    <row r="11" spans="2:25" customFormat="1" ht="16">
+    <row r="11" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="110"/>
       <c r="C11" s="122"/>
       <c r="D11" s="122"/>
@@ -6124,7 +5919,7 @@
       <c r="X11" s="122"/>
       <c r="Y11" s="122"/>
     </row>
-    <row r="12" spans="2:25" customFormat="1" ht="16">
+    <row r="12" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="110"/>
       <c r="C12" s="122"/>
       <c r="D12" s="122"/>
@@ -6150,7 +5945,7 @@
       <c r="X12" s="122"/>
       <c r="Y12" s="122"/>
     </row>
-    <row r="13" spans="2:25" customFormat="1" ht="16">
+    <row r="13" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="110"/>
       <c r="C13" s="122"/>
       <c r="D13" s="122"/>
@@ -6176,7 +5971,7 @@
       <c r="X13" s="122"/>
       <c r="Y13" s="122"/>
     </row>
-    <row r="14" spans="2:25" customFormat="1" ht="16">
+    <row r="14" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="110"/>
       <c r="C14" s="122"/>
       <c r="D14" s="122"/>
@@ -6202,7 +5997,7 @@
       <c r="X14" s="122"/>
       <c r="Y14" s="122"/>
     </row>
-    <row r="15" spans="2:25" customFormat="1" ht="16">
+    <row r="15" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="110"/>
       <c r="C15" s="122"/>
       <c r="D15" s="122"/>
@@ -6228,7 +6023,7 @@
       <c r="X15" s="122"/>
       <c r="Y15" s="122"/>
     </row>
-    <row r="16" spans="2:25" customFormat="1" ht="16">
+    <row r="16" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="110"/>
       <c r="C16" s="122"/>
       <c r="D16" s="122"/>
@@ -6254,7 +6049,7 @@
       <c r="X16" s="122"/>
       <c r="Y16" s="122"/>
     </row>
-    <row r="17" spans="2:25" customFormat="1" ht="16">
+    <row r="17" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="110"/>
       <c r="C17" s="122"/>
       <c r="D17" s="122"/>
@@ -6280,7 +6075,7 @@
       <c r="X17" s="122"/>
       <c r="Y17" s="122"/>
     </row>
-    <row r="18" spans="2:25" customFormat="1" ht="16">
+    <row r="18" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="110"/>
       <c r="C18" s="122"/>
       <c r="D18" s="122"/>
@@ -6306,7 +6101,7 @@
       <c r="X18" s="122"/>
       <c r="Y18" s="122"/>
     </row>
-    <row r="19" spans="2:25" customFormat="1" ht="16">
+    <row r="19" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="110"/>
       <c r="C19" s="122"/>
       <c r="D19" s="122"/>
@@ -6332,7 +6127,7 @@
       <c r="X19" s="122"/>
       <c r="Y19" s="122"/>
     </row>
-    <row r="20" spans="2:25" customFormat="1" ht="16">
+    <row r="20" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="110"/>
       <c r="C20" s="122"/>
       <c r="D20" s="122"/>
@@ -6358,7 +6153,7 @@
       <c r="X20" s="122"/>
       <c r="Y20" s="122"/>
     </row>
-    <row r="21" spans="2:25" customFormat="1" ht="16">
+    <row r="21" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="110"/>
       <c r="C21" s="122"/>
       <c r="D21" s="122"/>
@@ -6384,7 +6179,7 @@
       <c r="X21" s="122"/>
       <c r="Y21" s="122"/>
     </row>
-    <row r="22" spans="2:25" customFormat="1" ht="16">
+    <row r="22" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="110"/>
       <c r="C22" s="122"/>
       <c r="D22" s="122"/>
@@ -6410,7 +6205,7 @@
       <c r="X22" s="122"/>
       <c r="Y22" s="122"/>
     </row>
-    <row r="23" spans="2:25" customFormat="1" ht="16">
+    <row r="23" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="110"/>
       <c r="C23" s="122"/>
       <c r="D23" s="122"/>
@@ -6436,7 +6231,7 @@
       <c r="X23" s="122"/>
       <c r="Y23" s="122"/>
     </row>
-    <row r="24" spans="2:25" customFormat="1" ht="16">
+    <row r="24" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="110"/>
       <c r="C24" s="122"/>
       <c r="D24" s="122"/>
@@ -6462,7 +6257,7 @@
       <c r="X24" s="122"/>
       <c r="Y24" s="122"/>
     </row>
-    <row r="25" spans="2:25" customFormat="1" ht="16">
+    <row r="25" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="110"/>
       <c r="C25" s="122"/>
       <c r="D25" s="122"/>
@@ -6488,7 +6283,7 @@
       <c r="X25" s="122"/>
       <c r="Y25" s="122"/>
     </row>
-    <row r="26" spans="2:25" customFormat="1" ht="16">
+    <row r="26" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="110"/>
       <c r="C26" s="122"/>
       <c r="D26" s="122"/>
@@ -6514,7 +6309,7 @@
       <c r="X26" s="122"/>
       <c r="Y26" s="122"/>
     </row>
-    <row r="27" spans="2:25" customFormat="1" ht="16">
+    <row r="27" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="110"/>
       <c r="C27" s="122"/>
       <c r="D27" s="122"/>
@@ -6540,7 +6335,7 @@
       <c r="X27" s="122"/>
       <c r="Y27" s="122"/>
     </row>
-    <row r="28" spans="2:25" customFormat="1" ht="16">
+    <row r="28" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="110"/>
       <c r="C28" s="122"/>
       <c r="D28" s="122"/>
@@ -6566,106 +6361,106 @@
       <c r="X28" s="122"/>
       <c r="Y28" s="122"/>
     </row>
-    <row r="29" spans="2:25" customFormat="1" ht="16">
+    <row r="29" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="110"/>
     </row>
-    <row r="30" spans="2:25" customFormat="1" ht="16">
+    <row r="30" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="110"/>
     </row>
-    <row r="31" spans="2:25" customFormat="1" ht="16">
+    <row r="31" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="110"/>
     </row>
-    <row r="32" spans="2:25" customFormat="1" ht="16">
+    <row r="32" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="110"/>
     </row>
-    <row r="33" spans="2:2" customFormat="1" ht="16">
+    <row r="33" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="110"/>
     </row>
-    <row r="34" spans="2:2" customFormat="1" ht="16">
+    <row r="34" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="110"/>
     </row>
-    <row r="35" spans="2:2" customFormat="1" ht="16">
+    <row r="35" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="110"/>
     </row>
-    <row r="36" spans="2:2" customFormat="1" ht="16">
+    <row r="36" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="110"/>
     </row>
-    <row r="37" spans="2:2" customFormat="1" ht="16">
+    <row r="37" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="110"/>
     </row>
-    <row r="38" spans="2:2" customFormat="1" ht="16">
+    <row r="38" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="110"/>
     </row>
-    <row r="39" spans="2:2" customFormat="1" ht="16">
+    <row r="39" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="110"/>
     </row>
-    <row r="40" spans="2:2" customFormat="1" ht="16">
+    <row r="40" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="110"/>
     </row>
-    <row r="41" spans="2:2" customFormat="1" ht="16">
+    <row r="41" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="110"/>
     </row>
-    <row r="42" spans="2:2" customFormat="1" ht="16">
+    <row r="42" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="110"/>
     </row>
-    <row r="43" spans="2:2" customFormat="1" ht="16">
+    <row r="43" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="110"/>
     </row>
-    <row r="44" spans="2:2" customFormat="1" ht="16">
+    <row r="44" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="110"/>
     </row>
-    <row r="45" spans="2:2" customFormat="1" ht="16">
+    <row r="45" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="110"/>
     </row>
-    <row r="46" spans="2:2" customFormat="1" ht="16">
+    <row r="46" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="110"/>
     </row>
-    <row r="47" spans="2:2" customFormat="1" ht="16">
+    <row r="47" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="110"/>
     </row>
-    <row r="48" spans="2:2" customFormat="1" ht="16">
+    <row r="48" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="110"/>
     </row>
-    <row r="49" spans="1:25" customFormat="1" ht="16">
+    <row r="49" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="110"/>
     </row>
-    <row r="50" spans="1:25" customFormat="1" ht="16">
+    <row r="50" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="110"/>
     </row>
-    <row r="51" spans="1:25" customFormat="1" ht="16">
+    <row r="51" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="110"/>
     </row>
-    <row r="52" spans="1:25" customFormat="1" ht="16">
+    <row r="52" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="110"/>
     </row>
-    <row r="53" spans="1:25" customFormat="1" ht="16">
+    <row r="53" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="110"/>
     </row>
-    <row r="54" spans="1:25" customFormat="1" ht="16">
+    <row r="54" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="110"/>
     </row>
-    <row r="55" spans="1:25" customFormat="1" ht="16">
+    <row r="55" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B55" s="110"/>
     </row>
-    <row r="56" spans="1:25" customFormat="1" ht="16">
+    <row r="56" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B56" s="110"/>
     </row>
-    <row r="57" spans="1:25" customFormat="1" ht="16">
+    <row r="57" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" s="110"/>
     </row>
-    <row r="58" spans="1:25" customFormat="1" ht="16">
+    <row r="58" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B58" s="110"/>
     </row>
-    <row r="59" spans="1:25" customFormat="1" ht="16">
+    <row r="59" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B59" s="110"/>
     </row>
-    <row r="60" spans="1:25" customFormat="1" ht="16">
+    <row r="60" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B60" s="110"/>
     </row>
-    <row r="61" spans="1:25" customFormat="1" ht="17" thickBot="1">
+    <row r="61" spans="1:25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B61" s="110"/>
     </row>
-    <row r="62" spans="1:25" s="26" customFormat="1" ht="16">
+    <row r="62" spans="1:25" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62"/>
       <c r="B62" s="112"/>
       <c r="C62" s="113" t="s">
@@ -6694,7 +6489,7 @@
       <c r="T62" s="113"/>
       <c r="U62" s="113"/>
     </row>
-    <row r="63" spans="1:25" s="142" customFormat="1" ht="16">
+    <row r="63" spans="1:25" s="142" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B63" s="110"/>
       <c r="C63" s="170"/>
       <c r="D63" s="171"/>
@@ -6720,16 +6515,16 @@
       <c r="X63" s="171"/>
       <c r="Y63" s="171"/>
     </row>
-    <row r="64" spans="1:25" s="139" customFormat="1">
+    <row r="64" spans="1:25" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" s="110"/>
       <c r="C64" s="139" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="65" spans="2:8" s="139" customFormat="1">
+    <row r="65" spans="2:8" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B65" s="110"/>
     </row>
-    <row r="66" spans="2:8" s="139" customFormat="1">
+    <row r="66" spans="2:8" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66" s="110"/>
       <c r="D66" s="172" t="s">
         <v>103</v>
@@ -6738,55 +6533,55 @@
         <v>105</v>
       </c>
     </row>
-    <row r="67" spans="2:8" s="139" customFormat="1">
+    <row r="67" spans="2:8" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" s="110"/>
       <c r="H67" s="178">
         <v>0.87</v>
       </c>
     </row>
-    <row r="68" spans="2:8" s="139" customFormat="1">
+    <row r="68" spans="2:8" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B68" s="110"/>
     </row>
-    <row r="69" spans="2:8" s="139" customFormat="1">
+    <row r="69" spans="2:8" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B69" s="110"/>
     </row>
-    <row r="70" spans="2:8" s="139" customFormat="1">
+    <row r="70" spans="2:8" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B70" s="110"/>
     </row>
-    <row r="71" spans="2:8" s="139" customFormat="1">
+    <row r="71" spans="2:8" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71" s="110"/>
     </row>
-    <row r="72" spans="2:8" s="139" customFormat="1">
+    <row r="72" spans="2:8" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B72" s="110"/>
     </row>
-    <row r="73" spans="2:8" s="139" customFormat="1">
+    <row r="73" spans="2:8" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B73" s="110"/>
     </row>
-    <row r="74" spans="2:8" s="139" customFormat="1">
+    <row r="74" spans="2:8" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B74" s="110"/>
     </row>
-    <row r="75" spans="2:8" s="139" customFormat="1">
+    <row r="75" spans="2:8" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B75" s="110"/>
     </row>
-    <row r="76" spans="2:8" s="139" customFormat="1">
+    <row r="76" spans="2:8" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B76" s="110"/>
     </row>
-    <row r="77" spans="2:8" s="139" customFormat="1">
+    <row r="77" spans="2:8" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B77" s="110"/>
     </row>
-    <row r="78" spans="2:8" s="139" customFormat="1">
+    <row r="78" spans="2:8" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B78" s="110"/>
     </row>
-    <row r="79" spans="2:8" s="139" customFormat="1">
+    <row r="79" spans="2:8" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B79" s="110"/>
     </row>
-    <row r="80" spans="2:8" s="139" customFormat="1">
+    <row r="80" spans="2:8" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B80" s="110"/>
     </row>
-    <row r="81" spans="2:10" s="139" customFormat="1">
+    <row r="81" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B81" s="110"/>
     </row>
-    <row r="82" spans="2:10" s="139" customFormat="1" ht="16">
+    <row r="82" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B82" s="110"/>
       <c r="D82">
         <v>1211</v>
@@ -6797,7 +6592,7 @@
       <c r="H82"/>
       <c r="I82"/>
     </row>
-    <row r="83" spans="2:10" s="139" customFormat="1" ht="16">
+    <row r="83" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B83" s="110"/>
       <c r="D83"/>
       <c r="F83" t="s">
@@ -6813,7 +6608,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="84" spans="2:10" s="139" customFormat="1" ht="16">
+    <row r="84" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B84" s="110"/>
       <c r="D84"/>
       <c r="F84"/>
@@ -6827,7 +6622,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="85" spans="2:10" s="139" customFormat="1" ht="16">
+    <row r="85" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B85" s="110"/>
       <c r="D85"/>
       <c r="F85" t="s">
@@ -6841,7 +6636,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="86" spans="2:10" s="139" customFormat="1" ht="16">
+    <row r="86" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B86" s="110"/>
       <c r="D86"/>
       <c r="F86"/>
@@ -6853,52 +6648,52 @@
         <v>111</v>
       </c>
     </row>
-    <row r="87" spans="2:10" s="139" customFormat="1">
+    <row r="87" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B87" s="110"/>
     </row>
-    <row r="88" spans="2:10" s="139" customFormat="1">
+    <row r="88" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B88" s="110"/>
     </row>
-    <row r="89" spans="2:10" s="139" customFormat="1">
+    <row r="89" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B89" s="110"/>
     </row>
-    <row r="90" spans="2:10" s="139" customFormat="1">
+    <row r="90" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B90" s="110"/>
     </row>
-    <row r="91" spans="2:10" s="139" customFormat="1">
+    <row r="91" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B91" s="110"/>
     </row>
-    <row r="92" spans="2:10" s="139" customFormat="1">
+    <row r="92" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B92" s="110"/>
     </row>
-    <row r="93" spans="2:10" s="139" customFormat="1">
+    <row r="93" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B93" s="110"/>
     </row>
-    <row r="94" spans="2:10" s="139" customFormat="1">
+    <row r="94" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B94" s="110"/>
     </row>
-    <row r="95" spans="2:10" s="139" customFormat="1">
+    <row r="95" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B95" s="110"/>
     </row>
-    <row r="96" spans="2:10" s="139" customFormat="1">
+    <row r="96" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B96" s="110"/>
     </row>
-    <row r="97" spans="2:9" s="139" customFormat="1">
+    <row r="97" spans="2:9" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B97" s="110"/>
     </row>
-    <row r="98" spans="2:9" s="139" customFormat="1">
+    <row r="98" spans="2:9" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B98" s="110"/>
     </row>
-    <row r="99" spans="2:9" s="139" customFormat="1">
+    <row r="99" spans="2:9" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B99" s="110"/>
     </row>
-    <row r="100" spans="2:9" s="139" customFormat="1">
+    <row r="100" spans="2:9" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B100" s="110"/>
       <c r="D100" s="139">
         <v>1212</v>
       </c>
     </row>
-    <row r="101" spans="2:9" s="139" customFormat="1" ht="16">
+    <row r="101" spans="2:9" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B101" s="110"/>
       <c r="F101" t="s">
         <v>104</v>
@@ -6910,25 +6705,25 @@
         <v>53</v>
       </c>
     </row>
-    <row r="102" spans="2:9" s="139" customFormat="1">
+    <row r="102" spans="2:9" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B102" s="110"/>
     </row>
-    <row r="103" spans="2:9" s="139" customFormat="1">
+    <row r="103" spans="2:9" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B103" s="110"/>
     </row>
-    <row r="104" spans="2:9" s="139" customFormat="1">
+    <row r="104" spans="2:9" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B104" s="110"/>
     </row>
-    <row r="105" spans="2:9" s="139" customFormat="1">
+    <row r="105" spans="2:9" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B105" s="110"/>
     </row>
-    <row r="106" spans="2:9" s="139" customFormat="1">
+    <row r="106" spans="2:9" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B106" s="110"/>
     </row>
-    <row r="107" spans="2:9" s="139" customFormat="1">
+    <row r="107" spans="2:9" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B107" s="110"/>
     </row>
-    <row r="108" spans="2:9" s="139" customFormat="1">
+    <row r="108" spans="2:9" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B108" s="110"/>
       <c r="F108" s="140" t="s">
         <v>106</v>
@@ -6937,16 +6732,16 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="109" spans="2:9" s="139" customFormat="1">
+    <row r="109" spans="2:9" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B109" s="110"/>
     </row>
-    <row r="110" spans="2:9" s="139" customFormat="1">
+    <row r="110" spans="2:9" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B110" s="110"/>
     </row>
-    <row r="111" spans="2:9" s="139" customFormat="1">
+    <row r="111" spans="2:9" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B111" s="110"/>
     </row>
-    <row r="112" spans="2:9" s="139" customFormat="1">
+    <row r="112" spans="2:9" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B112" s="110"/>
       <c r="D112" s="172">
         <v>1216</v>
@@ -6955,22 +6750,22 @@
         <v>104</v>
       </c>
     </row>
-    <row r="113" spans="2:10" s="139" customFormat="1">
+    <row r="113" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B113" s="110"/>
     </row>
-    <row r="114" spans="2:10" s="139" customFormat="1">
+    <row r="114" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B114" s="110"/>
     </row>
-    <row r="115" spans="2:10" s="139" customFormat="1">
+    <row r="115" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B115" s="110"/>
     </row>
-    <row r="116" spans="2:10" s="139" customFormat="1">
+    <row r="116" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B116" s="110"/>
     </row>
-    <row r="117" spans="2:10" s="139" customFormat="1">
+    <row r="117" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B117" s="110"/>
     </row>
-    <row r="118" spans="2:10" s="139" customFormat="1">
+    <row r="118" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B118" s="110"/>
       <c r="H118" s="172">
         <v>17.7</v>
@@ -6982,16 +6777,16 @@
         <v>60</v>
       </c>
     </row>
-    <row r="119" spans="2:10" s="139" customFormat="1">
+    <row r="119" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B119" s="110"/>
       <c r="H119" s="173"/>
       <c r="I119" s="173"/>
       <c r="J119" s="172"/>
     </row>
-    <row r="120" spans="2:10" s="139" customFormat="1">
+    <row r="120" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B120" s="110"/>
     </row>
-    <row r="121" spans="2:10" s="139" customFormat="1">
+    <row r="121" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B121" s="110"/>
       <c r="F121" s="180" t="s">
         <v>113</v>
@@ -7003,7 +6798,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="122" spans="2:10" s="139" customFormat="1">
+    <row r="122" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B122" s="110"/>
       <c r="H122" s="139">
         <f>H121*1000</f>
@@ -7013,7 +6808,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="123" spans="2:10" s="139" customFormat="1">
+    <row r="123" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B123" s="110"/>
       <c r="H123" s="139">
         <f>H122*100</f>
@@ -7023,12 +6818,12 @@
         <v>116</v>
       </c>
     </row>
-    <row r="124" spans="2:10" s="139" customFormat="1">
+    <row r="124" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B124" s="110"/>
       <c r="H124" s="181"/>
       <c r="I124" s="180"/>
     </row>
-    <row r="125" spans="2:10" s="139" customFormat="1">
+    <row r="125" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B125" s="110"/>
       <c r="H125" s="181">
         <f>H123*H129</f>
@@ -7038,7 +6833,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="126" spans="2:10" s="139" customFormat="1">
+    <row r="126" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B126" s="110"/>
       <c r="F126" s="180" t="s">
         <v>134</v>
@@ -7051,13 +6846,13 @@
         <v>114</v>
       </c>
     </row>
-    <row r="127" spans="2:10" s="139" customFormat="1">
+    <row r="127" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B127" s="110"/>
     </row>
-    <row r="128" spans="2:10" s="139" customFormat="1">
+    <row r="128" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B128" s="110"/>
     </row>
-    <row r="129" spans="1:25" s="139" customFormat="1">
+    <row r="129" spans="1:25" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B129" s="110"/>
       <c r="D129" s="139">
         <v>1222</v>
@@ -7075,40 +6870,40 @@
         <v>60</v>
       </c>
     </row>
-    <row r="130" spans="1:25" s="139" customFormat="1">
+    <row r="130" spans="1:25" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B130" s="110"/>
     </row>
-    <row r="131" spans="1:25" s="139" customFormat="1">
+    <row r="131" spans="1:25" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B131" s="110"/>
     </row>
-    <row r="132" spans="1:25" s="139" customFormat="1">
+    <row r="132" spans="1:25" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B132" s="110"/>
     </row>
-    <row r="133" spans="1:25" s="139" customFormat="1">
+    <row r="133" spans="1:25" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B133" s="110"/>
     </row>
-    <row r="134" spans="1:25" s="139" customFormat="1">
+    <row r="134" spans="1:25" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B134" s="110"/>
     </row>
-    <row r="135" spans="1:25" s="139" customFormat="1">
+    <row r="135" spans="1:25" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B135" s="110"/>
     </row>
-    <row r="136" spans="1:25" s="139" customFormat="1">
+    <row r="136" spans="1:25" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B136" s="110"/>
     </row>
-    <row r="137" spans="1:25" s="139" customFormat="1">
+    <row r="137" spans="1:25" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B137" s="110"/>
     </row>
-    <row r="138" spans="1:25" s="139" customFormat="1">
+    <row r="138" spans="1:25" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B138" s="110"/>
     </row>
-    <row r="139" spans="1:25" s="139" customFormat="1">
+    <row r="139" spans="1:25" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B139" s="110"/>
     </row>
-    <row r="140" spans="1:25" s="139" customFormat="1" ht="16" thickBot="1">
+    <row r="140" spans="1:25" s="139" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B140" s="110"/>
     </row>
-    <row r="141" spans="1:25" s="26" customFormat="1" ht="16">
+    <row r="141" spans="1:25" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141"/>
       <c r="B141" s="112"/>
       <c r="C141" s="113" t="s">
@@ -7137,7 +6932,7 @@
       <c r="T141" s="113"/>
       <c r="U141" s="113"/>
     </row>
-    <row r="142" spans="1:25" s="142" customFormat="1" ht="16">
+    <row r="142" spans="1:25" s="142" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B142" s="110"/>
       <c r="C142" s="170"/>
       <c r="D142" s="171"/>
@@ -7163,7 +6958,7 @@
       <c r="X142" s="171"/>
       <c r="Y142" s="171"/>
     </row>
-    <row r="143" spans="1:25" customFormat="1" ht="16">
+    <row r="143" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B143" s="110"/>
       <c r="C143" s="182" t="s">
         <v>117</v>
@@ -7190,7 +6985,7 @@
       <c r="W143" s="172"/>
       <c r="X143" s="172"/>
     </row>
-    <row r="144" spans="1:25" customFormat="1" ht="16">
+    <row r="144" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B144" s="110"/>
       <c r="C144" s="172"/>
       <c r="D144" s="172">
@@ -7219,7 +7014,7 @@
       <c r="W144" s="172"/>
       <c r="X144" s="172"/>
     </row>
-    <row r="145" spans="2:24" customFormat="1" ht="16">
+    <row r="145" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B145" s="110"/>
       <c r="C145" s="172"/>
       <c r="D145" s="172"/>
@@ -7244,7 +7039,7 @@
       <c r="W145" s="172"/>
       <c r="X145" s="172"/>
     </row>
-    <row r="146" spans="2:24" customFormat="1" ht="16">
+    <row r="146" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B146" s="110"/>
       <c r="C146" s="172"/>
       <c r="D146" s="172"/>
@@ -7269,7 +7064,7 @@
       <c r="W146" s="172"/>
       <c r="X146" s="172"/>
     </row>
-    <row r="147" spans="2:24" customFormat="1" ht="16">
+    <row r="147" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B147" s="110"/>
       <c r="C147" s="172"/>
       <c r="D147" s="172"/>
@@ -7294,7 +7089,7 @@
       <c r="W147" s="172"/>
       <c r="X147" s="172"/>
     </row>
-    <row r="148" spans="2:24" customFormat="1" ht="16">
+    <row r="148" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B148" s="110"/>
       <c r="C148" s="172"/>
       <c r="D148" s="172"/>
@@ -7321,7 +7116,7 @@
       <c r="W148" s="172"/>
       <c r="X148" s="172"/>
     </row>
-    <row r="149" spans="2:24" customFormat="1" ht="16">
+    <row r="149" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B149" s="110"/>
       <c r="C149" s="172"/>
       <c r="D149" s="172"/>
@@ -7346,7 +7141,7 @@
       <c r="W149" s="172"/>
       <c r="X149" s="172"/>
     </row>
-    <row r="150" spans="2:24" customFormat="1" ht="16">
+    <row r="150" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B150" s="110"/>
       <c r="C150" s="172"/>
       <c r="D150" s="175"/>
@@ -7375,7 +7170,7 @@
       <c r="W150" s="172"/>
       <c r="X150" s="172"/>
     </row>
-    <row r="151" spans="2:24" customFormat="1" ht="16">
+    <row r="151" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B151" s="110"/>
       <c r="C151" s="172"/>
       <c r="D151" s="175"/>
@@ -7406,7 +7201,7 @@
       <c r="W151" s="172"/>
       <c r="X151" s="172"/>
     </row>
-    <row r="152" spans="2:24" customFormat="1" ht="16">
+    <row r="152" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B152" s="110"/>
       <c r="C152" s="172"/>
       <c r="D152" s="175"/>
@@ -7437,7 +7232,7 @@
       <c r="W152" s="172"/>
       <c r="X152" s="172"/>
     </row>
-    <row r="153" spans="2:24" customFormat="1" ht="16">
+    <row r="153" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B153" s="110"/>
       <c r="C153" s="172"/>
       <c r="D153" s="175"/>
@@ -7466,7 +7261,7 @@
       <c r="W153" s="172"/>
       <c r="X153" s="172"/>
     </row>
-    <row r="154" spans="2:24" customFormat="1" ht="16">
+    <row r="154" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B154" s="110"/>
       <c r="C154" s="172"/>
       <c r="D154" s="175"/>
@@ -7499,7 +7294,7 @@
       <c r="W154" s="172"/>
       <c r="X154" s="172"/>
     </row>
-    <row r="155" spans="2:24" customFormat="1" ht="16">
+    <row r="155" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B155" s="110"/>
       <c r="C155" s="172"/>
       <c r="D155" s="175"/>
@@ -7532,7 +7327,7 @@
       <c r="W155" s="172"/>
       <c r="X155" s="172"/>
     </row>
-    <row r="156" spans="2:24" customFormat="1" ht="16">
+    <row r="156" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B156" s="110"/>
       <c r="C156" s="172"/>
       <c r="D156" s="175"/>
@@ -7563,7 +7358,7 @@
       <c r="W156" s="172"/>
       <c r="X156" s="172"/>
     </row>
-    <row r="157" spans="2:24" customFormat="1" ht="16">
+    <row r="157" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B157" s="110"/>
       <c r="C157" s="172"/>
       <c r="D157" s="175"/>
@@ -7599,7 +7394,7 @@
       <c r="W157" s="172"/>
       <c r="X157" s="172"/>
     </row>
-    <row r="158" spans="2:24" customFormat="1" ht="16">
+    <row r="158" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B158" s="110"/>
       <c r="C158" s="172"/>
       <c r="D158" s="175"/>
@@ -7635,7 +7430,7 @@
       <c r="W158" s="172"/>
       <c r="X158" s="172"/>
     </row>
-    <row r="159" spans="2:24" customFormat="1" ht="16">
+    <row r="159" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B159" s="110"/>
       <c r="C159" s="172"/>
       <c r="D159" s="175"/>
@@ -7663,7 +7458,7 @@
       <c r="W159" s="172"/>
       <c r="X159" s="172"/>
     </row>
-    <row r="160" spans="2:24" customFormat="1" ht="16">
+    <row r="160" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B160" s="110"/>
       <c r="C160" s="172"/>
       <c r="D160" s="175"/>
@@ -7697,7 +7492,7 @@
       <c r="W160" s="172"/>
       <c r="X160" s="172"/>
     </row>
-    <row r="161" spans="2:24" customFormat="1" ht="16">
+    <row r="161" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B161" s="110"/>
       <c r="C161" s="172"/>
       <c r="D161" s="172"/>
@@ -7722,7 +7517,7 @@
       <c r="W161" s="172"/>
       <c r="X161" s="172"/>
     </row>
-    <row r="162" spans="2:24" customFormat="1" ht="16">
+    <row r="162" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B162" s="110"/>
       <c r="C162" s="172"/>
       <c r="D162" s="172"/>
@@ -7747,7 +7542,7 @@
       <c r="W162" s="172"/>
       <c r="X162" s="172"/>
     </row>
-    <row r="163" spans="2:24" customFormat="1" ht="16">
+    <row r="163" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B163" s="110"/>
       <c r="C163" s="172"/>
       <c r="D163" s="172"/>
@@ -7772,7 +7567,7 @@
       <c r="W163" s="172"/>
       <c r="X163" s="172"/>
     </row>
-    <row r="164" spans="2:24" customFormat="1" ht="16">
+    <row r="164" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B164" s="110"/>
       <c r="C164" s="172"/>
       <c r="D164" s="172"/>
@@ -7797,7 +7592,7 @@
       <c r="W164" s="172"/>
       <c r="X164" s="172"/>
     </row>
-    <row r="165" spans="2:24" customFormat="1" ht="16">
+    <row r="165" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B165" s="110"/>
       <c r="C165" s="172"/>
       <c r="D165" s="172"/>
@@ -7822,7 +7617,7 @@
       <c r="W165" s="172"/>
       <c r="X165" s="172"/>
     </row>
-    <row r="166" spans="2:24" customFormat="1" ht="16">
+    <row r="166" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B166" s="110"/>
       <c r="C166" s="172"/>
       <c r="D166" s="172"/>
@@ -7847,7 +7642,7 @@
       <c r="W166" s="172"/>
       <c r="X166" s="172"/>
     </row>
-    <row r="167" spans="2:24" customFormat="1" ht="16">
+    <row r="167" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B167" s="110"/>
       <c r="C167" s="172"/>
       <c r="D167" s="172"/>
@@ -7872,7 +7667,7 @@
       <c r="W167" s="172"/>
       <c r="X167" s="172"/>
     </row>
-    <row r="168" spans="2:24" customFormat="1" ht="16">
+    <row r="168" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B168" s="110"/>
       <c r="C168" s="172"/>
       <c r="D168" s="172"/>
@@ -7897,7 +7692,7 @@
       <c r="W168" s="172"/>
       <c r="X168" s="172"/>
     </row>
-    <row r="169" spans="2:24" customFormat="1" ht="16">
+    <row r="169" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B169" s="110"/>
       <c r="C169" s="172"/>
       <c r="D169" s="172"/>
@@ -7922,7 +7717,7 @@
       <c r="W169" s="172"/>
       <c r="X169" s="172"/>
     </row>
-    <row r="170" spans="2:24" customFormat="1" ht="16">
+    <row r="170" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B170" s="110"/>
       <c r="C170" s="172"/>
       <c r="D170" s="172"/>
@@ -7947,7 +7742,7 @@
       <c r="W170" s="172"/>
       <c r="X170" s="172"/>
     </row>
-    <row r="171" spans="2:24" customFormat="1" ht="16">
+    <row r="171" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B171" s="110"/>
       <c r="C171" s="172"/>
       <c r="D171" s="172"/>
@@ -7972,7 +7767,7 @@
       <c r="W171" s="172"/>
       <c r="X171" s="172"/>
     </row>
-    <row r="172" spans="2:24" customFormat="1" ht="16">
+    <row r="172" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B172" s="110"/>
       <c r="C172" s="172"/>
       <c r="D172" s="172"/>
@@ -7997,7 +7792,7 @@
       <c r="W172" s="172"/>
       <c r="X172" s="172"/>
     </row>
-    <row r="173" spans="2:24" customFormat="1" ht="16">
+    <row r="173" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B173" s="110"/>
       <c r="C173" s="172"/>
       <c r="D173" s="172"/>
@@ -8022,7 +7817,7 @@
       <c r="W173" s="172"/>
       <c r="X173" s="172"/>
     </row>
-    <row r="174" spans="2:24" customFormat="1" ht="16">
+    <row r="174" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B174" s="110"/>
       <c r="C174" s="172"/>
       <c r="D174" s="172"/>
@@ -8047,7 +7842,7 @@
       <c r="W174" s="172"/>
       <c r="X174" s="172"/>
     </row>
-    <row r="175" spans="2:24" customFormat="1" ht="16">
+    <row r="175" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B175" s="110"/>
       <c r="C175" s="172"/>
       <c r="D175" s="172"/>
@@ -8072,7 +7867,7 @@
       <c r="W175" s="172"/>
       <c r="X175" s="172"/>
     </row>
-    <row r="176" spans="2:24" customFormat="1" ht="16">
+    <row r="176" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B176" s="110"/>
       <c r="C176" s="172"/>
       <c r="D176" s="172"/>
@@ -8097,7 +7892,7 @@
       <c r="W176" s="172"/>
       <c r="X176" s="172"/>
     </row>
-    <row r="177" spans="1:25" customFormat="1" ht="16">
+    <row r="177" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B177" s="110"/>
       <c r="C177" s="172"/>
       <c r="D177" s="172"/>
@@ -8122,7 +7917,7 @@
       <c r="W177" s="172"/>
       <c r="X177" s="172"/>
     </row>
-    <row r="178" spans="1:25" customFormat="1" ht="16">
+    <row r="178" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B178" s="110"/>
       <c r="C178" s="172"/>
       <c r="D178" s="172"/>
@@ -8147,7 +7942,7 @@
       <c r="W178" s="172"/>
       <c r="X178" s="172"/>
     </row>
-    <row r="179" spans="1:25" customFormat="1" ht="16">
+    <row r="179" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B179" s="110"/>
       <c r="C179" s="172"/>
       <c r="D179" s="172"/>
@@ -8172,7 +7967,7 @@
       <c r="W179" s="172"/>
       <c r="X179" s="172"/>
     </row>
-    <row r="180" spans="1:25" customFormat="1" ht="16">
+    <row r="180" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B180" s="110"/>
       <c r="C180" s="172"/>
       <c r="D180" s="172"/>
@@ -8197,7 +7992,7 @@
       <c r="W180" s="172"/>
       <c r="X180" s="172"/>
     </row>
-    <row r="181" spans="1:25" customFormat="1" ht="17" thickBot="1">
+    <row r="181" spans="1:25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B181" s="110"/>
       <c r="C181" s="172"/>
       <c r="D181" s="172"/>
@@ -8222,7 +8017,7 @@
       <c r="W181" s="172"/>
       <c r="X181" s="172"/>
     </row>
-    <row r="182" spans="1:25" s="26" customFormat="1" ht="16">
+    <row r="182" spans="1:25" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A182"/>
       <c r="B182" s="112"/>
       <c r="C182" s="113" t="s">
@@ -8251,7 +8046,7 @@
       <c r="T182" s="113"/>
       <c r="U182" s="113"/>
     </row>
-    <row r="183" spans="1:25" s="142" customFormat="1" ht="16">
+    <row r="183" spans="1:25" s="142" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B183" s="110"/>
       <c r="C183" s="170"/>
       <c r="D183" s="171"/>
@@ -8277,7 +8072,7 @@
       <c r="X183" s="171"/>
       <c r="Y183" s="171"/>
     </row>
-    <row r="184" spans="1:25" customFormat="1" ht="16">
+    <row r="184" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B184" s="110"/>
       <c r="C184" s="172"/>
       <c r="D184" s="172"/>
@@ -8302,7 +8097,7 @@
       <c r="W184" s="172"/>
       <c r="X184" s="172"/>
     </row>
-    <row r="185" spans="1:25" customFormat="1" ht="16">
+    <row r="185" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B185" s="110"/>
       <c r="C185" s="172" t="s">
         <v>124</v>
@@ -8329,7 +8124,7 @@
       <c r="W185" s="172"/>
       <c r="X185" s="172"/>
     </row>
-    <row r="186" spans="1:25" customFormat="1" ht="16">
+    <row r="186" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B186" s="110"/>
       <c r="C186" s="172"/>
       <c r="D186" s="172"/>
@@ -8356,7 +8151,7 @@
       <c r="W186" s="172"/>
       <c r="X186" s="172"/>
     </row>
-    <row r="187" spans="1:25" customFormat="1" ht="16">
+    <row r="187" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B187" s="110"/>
       <c r="C187" s="172"/>
       <c r="D187" s="172"/>
@@ -8384,7 +8179,7 @@
       <c r="W187" s="172"/>
       <c r="X187" s="172"/>
     </row>
-    <row r="188" spans="1:25" customFormat="1" ht="16">
+    <row r="188" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B188" s="110"/>
       <c r="C188" s="172"/>
       <c r="D188" s="172" t="s">
@@ -8411,7 +8206,7 @@
       <c r="W188" s="172"/>
       <c r="X188" s="172"/>
     </row>
-    <row r="189" spans="1:25" customFormat="1" ht="16">
+    <row r="189" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B189" s="110"/>
       <c r="C189" s="172"/>
       <c r="D189" s="172"/>
@@ -8423,7 +8218,7 @@
         <v>17.600000000000001</v>
       </c>
       <c r="H189" s="172" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I189" s="172"/>
       <c r="J189" s="172"/>
@@ -8442,7 +8237,7 @@
       <c r="W189" s="172"/>
       <c r="X189" s="172"/>
     </row>
-    <row r="190" spans="1:25" customFormat="1" ht="16">
+    <row r="190" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B190" s="110"/>
       <c r="C190" s="172"/>
       <c r="D190" s="175"/>
@@ -8468,7 +8263,7 @@
       <c r="W190" s="172"/>
       <c r="X190" s="172"/>
     </row>
-    <row r="191" spans="1:25" customFormat="1" ht="16">
+    <row r="191" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B191" s="110"/>
       <c r="C191" s="172"/>
       <c r="D191" s="175"/>
@@ -8497,7 +8292,7 @@
       <c r="W191" s="172"/>
       <c r="X191" s="172"/>
     </row>
-    <row r="192" spans="1:25" customFormat="1" ht="16">
+    <row r="192" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B192" s="110"/>
       <c r="C192" s="172"/>
       <c r="D192" s="175"/>
@@ -8526,7 +8321,7 @@
       <c r="W192" s="172"/>
       <c r="X192" s="172"/>
     </row>
-    <row r="193" spans="2:24" customFormat="1" ht="16">
+    <row r="193" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B193" s="110"/>
       <c r="C193" s="172"/>
       <c r="D193" s="175"/>
@@ -8555,7 +8350,7 @@
       <c r="W193" s="172"/>
       <c r="X193" s="172"/>
     </row>
-    <row r="194" spans="2:24" customFormat="1" ht="16">
+    <row r="194" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B194" s="110"/>
       <c r="C194" s="172"/>
       <c r="D194" s="175"/>
@@ -8584,7 +8379,7 @@
       <c r="W194" s="172"/>
       <c r="X194" s="172"/>
     </row>
-    <row r="195" spans="2:24" customFormat="1" ht="16">
+    <row r="195" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B195" s="110"/>
       <c r="C195" s="172"/>
       <c r="D195" s="175"/>
@@ -8617,7 +8412,7 @@
       <c r="W195" s="172"/>
       <c r="X195" s="172"/>
     </row>
-    <row r="196" spans="2:24" customFormat="1" ht="16">
+    <row r="196" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B196" s="110"/>
       <c r="C196" s="172"/>
       <c r="D196" s="175"/>
@@ -8649,7 +8444,7 @@
       <c r="W196" s="172"/>
       <c r="X196" s="172"/>
     </row>
-    <row r="197" spans="2:24" customFormat="1" ht="16">
+    <row r="197" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B197" s="110"/>
       <c r="C197" s="172"/>
       <c r="D197" s="175"/>
@@ -8687,7 +8482,7 @@
       <c r="W197" s="172"/>
       <c r="X197" s="172"/>
     </row>
-    <row r="198" spans="2:24" customFormat="1" ht="16">
+    <row r="198" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B198" s="110"/>
       <c r="C198" s="172"/>
       <c r="D198" s="175"/>
@@ -8712,7 +8507,7 @@
       <c r="W198" s="172"/>
       <c r="X198" s="172"/>
     </row>
-    <row r="199" spans="2:24" customFormat="1" ht="16">
+    <row r="199" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B199" s="110"/>
       <c r="C199" s="172"/>
       <c r="D199" s="175"/>
@@ -8737,7 +8532,7 @@
       <c r="W199" s="172"/>
       <c r="X199" s="172"/>
     </row>
-    <row r="200" spans="2:24" customFormat="1" ht="16">
+    <row r="200" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B200" s="110"/>
       <c r="C200" s="172"/>
       <c r="D200" s="172"/>
@@ -8762,7 +8557,7 @@
       <c r="W200" s="172"/>
       <c r="X200" s="172"/>
     </row>
-    <row r="201" spans="2:24" customFormat="1" ht="16">
+    <row r="201" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B201" s="110"/>
       <c r="C201" s="172"/>
       <c r="D201" s="172"/>
@@ -8787,7 +8582,7 @@
       <c r="W201" s="172"/>
       <c r="X201" s="172"/>
     </row>
-    <row r="202" spans="2:24" customFormat="1" ht="16">
+    <row r="202" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B202" s="110"/>
       <c r="C202" s="172"/>
       <c r="D202" s="172"/>
@@ -8812,7 +8607,7 @@
       <c r="W202" s="172"/>
       <c r="X202" s="172"/>
     </row>
-    <row r="203" spans="2:24" customFormat="1" ht="16">
+    <row r="203" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B203" s="110"/>
       <c r="C203" s="172"/>
       <c r="D203" s="172"/>
@@ -8837,7 +8632,7 @@
       <c r="W203" s="172"/>
       <c r="X203" s="172"/>
     </row>
-    <row r="204" spans="2:24" customFormat="1" ht="16">
+    <row r="204" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B204" s="110"/>
       <c r="C204" s="172"/>
       <c r="D204" s="172"/>
@@ -8862,7 +8657,7 @@
       <c r="W204" s="172"/>
       <c r="X204" s="172"/>
     </row>
-    <row r="205" spans="2:24" customFormat="1" ht="16">
+    <row r="205" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B205" s="110"/>
       <c r="C205" s="172"/>
       <c r="D205" s="172"/>
@@ -8887,7 +8682,7 @@
       <c r="W205" s="172"/>
       <c r="X205" s="172"/>
     </row>
-    <row r="206" spans="2:24" customFormat="1" ht="16">
+    <row r="206" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B206" s="110"/>
       <c r="C206" s="172"/>
       <c r="D206" s="172"/>
@@ -8912,7 +8707,7 @@
       <c r="W206" s="172"/>
       <c r="X206" s="172"/>
     </row>
-    <row r="207" spans="2:24" customFormat="1" ht="16">
+    <row r="207" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B207" s="110"/>
       <c r="C207" s="172"/>
       <c r="D207" s="172"/>
@@ -8937,7 +8732,7 @@
       <c r="W207" s="172"/>
       <c r="X207" s="172"/>
     </row>
-    <row r="208" spans="2:24" customFormat="1" ht="16">
+    <row r="208" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B208" s="110"/>
       <c r="C208" s="172"/>
       <c r="D208" s="172"/>
@@ -8962,7 +8757,7 @@
       <c r="W208" s="172"/>
       <c r="X208" s="172"/>
     </row>
-    <row r="209" spans="2:24" customFormat="1" ht="16">
+    <row r="209" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B209" s="110"/>
       <c r="C209" s="172"/>
       <c r="D209" s="172"/>
@@ -8987,7 +8782,7 @@
       <c r="W209" s="172"/>
       <c r="X209" s="172"/>
     </row>
-    <row r="210" spans="2:24" customFormat="1" ht="16">
+    <row r="210" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B210" s="110"/>
       <c r="C210" s="172"/>
       <c r="D210" s="172"/>
@@ -9012,7 +8807,7 @@
       <c r="W210" s="172"/>
       <c r="X210" s="172"/>
     </row>
-    <row r="211" spans="2:24" customFormat="1" ht="16">
+    <row r="211" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B211" s="110"/>
       <c r="C211" s="172"/>
       <c r="D211" s="172"/>
@@ -9037,7 +8832,7 @@
       <c r="W211" s="172"/>
       <c r="X211" s="172"/>
     </row>
-    <row r="212" spans="2:24" customFormat="1" ht="16">
+    <row r="212" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B212" s="110"/>
       <c r="C212" s="172"/>
       <c r="D212" s="172"/>
@@ -9062,7 +8857,7 @@
       <c r="W212" s="172"/>
       <c r="X212" s="172"/>
     </row>
-    <row r="213" spans="2:24" customFormat="1" ht="16">
+    <row r="213" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B213" s="110"/>
       <c r="C213" s="172"/>
       <c r="D213" s="172"/>
@@ -9087,7 +8882,7 @@
       <c r="W213" s="172"/>
       <c r="X213" s="172"/>
     </row>
-    <row r="214" spans="2:24" customFormat="1" ht="16">
+    <row r="214" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B214" s="110"/>
       <c r="C214" s="172"/>
       <c r="D214" s="172"/>
@@ -9112,7 +8907,7 @@
       <c r="W214" s="172"/>
       <c r="X214" s="172"/>
     </row>
-    <row r="215" spans="2:24" customFormat="1" ht="16">
+    <row r="215" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B215" s="110"/>
       <c r="C215" s="172"/>
       <c r="D215" s="172"/>
@@ -9137,7 +8932,7 @@
       <c r="W215" s="172"/>
       <c r="X215" s="172"/>
     </row>
-    <row r="216" spans="2:24" customFormat="1" ht="16">
+    <row r="216" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B216" s="110"/>
       <c r="C216" s="172"/>
       <c r="D216" s="172"/>
@@ -9162,7 +8957,7 @@
       <c r="W216" s="172"/>
       <c r="X216" s="172"/>
     </row>
-    <row r="217" spans="2:24" customFormat="1" ht="16">
+    <row r="217" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B217" s="110"/>
       <c r="C217" s="172"/>
       <c r="D217" s="172"/>
@@ -9187,7 +8982,7 @@
       <c r="W217" s="172"/>
       <c r="X217" s="172"/>
     </row>
-    <row r="218" spans="2:24" customFormat="1" ht="16">
+    <row r="218" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B218" s="110"/>
       <c r="C218" s="172"/>
       <c r="D218" s="172"/>
@@ -9212,7 +9007,7 @@
       <c r="W218" s="172"/>
       <c r="X218" s="172"/>
     </row>
-    <row r="219" spans="2:24" customFormat="1" ht="16">
+    <row r="219" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B219" s="110"/>
       <c r="C219" s="172"/>
       <c r="D219" s="172"/>
@@ -9237,7 +9032,7 @@
       <c r="W219" s="172"/>
       <c r="X219" s="172"/>
     </row>
-    <row r="220" spans="2:24" customFormat="1" ht="16">
+    <row r="220" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B220" s="110"/>
       <c r="C220" s="172"/>
       <c r="D220" s="172"/>
@@ -9262,7 +9057,7 @@
       <c r="W220" s="172"/>
       <c r="X220" s="172"/>
     </row>
-    <row r="221" spans="2:24" customFormat="1" ht="16">
+    <row r="221" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B221" s="110"/>
       <c r="C221" s="172"/>
       <c r="D221" s="172"/>
@@ -9287,7 +9082,7 @@
       <c r="W221" s="172"/>
       <c r="X221" s="172"/>
     </row>
-    <row r="222" spans="2:24" customFormat="1" ht="16">
+    <row r="222" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B222" s="110"/>
       <c r="C222" s="172"/>
       <c r="D222" s="172"/>
@@ -9312,7 +9107,7 @@
       <c r="W222" s="172"/>
       <c r="X222" s="172"/>
     </row>
-    <row r="223" spans="2:24" customFormat="1" ht="16">
+    <row r="223" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B223" s="110"/>
       <c r="C223" s="172"/>
       <c r="D223" s="172"/>
@@ -9337,7 +9132,7 @@
       <c r="W223" s="172"/>
       <c r="X223" s="172"/>
     </row>
-    <row r="224" spans="2:24" customFormat="1" ht="16">
+    <row r="224" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B224" s="110"/>
       <c r="C224" s="172"/>
       <c r="D224" s="172"/>
@@ -9362,7 +9157,7 @@
       <c r="W224" s="172"/>
       <c r="X224" s="172"/>
     </row>
-    <row r="225" spans="1:25" customFormat="1" ht="16">
+    <row r="225" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B225" s="110"/>
       <c r="C225" s="172"/>
       <c r="D225" s="172"/>
@@ -9388,7 +9183,7 @@
       <c r="X225" s="172"/>
       <c r="Y225" s="172"/>
     </row>
-    <row r="226" spans="1:25" customFormat="1" ht="16">
+    <row r="226" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B226" s="110"/>
       <c r="C226" s="172"/>
       <c r="D226" s="172"/>
@@ -9414,7 +9209,7 @@
       <c r="X226" s="172"/>
       <c r="Y226" s="172"/>
     </row>
-    <row r="227" spans="1:25" customFormat="1" ht="16">
+    <row r="227" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B227" s="110"/>
       <c r="C227" s="172"/>
       <c r="D227" s="172"/>
@@ -9440,7 +9235,7 @@
       <c r="X227" s="172"/>
       <c r="Y227" s="172"/>
     </row>
-    <row r="228" spans="1:25" customFormat="1" ht="16">
+    <row r="228" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B228" s="110"/>
       <c r="C228" s="172"/>
       <c r="D228" s="172"/>
@@ -9466,10 +9261,10 @@
       <c r="X228" s="172"/>
       <c r="Y228" s="172"/>
     </row>
-    <row r="229" spans="1:25" s="139" customFormat="1" ht="16" thickBot="1">
+    <row r="229" spans="1:25" s="139" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B229" s="110"/>
     </row>
-    <row r="230" spans="1:25" s="139" customFormat="1">
+    <row r="230" spans="1:25" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B230" s="112"/>
       <c r="C230" s="113" t="s">
         <v>25</v>
@@ -9497,7 +9292,7 @@
       <c r="T230" s="113"/>
       <c r="U230" s="113"/>
     </row>
-    <row r="231" spans="1:25" s="139" customFormat="1">
+    <row r="231" spans="1:25" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B231" s="110"/>
       <c r="C231" s="170"/>
       <c r="D231" s="171"/>
@@ -9519,7 +9314,7 @@
       <c r="T231" s="171"/>
       <c r="U231" s="171"/>
     </row>
-    <row r="232" spans="1:25" customFormat="1" ht="16">
+    <row r="232" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A232" s="139"/>
       <c r="B232" s="110"/>
       <c r="C232" s="172" t="s">
@@ -9547,7 +9342,7 @@
       <c r="W232" s="172"/>
       <c r="X232" s="172"/>
     </row>
-    <row r="233" spans="1:25" customFormat="1" ht="16">
+    <row r="233" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B233" s="110"/>
       <c r="C233" s="109"/>
       <c r="D233" s="174">
@@ -9574,7 +9369,7 @@
       <c r="W233" s="172"/>
       <c r="X233" s="172"/>
     </row>
-    <row r="234" spans="1:25" customFormat="1" ht="16">
+    <row r="234" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B234" s="110"/>
       <c r="C234" s="172"/>
       <c r="D234" s="172"/>
@@ -9599,7 +9394,7 @@
       <c r="W234" s="172"/>
       <c r="X234" s="172"/>
     </row>
-    <row r="235" spans="1:25" customFormat="1" ht="16">
+    <row r="235" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B235" s="110"/>
       <c r="C235" s="172"/>
       <c r="D235" s="172"/>
@@ -9631,7 +9426,7 @@
       <c r="W235" s="172"/>
       <c r="X235" s="172"/>
     </row>
-    <row r="236" spans="1:25" customFormat="1" ht="16">
+    <row r="236" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B236" s="110"/>
       <c r="C236" s="172"/>
       <c r="D236" s="172"/>
@@ -9663,7 +9458,7 @@
       <c r="W236" s="172"/>
       <c r="X236" s="172"/>
     </row>
-    <row r="237" spans="1:25" customFormat="1" ht="16">
+    <row r="237" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B237" s="110"/>
       <c r="C237" s="172"/>
       <c r="D237" s="172"/>
@@ -9688,7 +9483,7 @@
       <c r="W237" s="172"/>
       <c r="X237" s="172"/>
     </row>
-    <row r="238" spans="1:25" customFormat="1" ht="16">
+    <row r="238" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B238" s="110"/>
       <c r="C238" s="172"/>
       <c r="D238" s="172"/>
@@ -9713,7 +9508,7 @@
       <c r="W238" s="172"/>
       <c r="X238" s="172"/>
     </row>
-    <row r="239" spans="1:25" customFormat="1" ht="16">
+    <row r="239" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B239" s="110"/>
       <c r="C239" s="172"/>
       <c r="D239" s="172"/>
@@ -9738,7 +9533,7 @@
       <c r="W239" s="172"/>
       <c r="X239" s="172"/>
     </row>
-    <row r="240" spans="1:25" customFormat="1" ht="16">
+    <row r="240" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B240" s="110"/>
       <c r="C240" s="172"/>
       <c r="D240" s="172"/>
@@ -9763,7 +9558,7 @@
       <c r="W240" s="172"/>
       <c r="X240" s="172"/>
     </row>
-    <row r="241" spans="2:24" customFormat="1" ht="16">
+    <row r="241" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B241" s="110"/>
       <c r="C241" s="172"/>
       <c r="D241" s="172"/>
@@ -9788,7 +9583,7 @@
       <c r="W241" s="172"/>
       <c r="X241" s="172"/>
     </row>
-    <row r="242" spans="2:24" customFormat="1" ht="16">
+    <row r="242" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B242" s="110"/>
       <c r="C242" s="172"/>
       <c r="D242" s="172"/>
@@ -9813,7 +9608,7 @@
       <c r="W242" s="172"/>
       <c r="X242" s="172"/>
     </row>
-    <row r="243" spans="2:24" customFormat="1" ht="16">
+    <row r="243" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B243" s="110"/>
       <c r="C243" s="172"/>
       <c r="D243" s="172"/>
@@ -9838,7 +9633,7 @@
       <c r="W243" s="172"/>
       <c r="X243" s="172"/>
     </row>
-    <row r="244" spans="2:24" customFormat="1" ht="16">
+    <row r="244" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B244" s="110"/>
       <c r="C244" s="172"/>
       <c r="D244" s="172"/>
@@ -9863,7 +9658,7 @@
       <c r="W244" s="172"/>
       <c r="X244" s="172"/>
     </row>
-    <row r="245" spans="2:24" customFormat="1" ht="16">
+    <row r="245" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B245" s="110"/>
       <c r="C245" s="172"/>
       <c r="D245" s="172"/>
@@ -9888,7 +9683,7 @@
       <c r="W245" s="172"/>
       <c r="X245" s="172"/>
     </row>
-    <row r="246" spans="2:24" customFormat="1" ht="16">
+    <row r="246" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B246" s="110"/>
       <c r="C246" s="172"/>
       <c r="D246" s="172"/>
@@ -9913,7 +9708,7 @@
       <c r="W246" s="172"/>
       <c r="X246" s="172"/>
     </row>
-    <row r="247" spans="2:24" customFormat="1" ht="16">
+    <row r="247" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B247" s="110"/>
       <c r="C247" s="172"/>
       <c r="D247" s="172"/>
@@ -9938,7 +9733,7 @@
       <c r="W247" s="172"/>
       <c r="X247" s="172"/>
     </row>
-    <row r="248" spans="2:24" customFormat="1" ht="16">
+    <row r="248" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B248" s="110"/>
       <c r="C248" s="172"/>
       <c r="D248" s="172"/>
@@ -9963,7 +9758,7 @@
       <c r="W248" s="172"/>
       <c r="X248" s="172"/>
     </row>
-    <row r="249" spans="2:24" customFormat="1" ht="16">
+    <row r="249" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B249" s="110"/>
       <c r="C249" s="172"/>
       <c r="D249" s="172"/>
@@ -9988,7 +9783,7 @@
       <c r="W249" s="172"/>
       <c r="X249" s="172"/>
     </row>
-    <row r="250" spans="2:24" customFormat="1" ht="16">
+    <row r="250" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B250" s="110"/>
       <c r="C250" s="172"/>
       <c r="D250" s="172"/>
@@ -10013,7 +9808,7 @@
       <c r="W250" s="172"/>
       <c r="X250" s="172"/>
     </row>
-    <row r="251" spans="2:24" customFormat="1" ht="16">
+    <row r="251" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B251" s="110"/>
       <c r="C251" s="172"/>
       <c r="D251" s="172"/>
@@ -10038,7 +9833,7 @@
       <c r="W251" s="172"/>
       <c r="X251" s="172"/>
     </row>
-    <row r="252" spans="2:24" customFormat="1" ht="16">
+    <row r="252" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B252" s="110"/>
       <c r="C252" s="172"/>
       <c r="D252" s="172"/>
@@ -10063,7 +9858,7 @@
       <c r="W252" s="172"/>
       <c r="X252" s="172"/>
     </row>
-    <row r="253" spans="2:24" customFormat="1" ht="16">
+    <row r="253" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B253" s="110"/>
       <c r="C253" s="172"/>
       <c r="D253" s="172"/>
@@ -10088,7 +9883,7 @@
       <c r="W253" s="172"/>
       <c r="X253" s="172"/>
     </row>
-    <row r="254" spans="2:24" customFormat="1" ht="16">
+    <row r="254" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B254" s="110"/>
       <c r="C254" s="172"/>
       <c r="D254" s="172"/>
@@ -10113,7 +9908,7 @@
       <c r="W254" s="172"/>
       <c r="X254" s="172"/>
     </row>
-    <row r="255" spans="2:24" customFormat="1" ht="16">
+    <row r="255" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B255" s="110"/>
       <c r="C255" s="172"/>
       <c r="D255" s="172"/>
@@ -10123,7 +9918,7 @@
       <c r="H255" s="172"/>
       <c r="I255" s="175"/>
       <c r="J255" s="175" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K255" s="175" t="s">
         <v>97</v>
@@ -10131,7 +9926,7 @@
       <c r="L255" s="175"/>
       <c r="M255" s="175"/>
       <c r="N255" s="175" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O255" s="175" t="s">
         <v>98</v>
@@ -10146,7 +9941,7 @@
       <c r="W255" s="172"/>
       <c r="X255" s="172"/>
     </row>
-    <row r="256" spans="2:24" customFormat="1" ht="16">
+    <row r="256" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B256" s="110"/>
       <c r="C256" s="172"/>
       <c r="D256" s="172"/>
@@ -10179,7 +9974,7 @@
       <c r="W256" s="172"/>
       <c r="X256" s="172"/>
     </row>
-    <row r="257" spans="1:25" customFormat="1" ht="16">
+    <row r="257" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B257" s="110"/>
       <c r="C257" s="172"/>
       <c r="D257" s="172"/>
@@ -10214,7 +10009,7 @@
       <c r="W257" s="172"/>
       <c r="X257" s="172"/>
     </row>
-    <row r="258" spans="1:25" customFormat="1" ht="16">
+    <row r="258" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B258" s="110"/>
       <c r="C258" s="172"/>
       <c r="D258" s="172"/>
@@ -10249,7 +10044,7 @@
       <c r="W258" s="172"/>
       <c r="X258" s="172"/>
     </row>
-    <row r="259" spans="1:25" customFormat="1" ht="16">
+    <row r="259" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B259" s="110"/>
       <c r="C259" s="172"/>
       <c r="D259" s="172"/>
@@ -10274,7 +10069,7 @@
       <c r="W259" s="172"/>
       <c r="X259" s="172"/>
     </row>
-    <row r="260" spans="1:25" customFormat="1" ht="16">
+    <row r="260" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B260" s="110"/>
       <c r="C260" s="172"/>
       <c r="D260" s="172"/>
@@ -10299,7 +10094,7 @@
       <c r="W260" s="172"/>
       <c r="X260" s="172"/>
     </row>
-    <row r="261" spans="1:25" customFormat="1" ht="16">
+    <row r="261" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B261" s="110"/>
       <c r="C261" s="172"/>
       <c r="D261" s="172"/>
@@ -10328,7 +10123,7 @@
       <c r="W261" s="172"/>
       <c r="X261" s="172"/>
     </row>
-    <row r="262" spans="1:25" customFormat="1" ht="16">
+    <row r="262" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B262" s="110"/>
       <c r="C262" s="172"/>
       <c r="D262" s="172"/>
@@ -10353,7 +10148,7 @@
       <c r="W262" s="172"/>
       <c r="X262" s="172"/>
     </row>
-    <row r="263" spans="1:25" customFormat="1" ht="16">
+    <row r="263" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B263" s="110"/>
       <c r="C263" s="172"/>
       <c r="D263" s="172"/>
@@ -10378,7 +10173,7 @@
       <c r="W263" s="172"/>
       <c r="X263" s="172"/>
     </row>
-    <row r="264" spans="1:25" ht="16">
+    <row r="264" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A264"/>
       <c r="B264" s="110"/>
       <c r="C264" s="172"/>
@@ -10400,7 +10195,7 @@
       <c r="S264" s="172"/>
       <c r="T264" s="172"/>
     </row>
-    <row r="265" spans="1:25" ht="16">
+    <row r="265" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A265"/>
       <c r="B265" s="110"/>
       <c r="C265" s="172"/>
@@ -10422,13 +10217,13 @@
       <c r="S265" s="172"/>
       <c r="T265" s="172"/>
     </row>
-    <row r="266" spans="1:25">
+    <row r="266" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B266" s="110"/>
     </row>
-    <row r="267" spans="1:25" ht="16" thickBot="1">
+    <row r="267" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B267" s="110"/>
     </row>
-    <row r="268" spans="1:25" s="26" customFormat="1" ht="16">
+    <row r="268" spans="1:25" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A268"/>
       <c r="B268" s="112"/>
       <c r="C268" s="113" t="s">
@@ -10457,7 +10252,7 @@
       <c r="T268" s="113"/>
       <c r="U268" s="113"/>
     </row>
-    <row r="269" spans="1:25" customFormat="1" ht="16">
+    <row r="269" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B269" s="110"/>
       <c r="C269" s="125"/>
       <c r="D269" s="122"/>
@@ -10483,25 +10278,25 @@
       <c r="X269" s="122"/>
       <c r="Y269" s="122"/>
     </row>
-    <row r="270" spans="1:25">
+    <row r="270" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B270" s="110"/>
       <c r="C270" s="61" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="271" spans="1:25" s="139" customFormat="1">
+    <row r="271" spans="1:25" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B271" s="110"/>
     </row>
-    <row r="272" spans="1:25" s="139" customFormat="1">
+    <row r="272" spans="1:25" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B272" s="110"/>
     </row>
-    <row r="273" spans="2:10" s="139" customFormat="1">
+    <row r="273" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B273" s="110"/>
       <c r="D273" s="139">
         <v>9</v>
       </c>
     </row>
-    <row r="274" spans="2:10" s="139" customFormat="1">
+    <row r="274" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B274" s="110"/>
       <c r="F274" s="180" t="s">
         <v>105</v>
@@ -10513,7 +10308,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="275" spans="2:10" s="139" customFormat="1">
+    <row r="275" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B275" s="110"/>
       <c r="H275" s="181">
         <f>H289*H274</f>
@@ -10523,7 +10318,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="276" spans="2:10" s="139" customFormat="1">
+    <row r="276" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B276" s="110"/>
       <c r="H276" s="181">
         <f>H275*100</f>
@@ -10536,7 +10331,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="277" spans="2:10" s="139" customFormat="1">
+    <row r="277" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B277" s="110"/>
       <c r="H277" s="181">
         <f>H276*H67</f>
@@ -10549,37 +10344,37 @@
         <v>138</v>
       </c>
     </row>
-    <row r="278" spans="2:10" s="139" customFormat="1">
+    <row r="278" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B278" s="110"/>
     </row>
-    <row r="279" spans="2:10" s="139" customFormat="1">
+    <row r="279" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B279" s="110"/>
     </row>
-    <row r="280" spans="2:10" s="139" customFormat="1">
+    <row r="280" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B280" s="110"/>
     </row>
-    <row r="281" spans="2:10" s="139" customFormat="1">
+    <row r="281" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B281" s="110"/>
     </row>
-    <row r="282" spans="2:10" s="139" customFormat="1">
+    <row r="282" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B282" s="110"/>
     </row>
-    <row r="283" spans="2:10" s="139" customFormat="1">
+    <row r="283" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B283" s="110"/>
     </row>
-    <row r="284" spans="2:10" s="139" customFormat="1">
+    <row r="284" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B284" s="110"/>
     </row>
-    <row r="285" spans="2:10" s="139" customFormat="1">
+    <row r="285" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B285" s="110"/>
     </row>
-    <row r="286" spans="2:10" s="139" customFormat="1">
+    <row r="286" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B286" s="110"/>
     </row>
-    <row r="287" spans="2:10" s="139" customFormat="1">
+    <row r="287" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B287" s="110"/>
     </row>
-    <row r="288" spans="2:10" s="139" customFormat="1">
+    <row r="288" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B288" s="110"/>
       <c r="F288" s="140" t="s">
         <v>89</v>
@@ -10591,7 +10386,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="289" spans="2:9" s="139" customFormat="1">
+    <row r="289" spans="2:9" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B289" s="110"/>
       <c r="H289" s="139">
         <f>H288*1000</f>
@@ -10601,169 +10396,169 @@
         <v>91</v>
       </c>
     </row>
-    <row r="290" spans="2:9" s="139" customFormat="1">
+    <row r="290" spans="2:9" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B290" s="110"/>
     </row>
-    <row r="291" spans="2:9" s="139" customFormat="1">
+    <row r="291" spans="2:9" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B291" s="110"/>
     </row>
-    <row r="292" spans="2:9" s="139" customFormat="1">
+    <row r="292" spans="2:9" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B292" s="110"/>
     </row>
-    <row r="293" spans="2:9" s="139" customFormat="1">
+    <row r="293" spans="2:9" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B293" s="110"/>
     </row>
-    <row r="294" spans="2:9" s="139" customFormat="1">
+    <row r="294" spans="2:9" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B294" s="110"/>
     </row>
-    <row r="295" spans="2:9" s="139" customFormat="1">
+    <row r="295" spans="2:9" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B295" s="110"/>
     </row>
-    <row r="296" spans="2:9" s="139" customFormat="1">
+    <row r="296" spans="2:9" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B296" s="110"/>
     </row>
-    <row r="297" spans="2:9" s="139" customFormat="1">
+    <row r="297" spans="2:9" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B297" s="110"/>
     </row>
-    <row r="298" spans="2:9" s="139" customFormat="1">
+    <row r="298" spans="2:9" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B298" s="110"/>
     </row>
-    <row r="299" spans="2:9" s="139" customFormat="1">
+    <row r="299" spans="2:9" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B299" s="110"/>
     </row>
-    <row r="300" spans="2:9" s="139" customFormat="1">
+    <row r="300" spans="2:9" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B300" s="110"/>
     </row>
-    <row r="301" spans="2:9" s="139" customFormat="1">
+    <row r="301" spans="2:9" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B301" s="110"/>
     </row>
-    <row r="302" spans="2:9" s="139" customFormat="1">
+    <row r="302" spans="2:9" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B302" s="110"/>
     </row>
-    <row r="303" spans="2:9" s="139" customFormat="1">
+    <row r="303" spans="2:9" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B303" s="110"/>
     </row>
-    <row r="304" spans="2:9" s="139" customFormat="1">
+    <row r="304" spans="2:9" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B304" s="110"/>
     </row>
-    <row r="305" spans="2:2" s="139" customFormat="1">
+    <row r="305" spans="2:2" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B305" s="110"/>
     </row>
-    <row r="306" spans="2:2" s="139" customFormat="1">
+    <row r="306" spans="2:2" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B306" s="110"/>
     </row>
-    <row r="307" spans="2:2" s="139" customFormat="1">
+    <row r="307" spans="2:2" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B307" s="110"/>
     </row>
-    <row r="308" spans="2:2" s="139" customFormat="1">
+    <row r="308" spans="2:2" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B308" s="110"/>
     </row>
-    <row r="309" spans="2:2" s="139" customFormat="1">
+    <row r="309" spans="2:2" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B309" s="110"/>
     </row>
-    <row r="310" spans="2:2" s="139" customFormat="1">
+    <row r="310" spans="2:2" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B310" s="110"/>
     </row>
-    <row r="311" spans="2:2" s="139" customFormat="1">
+    <row r="311" spans="2:2" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B311" s="110"/>
     </row>
-    <row r="312" spans="2:2" s="139" customFormat="1">
+    <row r="312" spans="2:2" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B312" s="110"/>
     </row>
-    <row r="313" spans="2:2" s="139" customFormat="1">
+    <row r="313" spans="2:2" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B313" s="110"/>
     </row>
-    <row r="314" spans="2:2" s="139" customFormat="1">
+    <row r="314" spans="2:2" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B314" s="110"/>
     </row>
-    <row r="315" spans="2:2" s="139" customFormat="1">
+    <row r="315" spans="2:2" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B315" s="110"/>
     </row>
-    <row r="316" spans="2:2" s="139" customFormat="1">
+    <row r="316" spans="2:2" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B316" s="110"/>
     </row>
-    <row r="317" spans="2:2" s="139" customFormat="1">
+    <row r="317" spans="2:2" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B317" s="110"/>
     </row>
-    <row r="318" spans="2:2" s="139" customFormat="1">
+    <row r="318" spans="2:2" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B318" s="110"/>
     </row>
-    <row r="319" spans="2:2" s="139" customFormat="1">
+    <row r="319" spans="2:2" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B319" s="110"/>
     </row>
-    <row r="320" spans="2:2" s="139" customFormat="1">
+    <row r="320" spans="2:2" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B320" s="110"/>
     </row>
-    <row r="321" spans="2:2" s="139" customFormat="1">
+    <row r="321" spans="2:2" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B321" s="110"/>
     </row>
-    <row r="322" spans="2:2" s="139" customFormat="1">
+    <row r="322" spans="2:2" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B322" s="110"/>
     </row>
-    <row r="323" spans="2:2" s="139" customFormat="1">
+    <row r="323" spans="2:2" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B323" s="110"/>
     </row>
-    <row r="324" spans="2:2" s="139" customFormat="1">
+    <row r="324" spans="2:2" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B324" s="110"/>
     </row>
-    <row r="325" spans="2:2" s="139" customFormat="1">
+    <row r="325" spans="2:2" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B325" s="110"/>
     </row>
-    <row r="326" spans="2:2" s="139" customFormat="1">
+    <row r="326" spans="2:2" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B326" s="110"/>
     </row>
-    <row r="327" spans="2:2" s="139" customFormat="1">
+    <row r="327" spans="2:2" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B327" s="110"/>
     </row>
-    <row r="328" spans="2:2" s="139" customFormat="1">
+    <row r="328" spans="2:2" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B328" s="110"/>
     </row>
-    <row r="329" spans="2:2" s="139" customFormat="1">
+    <row r="329" spans="2:2" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B329" s="110"/>
     </row>
-    <row r="330" spans="2:2" s="139" customFormat="1">
+    <row r="330" spans="2:2" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B330" s="110"/>
     </row>
-    <row r="331" spans="2:2" s="139" customFormat="1">
+    <row r="331" spans="2:2" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B331" s="110"/>
     </row>
-    <row r="332" spans="2:2" s="139" customFormat="1">
+    <row r="332" spans="2:2" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B332" s="110"/>
     </row>
-    <row r="333" spans="2:2" s="139" customFormat="1">
+    <row r="333" spans="2:2" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B333" s="110"/>
     </row>
-    <row r="334" spans="2:2" s="139" customFormat="1">
+    <row r="334" spans="2:2" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B334" s="110"/>
     </row>
-    <row r="335" spans="2:2" s="139" customFormat="1">
+    <row r="335" spans="2:2" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B335" s="110"/>
     </row>
-    <row r="336" spans="2:2" s="139" customFormat="1">
+    <row r="336" spans="2:2" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B336" s="110"/>
     </row>
-    <row r="337" spans="2:23" s="139" customFormat="1">
+    <row r="337" spans="2:23" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B337" s="110"/>
     </row>
-    <row r="338" spans="2:23" s="139" customFormat="1">
+    <row r="338" spans="2:23" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B338" s="110"/>
     </row>
-    <row r="339" spans="2:23" s="139" customFormat="1">
+    <row r="339" spans="2:23" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B339" s="110"/>
     </row>
-    <row r="340" spans="2:23" s="139" customFormat="1">
+    <row r="340" spans="2:23" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B340" s="110"/>
     </row>
-    <row r="341" spans="2:23" s="139" customFormat="1">
+    <row r="341" spans="2:23" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B341" s="110"/>
     </row>
-    <row r="342" spans="2:23" s="139" customFormat="1">
+    <row r="342" spans="2:23" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B342" s="110"/>
     </row>
-    <row r="343" spans="2:23" s="139" customFormat="1" ht="16" thickBot="1">
+    <row r="343" spans="2:23" s="139" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B343" s="110"/>
     </row>
-    <row r="344" spans="2:23" s="139" customFormat="1" ht="96" thickBot="1">
+    <row r="344" spans="2:23" s="139" customFormat="1" ht="100" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B344" s="110"/>
       <c r="O344" s="141"/>
       <c r="P344" s="167" t="s">
@@ -10789,7 +10584,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="345" spans="2:23" s="139" customFormat="1" ht="16">
+    <row r="345" spans="2:23" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B345" s="110"/>
       <c r="O345" s="143" t="s">
         <v>74</v>
@@ -10805,7 +10600,7 @@
       <c r="V345" s="145"/>
       <c r="W345" s="146"/>
     </row>
-    <row r="346" spans="2:23" s="139" customFormat="1" ht="16">
+    <row r="346" spans="2:23" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B346" s="110"/>
       <c r="F346" s="139" t="s">
         <v>44</v>
@@ -10836,7 +10631,7 @@
       <c r="V346" s="149"/>
       <c r="W346" s="150"/>
     </row>
-    <row r="347" spans="2:23" s="139" customFormat="1" ht="16">
+    <row r="347" spans="2:23" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B347" s="110"/>
       <c r="F347" s="139" t="s">
         <v>45</v>
@@ -10864,7 +10659,7 @@
       <c r="V347" s="149"/>
       <c r="W347" s="150"/>
     </row>
-    <row r="348" spans="2:23" s="139" customFormat="1" ht="16">
+    <row r="348" spans="2:23" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B348" s="110"/>
       <c r="F348" s="139" t="s">
         <v>48</v>
@@ -10894,7 +10689,7 @@
       <c r="V348" s="154"/>
       <c r="W348" s="150"/>
     </row>
-    <row r="349" spans="2:23" s="139" customFormat="1" ht="16">
+    <row r="349" spans="2:23" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B349" s="110"/>
       <c r="F349" s="139" t="s">
         <v>47</v>
@@ -10924,7 +10719,7 @@
       <c r="V349" s="149"/>
       <c r="W349" s="155"/>
     </row>
-    <row r="350" spans="2:23" s="139" customFormat="1" ht="17" thickBot="1">
+    <row r="350" spans="2:23" s="139" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B350" s="110"/>
       <c r="F350" s="139" t="s">
         <v>40</v>
@@ -10948,7 +10743,7 @@
       <c r="V350" s="157"/>
       <c r="W350" s="158"/>
     </row>
-    <row r="351" spans="2:23" s="139" customFormat="1" ht="16">
+    <row r="351" spans="2:23" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B351" s="110"/>
       <c r="F351" s="139" t="s">
         <v>46</v>
@@ -10973,7 +10768,7 @@
       <c r="V351" s="145"/>
       <c r="W351" s="146"/>
     </row>
-    <row r="352" spans="2:23" s="139" customFormat="1" ht="16">
+    <row r="352" spans="2:23" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B352" s="110"/>
       <c r="O352" s="147" t="s">
         <v>75</v>
@@ -10989,7 +10784,7 @@
       <c r="V352" s="149"/>
       <c r="W352" s="150"/>
     </row>
-    <row r="353" spans="2:23" s="139" customFormat="1" ht="16">
+    <row r="353" spans="2:23" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B353" s="110"/>
       <c r="O353" s="147" t="s">
         <v>77</v>
@@ -11009,7 +10804,7 @@
       <c r="V353" s="149"/>
       <c r="W353" s="150"/>
     </row>
-    <row r="354" spans="2:23" s="139" customFormat="1" ht="16">
+    <row r="354" spans="2:23" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B354" s="110"/>
       <c r="O354" s="147" t="s">
         <v>79</v>
@@ -11023,7 +10818,7 @@
       <c r="V354" s="149"/>
       <c r="W354" s="150"/>
     </row>
-    <row r="355" spans="2:23" s="139" customFormat="1" ht="16">
+    <row r="355" spans="2:23" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B355" s="110"/>
       <c r="O355" s="147" t="s">
         <v>80</v>
@@ -11043,7 +10838,7 @@
       <c r="V355" s="149"/>
       <c r="W355" s="155"/>
     </row>
-    <row r="356" spans="2:23" s="139" customFormat="1" ht="17" thickBot="1">
+    <row r="356" spans="2:23" s="139" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B356" s="110"/>
       <c r="O356" s="135" t="s">
         <v>81</v>
@@ -11059,7 +10854,7 @@
       <c r="V356" s="157"/>
       <c r="W356" s="158"/>
     </row>
-    <row r="357" spans="2:23" s="139" customFormat="1" ht="16">
+    <row r="357" spans="2:23" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B357" s="110"/>
       <c r="O357" s="143" t="s">
         <v>83</v>
@@ -11075,7 +10870,7 @@
       <c r="V357" s="145"/>
       <c r="W357" s="146"/>
     </row>
-    <row r="358" spans="2:23" s="139" customFormat="1" ht="16">
+    <row r="358" spans="2:23" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B358" s="110"/>
       <c r="O358" s="147" t="s">
         <v>75</v>
@@ -11095,7 +10890,7 @@
       <c r="V358" s="149"/>
       <c r="W358" s="155"/>
     </row>
-    <row r="359" spans="2:23" s="139" customFormat="1" ht="16">
+    <row r="359" spans="2:23" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B359" s="110"/>
       <c r="O359" s="147" t="s">
         <v>77</v>
@@ -11111,7 +10906,7 @@
       <c r="V359" s="149"/>
       <c r="W359" s="155"/>
     </row>
-    <row r="360" spans="2:23" s="139" customFormat="1" ht="16">
+    <row r="360" spans="2:23" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B360" s="110"/>
       <c r="O360" s="147" t="s">
         <v>79</v>
@@ -11125,7 +10920,7 @@
       <c r="V360" s="149"/>
       <c r="W360" s="155"/>
     </row>
-    <row r="361" spans="2:23" s="139" customFormat="1" ht="16">
+    <row r="361" spans="2:23" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B361" s="110"/>
       <c r="O361" s="147" t="s">
         <v>80</v>
@@ -11145,7 +10940,7 @@
       <c r="V361" s="149"/>
       <c r="W361" s="155"/>
     </row>
-    <row r="362" spans="2:23" s="139" customFormat="1" ht="17" thickBot="1">
+    <row r="362" spans="2:23" s="139" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B362" s="110"/>
       <c r="O362" s="135" t="s">
         <v>81</v>
@@ -11159,7 +10954,7 @@
       <c r="V362" s="157"/>
       <c r="W362" s="158"/>
     </row>
-    <row r="363" spans="2:23" s="139" customFormat="1" ht="16">
+    <row r="363" spans="2:23" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B363" s="110"/>
       <c r="O363" s="143" t="s">
         <v>84</v>
@@ -11175,7 +10970,7 @@
       <c r="V363" s="162"/>
       <c r="W363" s="163"/>
     </row>
-    <row r="364" spans="2:23" s="139" customFormat="1" ht="16">
+    <row r="364" spans="2:23" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B364" s="110"/>
       <c r="O364" s="147" t="s">
         <v>75</v>
@@ -11191,7 +10986,7 @@
       <c r="V364" s="149"/>
       <c r="W364" s="155"/>
     </row>
-    <row r="365" spans="2:23" s="139" customFormat="1" ht="16">
+    <row r="365" spans="2:23" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B365" s="110"/>
       <c r="O365" s="147" t="s">
         <v>77</v>
@@ -11211,7 +11006,7 @@
         <v>2.8648369907752248E-2</v>
       </c>
     </row>
-    <row r="366" spans="2:23" s="139" customFormat="1" ht="16">
+    <row r="366" spans="2:23" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B366" s="110"/>
       <c r="O366" s="147" t="s">
         <v>79</v>
@@ -11225,7 +11020,7 @@
       <c r="V366" s="149"/>
       <c r="W366" s="155"/>
     </row>
-    <row r="367" spans="2:23" s="139" customFormat="1" ht="16">
+    <row r="367" spans="2:23" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B367" s="110"/>
       <c r="O367" s="147" t="s">
         <v>80</v>
@@ -11245,7 +11040,7 @@
       <c r="V367" s="149"/>
       <c r="W367" s="155"/>
     </row>
-    <row r="368" spans="2:23" s="139" customFormat="1" ht="17" thickBot="1">
+    <row r="368" spans="2:23" s="139" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B368" s="110"/>
       <c r="O368" s="135" t="s">
         <v>81</v>
@@ -11263,7 +11058,7 @@
       <c r="V368" s="165"/>
       <c r="W368" s="166"/>
     </row>
-    <row r="369" spans="1:25" s="139" customFormat="1" ht="16">
+    <row r="369" spans="1:25" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B369" s="110"/>
       <c r="O369" s="143" t="s">
         <v>85</v>
@@ -11279,7 +11074,7 @@
       <c r="V369" s="145"/>
       <c r="W369" s="146"/>
     </row>
-    <row r="370" spans="1:25" s="139" customFormat="1" ht="16">
+    <row r="370" spans="1:25" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B370" s="110"/>
       <c r="O370" s="147" t="s">
         <v>75</v>
@@ -11295,7 +11090,7 @@
       <c r="V370" s="149"/>
       <c r="W370" s="150"/>
     </row>
-    <row r="371" spans="1:25" s="139" customFormat="1" ht="16">
+    <row r="371" spans="1:25" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B371" s="110"/>
       <c r="O371" s="147" t="s">
         <v>77</v>
@@ -11311,7 +11106,7 @@
       <c r="V371" s="149"/>
       <c r="W371" s="150"/>
     </row>
-    <row r="372" spans="1:25" s="139" customFormat="1" ht="16">
+    <row r="372" spans="1:25" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B372" s="110"/>
       <c r="O372" s="147" t="s">
         <v>79</v>
@@ -11325,7 +11120,7 @@
       <c r="V372" s="149"/>
       <c r="W372" s="150"/>
     </row>
-    <row r="373" spans="1:25" s="139" customFormat="1" ht="16">
+    <row r="373" spans="1:25" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B373" s="110"/>
       <c r="O373" s="147" t="s">
         <v>80</v>
@@ -11339,7 +11134,7 @@
       <c r="V373" s="149"/>
       <c r="W373" s="150"/>
     </row>
-    <row r="374" spans="1:25" s="139" customFormat="1" ht="17" thickBot="1">
+    <row r="374" spans="1:25" s="139" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B374" s="110"/>
       <c r="O374" s="135" t="s">
         <v>81</v>
@@ -11353,16 +11148,16 @@
       <c r="V374" s="157"/>
       <c r="W374" s="158"/>
     </row>
-    <row r="375" spans="1:25" s="139" customFormat="1">
+    <row r="375" spans="1:25" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B375" s="110"/>
     </row>
-    <row r="376" spans="1:25" s="139" customFormat="1">
+    <row r="376" spans="1:25" s="139" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B376" s="110"/>
     </row>
-    <row r="377" spans="1:25" s="139" customFormat="1" ht="16" thickBot="1">
+    <row r="377" spans="1:25" s="139" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B377" s="110"/>
     </row>
-    <row r="378" spans="1:25" s="26" customFormat="1" ht="16">
+    <row r="378" spans="1:25" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A378"/>
       <c r="B378" s="112"/>
       <c r="C378" s="113" t="s">
@@ -11391,7 +11186,7 @@
       <c r="T378" s="113"/>
       <c r="U378" s="113"/>
     </row>
-    <row r="379" spans="1:25" customFormat="1" ht="16">
+    <row r="379" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B379" s="110"/>
       <c r="C379" s="125"/>
       <c r="D379" s="122"/>
@@ -11417,7 +11212,7 @@
       <c r="X379" s="122"/>
       <c r="Y379" s="122"/>
     </row>
-    <row r="380" spans="1:25" ht="16">
+    <row r="380" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B380" s="110"/>
       <c r="C380" s="187" t="s">
         <v>144</v>
@@ -11426,7 +11221,7 @@
         <v>139.09</v>
       </c>
       <c r="G380" s="172" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H380" s="190" t="s">
         <v>146</v>
@@ -11438,7 +11233,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="381" spans="1:25">
+    <row r="381" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B381" s="110"/>
       <c r="F381" s="205">
         <f>'Research data'!G8</f>
@@ -11449,37 +11244,37 @@
       </c>
       <c r="H381" s="188"/>
     </row>
-    <row r="382" spans="1:25">
+    <row r="382" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B382" s="110"/>
       <c r="F382" s="109">
         <f>F381*1000</f>
         <v>18000</v>
       </c>
       <c r="G382" s="204" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="383" spans="1:25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="383" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B383" s="110"/>
       <c r="F383" s="206">
         <f>F380/F382</f>
         <v>7.7272222222222221E-3</v>
       </c>
     </row>
-    <row r="384" spans="1:25">
+    <row r="384" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B384" s="110"/>
     </row>
-    <row r="385" spans="2:35">
+    <row r="385" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B385" s="110"/>
     </row>
-    <row r="386" spans="2:35">
+    <row r="386" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B386" s="110"/>
     </row>
-    <row r="387" spans="2:35">
+    <row r="387" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B387" s="110"/>
     </row>
-    <row r="388" spans="2:35" s="225" customFormat="1" ht="16" thickBot="1"/>
-    <row r="389" spans="2:35" s="225" customFormat="1">
+    <row r="388" spans="2:35" s="225" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="389" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B389" s="226"/>
       <c r="C389" s="227" t="s">
         <v>25</v>
@@ -11521,7 +11316,7 @@
       <c r="AH389" s="228"/>
       <c r="AI389" s="228"/>
     </row>
-    <row r="390" spans="2:35" s="225" customFormat="1">
+    <row r="390" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B390" s="229"/>
       <c r="C390" s="219"/>
       <c r="D390" s="219"/>
@@ -11557,10 +11352,10 @@
       <c r="AH390" s="219"/>
       <c r="AI390" s="219"/>
     </row>
-    <row r="391" spans="2:35" s="225" customFormat="1" ht="16">
+    <row r="391" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B391" s="229"/>
       <c r="C391" s="230" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D391" s="231"/>
       <c r="E391" s="231"/>
@@ -11595,7 +11390,7 @@
       <c r="AH391" s="232"/>
       <c r="AI391" s="232"/>
     </row>
-    <row r="392" spans="2:35" s="225" customFormat="1" ht="16">
+    <row r="392" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B392" s="229"/>
       <c r="C392" s="231"/>
       <c r="D392" s="231"/>
@@ -11631,7 +11426,7 @@
       <c r="AH392" s="232"/>
       <c r="AI392" s="232"/>
     </row>
-    <row r="393" spans="2:35" s="225" customFormat="1" ht="16">
+    <row r="393" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B393" s="229"/>
       <c r="C393" s="231"/>
       <c r="D393" s="231"/>
@@ -11667,7 +11462,7 @@
       <c r="AH393" s="232"/>
       <c r="AI393" s="232"/>
     </row>
-    <row r="394" spans="2:35" s="225" customFormat="1" ht="16">
+    <row r="394" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B394" s="229"/>
       <c r="C394" s="231"/>
       <c r="D394" s="231"/>
@@ -11703,7 +11498,7 @@
       <c r="AH394" s="232"/>
       <c r="AI394" s="232"/>
     </row>
-    <row r="395" spans="2:35" s="225" customFormat="1" ht="16">
+    <row r="395" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B395" s="229"/>
       <c r="C395" s="231"/>
       <c r="D395" s="231"/>
@@ -11739,7 +11534,7 @@
       <c r="AH395" s="232"/>
       <c r="AI395" s="232"/>
     </row>
-    <row r="396" spans="2:35" s="225" customFormat="1" ht="16">
+    <row r="396" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B396" s="229"/>
       <c r="C396" s="231"/>
       <c r="I396" s="231"/>
@@ -11770,7 +11565,7 @@
       <c r="AH396" s="232"/>
       <c r="AI396" s="232"/>
     </row>
-    <row r="397" spans="2:35" s="225" customFormat="1" ht="16">
+    <row r="397" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B397" s="229"/>
       <c r="C397" s="231"/>
       <c r="I397" s="231"/>
@@ -11801,7 +11596,7 @@
       <c r="AH397" s="232"/>
       <c r="AI397" s="232"/>
     </row>
-    <row r="398" spans="2:35" s="225" customFormat="1" ht="16">
+    <row r="398" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B398" s="229"/>
       <c r="C398" s="231"/>
       <c r="I398" s="231"/>
@@ -11832,7 +11627,7 @@
       <c r="AH398" s="232"/>
       <c r="AI398" s="232"/>
     </row>
-    <row r="399" spans="2:35" s="225" customFormat="1" ht="16">
+    <row r="399" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B399" s="229"/>
       <c r="C399" s="122"/>
       <c r="D399" s="122"/>
@@ -11868,7 +11663,7 @@
       <c r="AH399" s="232"/>
       <c r="AI399" s="232"/>
     </row>
-    <row r="400" spans="2:35" s="225" customFormat="1" ht="16">
+    <row r="400" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B400" s="229"/>
       <c r="C400" s="122"/>
       <c r="D400" s="122"/>
@@ -11904,7 +11699,7 @@
       <c r="AH400" s="232"/>
       <c r="AI400" s="232"/>
     </row>
-    <row r="401" spans="2:35" s="225" customFormat="1" ht="16">
+    <row r="401" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B401" s="229"/>
       <c r="C401" s="122"/>
       <c r="D401" s="122"/>
@@ -11940,7 +11735,7 @@
       <c r="AH401" s="232"/>
       <c r="AI401" s="232"/>
     </row>
-    <row r="402" spans="2:35" s="225" customFormat="1" ht="16">
+    <row r="402" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B402" s="229"/>
       <c r="C402" s="122"/>
       <c r="D402" s="122"/>
@@ -11976,7 +11771,7 @@
       <c r="AH402" s="232"/>
       <c r="AI402" s="232"/>
     </row>
-    <row r="403" spans="2:35" s="225" customFormat="1" ht="16">
+    <row r="403" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B403" s="229"/>
       <c r="C403" s="122"/>
       <c r="D403" s="122"/>
@@ -12012,7 +11807,7 @@
       <c r="AH403" s="232"/>
       <c r="AI403" s="232"/>
     </row>
-    <row r="404" spans="2:35" s="225" customFormat="1" ht="16">
+    <row r="404" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B404" s="229"/>
       <c r="C404" s="122"/>
       <c r="D404" s="122"/>
@@ -12048,7 +11843,7 @@
       <c r="AH404" s="232"/>
       <c r="AI404" s="232"/>
     </row>
-    <row r="405" spans="2:35" s="225" customFormat="1" ht="16">
+    <row r="405" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B405" s="229"/>
       <c r="C405" s="122"/>
       <c r="D405" s="122"/>
@@ -12084,7 +11879,7 @@
       <c r="AH405" s="232"/>
       <c r="AI405" s="232"/>
     </row>
-    <row r="406" spans="2:35" s="225" customFormat="1" ht="16">
+    <row r="406" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B406" s="229"/>
       <c r="C406" s="122"/>
       <c r="D406" s="122"/>
@@ -12120,7 +11915,7 @@
       <c r="AH406" s="232"/>
       <c r="AI406" s="232"/>
     </row>
-    <row r="407" spans="2:35" s="225" customFormat="1" ht="16">
+    <row r="407" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B407" s="229"/>
       <c r="C407" s="122"/>
       <c r="D407" s="122"/>
@@ -12156,7 +11951,7 @@
       <c r="AH407" s="232"/>
       <c r="AI407" s="232"/>
     </row>
-    <row r="408" spans="2:35" s="225" customFormat="1" ht="16">
+    <row r="408" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B408" s="229"/>
       <c r="C408" s="122"/>
       <c r="D408" s="122"/>
@@ -12192,7 +11987,7 @@
       <c r="AH408" s="232"/>
       <c r="AI408" s="232"/>
     </row>
-    <row r="409" spans="2:35" s="225" customFormat="1" ht="16">
+    <row r="409" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B409" s="229"/>
       <c r="C409" s="122"/>
       <c r="D409" s="122"/>
@@ -12228,7 +12023,7 @@
       <c r="AH409" s="232"/>
       <c r="AI409" s="232"/>
     </row>
-    <row r="410" spans="2:35" s="225" customFormat="1" ht="16">
+    <row r="410" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B410" s="229"/>
       <c r="C410" s="122"/>
       <c r="D410" s="122"/>
@@ -12264,7 +12059,7 @@
       <c r="AH410" s="232"/>
       <c r="AI410" s="232"/>
     </row>
-    <row r="411" spans="2:35" s="225" customFormat="1" ht="16">
+    <row r="411" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B411" s="229"/>
       <c r="C411" s="122"/>
       <c r="D411" s="122"/>
@@ -12300,7 +12095,7 @@
       <c r="AH411" s="232"/>
       <c r="AI411" s="232"/>
     </row>
-    <row r="412" spans="2:35" s="225" customFormat="1" ht="16">
+    <row r="412" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B412" s="229"/>
       <c r="C412" s="122"/>
       <c r="D412" s="231">
@@ -12312,10 +12107,10 @@
         <v>112000</v>
       </c>
       <c r="H412" s="231" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I412" s="122" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J412" s="122"/>
       <c r="K412" s="122"/>
@@ -12344,7 +12139,7 @@
       <c r="AH412" s="232"/>
       <c r="AI412" s="232"/>
     </row>
-    <row r="413" spans="2:35" s="225" customFormat="1" ht="16">
+    <row r="413" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B413" s="229"/>
       <c r="C413" s="122"/>
       <c r="D413" s="231"/>
@@ -12355,9 +12150,9 @@
         <v>1000000</v>
       </c>
       <c r="H413" s="231" t="s">
-        <v>178</v>
-      </c>
-      <c r="I413" s="246"/>
+        <v>177</v>
+      </c>
+      <c r="I413" s="234"/>
       <c r="J413" s="122"/>
       <c r="K413" s="122"/>
       <c r="L413" s="122"/>
@@ -12385,7 +12180,7 @@
       <c r="AH413" s="232"/>
       <c r="AI413" s="232"/>
     </row>
-    <row r="414" spans="2:35" s="225" customFormat="1" ht="16">
+    <row r="414" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B414" s="229"/>
       <c r="C414" s="122"/>
       <c r="D414" s="231"/>
@@ -12396,7 +12191,7 @@
         <v>0.112</v>
       </c>
       <c r="H414" s="231" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I414" s="122"/>
       <c r="J414" s="122"/>
@@ -12426,7 +12221,7 @@
       <c r="AH414" s="232"/>
       <c r="AI414" s="232"/>
     </row>
-    <row r="415" spans="2:35" s="225" customFormat="1" ht="16">
+    <row r="415" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B415" s="229"/>
       <c r="C415" s="122"/>
       <c r="D415" s="122"/>
@@ -12462,7 +12257,7 @@
       <c r="AH415" s="232"/>
       <c r="AI415" s="232"/>
     </row>
-    <row r="416" spans="2:35" s="225" customFormat="1" ht="16">
+    <row r="416" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B416" s="229"/>
       <c r="C416" s="232"/>
       <c r="D416" s="232"/>
@@ -12498,7 +12293,7 @@
       <c r="AH416" s="232"/>
       <c r="AI416" s="232"/>
     </row>
-    <row r="417" spans="2:35" s="225" customFormat="1" ht="16">
+    <row r="417" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B417" s="229"/>
       <c r="C417" s="232"/>
       <c r="D417" s="232"/>
@@ -12534,7 +12329,7 @@
       <c r="AH417" s="232"/>
       <c r="AI417" s="232"/>
     </row>
-    <row r="418" spans="2:35" s="225" customFormat="1" ht="16">
+    <row r="418" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B418" s="229"/>
       <c r="C418" s="232"/>
       <c r="D418" s="232"/>
@@ -12570,7 +12365,7 @@
       <c r="AH418" s="232"/>
       <c r="AI418" s="232"/>
     </row>
-    <row r="419" spans="2:35" s="225" customFormat="1" ht="16">
+    <row r="419" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B419" s="229"/>
       <c r="C419" s="232"/>
       <c r="D419" s="232"/>
@@ -12606,7 +12401,7 @@
       <c r="AH419" s="232"/>
       <c r="AI419" s="232"/>
     </row>
-    <row r="420" spans="2:35" s="225" customFormat="1" ht="16">
+    <row r="420" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B420" s="229"/>
       <c r="C420" s="232"/>
       <c r="D420" s="232"/>
@@ -12642,7 +12437,7 @@
       <c r="AH420" s="232"/>
       <c r="AI420" s="232"/>
     </row>
-    <row r="421" spans="2:35" s="225" customFormat="1" ht="16">
+    <row r="421" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B421" s="229"/>
       <c r="C421" s="232"/>
       <c r="D421" s="232"/>
@@ -12678,7 +12473,7 @@
       <c r="AH421" s="232"/>
       <c r="AI421" s="232"/>
     </row>
-    <row r="422" spans="2:35" s="225" customFormat="1" ht="16">
+    <row r="422" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B422" s="229"/>
       <c r="C422" s="232"/>
       <c r="D422" s="232"/>
@@ -12714,7 +12509,7 @@
       <c r="AH422" s="232"/>
       <c r="AI422" s="232"/>
     </row>
-    <row r="423" spans="2:35" s="225" customFormat="1" ht="16">
+    <row r="423" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B423" s="229"/>
       <c r="C423" s="232"/>
       <c r="D423" s="232"/>
@@ -12750,7 +12545,7 @@
       <c r="AH423" s="232"/>
       <c r="AI423" s="232"/>
     </row>
-    <row r="424" spans="2:35" s="225" customFormat="1" ht="16">
+    <row r="424" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B424" s="229"/>
       <c r="C424" s="232"/>
       <c r="D424" s="232"/>
@@ -12786,7 +12581,7 @@
       <c r="AH424" s="232"/>
       <c r="AI424" s="232"/>
     </row>
-    <row r="425" spans="2:35" s="225" customFormat="1" ht="16">
+    <row r="425" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B425" s="229"/>
       <c r="C425" s="232"/>
       <c r="D425" s="232"/>
@@ -12822,7 +12617,7 @@
       <c r="AH425" s="232"/>
       <c r="AI425" s="232"/>
     </row>
-    <row r="426" spans="2:35" s="225" customFormat="1" ht="16">
+    <row r="426" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B426" s="229"/>
       <c r="C426" s="232"/>
       <c r="D426" s="232"/>
@@ -12858,7 +12653,7 @@
       <c r="AH426" s="232"/>
       <c r="AI426" s="232"/>
     </row>
-    <row r="427" spans="2:35" s="225" customFormat="1" ht="16">
+    <row r="427" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B427" s="229"/>
       <c r="C427" s="232"/>
       <c r="D427" s="232"/>
@@ -12894,7 +12689,7 @@
       <c r="AH427" s="232"/>
       <c r="AI427" s="232"/>
     </row>
-    <row r="428" spans="2:35" s="225" customFormat="1" ht="16">
+    <row r="428" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B428" s="229"/>
       <c r="C428" s="232"/>
       <c r="D428" s="232"/>
@@ -12930,7 +12725,7 @@
       <c r="AH428" s="232"/>
       <c r="AI428" s="232"/>
     </row>
-    <row r="429" spans="2:35" s="225" customFormat="1" ht="16">
+    <row r="429" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B429" s="229"/>
       <c r="C429" s="232"/>
       <c r="D429" s="232"/>
@@ -12966,7 +12761,7 @@
       <c r="AH429" s="232"/>
       <c r="AI429" s="232"/>
     </row>
-    <row r="430" spans="2:35" s="225" customFormat="1" ht="16">
+    <row r="430" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B430" s="229"/>
       <c r="C430" s="232"/>
       <c r="D430" s="232"/>
@@ -13002,7 +12797,7 @@
       <c r="AH430" s="232"/>
       <c r="AI430" s="232"/>
     </row>
-    <row r="431" spans="2:35" s="225" customFormat="1" ht="16">
+    <row r="431" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B431" s="229"/>
       <c r="C431" s="232"/>
       <c r="D431" s="232"/>
@@ -13038,7 +12833,7 @@
       <c r="AH431" s="232"/>
       <c r="AI431" s="232"/>
     </row>
-    <row r="432" spans="2:35" s="225" customFormat="1" ht="16">
+    <row r="432" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B432" s="229"/>
       <c r="C432" s="232"/>
       <c r="D432" s="232"/>
@@ -13074,7 +12869,7 @@
       <c r="AH432" s="232"/>
       <c r="AI432" s="232"/>
     </row>
-    <row r="433" spans="2:35" s="225" customFormat="1" ht="16">
+    <row r="433" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B433" s="229"/>
       <c r="C433" s="232"/>
       <c r="D433" s="232"/>
@@ -13110,7 +12905,7 @@
       <c r="AH433" s="232"/>
       <c r="AI433" s="232"/>
     </row>
-    <row r="434" spans="2:35" s="225" customFormat="1" ht="16">
+    <row r="434" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B434" s="229"/>
       <c r="C434" s="232"/>
       <c r="D434" s="232"/>
@@ -13146,7 +12941,7 @@
       <c r="AH434" s="232"/>
       <c r="AI434" s="232"/>
     </row>
-    <row r="435" spans="2:35" s="225" customFormat="1" ht="16">
+    <row r="435" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B435" s="229"/>
       <c r="C435" s="232"/>
       <c r="D435" s="232"/>
@@ -13182,7 +12977,7 @@
       <c r="AH435" s="232"/>
       <c r="AI435" s="232"/>
     </row>
-    <row r="436" spans="2:35" s="225" customFormat="1" ht="16">
+    <row r="436" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B436" s="229"/>
       <c r="C436" s="232"/>
       <c r="D436" s="232"/>
@@ -13218,7 +13013,7 @@
       <c r="AH436" s="232"/>
       <c r="AI436" s="232"/>
     </row>
-    <row r="437" spans="2:35" s="225" customFormat="1" ht="16">
+    <row r="437" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B437" s="229"/>
       <c r="C437" s="232"/>
       <c r="D437" s="232"/>
@@ -13254,7 +13049,7 @@
       <c r="AH437" s="232"/>
       <c r="AI437" s="232"/>
     </row>
-    <row r="438" spans="2:35" s="225" customFormat="1" ht="16">
+    <row r="438" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B438" s="229"/>
       <c r="C438" s="232"/>
       <c r="D438" s="232"/>
@@ -13290,7 +13085,7 @@
       <c r="AH438" s="232"/>
       <c r="AI438" s="232"/>
     </row>
-    <row r="439" spans="2:35" s="225" customFormat="1" ht="16">
+    <row r="439" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B439" s="229"/>
       <c r="C439" s="232"/>
       <c r="D439" s="232"/>
@@ -13326,7 +13121,7 @@
       <c r="AH439" s="232"/>
       <c r="AI439" s="232"/>
     </row>
-    <row r="440" spans="2:35" s="225" customFormat="1" ht="16">
+    <row r="440" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B440" s="229"/>
       <c r="C440" s="232"/>
       <c r="D440" s="232"/>
@@ -13362,7 +13157,7 @@
       <c r="AH440" s="232"/>
       <c r="AI440" s="232"/>
     </row>
-    <row r="441" spans="2:35" s="225" customFormat="1" ht="16">
+    <row r="441" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B441" s="229"/>
       <c r="C441" s="232"/>
       <c r="D441" s="232"/>
@@ -13398,7 +13193,7 @@
       <c r="AH441" s="232"/>
       <c r="AI441" s="232"/>
     </row>
-    <row r="442" spans="2:35" s="225" customFormat="1" ht="16">
+    <row r="442" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B442" s="229"/>
       <c r="C442" s="232"/>
       <c r="D442" s="232"/>
@@ -13434,7 +13229,7 @@
       <c r="AH442" s="232"/>
       <c r="AI442" s="232"/>
     </row>
-    <row r="443" spans="2:35" s="225" customFormat="1" ht="16">
+    <row r="443" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B443" s="229"/>
       <c r="C443" s="232"/>
       <c r="D443" s="232"/>
@@ -13470,7 +13265,7 @@
       <c r="AH443" s="232"/>
       <c r="AI443" s="232"/>
     </row>
-    <row r="444" spans="2:35" s="225" customFormat="1" ht="16">
+    <row r="444" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B444" s="229"/>
       <c r="C444" s="232"/>
       <c r="D444" s="232"/>
@@ -13506,7 +13301,7 @@
       <c r="AH444" s="232"/>
       <c r="AI444" s="232"/>
     </row>
-    <row r="445" spans="2:35" s="225" customFormat="1" ht="16">
+    <row r="445" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B445" s="229"/>
       <c r="C445" s="232"/>
       <c r="D445" s="232"/>
@@ -13542,7 +13337,7 @@
       <c r="AH445" s="232"/>
       <c r="AI445" s="232"/>
     </row>
-    <row r="446" spans="2:35" s="225" customFormat="1" ht="16">
+    <row r="446" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B446" s="229"/>
       <c r="C446" s="232"/>
       <c r="D446" s="232"/>
@@ -13578,7 +13373,7 @@
       <c r="AH446" s="232"/>
       <c r="AI446" s="232"/>
     </row>
-    <row r="447" spans="2:35" s="225" customFormat="1" ht="16">
+    <row r="447" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B447" s="229"/>
       <c r="C447" s="232"/>
       <c r="D447" s="232"/>
@@ -13614,7 +13409,7 @@
       <c r="AH447" s="232"/>
       <c r="AI447" s="232"/>
     </row>
-    <row r="448" spans="2:35" s="225" customFormat="1" ht="16">
+    <row r="448" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B448" s="229"/>
       <c r="C448" s="232"/>
       <c r="D448" s="232"/>
@@ -13650,7 +13445,7 @@
       <c r="AH448" s="232"/>
       <c r="AI448" s="232"/>
     </row>
-    <row r="449" s="225" customFormat="1"/>
+    <row r="449" s="225" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="J380" r:id="rId1"/>
@@ -13658,10 +13453,5 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/carriers_source_analyses/wood_pellets.carrier.xlsx
+++ b/carriers_source_analyses/wood_pellets.carrier.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28908"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/carriers_source_analyses/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieldenhaan/Projects/etdataset/carriers_source_analyses/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="44760" yWindow="-5580" windowWidth="28800" windowHeight="16100" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="22400" yWindow="460" windowWidth="28800" windowHeight="16100" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -18,9 +18,9 @@
     <sheet name="Research data" sheetId="13" r:id="rId4"/>
     <sheet name="Sources" sheetId="15" r:id="rId5"/>
     <sheet name="Notes" sheetId="16" r:id="rId6"/>
+    <sheet name="Exchange_rates" sheetId="18" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="187">
   <si>
     <t>Source</t>
   </si>
@@ -493,16 +493,7 @@
     <t>Used number from source that refers to NW European climate and marginal land</t>
   </si>
   <si>
-    <t>http://www.apxendex.com/index.php?id=315</t>
-  </si>
-  <si>
-    <t>APX ENDEX market info</t>
-  </si>
-  <si>
     <t>this price is obsolete, but market data no longer available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAL14 Future Settl. price </t>
   </si>
   <si>
     <t>APX ENDEX</t>
@@ -624,6 +615,36 @@
 - The carrier analysis can be imported on ETSource by running the following rake task: rake import:carrier CARRIER="carrier name" (eg rake import:carrier CARRIER=crude_oil) 
 - The fce analysis can be imported on ETSource by running the following rake task: rake import:fce DATASET="dataset" CARRIER="carrier name" (eg rake import:fce DATASET=nl CARRIER=bio_ethanol)</t>
   </si>
+  <si>
+    <t>EEX Wood pellets futures</t>
+  </si>
+  <si>
+    <t>https://www.eex.com/en/market-data/energiewende-products/wood-pellets-futures#!/2017/11/01</t>
+  </si>
+  <si>
+    <t>$/tonne</t>
+  </si>
+  <si>
+    <t>This sheet contains currency exchange rates. These are automatically updated from exchange rate files in the same folder. This only works if you open this `&lt;carrier name&gt;.xlsx` workbook using the `carrier_manager.xlsm` document.</t>
+  </si>
+  <si>
+    <t>Exchange rate</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>dollar_per_euro</t>
+  </si>
+  <si>
+    <t>USD/EUR</t>
+  </si>
+  <si>
+    <t>Running Month Average</t>
+  </si>
+  <si>
+    <t>https://www.ecb.europa.eu/stats/policy_and_exchange_rates/euro_reference_exchange_rates/html/eurofxref-graph-usd.en.html</t>
+  </si>
 </sst>
 </file>
 
@@ -643,12 +664,19 @@
     <numFmt numFmtId="174" formatCode="#,##0.0000000000"/>
     <numFmt numFmtId="175" formatCode="0.0000000000000000"/>
   </numFmts>
-  <fonts count="51" x14ac:knownFonts="1">
+  <fonts count="52" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -809,6 +837,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -816,6 +845,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -823,6 +853,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -830,6 +861,7 @@
       <sz val="16"/>
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -837,17 +869,20 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -861,11 +896,13 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -940,6 +977,7 @@
       <sz val="12"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1049,7 +1087,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -1441,801 +1479,865 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="412">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="248">
+  <cellXfs count="260">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="23" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="24" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="30" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="183" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="23" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="18" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="28" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="183" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="22" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="183" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="183" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="37" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="37" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="37" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="36" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="36" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="36" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="37" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="37" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="37" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="4" fontId="36" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="36" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="36" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="36" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="36" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="37" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="37" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="36" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="36" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="36" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="37" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="37" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="37" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="183" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="183" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="17" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="43" fillId="13" borderId="0" xfId="396" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="43" fillId="13" borderId="0" xfId="396" applyFill="1"/>
-    <xf numFmtId="14" fontId="43" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" xfId="183" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="166" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="17" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="44" fillId="13" borderId="0" xfId="396" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="44" fillId="13" borderId="0" xfId="396" applyFill="1"/>
+    <xf numFmtId="14" fontId="44" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" xfId="183" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="173" fontId="14" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="173" fontId="15" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="174" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="22" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="174" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="23" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="49" fontId="32" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="33" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="45" fillId="4" borderId="0" xfId="183" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="46" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="46" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="46" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="46" fillId="4" borderId="0" xfId="183" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="47" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="47" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="47" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="412">
     <cellStyle name="Excel Built-in Normal" xfId="396"/>
@@ -2672,7 +2774,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:colOff>152399</xdr:colOff>
       <xdr:row>59</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
@@ -2945,7 +3047,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>84758</xdr:colOff>
+      <xdr:colOff>84759</xdr:colOff>
       <xdr:row>78</xdr:row>
       <xdr:rowOff>127966</xdr:rowOff>
     </xdr:to>
@@ -2992,7 +3094,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>187877</xdr:colOff>
+      <xdr:colOff>187878</xdr:colOff>
       <xdr:row>75</xdr:row>
       <xdr:rowOff>159026</xdr:rowOff>
     </xdr:to>
@@ -3086,7 +3188,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>622301</xdr:colOff>
+      <xdr:colOff>533401</xdr:colOff>
       <xdr:row>98</xdr:row>
       <xdr:rowOff>127565</xdr:rowOff>
     </xdr:to>
@@ -3124,7 +3226,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
+      <xdr:colOff>533400</xdr:colOff>
       <xdr:row>137</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
@@ -3162,7 +3264,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>410818</xdr:colOff>
+      <xdr:colOff>410819</xdr:colOff>
       <xdr:row>181</xdr:row>
       <xdr:rowOff>4831</xdr:rowOff>
     </xdr:to>
@@ -3303,7 +3405,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
+      <xdr:colOff>533400</xdr:colOff>
       <xdr:row>227</xdr:row>
       <xdr:rowOff>21398</xdr:rowOff>
     </xdr:to>
@@ -3345,13 +3447,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>392</xdr:row>
+      <xdr:row>395</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>433</xdr:row>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>436</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3490,29 +3592,6 @@
       <sheetData sheetId="45" refreshError="1"/>
       <sheetData sheetId="46" refreshError="1"/>
       <sheetData sheetId="47" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Cover sheet"/>
-      <sheetName val="Dashboard"/>
-      <sheetName val="carrier_manager.xlsm"/>
-      <sheetName val="carrier_manager"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="update_attributes"/>
-      <definedName name="update_fce"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3847,11 +3926,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="31" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="23" customWidth="1"/>
-    <col min="3" max="3" width="44.140625" style="23" customWidth="1"/>
-    <col min="4" max="4" width="1.85546875" style="23" customWidth="1"/>
-    <col min="5" max="16384" width="10.7109375" style="23"/>
+    <col min="1" max="1" width="3.5" style="31" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="44.1640625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="1.83203125" style="23" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.2">
@@ -3874,10 +3953,10 @@
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -4051,17 +4130,17 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="37" customWidth="1"/>
-    <col min="2" max="2" width="3.7109375" style="37" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="37" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" style="37" customWidth="1"/>
     <col min="3" max="3" width="46" style="37" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="37" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="37" customWidth="1"/>
-    <col min="6" max="6" width="4.5703125" style="37" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="37" customWidth="1"/>
+    <col min="5" max="5" width="26.5" style="37" customWidth="1"/>
+    <col min="6" max="6" width="4.5" style="37" customWidth="1"/>
     <col min="7" max="7" width="45" style="37" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="37" customWidth="1"/>
-    <col min="9" max="9" width="51.42578125" style="37" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="37" customWidth="1"/>
-    <col min="11" max="16384" width="10.7109375" style="37"/>
+    <col min="8" max="8" width="5.1640625" style="37" customWidth="1"/>
+    <col min="9" max="9" width="51.5" style="37" customWidth="1"/>
+    <col min="10" max="10" width="5.5" style="37" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="37"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.2">
@@ -4072,7 +4151,7 @@
     </row>
     <row r="2" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="236" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C2" s="237"/>
       <c r="D2" s="237"/>
@@ -4145,7 +4224,7 @@
     <row r="9" spans="2:11" s="44" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="25"/>
       <c r="C9" s="20" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D9" s="33"/>
       <c r="E9" s="20"/>
@@ -4187,20 +4266,20 @@
       </c>
       <c r="E11" s="208">
         <f>'Research data'!G7</f>
-        <v>7.7272222222222221E-3</v>
+        <v>7.4930549629756062E-3</v>
       </c>
       <c r="F11" s="36"/>
       <c r="G11" s="114"/>
       <c r="H11" s="32"/>
       <c r="I11" s="198" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J11" s="45"/>
     </row>
     <row r="12" spans="2:11" s="44" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="25"/>
       <c r="C12" s="114" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D12" s="24" t="s">
         <v>53</v>
@@ -4213,7 +4292,7 @@
       <c r="G12" s="114"/>
       <c r="H12" s="32"/>
       <c r="I12" s="198" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J12" s="45"/>
     </row>
@@ -4231,7 +4310,7 @@
       </c>
       <c r="F13" s="36"/>
       <c r="G13" s="212" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H13" s="32"/>
       <c r="I13" s="198" t="s">
@@ -4242,7 +4321,7 @@
     <row r="14" spans="2:11" s="44" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="25"/>
       <c r="C14" s="212" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D14" s="24" t="s">
         <v>49</v>
@@ -4253,11 +4332,11 @@
       </c>
       <c r="F14" s="36"/>
       <c r="G14" s="212" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H14" s="32"/>
       <c r="I14" s="235" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J14" s="45"/>
     </row>
@@ -4314,17 +4393,17 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="37" customWidth="1"/>
-    <col min="2" max="2" width="3.7109375" style="37" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="37" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" style="37" customWidth="1"/>
     <col min="3" max="3" width="46" style="37" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="37" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="37" customWidth="1"/>
-    <col min="6" max="6" width="4.5703125" style="37" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="37" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="37" customWidth="1"/>
+    <col min="6" max="6" width="4.5" style="37" customWidth="1"/>
     <col min="7" max="7" width="45" style="37" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="37" customWidth="1"/>
-    <col min="9" max="9" width="51.42578125" style="37" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="37" customWidth="1"/>
-    <col min="11" max="16384" width="10.7109375" style="37"/>
+    <col min="8" max="8" width="5.1640625" style="37" customWidth="1"/>
+    <col min="9" max="9" width="51.5" style="37" customWidth="1"/>
+    <col min="10" max="10" width="5.5" style="37" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="37"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.2">
@@ -4335,7 +4414,7 @@
     </row>
     <row r="2" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="236" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C2" s="237"/>
       <c r="D2" s="237"/>
@@ -4432,7 +4511,7 @@
     <row r="11" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="40"/>
       <c r="C11" s="209" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D11" s="114"/>
       <c r="E11" s="114"/>
@@ -4577,7 +4656,7 @@
     <row r="18" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="40"/>
       <c r="C18" s="210" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D18" s="24" t="s">
         <v>1</v>
@@ -4627,28 +4706,28 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="3.42578125" style="65" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="65" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="65" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="65" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="65" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" style="65" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" style="65" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" style="66" customWidth="1"/>
+    <col min="1" max="2" width="3.5" style="65" customWidth="1"/>
+    <col min="3" max="3" width="35.83203125" style="65" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="65" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="65" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="65" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" style="65" customWidth="1"/>
+    <col min="8" max="8" width="4.6640625" style="65" customWidth="1"/>
+    <col min="9" max="9" width="9.83203125" style="66" customWidth="1"/>
     <col min="10" max="10" width="3" style="66" customWidth="1"/>
-    <col min="11" max="11" width="8.42578125" style="66" customWidth="1"/>
-    <col min="12" max="12" width="2.7109375" style="66" customWidth="1"/>
-    <col min="13" max="13" width="8.42578125" style="66" customWidth="1"/>
-    <col min="14" max="14" width="2.7109375" style="66" customWidth="1"/>
-    <col min="15" max="15" width="8.42578125" style="66" customWidth="1"/>
-    <col min="16" max="16" width="2.7109375" style="66" customWidth="1"/>
-    <col min="17" max="17" width="8.42578125" style="66" customWidth="1"/>
-    <col min="18" max="18" width="2.7109375" style="66" customWidth="1"/>
-    <col min="19" max="19" width="9.5703125" style="66" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="9.5703125" style="66" customWidth="1"/>
-    <col min="22" max="22" width="2.7109375" style="66" customWidth="1"/>
+    <col min="11" max="11" width="8.5" style="66" customWidth="1"/>
+    <col min="12" max="12" width="2.6640625" style="66" customWidth="1"/>
+    <col min="13" max="13" width="8.5" style="66" customWidth="1"/>
+    <col min="14" max="14" width="2.6640625" style="66" customWidth="1"/>
+    <col min="15" max="15" width="8.5" style="66" customWidth="1"/>
+    <col min="16" max="16" width="2.6640625" style="66" customWidth="1"/>
+    <col min="17" max="17" width="8.5" style="66" customWidth="1"/>
+    <col min="18" max="18" width="2.6640625" style="66" customWidth="1"/>
+    <col min="19" max="19" width="9.5" style="66" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="9.5" style="66" customWidth="1"/>
+    <col min="22" max="22" width="2.6640625" style="66" customWidth="1"/>
     <col min="23" max="23" width="60" style="65" customWidth="1"/>
-    <col min="24" max="16384" width="10.7109375" style="65"/>
+    <col min="24" max="16384" width="10.83203125" style="65"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -4707,17 +4786,17 @@
       </c>
       <c r="P3" s="64"/>
       <c r="Q3" s="64" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="R3" s="64"/>
       <c r="S3" s="64" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="T3" s="64" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="U3" s="64" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="V3" s="64"/>
       <c r="W3" s="1" t="s">
@@ -4824,7 +4903,7 @@
       </c>
       <c r="G7" s="137">
         <f>S7</f>
-        <v>7.7272222222222221E-3</v>
+        <v>7.4930549629756062E-3</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="18"/>
@@ -4838,20 +4917,20 @@
       <c r="Q7" s="16"/>
       <c r="R7" s="16"/>
       <c r="S7" s="207">
-        <f>Notes!F383</f>
-        <v>7.7272222222222221E-3</v>
+        <f>Notes!F386</f>
+        <v>7.4930549629756062E-3</v>
       </c>
       <c r="T7" s="214"/>
       <c r="U7" s="214"/>
       <c r="V7" s="16"/>
       <c r="W7" s="186" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="2:23" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" s="119" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D8" s="119" t="s">
         <v>52</v>
@@ -4931,13 +5010,13 @@
       <c r="U9" s="16"/>
       <c r="V9" s="16"/>
       <c r="W9" s="215" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="2:23" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
       <c r="C10" s="213" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D10" s="120"/>
       <c r="E10" s="120"/>
@@ -4961,7 +5040,7 @@
       <c r="S10" s="16"/>
       <c r="T10" s="16"/>
       <c r="U10" s="108">
-        <f>Notes!G414</f>
+        <f>Notes!G417</f>
         <v>0.112</v>
       </c>
       <c r="V10" s="16"/>
@@ -5299,22 +5378,22 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="48" customWidth="1"/>
-    <col min="2" max="2" width="3.42578125" style="48" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" style="48" customWidth="1"/>
-    <col min="4" max="4" width="3.140625" style="48" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="48" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="48" customWidth="1"/>
+    <col min="2" max="2" width="3.5" style="48" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" style="48" customWidth="1"/>
+    <col min="4" max="4" width="3.1640625" style="48" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" style="48" customWidth="1"/>
     <col min="6" max="6" width="5" style="48" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" style="48" customWidth="1"/>
-    <col min="8" max="10" width="12.140625" style="48" customWidth="1"/>
-    <col min="11" max="11" width="33.140625" style="49" customWidth="1"/>
-    <col min="12" max="12" width="87.28515625" style="48" customWidth="1"/>
-    <col min="13" max="16384" width="33.140625" style="48"/>
+    <col min="7" max="7" width="10.33203125" style="48" customWidth="1"/>
+    <col min="8" max="10" width="12.1640625" style="48" customWidth="1"/>
+    <col min="11" max="11" width="33.1640625" style="49" customWidth="1"/>
+    <col min="12" max="12" width="87.33203125" style="48" customWidth="1"/>
+    <col min="13" max="16384" width="33.1640625" style="48"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -5406,14 +5485,14 @@
       <c r="C7" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="187" t="s">
-        <v>144</v>
+      <c r="E7" s="248" t="s">
+        <v>177</v>
       </c>
       <c r="H7" s="48">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="L7" s="49" t="s">
-        <v>143</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -5424,7 +5503,7 @@
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B9" s="53"/>
       <c r="C9" s="132" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D9" s="61"/>
       <c r="E9" s="131" t="s">
@@ -5482,23 +5561,23 @@
       <c r="A12" s="217"/>
       <c r="B12" s="218"/>
       <c r="C12" s="219" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D12" s="220"/>
       <c r="E12" s="219" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F12" s="219"/>
       <c r="G12" s="217" t="s">
         <v>64</v>
       </c>
       <c r="H12" s="221" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I12" s="221"/>
       <c r="J12" s="221"/>
       <c r="K12" s="223" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="L12" s="222"/>
     </row>
@@ -5537,7 +5616,7 @@
         <v>2008</v>
       </c>
       <c r="K17" s="49" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.2">
@@ -5561,7 +5640,7 @@
         <v>2002</v>
       </c>
       <c r="K20" s="49" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.2">
@@ -5582,7 +5661,7 @@
         <v>2010</v>
       </c>
       <c r="K23" s="49" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.2">
@@ -5597,7 +5676,7 @@
         <v>2010</v>
       </c>
       <c r="K25" s="49" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.2">
@@ -5623,23 +5702,23 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI449"/>
+  <dimension ref="A1:AI452"/>
   <sheetViews>
-    <sheetView topLeftCell="A374" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="I413" sqref="I413"/>
+    <sheetView topLeftCell="A356" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="50" workbookViewId="0">
+      <selection activeCell="F384" sqref="F384"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="109" customWidth="1"/>
+    <col min="1" max="1" width="5.5" style="109" customWidth="1"/>
     <col min="2" max="2" width="5" style="109" customWidth="1"/>
     <col min="3" max="5" width="7" style="109"/>
-    <col min="6" max="6" width="11.28515625" style="109" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" style="109" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" style="109" customWidth="1"/>
-    <col min="9" max="9" width="7.7109375" style="109" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" style="109" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.85546875" style="109" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" style="109" customWidth="1"/>
+    <col min="7" max="7" width="7.1640625" style="109" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.1640625" style="109" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" style="109" customWidth="1"/>
+    <col min="10" max="10" width="16.5" style="109" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.83203125" style="109" customWidth="1"/>
     <col min="12" max="16384" width="7" style="109"/>
   </cols>
   <sheetData>
@@ -8218,7 +8297,7 @@
         <v>17.600000000000001</v>
       </c>
       <c r="H189" s="172" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I189" s="172"/>
       <c r="J189" s="172"/>
@@ -9918,7 +9997,7 @@
       <c r="H255" s="172"/>
       <c r="I255" s="175"/>
       <c r="J255" s="175" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K255" s="175" t="s">
         <v>97</v>
@@ -9926,7 +10005,7 @@
       <c r="L255" s="175"/>
       <c r="M255" s="175"/>
       <c r="N255" s="175" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O255" s="175" t="s">
         <v>98</v>
@@ -10558,7 +10637,7 @@
     <row r="343" spans="2:23" s="139" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B343" s="110"/>
     </row>
-    <row r="344" spans="2:23" s="139" customFormat="1" ht="100" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:23" s="139" customFormat="1" ht="151" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B344" s="110"/>
       <c r="O344" s="141"/>
       <c r="P344" s="167" t="s">
@@ -11186,7 +11265,7 @@
       <c r="T378" s="113"/>
       <c r="U378" s="113"/>
     </row>
-    <row r="379" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B379" s="110"/>
       <c r="C379" s="125"/>
       <c r="D379" s="122"/>
@@ -11212,259 +11291,233 @@
       <c r="X379" s="122"/>
       <c r="Y379" s="122"/>
     </row>
-    <row r="380" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:25" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B380" s="110"/>
-      <c r="C380" s="187" t="s">
-        <v>144</v>
-      </c>
-      <c r="F380" s="189">
-        <v>139.09</v>
-      </c>
-      <c r="G380" s="172" t="s">
-        <v>158</v>
-      </c>
-      <c r="H380" s="190" t="s">
-        <v>146</v>
-      </c>
-      <c r="I380" s="191">
-        <v>41327</v>
-      </c>
+      <c r="C380" s="248" t="s">
+        <v>177</v>
+      </c>
+      <c r="D380" s="122"/>
+      <c r="E380" s="122"/>
+      <c r="F380" s="259">
+        <v>158.06</v>
+      </c>
+      <c r="G380" s="122" t="s">
+        <v>179</v>
+      </c>
+      <c r="H380" s="122"/>
+      <c r="I380" s="122"/>
       <c r="J380" s="192" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="381" spans="1:25" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+      <c r="K380" s="122"/>
+      <c r="L380" s="122"/>
+      <c r="M380" s="122"/>
+      <c r="N380" s="122"/>
+      <c r="O380" s="122"/>
+      <c r="P380" s="122"/>
+      <c r="Q380" s="122"/>
+      <c r="R380" s="122"/>
+      <c r="S380" s="122"/>
+      <c r="T380" s="122"/>
+      <c r="U380" s="122"/>
+      <c r="V380" s="122"/>
+      <c r="W380" s="122"/>
+      <c r="X380" s="122"/>
+      <c r="Y380" s="122"/>
+    </row>
+    <row r="381" spans="1:25" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B381" s="110"/>
-      <c r="F381" s="205">
+      <c r="C381" s="125"/>
+      <c r="D381" s="122"/>
+      <c r="E381" s="122"/>
+      <c r="F381" s="259">
+        <f>Exchange_rates!E9</f>
+        <v>1.1718999999999999</v>
+      </c>
+      <c r="G381" s="122" t="s">
+        <v>184</v>
+      </c>
+      <c r="H381" s="122"/>
+      <c r="I381" s="122"/>
+      <c r="J381" s="122"/>
+      <c r="K381" s="122"/>
+      <c r="L381" s="122"/>
+      <c r="M381" s="122"/>
+      <c r="N381" s="122"/>
+      <c r="O381" s="122"/>
+      <c r="P381" s="122"/>
+      <c r="Q381" s="122"/>
+      <c r="R381" s="122"/>
+      <c r="S381" s="122"/>
+      <c r="T381" s="122"/>
+      <c r="U381" s="122"/>
+      <c r="V381" s="122"/>
+      <c r="W381" s="122"/>
+      <c r="X381" s="122"/>
+      <c r="Y381" s="122"/>
+    </row>
+    <row r="382" spans="1:25" customFormat="1" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B382" s="110"/>
+      <c r="C382" s="125"/>
+      <c r="D382" s="122"/>
+      <c r="E382" s="122"/>
+      <c r="F382" s="122"/>
+      <c r="G382" s="122"/>
+      <c r="H382" s="122"/>
+      <c r="I382" s="122"/>
+      <c r="J382" s="122"/>
+      <c r="K382" s="122"/>
+      <c r="L382" s="122"/>
+      <c r="M382" s="122"/>
+      <c r="N382" s="122"/>
+      <c r="O382" s="122"/>
+      <c r="P382" s="122"/>
+      <c r="Q382" s="122"/>
+      <c r="R382" s="122"/>
+      <c r="S382" s="122"/>
+      <c r="T382" s="122"/>
+      <c r="U382" s="122"/>
+      <c r="V382" s="122"/>
+      <c r="W382" s="122"/>
+      <c r="X382" s="122"/>
+      <c r="Y382" s="122"/>
+    </row>
+    <row r="383" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B383" s="110"/>
+      <c r="F383" s="189">
+        <f>F380/F381</f>
+        <v>134.8749893335609</v>
+      </c>
+      <c r="G383" s="172" t="s">
+        <v>155</v>
+      </c>
+      <c r="H383" s="190"/>
+      <c r="I383" s="191"/>
+    </row>
+    <row r="384" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B384" s="110"/>
+      <c r="F384" s="205">
         <f>'Research data'!G8</f>
         <v>18</v>
       </c>
-      <c r="G381" s="172" t="s">
+      <c r="G384" s="172" t="s">
         <v>53</v>
       </c>
-      <c r="H381" s="188"/>
-    </row>
-    <row r="382" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B382" s="110"/>
-      <c r="F382" s="109">
-        <f>F381*1000</f>
-        <v>18000</v>
-      </c>
-      <c r="G382" s="204" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="383" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B383" s="110"/>
-      <c r="F383" s="206">
-        <f>F380/F382</f>
-        <v>7.7272222222222221E-3</v>
-      </c>
-    </row>
-    <row r="384" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B384" s="110"/>
+      <c r="H384" s="188"/>
     </row>
     <row r="385" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B385" s="110"/>
+      <c r="F385" s="109">
+        <f>F384*1000</f>
+        <v>18000</v>
+      </c>
+      <c r="G385" s="204" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="386" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B386" s="110"/>
+      <c r="F386" s="206">
+        <f>F383/F385</f>
+        <v>7.4930549629756062E-3</v>
+      </c>
     </row>
     <row r="387" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B387" s="110"/>
     </row>
-    <row r="388" spans="2:35" s="225" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="389" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B389" s="226"/>
-      <c r="C389" s="227" t="s">
+    <row r="388" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B388" s="110"/>
+    </row>
+    <row r="389" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B389" s="110"/>
+    </row>
+    <row r="390" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B390" s="110"/>
+    </row>
+    <row r="391" spans="2:35" s="225" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="392" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B392" s="226"/>
+      <c r="C392" s="227" t="s">
         <v>25</v>
       </c>
-      <c r="D389" s="227" t="s">
+      <c r="D392" s="227" t="s">
         <v>57</v>
       </c>
-      <c r="E389" s="227"/>
-      <c r="F389" s="227" t="s">
+      <c r="E392" s="227"/>
+      <c r="F392" s="227" t="s">
         <v>32</v>
       </c>
-      <c r="G389" s="227"/>
-      <c r="H389" s="227"/>
-      <c r="I389" s="227"/>
-      <c r="J389" s="227"/>
-      <c r="K389" s="227"/>
-      <c r="L389" s="227"/>
-      <c r="M389" s="227"/>
-      <c r="N389" s="227"/>
-      <c r="O389" s="227"/>
-      <c r="P389" s="227"/>
-      <c r="Q389" s="227"/>
-      <c r="R389" s="227"/>
-      <c r="S389" s="227"/>
-      <c r="T389" s="227"/>
-      <c r="U389" s="227"/>
-      <c r="V389" s="228"/>
-      <c r="W389" s="228"/>
-      <c r="X389" s="228"/>
-      <c r="Y389" s="228"/>
-      <c r="Z389" s="228"/>
-      <c r="AA389" s="228"/>
-      <c r="AB389" s="228"/>
-      <c r="AC389" s="228"/>
-      <c r="AD389" s="228"/>
-      <c r="AE389" s="228"/>
-      <c r="AF389" s="228"/>
-      <c r="AG389" s="228"/>
-      <c r="AH389" s="228"/>
-      <c r="AI389" s="228"/>
-    </row>
-    <row r="390" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B390" s="229"/>
-      <c r="C390" s="219"/>
-      <c r="D390" s="219"/>
-      <c r="E390" s="219"/>
-      <c r="F390" s="219"/>
-      <c r="G390" s="219"/>
-      <c r="H390" s="219"/>
-      <c r="I390" s="219"/>
-      <c r="J390" s="219"/>
-      <c r="K390" s="219"/>
-      <c r="L390" s="219"/>
-      <c r="M390" s="219"/>
-      <c r="N390" s="219"/>
-      <c r="O390" s="219"/>
-      <c r="P390" s="219"/>
-      <c r="Q390" s="219"/>
-      <c r="R390" s="219"/>
-      <c r="S390" s="219"/>
-      <c r="T390" s="219"/>
-      <c r="U390" s="219"/>
-      <c r="V390" s="219"/>
-      <c r="W390" s="219"/>
-      <c r="X390" s="219"/>
-      <c r="Y390" s="219"/>
-      <c r="Z390" s="219"/>
-      <c r="AA390" s="219"/>
-      <c r="AB390" s="219"/>
-      <c r="AC390" s="219"/>
-      <c r="AD390" s="219"/>
-      <c r="AE390" s="219"/>
-      <c r="AF390" s="219"/>
-      <c r="AG390" s="219"/>
-      <c r="AH390" s="219"/>
-      <c r="AI390" s="219"/>
-    </row>
-    <row r="391" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B391" s="229"/>
-      <c r="C391" s="230" t="s">
-        <v>175</v>
-      </c>
-      <c r="D391" s="231"/>
-      <c r="E391" s="231"/>
-      <c r="F391" s="231"/>
-      <c r="G391" s="231"/>
-      <c r="H391" s="231"/>
-      <c r="I391" s="231"/>
-      <c r="J391" s="122"/>
-      <c r="K391" s="122"/>
-      <c r="L391" s="122"/>
-      <c r="M391" s="122"/>
-      <c r="N391" s="122"/>
-      <c r="O391" s="122"/>
-      <c r="P391" s="122"/>
-      <c r="Q391" s="122"/>
-      <c r="R391" s="122"/>
-      <c r="S391" s="122"/>
-      <c r="T391" s="122"/>
-      <c r="U391" s="122"/>
-      <c r="V391" s="122"/>
-      <c r="W391" s="122"/>
-      <c r="X391" s="122"/>
-      <c r="Y391" s="122"/>
-      <c r="Z391" s="232"/>
-      <c r="AA391" s="232"/>
-      <c r="AB391" s="232"/>
-      <c r="AC391" s="232"/>
-      <c r="AD391" s="232"/>
-      <c r="AE391" s="232"/>
-      <c r="AF391" s="232"/>
-      <c r="AG391" s="232"/>
-      <c r="AH391" s="232"/>
-      <c r="AI391" s="232"/>
-    </row>
-    <row r="392" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B392" s="229"/>
-      <c r="C392" s="231"/>
-      <c r="D392" s="231"/>
-      <c r="E392" s="231"/>
-      <c r="F392" s="231"/>
-      <c r="G392" s="231"/>
-      <c r="H392" s="231"/>
-      <c r="I392" s="231"/>
-      <c r="J392" s="122"/>
-      <c r="K392" s="122"/>
-      <c r="L392" s="122"/>
-      <c r="M392" s="122"/>
-      <c r="N392" s="122"/>
-      <c r="O392" s="122"/>
-      <c r="P392" s="122"/>
-      <c r="Q392" s="122"/>
-      <c r="R392" s="122"/>
-      <c r="S392" s="122"/>
-      <c r="T392" s="122"/>
-      <c r="U392" s="122"/>
-      <c r="V392" s="122"/>
-      <c r="W392" s="122"/>
-      <c r="X392" s="122"/>
-      <c r="Y392" s="122"/>
-      <c r="Z392" s="232"/>
-      <c r="AA392" s="232"/>
-      <c r="AB392" s="232"/>
-      <c r="AC392" s="232"/>
-      <c r="AD392" s="232"/>
-      <c r="AE392" s="232"/>
-      <c r="AF392" s="232"/>
-      <c r="AG392" s="232"/>
-      <c r="AH392" s="232"/>
-      <c r="AI392" s="232"/>
+      <c r="G392" s="227"/>
+      <c r="H392" s="227"/>
+      <c r="I392" s="227"/>
+      <c r="J392" s="227"/>
+      <c r="K392" s="227"/>
+      <c r="L392" s="227"/>
+      <c r="M392" s="227"/>
+      <c r="N392" s="227"/>
+      <c r="O392" s="227"/>
+      <c r="P392" s="227"/>
+      <c r="Q392" s="227"/>
+      <c r="R392" s="227"/>
+      <c r="S392" s="227"/>
+      <c r="T392" s="227"/>
+      <c r="U392" s="227"/>
+      <c r="V392" s="228"/>
+      <c r="W392" s="228"/>
+      <c r="X392" s="228"/>
+      <c r="Y392" s="228"/>
+      <c r="Z392" s="228"/>
+      <c r="AA392" s="228"/>
+      <c r="AB392" s="228"/>
+      <c r="AC392" s="228"/>
+      <c r="AD392" s="228"/>
+      <c r="AE392" s="228"/>
+      <c r="AF392" s="228"/>
+      <c r="AG392" s="228"/>
+      <c r="AH392" s="228"/>
+      <c r="AI392" s="228"/>
     </row>
     <row r="393" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B393" s="229"/>
-      <c r="C393" s="231"/>
-      <c r="D393" s="231"/>
-      <c r="E393" s="231"/>
-      <c r="F393" s="231"/>
-      <c r="G393" s="231"/>
-      <c r="H393" s="231"/>
-      <c r="I393" s="231"/>
-      <c r="J393" s="122"/>
-      <c r="K393" s="122"/>
-      <c r="L393" s="122"/>
-      <c r="M393" s="122"/>
-      <c r="N393" s="122"/>
-      <c r="O393" s="122"/>
-      <c r="P393" s="122"/>
-      <c r="Q393" s="122"/>
-      <c r="R393" s="122"/>
-      <c r="S393" s="122"/>
-      <c r="T393" s="122"/>
-      <c r="U393" s="122"/>
-      <c r="V393" s="122"/>
-      <c r="W393" s="122"/>
-      <c r="X393" s="122"/>
-      <c r="Y393" s="122"/>
-      <c r="Z393" s="232"/>
-      <c r="AA393" s="232"/>
-      <c r="AB393" s="232"/>
-      <c r="AC393" s="232"/>
-      <c r="AD393" s="232"/>
-      <c r="AE393" s="232"/>
-      <c r="AF393" s="232"/>
-      <c r="AG393" s="232"/>
-      <c r="AH393" s="232"/>
-      <c r="AI393" s="232"/>
+      <c r="C393" s="219"/>
+      <c r="D393" s="219"/>
+      <c r="E393" s="219"/>
+      <c r="F393" s="219"/>
+      <c r="G393" s="219"/>
+      <c r="H393" s="219"/>
+      <c r="I393" s="219"/>
+      <c r="J393" s="219"/>
+      <c r="K393" s="219"/>
+      <c r="L393" s="219"/>
+      <c r="M393" s="219"/>
+      <c r="N393" s="219"/>
+      <c r="O393" s="219"/>
+      <c r="P393" s="219"/>
+      <c r="Q393" s="219"/>
+      <c r="R393" s="219"/>
+      <c r="S393" s="219"/>
+      <c r="T393" s="219"/>
+      <c r="U393" s="219"/>
+      <c r="V393" s="219"/>
+      <c r="W393" s="219"/>
+      <c r="X393" s="219"/>
+      <c r="Y393" s="219"/>
+      <c r="Z393" s="219"/>
+      <c r="AA393" s="219"/>
+      <c r="AB393" s="219"/>
+      <c r="AC393" s="219"/>
+      <c r="AD393" s="219"/>
+      <c r="AE393" s="219"/>
+      <c r="AF393" s="219"/>
+      <c r="AG393" s="219"/>
+      <c r="AH393" s="219"/>
+      <c r="AI393" s="219"/>
     </row>
     <row r="394" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B394" s="229"/>
-      <c r="C394" s="231"/>
+      <c r="C394" s="230" t="s">
+        <v>172</v>
+      </c>
       <c r="D394" s="231"/>
       <c r="E394" s="231"/>
       <c r="F394" s="231"/>
@@ -11537,6 +11590,11 @@
     <row r="396" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B396" s="229"/>
       <c r="C396" s="231"/>
+      <c r="D396" s="231"/>
+      <c r="E396" s="231"/>
+      <c r="F396" s="231"/>
+      <c r="G396" s="231"/>
+      <c r="H396" s="231"/>
       <c r="I396" s="231"/>
       <c r="J396" s="122"/>
       <c r="K396" s="122"/>
@@ -11568,6 +11626,11 @@
     <row r="397" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B397" s="229"/>
       <c r="C397" s="231"/>
+      <c r="D397" s="231"/>
+      <c r="E397" s="231"/>
+      <c r="F397" s="231"/>
+      <c r="G397" s="231"/>
+      <c r="H397" s="231"/>
       <c r="I397" s="231"/>
       <c r="J397" s="122"/>
       <c r="K397" s="122"/>
@@ -11599,6 +11662,11 @@
     <row r="398" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B398" s="229"/>
       <c r="C398" s="231"/>
+      <c r="D398" s="231"/>
+      <c r="E398" s="231"/>
+      <c r="F398" s="231"/>
+      <c r="G398" s="231"/>
+      <c r="H398" s="231"/>
       <c r="I398" s="231"/>
       <c r="J398" s="122"/>
       <c r="K398" s="122"/>
@@ -11629,13 +11697,8 @@
     </row>
     <row r="399" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B399" s="229"/>
-      <c r="C399" s="122"/>
-      <c r="D399" s="122"/>
-      <c r="E399" s="122"/>
-      <c r="F399" s="122"/>
-      <c r="G399" s="122"/>
-      <c r="H399" s="122"/>
-      <c r="I399" s="122"/>
+      <c r="C399" s="231"/>
+      <c r="I399" s="231"/>
       <c r="J399" s="122"/>
       <c r="K399" s="122"/>
       <c r="L399" s="122"/>
@@ -11665,13 +11728,8 @@
     </row>
     <row r="400" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B400" s="229"/>
-      <c r="C400" s="122"/>
-      <c r="D400" s="122"/>
-      <c r="E400" s="122"/>
-      <c r="F400" s="122"/>
-      <c r="G400" s="122"/>
-      <c r="H400" s="122"/>
-      <c r="I400" s="122"/>
+      <c r="C400" s="231"/>
+      <c r="I400" s="231"/>
       <c r="J400" s="122"/>
       <c r="K400" s="122"/>
       <c r="L400" s="122"/>
@@ -11701,13 +11759,8 @@
     </row>
     <row r="401" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B401" s="229"/>
-      <c r="C401" s="122"/>
-      <c r="D401" s="122"/>
-      <c r="E401" s="122"/>
-      <c r="F401" s="122"/>
-      <c r="G401" s="122"/>
-      <c r="H401" s="122"/>
-      <c r="I401" s="122"/>
+      <c r="C401" s="231"/>
+      <c r="I401" s="231"/>
       <c r="J401" s="122"/>
       <c r="K401" s="122"/>
       <c r="L401" s="122"/>
@@ -12098,20 +12151,12 @@
     <row r="412" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B412" s="229"/>
       <c r="C412" s="122"/>
-      <c r="D412" s="231">
-        <v>1.24</v>
-      </c>
-      <c r="E412" s="233"/>
-      <c r="F412" s="231"/>
-      <c r="G412" s="231">
-        <v>112000</v>
-      </c>
-      <c r="H412" s="231" t="s">
-        <v>176</v>
-      </c>
-      <c r="I412" s="122" t="s">
-        <v>178</v>
-      </c>
+      <c r="D412" s="122"/>
+      <c r="E412" s="122"/>
+      <c r="F412" s="122"/>
+      <c r="G412" s="122"/>
+      <c r="H412" s="122"/>
+      <c r="I412" s="122"/>
       <c r="J412" s="122"/>
       <c r="K412" s="122"/>
       <c r="L412" s="122"/>
@@ -12142,17 +12187,12 @@
     <row r="413" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B413" s="229"/>
       <c r="C413" s="122"/>
-      <c r="D413" s="231"/>
-      <c r="E413" s="233"/>
-      <c r="F413" s="231"/>
-      <c r="G413" s="231">
-        <f>10^6</f>
-        <v>1000000</v>
-      </c>
-      <c r="H413" s="231" t="s">
-        <v>177</v>
-      </c>
-      <c r="I413" s="234"/>
+      <c r="D413" s="122"/>
+      <c r="E413" s="122"/>
+      <c r="F413" s="122"/>
+      <c r="G413" s="122"/>
+      <c r="H413" s="122"/>
+      <c r="I413" s="122"/>
       <c r="J413" s="122"/>
       <c r="K413" s="122"/>
       <c r="L413" s="122"/>
@@ -12183,16 +12223,11 @@
     <row r="414" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B414" s="229"/>
       <c r="C414" s="122"/>
-      <c r="D414" s="231"/>
-      <c r="E414" s="233"/>
-      <c r="F414" s="231"/>
-      <c r="G414" s="231">
-        <f>G412/G413</f>
-        <v>0.112</v>
-      </c>
-      <c r="H414" s="231" t="s">
-        <v>176</v>
-      </c>
+      <c r="D414" s="122"/>
+      <c r="E414" s="122"/>
+      <c r="F414" s="122"/>
+      <c r="G414" s="122"/>
+      <c r="H414" s="122"/>
       <c r="I414" s="122"/>
       <c r="J414" s="122"/>
       <c r="K414" s="122"/>
@@ -12224,12 +12259,20 @@
     <row r="415" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B415" s="229"/>
       <c r="C415" s="122"/>
-      <c r="D415" s="122"/>
-      <c r="E415" s="122"/>
-      <c r="F415" s="122"/>
-      <c r="G415" s="122"/>
-      <c r="H415" s="122"/>
-      <c r="I415" s="122"/>
+      <c r="D415" s="231">
+        <v>1.24</v>
+      </c>
+      <c r="E415" s="233"/>
+      <c r="F415" s="231"/>
+      <c r="G415" s="231">
+        <v>112000</v>
+      </c>
+      <c r="H415" s="231" t="s">
+        <v>173</v>
+      </c>
+      <c r="I415" s="122" t="s">
+        <v>175</v>
+      </c>
       <c r="J415" s="122"/>
       <c r="K415" s="122"/>
       <c r="L415" s="122"/>
@@ -12259,29 +12302,34 @@
     </row>
     <row r="416" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B416" s="229"/>
-      <c r="C416" s="232"/>
-      <c r="D416" s="232"/>
-      <c r="E416" s="232"/>
-      <c r="F416" s="232"/>
-      <c r="G416" s="232"/>
-      <c r="H416" s="232"/>
-      <c r="I416" s="232"/>
-      <c r="J416" s="232"/>
-      <c r="K416" s="232"/>
-      <c r="L416" s="232"/>
-      <c r="M416" s="232"/>
-      <c r="N416" s="232"/>
-      <c r="O416" s="232"/>
-      <c r="P416" s="232"/>
-      <c r="Q416" s="232"/>
-      <c r="R416" s="232"/>
-      <c r="S416" s="232"/>
-      <c r="T416" s="232"/>
-      <c r="U416" s="232"/>
-      <c r="V416" s="232"/>
-      <c r="W416" s="232"/>
-      <c r="X416" s="232"/>
-      <c r="Y416" s="232"/>
+      <c r="C416" s="122"/>
+      <c r="D416" s="231"/>
+      <c r="E416" s="233"/>
+      <c r="F416" s="231"/>
+      <c r="G416" s="231">
+        <f>10^6</f>
+        <v>1000000</v>
+      </c>
+      <c r="H416" s="231" t="s">
+        <v>174</v>
+      </c>
+      <c r="I416" s="234"/>
+      <c r="J416" s="122"/>
+      <c r="K416" s="122"/>
+      <c r="L416" s="122"/>
+      <c r="M416" s="122"/>
+      <c r="N416" s="122"/>
+      <c r="O416" s="122"/>
+      <c r="P416" s="122"/>
+      <c r="Q416" s="122"/>
+      <c r="R416" s="122"/>
+      <c r="S416" s="122"/>
+      <c r="T416" s="122"/>
+      <c r="U416" s="122"/>
+      <c r="V416" s="122"/>
+      <c r="W416" s="122"/>
+      <c r="X416" s="122"/>
+      <c r="Y416" s="122"/>
       <c r="Z416" s="232"/>
       <c r="AA416" s="232"/>
       <c r="AB416" s="232"/>
@@ -12295,29 +12343,34 @@
     </row>
     <row r="417" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B417" s="229"/>
-      <c r="C417" s="232"/>
-      <c r="D417" s="232"/>
-      <c r="E417" s="232"/>
-      <c r="F417" s="232"/>
-      <c r="G417" s="232"/>
-      <c r="H417" s="232"/>
-      <c r="I417" s="232"/>
-      <c r="J417" s="232"/>
-      <c r="K417" s="232"/>
-      <c r="L417" s="232"/>
-      <c r="M417" s="232"/>
-      <c r="N417" s="232"/>
-      <c r="O417" s="232"/>
-      <c r="P417" s="232"/>
-      <c r="Q417" s="232"/>
-      <c r="R417" s="232"/>
-      <c r="S417" s="232"/>
-      <c r="T417" s="232"/>
-      <c r="U417" s="232"/>
-      <c r="V417" s="232"/>
-      <c r="W417" s="232"/>
-      <c r="X417" s="232"/>
-      <c r="Y417" s="232"/>
+      <c r="C417" s="122"/>
+      <c r="D417" s="231"/>
+      <c r="E417" s="233"/>
+      <c r="F417" s="231"/>
+      <c r="G417" s="231">
+        <f>G415/G416</f>
+        <v>0.112</v>
+      </c>
+      <c r="H417" s="231" t="s">
+        <v>173</v>
+      </c>
+      <c r="I417" s="122"/>
+      <c r="J417" s="122"/>
+      <c r="K417" s="122"/>
+      <c r="L417" s="122"/>
+      <c r="M417" s="122"/>
+      <c r="N417" s="122"/>
+      <c r="O417" s="122"/>
+      <c r="P417" s="122"/>
+      <c r="Q417" s="122"/>
+      <c r="R417" s="122"/>
+      <c r="S417" s="122"/>
+      <c r="T417" s="122"/>
+      <c r="U417" s="122"/>
+      <c r="V417" s="122"/>
+      <c r="W417" s="122"/>
+      <c r="X417" s="122"/>
+      <c r="Y417" s="122"/>
       <c r="Z417" s="232"/>
       <c r="AA417" s="232"/>
       <c r="AB417" s="232"/>
@@ -12331,29 +12384,29 @@
     </row>
     <row r="418" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B418" s="229"/>
-      <c r="C418" s="232"/>
-      <c r="D418" s="232"/>
-      <c r="E418" s="232"/>
-      <c r="F418" s="232"/>
-      <c r="G418" s="232"/>
-      <c r="H418" s="232"/>
-      <c r="I418" s="232"/>
-      <c r="J418" s="232"/>
-      <c r="K418" s="232"/>
-      <c r="L418" s="232"/>
-      <c r="M418" s="232"/>
-      <c r="N418" s="232"/>
-      <c r="O418" s="232"/>
-      <c r="P418" s="232"/>
-      <c r="Q418" s="232"/>
-      <c r="R418" s="232"/>
-      <c r="S418" s="232"/>
-      <c r="T418" s="232"/>
-      <c r="U418" s="232"/>
-      <c r="V418" s="232"/>
-      <c r="W418" s="232"/>
-      <c r="X418" s="232"/>
-      <c r="Y418" s="232"/>
+      <c r="C418" s="122"/>
+      <c r="D418" s="122"/>
+      <c r="E418" s="122"/>
+      <c r="F418" s="122"/>
+      <c r="G418" s="122"/>
+      <c r="H418" s="122"/>
+      <c r="I418" s="122"/>
+      <c r="J418" s="122"/>
+      <c r="K418" s="122"/>
+      <c r="L418" s="122"/>
+      <c r="M418" s="122"/>
+      <c r="N418" s="122"/>
+      <c r="O418" s="122"/>
+      <c r="P418" s="122"/>
+      <c r="Q418" s="122"/>
+      <c r="R418" s="122"/>
+      <c r="S418" s="122"/>
+      <c r="T418" s="122"/>
+      <c r="U418" s="122"/>
+      <c r="V418" s="122"/>
+      <c r="W418" s="122"/>
+      <c r="X418" s="122"/>
+      <c r="Y418" s="122"/>
       <c r="Z418" s="232"/>
       <c r="AA418" s="232"/>
       <c r="AB418" s="232"/>
@@ -13445,13 +13498,238 @@
       <c r="AH448" s="232"/>
       <c r="AI448" s="232"/>
     </row>
-    <row r="449" s="225" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="449" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B449" s="229"/>
+      <c r="C449" s="232"/>
+      <c r="D449" s="232"/>
+      <c r="E449" s="232"/>
+      <c r="F449" s="232"/>
+      <c r="G449" s="232"/>
+      <c r="H449" s="232"/>
+      <c r="I449" s="232"/>
+      <c r="J449" s="232"/>
+      <c r="K449" s="232"/>
+      <c r="L449" s="232"/>
+      <c r="M449" s="232"/>
+      <c r="N449" s="232"/>
+      <c r="O449" s="232"/>
+      <c r="P449" s="232"/>
+      <c r="Q449" s="232"/>
+      <c r="R449" s="232"/>
+      <c r="S449" s="232"/>
+      <c r="T449" s="232"/>
+      <c r="U449" s="232"/>
+      <c r="V449" s="232"/>
+      <c r="W449" s="232"/>
+      <c r="X449" s="232"/>
+      <c r="Y449" s="232"/>
+      <c r="Z449" s="232"/>
+      <c r="AA449" s="232"/>
+      <c r="AB449" s="232"/>
+      <c r="AC449" s="232"/>
+      <c r="AD449" s="232"/>
+      <c r="AE449" s="232"/>
+      <c r="AF449" s="232"/>
+      <c r="AG449" s="232"/>
+      <c r="AH449" s="232"/>
+      <c r="AI449" s="232"/>
+    </row>
+    <row r="450" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B450" s="229"/>
+      <c r="C450" s="232"/>
+      <c r="D450" s="232"/>
+      <c r="E450" s="232"/>
+      <c r="F450" s="232"/>
+      <c r="G450" s="232"/>
+      <c r="H450" s="232"/>
+      <c r="I450" s="232"/>
+      <c r="J450" s="232"/>
+      <c r="K450" s="232"/>
+      <c r="L450" s="232"/>
+      <c r="M450" s="232"/>
+      <c r="N450" s="232"/>
+      <c r="O450" s="232"/>
+      <c r="P450" s="232"/>
+      <c r="Q450" s="232"/>
+      <c r="R450" s="232"/>
+      <c r="S450" s="232"/>
+      <c r="T450" s="232"/>
+      <c r="U450" s="232"/>
+      <c r="V450" s="232"/>
+      <c r="W450" s="232"/>
+      <c r="X450" s="232"/>
+      <c r="Y450" s="232"/>
+      <c r="Z450" s="232"/>
+      <c r="AA450" s="232"/>
+      <c r="AB450" s="232"/>
+      <c r="AC450" s="232"/>
+      <c r="AD450" s="232"/>
+      <c r="AE450" s="232"/>
+      <c r="AF450" s="232"/>
+      <c r="AG450" s="232"/>
+      <c r="AH450" s="232"/>
+      <c r="AI450" s="232"/>
+    </row>
+    <row r="451" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B451" s="229"/>
+      <c r="C451" s="232"/>
+      <c r="D451" s="232"/>
+      <c r="E451" s="232"/>
+      <c r="F451" s="232"/>
+      <c r="G451" s="232"/>
+      <c r="H451" s="232"/>
+      <c r="I451" s="232"/>
+      <c r="J451" s="232"/>
+      <c r="K451" s="232"/>
+      <c r="L451" s="232"/>
+      <c r="M451" s="232"/>
+      <c r="N451" s="232"/>
+      <c r="O451" s="232"/>
+      <c r="P451" s="232"/>
+      <c r="Q451" s="232"/>
+      <c r="R451" s="232"/>
+      <c r="S451" s="232"/>
+      <c r="T451" s="232"/>
+      <c r="U451" s="232"/>
+      <c r="V451" s="232"/>
+      <c r="W451" s="232"/>
+      <c r="X451" s="232"/>
+      <c r="Y451" s="232"/>
+      <c r="Z451" s="232"/>
+      <c r="AA451" s="232"/>
+      <c r="AB451" s="232"/>
+      <c r="AC451" s="232"/>
+      <c r="AD451" s="232"/>
+      <c r="AE451" s="232"/>
+      <c r="AF451" s="232"/>
+      <c r="AG451" s="232"/>
+      <c r="AH451" s="232"/>
+      <c r="AI451" s="232"/>
+    </row>
+    <row r="452" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="J380" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="3.1640625" customWidth="1"/>
+    <col min="3" max="3" width="46" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" customWidth="1"/>
+    <col min="6" max="7" width="17.6640625" customWidth="1"/>
+    <col min="8" max="8" width="55" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" s="248" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D1" s="249"/>
+      <c r="E1" s="249"/>
+      <c r="F1" s="249"/>
+      <c r="G1" s="249"/>
+    </row>
+    <row r="2" spans="2:9" s="248" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="236" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" s="237"/>
+      <c r="D2" s="237"/>
+      <c r="E2" s="250"/>
+      <c r="F2" s="249"/>
+      <c r="G2" s="249"/>
+    </row>
+    <row r="3" spans="2:9" s="248" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="239"/>
+      <c r="C3" s="240"/>
+      <c r="D3" s="240"/>
+      <c r="E3" s="251"/>
+      <c r="F3" s="249"/>
+      <c r="G3" s="249"/>
+    </row>
+    <row r="4" spans="2:9" s="248" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="242"/>
+      <c r="C4" s="243"/>
+      <c r="D4" s="243"/>
+      <c r="E4" s="252"/>
+      <c r="F4" s="249"/>
+      <c r="G4" s="249"/>
+    </row>
+    <row r="5" spans="2:9" s="248" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="249"/>
+    </row>
+    <row r="6" spans="2:9" s="248" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="253"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="254"/>
+    </row>
+    <row r="7" spans="2:9" s="44" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="B7" s="97"/>
+      <c r="C7" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="D7" s="98" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="101"/>
+    </row>
+    <row r="8" spans="2:9" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="25"/>
+      <c r="I8" s="45"/>
+    </row>
+    <row r="9" spans="2:9" s="44" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="25"/>
+      <c r="C9" s="255" t="s">
+        <v>183</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="E9" s="256">
+        <v>1.1718999999999999</v>
+      </c>
+      <c r="F9" s="255" t="s">
+        <v>185</v>
+      </c>
+      <c r="G9" s="257">
+        <v>43068</v>
+      </c>
+      <c r="H9" s="258" t="s">
+        <v>186</v>
+      </c>
+      <c r="I9" s="45"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:E4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/carriers_source_analyses/wood_pellets.carrier.xlsx
+++ b/carriers_source_analyses/wood_pellets.carrier.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28908"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11109"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieldenhaan/Projects/etdataset/carriers_source_analyses/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F42673-23CE-484C-BA04-4CFC9D31DCD9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22400" yWindow="460" windowWidth="28800" windowHeight="16100" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27780" windowHeight="16100" tabRatio="762" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -38,7 +39,7 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="186">
   <si>
     <t>Source</t>
   </si>
@@ -488,9 +489,6 @@
   </si>
   <si>
     <t>McKendry</t>
-  </si>
-  <si>
-    <t>Used number from source that refers to NW European climate and marginal land</t>
   </si>
   <si>
     <t>this price is obsolete, but market data no longer available</t>
@@ -649,7 +647,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="12">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -664,12 +662,19 @@
     <numFmt numFmtId="174" formatCode="#,##0.0000000000"/>
     <numFmt numFmtId="175" formatCode="0.0000000000000000"/>
   </numFmts>
-  <fonts count="52" x14ac:knownFonts="1">
+  <fonts count="53">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1528,819 +1533,817 @@
   </borders>
   <cellStyleXfs count="412">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="260">
+  <cellXfs count="258">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="24" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="25" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="20" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="30" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="31" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="31" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="183" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="24" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="19" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="183" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="23" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="18" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="20" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="20" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="183" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="20" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="183" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="20" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="20" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="38" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="38" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="38" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="37" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="37" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="37" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="38" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="38" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="38" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="4" fontId="37" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="37" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="37" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="37" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="37" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="38" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="38" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="37" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="37" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="37" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="38" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="38" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="38" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="183" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="183" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="17" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="44" fillId="13" borderId="0" xfId="396" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="44" fillId="13" borderId="0" xfId="396" applyFill="1"/>
-    <xf numFmtId="14" fontId="44" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" xfId="183" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="166" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="17" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="45" fillId="13" borderId="0" xfId="396" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="45" fillId="13" borderId="0" xfId="396" applyFill="1"/>
+    <xf numFmtId="14" fontId="45" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" xfId="183" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="20" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="173" fontId="15" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="173" fontId="16" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="20" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="20" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="174" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="23" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="174" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="24" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="34" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="46" fillId="4" borderId="0" xfId="183" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="47" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="47" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="47" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="47" fillId="4" borderId="0" xfId="183" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="48" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="48" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="48" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="412">
-    <cellStyle name="Excel Built-in Normal" xfId="396"/>
+    <cellStyle name="Excel Built-in Normal" xfId="396" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2759,6 +2762,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -2780,7 +2786,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 1"/>
+        <xdr:cNvPr id="7" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2827,7 +2839,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2865,7 +2883,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 3"/>
+        <xdr:cNvPr id="5" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2912,7 +2936,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 1"/>
+        <xdr:cNvPr id="10" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2959,7 +2989,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 2"/>
+        <xdr:cNvPr id="11" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3006,7 +3042,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 3"/>
+        <xdr:cNvPr id="12" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3053,7 +3095,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 5"/>
+        <xdr:cNvPr id="13" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3100,7 +3148,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 6"/>
+        <xdr:cNvPr id="14" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3147,7 +3201,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 7"/>
+        <xdr:cNvPr id="15" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3194,7 +3254,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Picture 15"/>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3232,7 +3298,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3270,7 +3342,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Picture 4"/>
+        <xdr:cNvPr id="17" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3317,7 +3395,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Picture 5"/>
+        <xdr:cNvPr id="18" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3364,7 +3448,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Picture 6"/>
+        <xdr:cNvPr id="21" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3411,7 +3501,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Picture 7"/>
+        <xdr:cNvPr id="22" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3458,7 +3554,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Picture 18"/>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3918,13 +4020,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.5" style="31" customWidth="1"/>
     <col min="2" max="2" width="9.1640625" style="23" customWidth="1"/>
@@ -3933,33 +4035,33 @@
     <col min="5" max="16384" width="10.83203125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="29" customFormat="1">
       <c r="A1" s="27"/>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
     </row>
-    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="21">
       <c r="A2" s="7"/>
       <c r="B2" s="30" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="30"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="7"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="7"/>
       <c r="B5" s="10" t="s">
         <v>14</v>
@@ -3968,7 +4070,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="7"/>
       <c r="B6" s="12" t="s">
         <v>9</v>
@@ -3977,31 +4079,31 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="7"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="7"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="7"/>
       <c r="B9" s="82" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="83"/>
-      <c r="D9" s="199"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D9" s="198"/>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="7"/>
       <c r="B10" s="84"/>
       <c r="C10" s="85"/>
-      <c r="D10" s="200"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D10" s="199"/>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="7"/>
       <c r="B11" s="84" t="s">
         <v>16</v>
@@ -4009,39 +4111,39 @@
       <c r="C11" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="200"/>
-    </row>
-    <row r="12" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="199"/>
+    </row>
+    <row r="12" spans="1:4" ht="17" thickBot="1">
       <c r="A12" s="7"/>
       <c r="B12" s="84"/>
       <c r="C12" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="200"/>
-    </row>
-    <row r="13" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="199"/>
+    </row>
+    <row r="13" spans="1:4" ht="17" thickBot="1">
       <c r="A13" s="7"/>
       <c r="B13" s="84"/>
       <c r="C13" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="200"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D13" s="199"/>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="7"/>
       <c r="B14" s="84"/>
       <c r="C14" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="200"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D14" s="199"/>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="7"/>
       <c r="B15" s="84"/>
       <c r="C15" s="85"/>
-      <c r="D15" s="200"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D15" s="199"/>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="7"/>
       <c r="B16" s="84" t="s">
         <v>21</v>
@@ -4049,67 +4151,67 @@
       <c r="C16" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="200"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D16" s="199"/>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="7"/>
       <c r="B17" s="84"/>
       <c r="C17" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="200"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D17" s="199"/>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="7"/>
       <c r="B18" s="84"/>
       <c r="C18" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="200"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D18" s="199"/>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="7"/>
       <c r="B19" s="84"/>
       <c r="C19" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="200"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D19" s="199"/>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="7"/>
       <c r="B20" s="92"/>
       <c r="C20" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="200"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D20" s="199"/>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="7"/>
       <c r="B21" s="92"/>
       <c r="C21" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="200"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D21" s="199"/>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="7"/>
       <c r="B22" s="92"/>
       <c r="C22" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="200"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D22" s="199"/>
+    </row>
+    <row r="23" spans="1:4">
       <c r="B23" s="92"/>
       <c r="C23" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="200"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B24" s="201"/>
-      <c r="C24" s="202"/>
-      <c r="D24" s="203"/>
+      <c r="D23" s="199"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="B24" s="200"/>
+      <c r="C24" s="201"/>
+      <c r="D24" s="202"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4118,17 +4220,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:K16"/>
+  <dimension ref="B1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.33203125" style="37" customWidth="1"/>
     <col min="2" max="2" width="3.6640625" style="37" customWidth="1"/>
@@ -4143,42 +4245,42 @@
     <col min="11" max="16384" width="10.83203125" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:10">
       <c r="D1" s="35"/>
       <c r="E1" s="35"/>
       <c r="F1" s="35"/>
       <c r="G1" s="35"/>
     </row>
-    <row r="2" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="236" t="s">
-        <v>176</v>
-      </c>
-      <c r="C2" s="237"/>
-      <c r="D2" s="237"/>
-      <c r="E2" s="237"/>
-      <c r="F2" s="237"/>
-      <c r="G2" s="238"/>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="239"/>
-      <c r="C3" s="240"/>
-      <c r="D3" s="240"/>
-      <c r="E3" s="240"/>
-      <c r="F3" s="240"/>
-      <c r="G3" s="241"/>
-    </row>
-    <row r="4" spans="2:11" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="242"/>
-      <c r="C4" s="243"/>
-      <c r="D4" s="243"/>
-      <c r="E4" s="243"/>
-      <c r="F4" s="243"/>
-      <c r="G4" s="244"/>
-    </row>
-    <row r="5" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" ht="15" customHeight="1">
+      <c r="B2" s="243" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" s="244"/>
+      <c r="D2" s="244"/>
+      <c r="E2" s="244"/>
+      <c r="F2" s="244"/>
+      <c r="G2" s="245"/>
+    </row>
+    <row r="3" spans="2:10">
+      <c r="B3" s="246"/>
+      <c r="C3" s="247"/>
+      <c r="D3" s="247"/>
+      <c r="E3" s="247"/>
+      <c r="F3" s="247"/>
+      <c r="G3" s="248"/>
+    </row>
+    <row r="4" spans="2:10" ht="64" customHeight="1">
+      <c r="B4" s="249"/>
+      <c r="C4" s="250"/>
+      <c r="D4" s="250"/>
+      <c r="E4" s="250"/>
+      <c r="F4" s="250"/>
+      <c r="G4" s="251"/>
+    </row>
+    <row r="5" spans="2:10" ht="17" thickBot="1">
       <c r="D5" s="35"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10">
       <c r="B6" s="38"/>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
@@ -4189,7 +4291,7 @@
       <c r="I6" s="22"/>
       <c r="J6" s="39"/>
     </row>
-    <row r="7" spans="2:11" s="44" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" s="44" customFormat="1" ht="19">
       <c r="B7" s="97"/>
       <c r="C7" s="21" t="s">
         <v>13</v>
@@ -4210,7 +4312,7 @@
       </c>
       <c r="J7" s="101"/>
     </row>
-    <row r="8" spans="2:11" s="44" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" s="44" customFormat="1" ht="19">
       <c r="B8" s="25"/>
       <c r="C8" s="20"/>
       <c r="D8" s="33"/>
@@ -4221,10 +4323,10 @@
       <c r="I8" s="20"/>
       <c r="J8" s="45"/>
     </row>
-    <row r="9" spans="2:11" s="44" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" s="44" customFormat="1" ht="20" thickBot="1">
       <c r="B9" s="25"/>
       <c r="C9" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D9" s="33"/>
       <c r="E9" s="20"/>
@@ -4234,7 +4336,7 @@
       <c r="I9" s="20"/>
       <c r="J9" s="45"/>
     </row>
-    <row r="10" spans="2:11" s="44" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" s="44" customFormat="1" ht="20" thickBot="1">
       <c r="B10" s="25"/>
       <c r="C10" s="107" t="s">
         <v>38</v>
@@ -4256,7 +4358,7 @@
       </c>
       <c r="J10" s="45"/>
     </row>
-    <row r="11" spans="2:11" s="44" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" s="44" customFormat="1" ht="20" thickBot="1">
       <c r="B11" s="25"/>
       <c r="C11" s="114" t="s">
         <v>39</v>
@@ -4264,22 +4366,22 @@
       <c r="D11" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="208">
+      <c r="E11" s="207">
         <f>'Research data'!G7</f>
         <v>7.4930549629756062E-3</v>
       </c>
       <c r="F11" s="36"/>
       <c r="G11" s="114"/>
       <c r="H11" s="32"/>
-      <c r="I11" s="198" t="s">
-        <v>144</v>
+      <c r="I11" s="197" t="s">
+        <v>143</v>
       </c>
       <c r="J11" s="45"/>
     </row>
-    <row r="12" spans="2:11" s="44" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" s="44" customFormat="1" ht="20" thickBot="1">
       <c r="B12" s="25"/>
       <c r="C12" s="114" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D12" s="24" t="s">
         <v>53</v>
@@ -4291,12 +4393,12 @@
       <c r="F12" s="36"/>
       <c r="G12" s="114"/>
       <c r="H12" s="32"/>
-      <c r="I12" s="198" t="s">
-        <v>149</v>
+      <c r="I12" s="197" t="s">
+        <v>148</v>
       </c>
       <c r="J12" s="45"/>
     </row>
-    <row r="13" spans="2:11" s="44" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" s="44" customFormat="1" ht="20" thickBot="1">
       <c r="B13" s="25"/>
       <c r="C13" s="36" t="s">
         <v>40</v>
@@ -4304,74 +4406,52 @@
       <c r="D13" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="193">
+      <c r="E13" s="192">
         <f>nl_fce!E16</f>
         <v>0</v>
       </c>
       <c r="F13" s="36"/>
-      <c r="G13" s="212" t="s">
-        <v>163</v>
+      <c r="G13" s="210" t="s">
+        <v>162</v>
       </c>
       <c r="H13" s="32"/>
-      <c r="I13" s="198" t="s">
+      <c r="I13" s="197" t="s">
         <v>51</v>
       </c>
       <c r="J13" s="45"/>
     </row>
-    <row r="14" spans="2:11" s="44" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" s="44" customFormat="1" ht="20" thickBot="1">
       <c r="B14" s="25"/>
-      <c r="C14" s="212" t="s">
-        <v>165</v>
+      <c r="C14" s="210" t="s">
+        <v>164</v>
       </c>
       <c r="D14" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="193">
+      <c r="E14" s="192">
         <f>'Research data'!G10</f>
         <v>0.112</v>
       </c>
       <c r="F14" s="36"/>
-      <c r="G14" s="212" t="s">
-        <v>164</v>
+      <c r="G14" s="210" t="s">
+        <v>163</v>
       </c>
       <c r="H14" s="32"/>
-      <c r="I14" s="235" t="s">
-        <v>169</v>
+      <c r="I14" s="233" t="s">
+        <v>168</v>
       </c>
       <c r="J14" s="45"/>
     </row>
-    <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="40"/>
-      <c r="C15" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="185">
-        <f>'Research data'!G11</f>
-        <v>16095000</v>
-      </c>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="134" t="str">
-        <f>I13</f>
-        <v>http://refman.et-model.com/publications/1623</v>
-      </c>
-      <c r="J15" s="102"/>
-      <c r="K15" s="35"/>
-    </row>
-    <row r="16" spans="2:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="41"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="43"/>
+    <row r="15" spans="2:10" ht="20" customHeight="1" thickBot="1">
+      <c r="B15" s="41"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4383,15 +4463,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.33203125" style="37" customWidth="1"/>
     <col min="2" max="2" width="3.6640625" style="37" customWidth="1"/>
@@ -4406,42 +4486,42 @@
     <col min="11" max="16384" width="10.83203125" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:10">
       <c r="D1" s="35"/>
       <c r="E1" s="35"/>
       <c r="F1" s="35"/>
       <c r="G1" s="35"/>
     </row>
-    <row r="2" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="236" t="s">
-        <v>154</v>
-      </c>
-      <c r="C2" s="237"/>
-      <c r="D2" s="237"/>
-      <c r="E2" s="238"/>
+    <row r="2" spans="2:10" ht="15" customHeight="1">
+      <c r="B2" s="243" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="244"/>
+      <c r="D2" s="244"/>
+      <c r="E2" s="245"/>
       <c r="F2" s="35"/>
       <c r="G2" s="35"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="239"/>
-      <c r="C3" s="240"/>
-      <c r="D3" s="240"/>
-      <c r="E3" s="241"/>
+    <row r="3" spans="2:10">
+      <c r="B3" s="246"/>
+      <c r="C3" s="247"/>
+      <c r="D3" s="247"/>
+      <c r="E3" s="248"/>
       <c r="F3" s="35"/>
       <c r="G3" s="35"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="245"/>
-      <c r="C4" s="246"/>
-      <c r="D4" s="246"/>
-      <c r="E4" s="247"/>
+    <row r="4" spans="2:10">
+      <c r="B4" s="252"/>
+      <c r="C4" s="253"/>
+      <c r="D4" s="253"/>
+      <c r="E4" s="254"/>
       <c r="F4" s="35"/>
       <c r="G4" s="35"/>
     </row>
-    <row r="5" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" ht="17" thickBot="1">
       <c r="D5" s="35"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10">
       <c r="B6" s="38"/>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
@@ -4452,7 +4532,7 @@
       <c r="I6" s="22"/>
       <c r="J6" s="39"/>
     </row>
-    <row r="7" spans="2:10" s="44" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" s="44" customFormat="1" ht="19">
       <c r="B7" s="97"/>
       <c r="C7" s="21" t="s">
         <v>13</v>
@@ -4473,7 +4553,7 @@
       </c>
       <c r="J7" s="101"/>
     </row>
-    <row r="8" spans="2:10" s="44" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" s="44" customFormat="1" ht="19">
       <c r="B8" s="25"/>
       <c r="C8" s="20"/>
       <c r="D8" s="33"/>
@@ -4484,7 +4564,7 @@
       <c r="I8" s="20"/>
       <c r="J8" s="45"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10">
       <c r="B9" s="40"/>
       <c r="C9" s="20" t="s">
         <v>37</v>
@@ -4497,7 +4577,7 @@
       <c r="I9" s="35"/>
       <c r="J9" s="102"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10">
       <c r="B10" s="40"/>
       <c r="C10" s="20"/>
       <c r="D10" s="99"/>
@@ -4508,10 +4588,10 @@
       <c r="I10" s="35"/>
       <c r="J10" s="102"/>
     </row>
-    <row r="11" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" ht="17" thickBot="1">
       <c r="B11" s="40"/>
-      <c r="C11" s="209" t="s">
-        <v>157</v>
+      <c r="C11" s="208" t="s">
+        <v>156</v>
       </c>
       <c r="D11" s="114"/>
       <c r="E11" s="114"/>
@@ -4521,7 +4601,7 @@
       <c r="I11" s="114"/>
       <c r="J11" s="102"/>
     </row>
-    <row r="12" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" ht="17" thickBot="1">
       <c r="B12" s="40"/>
       <c r="C12" s="117" t="s">
         <v>44</v>
@@ -4530,7 +4610,7 @@
         <v>49</v>
       </c>
       <c r="E12" s="138">
-        <f>'Research data'!G14</f>
+        <f>'Research data'!G13</f>
         <v>0</v>
       </c>
       <c r="F12" s="36"/>
@@ -4543,7 +4623,7 @@
       </c>
       <c r="J12" s="102"/>
     </row>
-    <row r="13" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" ht="17" thickBot="1">
       <c r="B13" s="40"/>
       <c r="C13" s="117" t="s">
         <v>45</v>
@@ -4552,7 +4632,7 @@
         <v>49</v>
       </c>
       <c r="E13" s="138">
-        <f>'Research data'!G15</f>
+        <f>'Research data'!G14</f>
         <v>1.1470417155166664E-3</v>
       </c>
       <c r="F13" s="36"/>
@@ -4565,7 +4645,7 @@
       </c>
       <c r="J13" s="102"/>
     </row>
-    <row r="14" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" ht="17" thickBot="1">
       <c r="B14" s="40"/>
       <c r="C14" s="117" t="s">
         <v>48</v>
@@ -4574,7 +4654,7 @@
         <v>49</v>
       </c>
       <c r="E14" s="138">
-        <f>'Research data'!G16</f>
+        <f>'Research data'!G15</f>
         <v>0</v>
       </c>
       <c r="F14" s="36"/>
@@ -4587,7 +4667,7 @@
       </c>
       <c r="J14" s="102"/>
     </row>
-    <row r="15" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" ht="17" thickBot="1">
       <c r="B15" s="40"/>
       <c r="C15" s="117" t="s">
         <v>47</v>
@@ -4596,7 +4676,7 @@
         <v>49</v>
       </c>
       <c r="E15" s="138">
-        <f>'Research data'!G17</f>
+        <f>'Research data'!G16</f>
         <v>8.0811981354912427E-3</v>
       </c>
       <c r="F15" s="36"/>
@@ -4609,7 +4689,7 @@
       </c>
       <c r="J15" s="102"/>
     </row>
-    <row r="16" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" ht="17" thickBot="1">
       <c r="B16" s="40"/>
       <c r="C16" s="117" t="s">
         <v>40</v>
@@ -4618,7 +4698,7 @@
         <v>49</v>
       </c>
       <c r="E16" s="138">
-        <f>'Research data'!G18</f>
+        <f>'Research data'!G17</f>
         <v>0</v>
       </c>
       <c r="F16" s="36"/>
@@ -4631,7 +4711,7 @@
       </c>
       <c r="J16" s="102"/>
     </row>
-    <row r="17" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" ht="17" thickBot="1">
       <c r="B17" s="40"/>
       <c r="C17" s="117" t="s">
         <v>46</v>
@@ -4640,7 +4720,7 @@
         <v>49</v>
       </c>
       <c r="E17" s="138">
-        <f>'Research data'!G19</f>
+        <f>'Research data'!G18</f>
         <v>0</v>
       </c>
       <c r="F17" s="36"/>
@@ -4653,10 +4733,10 @@
       </c>
       <c r="J17" s="102"/>
     </row>
-    <row r="18" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" ht="17" thickBot="1">
       <c r="B18" s="40"/>
-      <c r="C18" s="210" t="s">
-        <v>158</v>
+      <c r="C18" s="209" t="s">
+        <v>157</v>
       </c>
       <c r="D18" s="24" t="s">
         <v>1</v>
@@ -4672,7 +4752,7 @@
       </c>
       <c r="J18" s="102"/>
     </row>
-    <row r="19" spans="2:10" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" ht="20" customHeight="1" thickBot="1">
       <c r="B19" s="41"/>
       <c r="C19" s="42"/>
       <c r="D19" s="42"/>
@@ -4694,17 +4774,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet3">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B1:W23"/>
+  <dimension ref="B1:W22"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="3.5" style="65" customWidth="1"/>
     <col min="3" max="3" width="35.83203125" style="65" customWidth="1"/>
@@ -4730,8 +4810,8 @@
     <col min="24" max="16384" width="10.83203125" style="65"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:23" ht="17" thickBot="1"/>
+    <row r="2" spans="2:23">
       <c r="B2" s="67"/>
       <c r="C2" s="68"/>
       <c r="D2" s="68"/>
@@ -4755,7 +4835,7 @@
       <c r="V2" s="69"/>
       <c r="W2" s="70"/>
     </row>
-    <row r="3" spans="2:23" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:23" s="26" customFormat="1">
       <c r="B3" s="25"/>
       <c r="C3" s="106" t="s">
         <v>30</v>
@@ -4786,24 +4866,24 @@
       </c>
       <c r="P3" s="64"/>
       <c r="Q3" s="64" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R3" s="64"/>
       <c r="S3" s="64" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="T3" s="64" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="U3" s="64" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="V3" s="64"/>
       <c r="W3" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:23">
       <c r="B4" s="71"/>
       <c r="C4" s="72"/>
       <c r="D4" s="72"/>
@@ -4827,7 +4907,7 @@
       <c r="V4" s="105"/>
       <c r="W4" s="2"/>
     </row>
-    <row r="5" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:23" ht="17" thickBot="1">
       <c r="B5" s="71"/>
       <c r="C5" s="20" t="s">
         <v>55</v>
@@ -4853,7 +4933,7 @@
       <c r="V5" s="16"/>
       <c r="W5" s="3"/>
     </row>
-    <row r="6" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:23" ht="17" thickBot="1">
       <c r="B6" s="71"/>
       <c r="C6" s="118" t="s">
         <v>38</v>
@@ -4887,7 +4967,7 @@
       <c r="V6" s="16"/>
       <c r="W6" s="3"/>
     </row>
-    <row r="7" spans="2:23" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:23" s="6" customFormat="1" ht="17" thickBot="1">
       <c r="B7" s="5"/>
       <c r="C7" s="119" t="s">
         <v>39</v>
@@ -4916,21 +4996,21 @@
       <c r="P7" s="16"/>
       <c r="Q7" s="16"/>
       <c r="R7" s="16"/>
-      <c r="S7" s="207">
+      <c r="S7" s="206">
         <f>Notes!F386</f>
         <v>7.4930549629756062E-3</v>
       </c>
-      <c r="T7" s="214"/>
-      <c r="U7" s="214"/>
+      <c r="T7" s="212"/>
+      <c r="U7" s="212"/>
       <c r="V7" s="16"/>
-      <c r="W7" s="186" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="8" spans="2:23" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="W7" s="185" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="2:23" s="6" customFormat="1" ht="17" thickBot="1">
       <c r="B8" s="5"/>
       <c r="C8" s="119" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D8" s="119" t="s">
         <v>52</v>
@@ -4974,7 +5054,7 @@
       <c r="V8" s="16"/>
       <c r="W8" s="3"/>
     </row>
-    <row r="9" spans="2:23" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:23" s="6" customFormat="1" ht="17" thickBot="1">
       <c r="B9" s="5"/>
       <c r="C9" s="120" t="s">
         <v>40</v>
@@ -5004,19 +5084,19 @@
       <c r="Q9" s="16"/>
       <c r="R9" s="16"/>
       <c r="S9" s="16"/>
-      <c r="T9" s="216">
+      <c r="T9" s="214">
         <v>0</v>
       </c>
       <c r="U9" s="16"/>
       <c r="V9" s="16"/>
-      <c r="W9" s="215" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="10" spans="2:23" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="W9" s="213" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" s="6" customFormat="1" ht="17" thickBot="1">
       <c r="B10" s="5"/>
-      <c r="C10" s="213" t="s">
-        <v>166</v>
+      <c r="C10" s="211" t="s">
+        <v>165</v>
       </c>
       <c r="D10" s="120"/>
       <c r="E10" s="120"/>
@@ -5046,57 +5126,40 @@
       <c r="V10" s="16"/>
       <c r="W10" s="3"/>
     </row>
-    <row r="11" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:23">
       <c r="B11" s="71"/>
-      <c r="C11" s="120" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="120" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="120" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" s="185">
-        <f>K11</f>
-        <v>16095000</v>
-      </c>
-      <c r="H11" s="78"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
-      <c r="K11" s="185">
-        <f>Notes!H277</f>
-        <v>16095000</v>
-      </c>
+      <c r="K11" s="18"/>
       <c r="L11" s="18"/>
-      <c r="M11" s="185">
-        <f>Notes!H126</f>
-        <v>33304320</v>
-      </c>
+      <c r="M11" s="16"/>
       <c r="N11" s="18"/>
-      <c r="O11" s="185">
-        <f>Notes!H160</f>
-        <v>18879000</v>
-      </c>
+      <c r="O11" s="16"/>
       <c r="P11" s="16"/>
-      <c r="Q11" s="211"/>
+      <c r="Q11" s="16"/>
       <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
       <c r="V11" s="16"/>
-      <c r="W11" s="186" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="W11" s="126"/>
+    </row>
+    <row r="12" spans="2:23" ht="17" thickBot="1">
       <c r="B12" s="71"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
+      <c r="C12" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="99"/>
+      <c r="H12" s="77"/>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
       <c r="K12" s="18"/>
@@ -5113,88 +5176,98 @@
       <c r="V12" s="16"/>
       <c r="W12" s="126"/>
     </row>
-    <row r="13" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:23" ht="17" thickBot="1">
       <c r="B13" s="71"/>
-      <c r="C13" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="99"/>
-      <c r="G13" s="99"/>
-      <c r="H13" s="77"/>
+      <c r="C13" s="121" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="137">
+        <f>K13</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="78"/>
       <c r="I13" s="18"/>
       <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
+      <c r="K13" s="130">
+        <f>Notes!J346</f>
+        <v>0</v>
+      </c>
       <c r="L13" s="18"/>
-      <c r="M13" s="16"/>
+      <c r="M13" s="18"/>
       <c r="N13" s="18"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
-      <c r="W13" s="126"/>
-    </row>
-    <row r="14" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O13" s="18"/>
+      <c r="P13" s="75"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="75"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="18"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="75"/>
+      <c r="W13" s="136" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" ht="17" thickBot="1">
       <c r="B14" s="71"/>
       <c r="C14" s="121" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="80"/>
-      <c r="E14" s="80"/>
+        <v>45</v>
+      </c>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
       <c r="F14" s="24" t="s">
         <v>49</v>
       </c>
       <c r="G14" s="137">
-        <f>K14</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="78"/>
+        <f t="shared" ref="G14:G18" si="0">K14</f>
+        <v>1.1470417155166664E-3</v>
+      </c>
+      <c r="H14" s="18"/>
       <c r="I14" s="18"/>
       <c r="J14" s="18"/>
       <c r="K14" s="130">
-        <f>Notes!J346</f>
-        <v>0</v>
+        <f>Notes!J347</f>
+        <v>1.1470417155166664E-3</v>
       </c>
       <c r="L14" s="18"/>
       <c r="M14" s="18"/>
       <c r="N14" s="18"/>
       <c r="O14" s="18"/>
-      <c r="P14" s="75"/>
+      <c r="P14" s="6"/>
       <c r="Q14" s="18"/>
-      <c r="R14" s="75"/>
+      <c r="R14" s="6"/>
       <c r="S14" s="18"/>
       <c r="T14" s="18"/>
       <c r="U14" s="18"/>
-      <c r="V14" s="75"/>
+      <c r="V14" s="6"/>
       <c r="W14" s="136" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:23" ht="17" thickBot="1">
       <c r="B15" s="71"/>
       <c r="C15" s="121" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
+        <v>48</v>
+      </c>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
       <c r="F15" s="24" t="s">
         <v>49</v>
       </c>
       <c r="G15" s="137">
-        <f t="shared" ref="G15:G19" si="0">K15</f>
-        <v>1.1470417155166664E-3</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
       <c r="J15" s="18"/>
       <c r="K15" s="130">
-        <f>Notes!J347</f>
-        <v>1.1470417155166664E-3</v>
+        <f>Notes!J348</f>
+        <v>0</v>
       </c>
       <c r="L15" s="18"/>
       <c r="M15" s="18"/>
@@ -5211,10 +5284,10 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:23" ht="17" thickBot="1">
       <c r="B16" s="71"/>
       <c r="C16" s="121" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
@@ -5223,14 +5296,14 @@
       </c>
       <c r="G16" s="137">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.0811981354912427E-3</v>
       </c>
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
       <c r="J16" s="18"/>
       <c r="K16" s="130">
-        <f>Notes!J348</f>
-        <v>0</v>
+        <f>Notes!J349</f>
+        <v>8.0811981354912427E-3</v>
       </c>
       <c r="L16" s="18"/>
       <c r="M16" s="18"/>
@@ -5247,49 +5320,49 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:23" ht="17" thickBot="1">
       <c r="B17" s="71"/>
       <c r="C17" s="121" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
+        <v>40</v>
+      </c>
+      <c r="D17" s="81"/>
+      <c r="E17" s="81"/>
       <c r="F17" s="24" t="s">
         <v>49</v>
       </c>
       <c r="G17" s="137">
         <f t="shared" si="0"/>
-        <v>8.0811981354912427E-3</v>
-      </c>
-      <c r="H17" s="18"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="78"/>
       <c r="I17" s="18"/>
       <c r="J17" s="18"/>
       <c r="K17" s="130">
-        <f>Notes!J349</f>
-        <v>8.0811981354912427E-3</v>
+        <f>Notes!J350</f>
+        <v>0</v>
       </c>
       <c r="L17" s="18"/>
       <c r="M17" s="18"/>
       <c r="N17" s="18"/>
       <c r="O17" s="18"/>
-      <c r="P17" s="6"/>
+      <c r="P17" s="75"/>
       <c r="Q17" s="18"/>
-      <c r="R17" s="6"/>
+      <c r="R17" s="75"/>
       <c r="S17" s="18"/>
       <c r="T17" s="18"/>
       <c r="U17" s="18"/>
-      <c r="V17" s="6"/>
+      <c r="V17" s="75"/>
       <c r="W17" s="136" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:23" ht="17" thickBot="1">
       <c r="B18" s="71"/>
       <c r="C18" s="121" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="81"/>
-      <c r="E18" s="81"/>
+        <v>46</v>
+      </c>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
       <c r="F18" s="24" t="s">
         <v>49</v>
       </c>
@@ -5297,11 +5370,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H18" s="78"/>
+      <c r="H18" s="18"/>
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
       <c r="K18" s="130">
-        <f>Notes!J350</f>
+        <f>Notes!J351</f>
         <v>0</v>
       </c>
       <c r="L18" s="18"/>
@@ -5319,50 +5392,14 @@
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="71"/>
-      <c r="C19" s="121" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="24" t="s">
+    <row r="21" spans="2:23" ht="17" thickBot="1"/>
+    <row r="22" spans="2:23" ht="17" thickBot="1">
+      <c r="D22" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="G19" s="137">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="130">
-        <f>Notes!J351</f>
-        <v>0</v>
-      </c>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="75"/>
-      <c r="Q19" s="18"/>
-      <c r="R19" s="75"/>
-      <c r="S19" s="18"/>
-      <c r="T19" s="18"/>
-      <c r="U19" s="18"/>
-      <c r="V19" s="75"/>
-      <c r="W19" s="136" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="22" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="E23" s="193"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="212"/>
+      <c r="E22" s="192"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="210"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5371,8 +5408,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr codeName="Sheet4">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:L29"/>
@@ -5381,7 +5418,7 @@
       <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.33203125" style="48" customWidth="1"/>
     <col min="2" max="2" width="3.5" style="48" customWidth="1"/>
@@ -5396,8 +5433,8 @@
     <col min="13" max="16384" width="33.1640625" style="48"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="17" thickBot="1"/>
+    <row r="2" spans="1:12">
       <c r="B2" s="50"/>
       <c r="C2" s="51"/>
       <c r="D2" s="51"/>
@@ -5410,7 +5447,7 @@
       <c r="K2" s="52"/>
       <c r="L2" s="51"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="B3" s="53"/>
       <c r="C3" s="54" t="s">
         <v>11</v>
@@ -5425,7 +5462,7 @@
       <c r="K3" s="55"/>
       <c r="L3" s="56"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="B4" s="53"/>
       <c r="C4" s="56"/>
       <c r="D4" s="56"/>
@@ -5438,7 +5475,7 @@
       <c r="K4" s="57"/>
       <c r="L4" s="56"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="B5" s="58"/>
       <c r="C5" s="59" t="s">
         <v>13</v>
@@ -5467,7 +5504,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="B6" s="53"/>
       <c r="C6" s="54"/>
       <c r="D6" s="54"/>
@@ -5480,30 +5517,30 @@
       <c r="K6" s="55"/>
       <c r="L6" s="54"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="B7" s="53"/>
       <c r="C7" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="248" t="s">
-        <v>177</v>
+      <c r="E7" s="234" t="s">
+        <v>176</v>
       </c>
       <c r="H7" s="48">
         <v>2017</v>
       </c>
       <c r="L7" s="49" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="B8" s="53"/>
-      <c r="E8" s="187"/>
+      <c r="E8" s="186"/>
       <c r="L8" s="49"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="B9" s="53"/>
       <c r="C9" s="132" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D9" s="61"/>
       <c r="E9" s="131" t="s">
@@ -5515,10 +5552,10 @@
       <c r="G9" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="H9" s="194" t="s">
+      <c r="H9" s="193" t="s">
         <v>68</v>
       </c>
-      <c r="I9" s="194" t="s">
+      <c r="I9" s="193" t="s">
         <v>68</v>
       </c>
       <c r="J9" s="57"/>
@@ -5527,14 +5564,14 @@
       </c>
       <c r="L9" s="62"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="B10" s="53"/>
       <c r="E10" s="129"/>
       <c r="F10" s="129"/>
-      <c r="H10" s="195"/>
-      <c r="I10" s="195"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
+    </row>
+    <row r="11" spans="1:12">
       <c r="B11" s="53"/>
       <c r="C11" s="133" t="s">
         <v>40</v>
@@ -5546,10 +5583,10 @@
       <c r="G11" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="196">
+      <c r="H11" s="195">
         <v>2011</v>
       </c>
-      <c r="I11" s="196">
+      <c r="I11" s="195">
         <v>2011</v>
       </c>
       <c r="J11" s="61"/>
@@ -5557,31 +5594,31 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="224" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="217"/>
-      <c r="B12" s="218"/>
-      <c r="C12" s="219" t="s">
-        <v>165</v>
-      </c>
-      <c r="D12" s="220"/>
-      <c r="E12" s="219" t="s">
+    <row r="12" spans="1:12" s="222" customFormat="1">
+      <c r="A12" s="215"/>
+      <c r="B12" s="216"/>
+      <c r="C12" s="217" t="s">
+        <v>164</v>
+      </c>
+      <c r="D12" s="218"/>
+      <c r="E12" s="217" t="s">
+        <v>168</v>
+      </c>
+      <c r="F12" s="217"/>
+      <c r="G12" s="215" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="219" t="s">
         <v>169</v>
       </c>
-      <c r="F12" s="219"/>
-      <c r="G12" s="217" t="s">
-        <v>64</v>
-      </c>
-      <c r="H12" s="221" t="s">
+      <c r="I12" s="219"/>
+      <c r="J12" s="219"/>
+      <c r="K12" s="221" t="s">
         <v>170</v>
       </c>
-      <c r="I12" s="221"/>
-      <c r="J12" s="221"/>
-      <c r="K12" s="223" t="s">
-        <v>171</v>
-      </c>
-      <c r="L12" s="222"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="220"/>
+    </row>
+    <row r="13" spans="1:12">
       <c r="B13" s="53"/>
       <c r="C13" s="61" t="s">
         <v>67</v>
@@ -5589,22 +5626,22 @@
       <c r="D13" s="61"/>
       <c r="L13" s="62"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12">
       <c r="B14" s="53"/>
-      <c r="C14" s="197" t="s">
+      <c r="C14" s="196" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12">
       <c r="B15" s="53"/>
       <c r="C15" s="48" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12">
       <c r="B16" s="53"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:11">
       <c r="B17" s="53"/>
       <c r="C17" s="132" t="s">
         <v>52</v>
@@ -5616,19 +5653,19 @@
         <v>2008</v>
       </c>
       <c r="K17" s="49" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11">
       <c r="B18" s="53"/>
       <c r="C18" s="48" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:11">
       <c r="B19" s="53"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:11">
       <c r="B20" s="53"/>
       <c r="C20" s="132" t="s">
         <v>52</v>
@@ -5640,19 +5677,19 @@
         <v>2002</v>
       </c>
       <c r="K20" s="49" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11">
       <c r="B21" s="53"/>
       <c r="C21" s="48" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:11">
       <c r="B22" s="53"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:11">
       <c r="B23" s="53"/>
       <c r="E23" s="48" t="s">
         <v>124</v>
@@ -5661,13 +5698,13 @@
         <v>2010</v>
       </c>
       <c r="K23" s="49" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11">
       <c r="B24" s="53"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:11">
       <c r="B25" s="53"/>
       <c r="E25" s="48" t="s">
         <v>93</v>
@@ -5676,24 +5713,24 @@
         <v>2010</v>
       </c>
       <c r="K25" s="49" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11">
       <c r="B26" s="53"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:11">
       <c r="B27" s="53"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:11">
       <c r="B28" s="53"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:11">
       <c r="B29" s="53"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K12" r:id="rId1"/>
+    <hyperlink ref="K12" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -5701,14 +5738,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AI452"/>
   <sheetViews>
     <sheetView topLeftCell="A356" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="50" workbookViewId="0">
       <selection activeCell="F384" sqref="F384"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="5.5" style="109" customWidth="1"/>
     <col min="2" max="2" width="5" style="109" customWidth="1"/>
@@ -5722,8 +5759,8 @@
     <col min="12" max="16384" width="7" style="109"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:25" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:25" ht="17" thickBot="1"/>
+    <row r="2" spans="2:25" s="26" customFormat="1">
       <c r="B2" s="112"/>
       <c r="C2" s="113" t="s">
         <v>25</v>
@@ -5751,7 +5788,7 @@
       <c r="T2" s="113"/>
       <c r="U2" s="113"/>
     </row>
-    <row r="3" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:25">
       <c r="B3" s="110"/>
       <c r="C3" s="111"/>
       <c r="D3" s="111"/>
@@ -5773,7 +5810,7 @@
       <c r="T3" s="111"/>
       <c r="U3" s="111"/>
     </row>
-    <row r="4" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:25" customFormat="1">
       <c r="B4" s="110"/>
       <c r="C4" s="122" t="s">
         <v>58</v>
@@ -5801,7 +5838,7 @@
       <c r="X4" s="122"/>
       <c r="Y4" s="122"/>
     </row>
-    <row r="5" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:25" customFormat="1">
       <c r="B5" s="110"/>
       <c r="C5" s="122"/>
       <c r="D5" s="122"/>
@@ -5827,7 +5864,7 @@
       <c r="X5" s="122"/>
       <c r="Y5" s="122"/>
     </row>
-    <row r="6" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:25" customFormat="1">
       <c r="B6" s="110"/>
       <c r="C6" s="122"/>
       <c r="D6" s="122"/>
@@ -5853,7 +5890,7 @@
       <c r="X6" s="122"/>
       <c r="Y6" s="122"/>
     </row>
-    <row r="7" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:25" customFormat="1">
       <c r="B7" s="110"/>
       <c r="C7" s="122"/>
       <c r="D7" s="122"/>
@@ -5879,7 +5916,7 @@
       <c r="X7" s="122"/>
       <c r="Y7" s="122"/>
     </row>
-    <row r="8" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:25" customFormat="1">
       <c r="B8" s="110"/>
       <c r="C8" s="122"/>
       <c r="D8" s="122">
@@ -5909,7 +5946,7 @@
       <c r="X8" s="122"/>
       <c r="Y8" s="122"/>
     </row>
-    <row r="9" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:25" customFormat="1">
       <c r="B9" s="110"/>
       <c r="C9" s="122"/>
       <c r="D9" s="122"/>
@@ -5940,7 +5977,7 @@
       <c r="X9" s="122"/>
       <c r="Y9" s="122"/>
     </row>
-    <row r="10" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:25" customFormat="1">
       <c r="B10" s="110"/>
       <c r="C10" s="122"/>
       <c r="D10" s="122"/>
@@ -5969,7 +6006,7 @@
       <c r="X10" s="122"/>
       <c r="Y10" s="122"/>
     </row>
-    <row r="11" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:25" customFormat="1">
       <c r="B11" s="110"/>
       <c r="C11" s="122"/>
       <c r="D11" s="122"/>
@@ -5998,7 +6035,7 @@
       <c r="X11" s="122"/>
       <c r="Y11" s="122"/>
     </row>
-    <row r="12" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:25" customFormat="1">
       <c r="B12" s="110"/>
       <c r="C12" s="122"/>
       <c r="D12" s="122"/>
@@ -6024,7 +6061,7 @@
       <c r="X12" s="122"/>
       <c r="Y12" s="122"/>
     </row>
-    <row r="13" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:25" customFormat="1">
       <c r="B13" s="110"/>
       <c r="C13" s="122"/>
       <c r="D13" s="122"/>
@@ -6050,7 +6087,7 @@
       <c r="X13" s="122"/>
       <c r="Y13" s="122"/>
     </row>
-    <row r="14" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:25" customFormat="1">
       <c r="B14" s="110"/>
       <c r="C14" s="122"/>
       <c r="D14" s="122"/>
@@ -6076,7 +6113,7 @@
       <c r="X14" s="122"/>
       <c r="Y14" s="122"/>
     </row>
-    <row r="15" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:25" customFormat="1">
       <c r="B15" s="110"/>
       <c r="C15" s="122"/>
       <c r="D15" s="122"/>
@@ -6102,7 +6139,7 @@
       <c r="X15" s="122"/>
       <c r="Y15" s="122"/>
     </row>
-    <row r="16" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:25" customFormat="1">
       <c r="B16" s="110"/>
       <c r="C16" s="122"/>
       <c r="D16" s="122"/>
@@ -6128,7 +6165,7 @@
       <c r="X16" s="122"/>
       <c r="Y16" s="122"/>
     </row>
-    <row r="17" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:25" customFormat="1">
       <c r="B17" s="110"/>
       <c r="C17" s="122"/>
       <c r="D17" s="122"/>
@@ -6154,7 +6191,7 @@
       <c r="X17" s="122"/>
       <c r="Y17" s="122"/>
     </row>
-    <row r="18" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:25" customFormat="1">
       <c r="B18" s="110"/>
       <c r="C18" s="122"/>
       <c r="D18" s="122"/>
@@ -6180,7 +6217,7 @@
       <c r="X18" s="122"/>
       <c r="Y18" s="122"/>
     </row>
-    <row r="19" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:25" customFormat="1">
       <c r="B19" s="110"/>
       <c r="C19" s="122"/>
       <c r="D19" s="122"/>
@@ -6206,7 +6243,7 @@
       <c r="X19" s="122"/>
       <c r="Y19" s="122"/>
     </row>
-    <row r="20" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:25" customFormat="1">
       <c r="B20" s="110"/>
       <c r="C20" s="122"/>
       <c r="D20" s="122"/>
@@ -6232,7 +6269,7 @@
       <c r="X20" s="122"/>
       <c r="Y20" s="122"/>
     </row>
-    <row r="21" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:25" customFormat="1">
       <c r="B21" s="110"/>
       <c r="C21" s="122"/>
       <c r="D21" s="122"/>
@@ -6258,7 +6295,7 @@
       <c r="X21" s="122"/>
       <c r="Y21" s="122"/>
     </row>
-    <row r="22" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:25" customFormat="1">
       <c r="B22" s="110"/>
       <c r="C22" s="122"/>
       <c r="D22" s="122"/>
@@ -6284,7 +6321,7 @@
       <c r="X22" s="122"/>
       <c r="Y22" s="122"/>
     </row>
-    <row r="23" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:25" customFormat="1">
       <c r="B23" s="110"/>
       <c r="C23" s="122"/>
       <c r="D23" s="122"/>
@@ -6310,7 +6347,7 @@
       <c r="X23" s="122"/>
       <c r="Y23" s="122"/>
     </row>
-    <row r="24" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:25" customFormat="1">
       <c r="B24" s="110"/>
       <c r="C24" s="122"/>
       <c r="D24" s="122"/>
@@ -6336,7 +6373,7 @@
       <c r="X24" s="122"/>
       <c r="Y24" s="122"/>
     </row>
-    <row r="25" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:25" customFormat="1">
       <c r="B25" s="110"/>
       <c r="C25" s="122"/>
       <c r="D25" s="122"/>
@@ -6362,7 +6399,7 @@
       <c r="X25" s="122"/>
       <c r="Y25" s="122"/>
     </row>
-    <row r="26" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:25" customFormat="1">
       <c r="B26" s="110"/>
       <c r="C26" s="122"/>
       <c r="D26" s="122"/>
@@ -6388,7 +6425,7 @@
       <c r="X26" s="122"/>
       <c r="Y26" s="122"/>
     </row>
-    <row r="27" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:25" customFormat="1">
       <c r="B27" s="110"/>
       <c r="C27" s="122"/>
       <c r="D27" s="122"/>
@@ -6414,7 +6451,7 @@
       <c r="X27" s="122"/>
       <c r="Y27" s="122"/>
     </row>
-    <row r="28" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:25" customFormat="1">
       <c r="B28" s="110"/>
       <c r="C28" s="122"/>
       <c r="D28" s="122"/>
@@ -6440,106 +6477,106 @@
       <c r="X28" s="122"/>
       <c r="Y28" s="122"/>
     </row>
-    <row r="29" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:25" customFormat="1">
       <c r="B29" s="110"/>
     </row>
-    <row r="30" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:25" customFormat="1">
       <c r="B30" s="110"/>
     </row>
-    <row r="31" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:25" customFormat="1">
       <c r="B31" s="110"/>
     </row>
-    <row r="32" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:25" customFormat="1">
       <c r="B32" s="110"/>
     </row>
-    <row r="33" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:2" customFormat="1">
       <c r="B33" s="110"/>
     </row>
-    <row r="34" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:2" customFormat="1">
       <c r="B34" s="110"/>
     </row>
-    <row r="35" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:2" customFormat="1">
       <c r="B35" s="110"/>
     </row>
-    <row r="36" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:2" customFormat="1">
       <c r="B36" s="110"/>
     </row>
-    <row r="37" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:2" customFormat="1">
       <c r="B37" s="110"/>
     </row>
-    <row r="38" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:2" customFormat="1">
       <c r="B38" s="110"/>
     </row>
-    <row r="39" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:2" customFormat="1">
       <c r="B39" s="110"/>
     </row>
-    <row r="40" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:2" customFormat="1">
       <c r="B40" s="110"/>
     </row>
-    <row r="41" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:2" customFormat="1">
       <c r="B41" s="110"/>
     </row>
-    <row r="42" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:2" customFormat="1">
       <c r="B42" s="110"/>
     </row>
-    <row r="43" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:2" customFormat="1">
       <c r="B43" s="110"/>
     </row>
-    <row r="44" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:2" customFormat="1">
       <c r="B44" s="110"/>
     </row>
-    <row r="45" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:2" customFormat="1">
       <c r="B45" s="110"/>
     </row>
-    <row r="46" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:2" customFormat="1">
       <c r="B46" s="110"/>
     </row>
-    <row r="47" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:2" customFormat="1">
       <c r="B47" s="110"/>
     </row>
-    <row r="48" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:2" customFormat="1">
       <c r="B48" s="110"/>
     </row>
-    <row r="49" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:25" customFormat="1">
       <c r="B49" s="110"/>
     </row>
-    <row r="50" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:25" customFormat="1">
       <c r="B50" s="110"/>
     </row>
-    <row r="51" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:25" customFormat="1">
       <c r="B51" s="110"/>
     </row>
-    <row r="52" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:25" customFormat="1">
       <c r="B52" s="110"/>
     </row>
-    <row r="53" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:25" customFormat="1">
       <c r="B53" s="110"/>
     </row>
-    <row r="54" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:25" customFormat="1">
       <c r="B54" s="110"/>
     </row>
-    <row r="55" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:25" customFormat="1">
       <c r="B55" s="110"/>
     </row>
-    <row r="56" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:25" customFormat="1">
       <c r="B56" s="110"/>
     </row>
-    <row r="57" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:25" customFormat="1">
       <c r="B57" s="110"/>
     </row>
-    <row r="58" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:25" customFormat="1">
       <c r="B58" s="110"/>
     </row>
-    <row r="59" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:25" customFormat="1">
       <c r="B59" s="110"/>
     </row>
-    <row r="60" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:25" customFormat="1">
       <c r="B60" s="110"/>
     </row>
-    <row r="61" spans="1:25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" customFormat="1" ht="17" thickBot="1">
       <c r="B61" s="110"/>
     </row>
-    <row r="62" spans="1:25" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:25" s="26" customFormat="1">
       <c r="A62"/>
       <c r="B62" s="112"/>
       <c r="C62" s="113" t="s">
@@ -6568,7 +6605,7 @@
       <c r="T62" s="113"/>
       <c r="U62" s="113"/>
     </row>
-    <row r="63" spans="1:25" s="142" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:25" s="142" customFormat="1">
       <c r="B63" s="110"/>
       <c r="C63" s="170"/>
       <c r="D63" s="171"/>
@@ -6594,16 +6631,16 @@
       <c r="X63" s="171"/>
       <c r="Y63" s="171"/>
     </row>
-    <row r="64" spans="1:25" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:25" s="139" customFormat="1">
       <c r="B64" s="110"/>
       <c r="C64" s="139" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="65" spans="2:8" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:8" s="139" customFormat="1">
       <c r="B65" s="110"/>
     </row>
-    <row r="66" spans="2:8" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:8" s="139" customFormat="1">
       <c r="B66" s="110"/>
       <c r="D66" s="172" t="s">
         <v>103</v>
@@ -6612,55 +6649,55 @@
         <v>105</v>
       </c>
     </row>
-    <row r="67" spans="2:8" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:8" s="139" customFormat="1">
       <c r="B67" s="110"/>
       <c r="H67" s="178">
         <v>0.87</v>
       </c>
     </row>
-    <row r="68" spans="2:8" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:8" s="139" customFormat="1">
       <c r="B68" s="110"/>
     </row>
-    <row r="69" spans="2:8" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:8" s="139" customFormat="1">
       <c r="B69" s="110"/>
     </row>
-    <row r="70" spans="2:8" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:8" s="139" customFormat="1">
       <c r="B70" s="110"/>
     </row>
-    <row r="71" spans="2:8" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:8" s="139" customFormat="1">
       <c r="B71" s="110"/>
     </row>
-    <row r="72" spans="2:8" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:8" s="139" customFormat="1">
       <c r="B72" s="110"/>
     </row>
-    <row r="73" spans="2:8" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:8" s="139" customFormat="1">
       <c r="B73" s="110"/>
     </row>
-    <row r="74" spans="2:8" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:8" s="139" customFormat="1">
       <c r="B74" s="110"/>
     </row>
-    <row r="75" spans="2:8" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:8" s="139" customFormat="1">
       <c r="B75" s="110"/>
     </row>
-    <row r="76" spans="2:8" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:8" s="139" customFormat="1">
       <c r="B76" s="110"/>
     </row>
-    <row r="77" spans="2:8" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:8" s="139" customFormat="1">
       <c r="B77" s="110"/>
     </row>
-    <row r="78" spans="2:8" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:8" s="139" customFormat="1">
       <c r="B78" s="110"/>
     </row>
-    <row r="79" spans="2:8" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:8" s="139" customFormat="1">
       <c r="B79" s="110"/>
     </row>
-    <row r="80" spans="2:8" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:8" s="139" customFormat="1">
       <c r="B80" s="110"/>
     </row>
-    <row r="81" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:10" s="139" customFormat="1">
       <c r="B81" s="110"/>
     </row>
-    <row r="82" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:10" s="139" customFormat="1">
       <c r="B82" s="110"/>
       <c r="D82">
         <v>1211</v>
@@ -6671,7 +6708,7 @@
       <c r="H82"/>
       <c r="I82"/>
     </row>
-    <row r="83" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:10" s="139" customFormat="1">
       <c r="B83" s="110"/>
       <c r="D83"/>
       <c r="F83" t="s">
@@ -6687,7 +6724,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="84" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:10" s="139" customFormat="1">
       <c r="B84" s="110"/>
       <c r="D84"/>
       <c r="F84"/>
@@ -6701,7 +6738,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="85" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:10" s="139" customFormat="1">
       <c r="B85" s="110"/>
       <c r="D85"/>
       <c r="F85" t="s">
@@ -6715,7 +6752,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="86" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:10" s="139" customFormat="1">
       <c r="B86" s="110"/>
       <c r="D86"/>
       <c r="F86"/>
@@ -6727,52 +6764,52 @@
         <v>111</v>
       </c>
     </row>
-    <row r="87" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:10" s="139" customFormat="1">
       <c r="B87" s="110"/>
     </row>
-    <row r="88" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:10" s="139" customFormat="1">
       <c r="B88" s="110"/>
     </row>
-    <row r="89" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:10" s="139" customFormat="1">
       <c r="B89" s="110"/>
     </row>
-    <row r="90" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:10" s="139" customFormat="1">
       <c r="B90" s="110"/>
     </row>
-    <row r="91" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:10" s="139" customFormat="1">
       <c r="B91" s="110"/>
     </row>
-    <row r="92" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:10" s="139" customFormat="1">
       <c r="B92" s="110"/>
     </row>
-    <row r="93" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:10" s="139" customFormat="1">
       <c r="B93" s="110"/>
     </row>
-    <row r="94" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:10" s="139" customFormat="1">
       <c r="B94" s="110"/>
     </row>
-    <row r="95" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:10" s="139" customFormat="1">
       <c r="B95" s="110"/>
     </row>
-    <row r="96" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:10" s="139" customFormat="1">
       <c r="B96" s="110"/>
     </row>
-    <row r="97" spans="2:9" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:9" s="139" customFormat="1">
       <c r="B97" s="110"/>
     </row>
-    <row r="98" spans="2:9" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:9" s="139" customFormat="1">
       <c r="B98" s="110"/>
     </row>
-    <row r="99" spans="2:9" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:9" s="139" customFormat="1">
       <c r="B99" s="110"/>
     </row>
-    <row r="100" spans="2:9" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:9" s="139" customFormat="1">
       <c r="B100" s="110"/>
       <c r="D100" s="139">
         <v>1212</v>
       </c>
     </row>
-    <row r="101" spans="2:9" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:9" s="139" customFormat="1">
       <c r="B101" s="110"/>
       <c r="F101" t="s">
         <v>104</v>
@@ -6784,25 +6821,25 @@
         <v>53</v>
       </c>
     </row>
-    <row r="102" spans="2:9" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:9" s="139" customFormat="1">
       <c r="B102" s="110"/>
     </row>
-    <row r="103" spans="2:9" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:9" s="139" customFormat="1">
       <c r="B103" s="110"/>
     </row>
-    <row r="104" spans="2:9" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:9" s="139" customFormat="1">
       <c r="B104" s="110"/>
     </row>
-    <row r="105" spans="2:9" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:9" s="139" customFormat="1">
       <c r="B105" s="110"/>
     </row>
-    <row r="106" spans="2:9" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:9" s="139" customFormat="1">
       <c r="B106" s="110"/>
     </row>
-    <row r="107" spans="2:9" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:9" s="139" customFormat="1">
       <c r="B107" s="110"/>
     </row>
-    <row r="108" spans="2:9" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:9" s="139" customFormat="1">
       <c r="B108" s="110"/>
       <c r="F108" s="140" t="s">
         <v>106</v>
@@ -6811,16 +6848,16 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="109" spans="2:9" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:9" s="139" customFormat="1">
       <c r="B109" s="110"/>
     </row>
-    <row r="110" spans="2:9" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:9" s="139" customFormat="1">
       <c r="B110" s="110"/>
     </row>
-    <row r="111" spans="2:9" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:9" s="139" customFormat="1">
       <c r="B111" s="110"/>
     </row>
-    <row r="112" spans="2:9" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:9" s="139" customFormat="1">
       <c r="B112" s="110"/>
       <c r="D112" s="172">
         <v>1216</v>
@@ -6829,22 +6866,22 @@
         <v>104</v>
       </c>
     </row>
-    <row r="113" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:10" s="139" customFormat="1">
       <c r="B113" s="110"/>
     </row>
-    <row r="114" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:10" s="139" customFormat="1">
       <c r="B114" s="110"/>
     </row>
-    <row r="115" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:10" s="139" customFormat="1">
       <c r="B115" s="110"/>
     </row>
-    <row r="116" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:10" s="139" customFormat="1">
       <c r="B116" s="110"/>
     </row>
-    <row r="117" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:10" s="139" customFormat="1">
       <c r="B117" s="110"/>
     </row>
-    <row r="118" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:10" s="139" customFormat="1">
       <c r="B118" s="110"/>
       <c r="H118" s="172">
         <v>17.7</v>
@@ -6856,16 +6893,16 @@
         <v>60</v>
       </c>
     </row>
-    <row r="119" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:10" s="139" customFormat="1">
       <c r="B119" s="110"/>
       <c r="H119" s="173"/>
       <c r="I119" s="173"/>
       <c r="J119" s="172"/>
     </row>
-    <row r="120" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:10" s="139" customFormat="1">
       <c r="B120" s="110"/>
     </row>
-    <row r="121" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:10" s="139" customFormat="1">
       <c r="B121" s="110"/>
       <c r="F121" s="180" t="s">
         <v>113</v>
@@ -6877,7 +6914,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="122" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:10" s="139" customFormat="1">
       <c r="B122" s="110"/>
       <c r="H122" s="139">
         <f>H121*1000</f>
@@ -6887,7 +6924,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="123" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:10" s="139" customFormat="1">
       <c r="B123" s="110"/>
       <c r="H123" s="139">
         <f>H122*100</f>
@@ -6897,12 +6934,12 @@
         <v>116</v>
       </c>
     </row>
-    <row r="124" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:10" s="139" customFormat="1">
       <c r="B124" s="110"/>
       <c r="H124" s="181"/>
       <c r="I124" s="180"/>
     </row>
-    <row r="125" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:10" s="139" customFormat="1">
       <c r="B125" s="110"/>
       <c r="H125" s="181">
         <f>H123*H129</f>
@@ -6912,7 +6949,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="126" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:10" s="139" customFormat="1">
       <c r="B126" s="110"/>
       <c r="F126" s="180" t="s">
         <v>134</v>
@@ -6925,13 +6962,13 @@
         <v>114</v>
       </c>
     </row>
-    <row r="127" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:10" s="139" customFormat="1">
       <c r="B127" s="110"/>
     </row>
-    <row r="128" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:10" s="139" customFormat="1">
       <c r="B128" s="110"/>
     </row>
-    <row r="129" spans="1:25" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:25" s="139" customFormat="1">
       <c r="B129" s="110"/>
       <c r="D129" s="139">
         <v>1222</v>
@@ -6949,40 +6986,40 @@
         <v>60</v>
       </c>
     </row>
-    <row r="130" spans="1:25" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:25" s="139" customFormat="1">
       <c r="B130" s="110"/>
     </row>
-    <row r="131" spans="1:25" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:25" s="139" customFormat="1">
       <c r="B131" s="110"/>
     </row>
-    <row r="132" spans="1:25" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:25" s="139" customFormat="1">
       <c r="B132" s="110"/>
     </row>
-    <row r="133" spans="1:25" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:25" s="139" customFormat="1">
       <c r="B133" s="110"/>
     </row>
-    <row r="134" spans="1:25" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:25" s="139" customFormat="1">
       <c r="B134" s="110"/>
     </row>
-    <row r="135" spans="1:25" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:25" s="139" customFormat="1">
       <c r="B135" s="110"/>
     </row>
-    <row r="136" spans="1:25" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:25" s="139" customFormat="1">
       <c r="B136" s="110"/>
     </row>
-    <row r="137" spans="1:25" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:25" s="139" customFormat="1">
       <c r="B137" s="110"/>
     </row>
-    <row r="138" spans="1:25" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:25" s="139" customFormat="1">
       <c r="B138" s="110"/>
     </row>
-    <row r="139" spans="1:25" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:25" s="139" customFormat="1">
       <c r="B139" s="110"/>
     </row>
-    <row r="140" spans="1:25" s="139" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:25" s="139" customFormat="1" ht="17" thickBot="1">
       <c r="B140" s="110"/>
     </row>
-    <row r="141" spans="1:25" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:25" s="26" customFormat="1">
       <c r="A141"/>
       <c r="B141" s="112"/>
       <c r="C141" s="113" t="s">
@@ -7011,7 +7048,7 @@
       <c r="T141" s="113"/>
       <c r="U141" s="113"/>
     </row>
-    <row r="142" spans="1:25" s="142" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:25" s="142" customFormat="1">
       <c r="B142" s="110"/>
       <c r="C142" s="170"/>
       <c r="D142" s="171"/>
@@ -7037,7 +7074,7 @@
       <c r="X142" s="171"/>
       <c r="Y142" s="171"/>
     </row>
-    <row r="143" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:25" customFormat="1">
       <c r="B143" s="110"/>
       <c r="C143" s="182" t="s">
         <v>117</v>
@@ -7064,7 +7101,7 @@
       <c r="W143" s="172"/>
       <c r="X143" s="172"/>
     </row>
-    <row r="144" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:25" customFormat="1">
       <c r="B144" s="110"/>
       <c r="C144" s="172"/>
       <c r="D144" s="172">
@@ -7093,7 +7130,7 @@
       <c r="W144" s="172"/>
       <c r="X144" s="172"/>
     </row>
-    <row r="145" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:24" customFormat="1">
       <c r="B145" s="110"/>
       <c r="C145" s="172"/>
       <c r="D145" s="172"/>
@@ -7118,7 +7155,7 @@
       <c r="W145" s="172"/>
       <c r="X145" s="172"/>
     </row>
-    <row r="146" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:24" customFormat="1">
       <c r="B146" s="110"/>
       <c r="C146" s="172"/>
       <c r="D146" s="172"/>
@@ -7143,7 +7180,7 @@
       <c r="W146" s="172"/>
       <c r="X146" s="172"/>
     </row>
-    <row r="147" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:24" customFormat="1">
       <c r="B147" s="110"/>
       <c r="C147" s="172"/>
       <c r="D147" s="172"/>
@@ -7168,7 +7205,7 @@
       <c r="W147" s="172"/>
       <c r="X147" s="172"/>
     </row>
-    <row r="148" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:24" customFormat="1">
       <c r="B148" s="110"/>
       <c r="C148" s="172"/>
       <c r="D148" s="172"/>
@@ -7195,7 +7232,7 @@
       <c r="W148" s="172"/>
       <c r="X148" s="172"/>
     </row>
-    <row r="149" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:24" customFormat="1">
       <c r="B149" s="110"/>
       <c r="C149" s="172"/>
       <c r="D149" s="172"/>
@@ -7220,7 +7257,7 @@
       <c r="W149" s="172"/>
       <c r="X149" s="172"/>
     </row>
-    <row r="150" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:24" customFormat="1">
       <c r="B150" s="110"/>
       <c r="C150" s="172"/>
       <c r="D150" s="175"/>
@@ -7249,7 +7286,7 @@
       <c r="W150" s="172"/>
       <c r="X150" s="172"/>
     </row>
-    <row r="151" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:24" customFormat="1">
       <c r="B151" s="110"/>
       <c r="C151" s="172"/>
       <c r="D151" s="175"/>
@@ -7280,7 +7317,7 @@
       <c r="W151" s="172"/>
       <c r="X151" s="172"/>
     </row>
-    <row r="152" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:24" customFormat="1">
       <c r="B152" s="110"/>
       <c r="C152" s="172"/>
       <c r="D152" s="175"/>
@@ -7311,7 +7348,7 @@
       <c r="W152" s="172"/>
       <c r="X152" s="172"/>
     </row>
-    <row r="153" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:24" customFormat="1">
       <c r="B153" s="110"/>
       <c r="C153" s="172"/>
       <c r="D153" s="175"/>
@@ -7340,7 +7377,7 @@
       <c r="W153" s="172"/>
       <c r="X153" s="172"/>
     </row>
-    <row r="154" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:24" customFormat="1">
       <c r="B154" s="110"/>
       <c r="C154" s="172"/>
       <c r="D154" s="175"/>
@@ -7373,7 +7410,7 @@
       <c r="W154" s="172"/>
       <c r="X154" s="172"/>
     </row>
-    <row r="155" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:24" customFormat="1">
       <c r="B155" s="110"/>
       <c r="C155" s="172"/>
       <c r="D155" s="175"/>
@@ -7406,7 +7443,7 @@
       <c r="W155" s="172"/>
       <c r="X155" s="172"/>
     </row>
-    <row r="156" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:24" customFormat="1">
       <c r="B156" s="110"/>
       <c r="C156" s="172"/>
       <c r="D156" s="175"/>
@@ -7437,7 +7474,7 @@
       <c r="W156" s="172"/>
       <c r="X156" s="172"/>
     </row>
-    <row r="157" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:24" customFormat="1">
       <c r="B157" s="110"/>
       <c r="C157" s="172"/>
       <c r="D157" s="175"/>
@@ -7473,7 +7510,7 @@
       <c r="W157" s="172"/>
       <c r="X157" s="172"/>
     </row>
-    <row r="158" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:24" customFormat="1">
       <c r="B158" s="110"/>
       <c r="C158" s="172"/>
       <c r="D158" s="175"/>
@@ -7509,7 +7546,7 @@
       <c r="W158" s="172"/>
       <c r="X158" s="172"/>
     </row>
-    <row r="159" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:24" customFormat="1">
       <c r="B159" s="110"/>
       <c r="C159" s="172"/>
       <c r="D159" s="175"/>
@@ -7537,7 +7574,7 @@
       <c r="W159" s="172"/>
       <c r="X159" s="172"/>
     </row>
-    <row r="160" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:24" customFormat="1">
       <c r="B160" s="110"/>
       <c r="C160" s="172"/>
       <c r="D160" s="175"/>
@@ -7571,7 +7608,7 @@
       <c r="W160" s="172"/>
       <c r="X160" s="172"/>
     </row>
-    <row r="161" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:24" customFormat="1">
       <c r="B161" s="110"/>
       <c r="C161" s="172"/>
       <c r="D161" s="172"/>
@@ -7596,7 +7633,7 @@
       <c r="W161" s="172"/>
       <c r="X161" s="172"/>
     </row>
-    <row r="162" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:24" customFormat="1">
       <c r="B162" s="110"/>
       <c r="C162" s="172"/>
       <c r="D162" s="172"/>
@@ -7621,7 +7658,7 @@
       <c r="W162" s="172"/>
       <c r="X162" s="172"/>
     </row>
-    <row r="163" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:24" customFormat="1">
       <c r="B163" s="110"/>
       <c r="C163" s="172"/>
       <c r="D163" s="172"/>
@@ -7646,7 +7683,7 @@
       <c r="W163" s="172"/>
       <c r="X163" s="172"/>
     </row>
-    <row r="164" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:24" customFormat="1">
       <c r="B164" s="110"/>
       <c r="C164" s="172"/>
       <c r="D164" s="172"/>
@@ -7671,7 +7708,7 @@
       <c r="W164" s="172"/>
       <c r="X164" s="172"/>
     </row>
-    <row r="165" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:24" customFormat="1">
       <c r="B165" s="110"/>
       <c r="C165" s="172"/>
       <c r="D165" s="172"/>
@@ -7696,7 +7733,7 @@
       <c r="W165" s="172"/>
       <c r="X165" s="172"/>
     </row>
-    <row r="166" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:24" customFormat="1">
       <c r="B166" s="110"/>
       <c r="C166" s="172"/>
       <c r="D166" s="172"/>
@@ -7721,7 +7758,7 @@
       <c r="W166" s="172"/>
       <c r="X166" s="172"/>
     </row>
-    <row r="167" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:24" customFormat="1">
       <c r="B167" s="110"/>
       <c r="C167" s="172"/>
       <c r="D167" s="172"/>
@@ -7746,7 +7783,7 @@
       <c r="W167" s="172"/>
       <c r="X167" s="172"/>
     </row>
-    <row r="168" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:24" customFormat="1">
       <c r="B168" s="110"/>
       <c r="C168" s="172"/>
       <c r="D168" s="172"/>
@@ -7771,7 +7808,7 @@
       <c r="W168" s="172"/>
       <c r="X168" s="172"/>
     </row>
-    <row r="169" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:24" customFormat="1">
       <c r="B169" s="110"/>
       <c r="C169" s="172"/>
       <c r="D169" s="172"/>
@@ -7796,7 +7833,7 @@
       <c r="W169" s="172"/>
       <c r="X169" s="172"/>
     </row>
-    <row r="170" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:24" customFormat="1">
       <c r="B170" s="110"/>
       <c r="C170" s="172"/>
       <c r="D170" s="172"/>
@@ -7821,7 +7858,7 @@
       <c r="W170" s="172"/>
       <c r="X170" s="172"/>
     </row>
-    <row r="171" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:24" customFormat="1">
       <c r="B171" s="110"/>
       <c r="C171" s="172"/>
       <c r="D171" s="172"/>
@@ -7846,7 +7883,7 @@
       <c r="W171" s="172"/>
       <c r="X171" s="172"/>
     </row>
-    <row r="172" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:24" customFormat="1">
       <c r="B172" s="110"/>
       <c r="C172" s="172"/>
       <c r="D172" s="172"/>
@@ -7871,7 +7908,7 @@
       <c r="W172" s="172"/>
       <c r="X172" s="172"/>
     </row>
-    <row r="173" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:24" customFormat="1">
       <c r="B173" s="110"/>
       <c r="C173" s="172"/>
       <c r="D173" s="172"/>
@@ -7896,7 +7933,7 @@
       <c r="W173" s="172"/>
       <c r="X173" s="172"/>
     </row>
-    <row r="174" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:24" customFormat="1">
       <c r="B174" s="110"/>
       <c r="C174" s="172"/>
       <c r="D174" s="172"/>
@@ -7921,7 +7958,7 @@
       <c r="W174" s="172"/>
       <c r="X174" s="172"/>
     </row>
-    <row r="175" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:24" customFormat="1">
       <c r="B175" s="110"/>
       <c r="C175" s="172"/>
       <c r="D175" s="172"/>
@@ -7946,7 +7983,7 @@
       <c r="W175" s="172"/>
       <c r="X175" s="172"/>
     </row>
-    <row r="176" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:24" customFormat="1">
       <c r="B176" s="110"/>
       <c r="C176" s="172"/>
       <c r="D176" s="172"/>
@@ -7971,7 +8008,7 @@
       <c r="W176" s="172"/>
       <c r="X176" s="172"/>
     </row>
-    <row r="177" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:25" customFormat="1">
       <c r="B177" s="110"/>
       <c r="C177" s="172"/>
       <c r="D177" s="172"/>
@@ -7996,7 +8033,7 @@
       <c r="W177" s="172"/>
       <c r="X177" s="172"/>
     </row>
-    <row r="178" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:25" customFormat="1">
       <c r="B178" s="110"/>
       <c r="C178" s="172"/>
       <c r="D178" s="172"/>
@@ -8021,7 +8058,7 @@
       <c r="W178" s="172"/>
       <c r="X178" s="172"/>
     </row>
-    <row r="179" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:25" customFormat="1">
       <c r="B179" s="110"/>
       <c r="C179" s="172"/>
       <c r="D179" s="172"/>
@@ -8046,7 +8083,7 @@
       <c r="W179" s="172"/>
       <c r="X179" s="172"/>
     </row>
-    <row r="180" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:25" customFormat="1">
       <c r="B180" s="110"/>
       <c r="C180" s="172"/>
       <c r="D180" s="172"/>
@@ -8071,7 +8108,7 @@
       <c r="W180" s="172"/>
       <c r="X180" s="172"/>
     </row>
-    <row r="181" spans="1:25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:25" customFormat="1" ht="17" thickBot="1">
       <c r="B181" s="110"/>
       <c r="C181" s="172"/>
       <c r="D181" s="172"/>
@@ -8096,7 +8133,7 @@
       <c r="W181" s="172"/>
       <c r="X181" s="172"/>
     </row>
-    <row r="182" spans="1:25" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:25" s="26" customFormat="1">
       <c r="A182"/>
       <c r="B182" s="112"/>
       <c r="C182" s="113" t="s">
@@ -8125,7 +8162,7 @@
       <c r="T182" s="113"/>
       <c r="U182" s="113"/>
     </row>
-    <row r="183" spans="1:25" s="142" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:25" s="142" customFormat="1">
       <c r="B183" s="110"/>
       <c r="C183" s="170"/>
       <c r="D183" s="171"/>
@@ -8151,7 +8188,7 @@
       <c r="X183" s="171"/>
       <c r="Y183" s="171"/>
     </row>
-    <row r="184" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:25" customFormat="1">
       <c r="B184" s="110"/>
       <c r="C184" s="172"/>
       <c r="D184" s="172"/>
@@ -8176,7 +8213,7 @@
       <c r="W184" s="172"/>
       <c r="X184" s="172"/>
     </row>
-    <row r="185" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:25" customFormat="1">
       <c r="B185" s="110"/>
       <c r="C185" s="172" t="s">
         <v>124</v>
@@ -8203,7 +8240,7 @@
       <c r="W185" s="172"/>
       <c r="X185" s="172"/>
     </row>
-    <row r="186" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:25" customFormat="1">
       <c r="B186" s="110"/>
       <c r="C186" s="172"/>
       <c r="D186" s="172"/>
@@ -8230,7 +8267,7 @@
       <c r="W186" s="172"/>
       <c r="X186" s="172"/>
     </row>
-    <row r="187" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:25" customFormat="1">
       <c r="B187" s="110"/>
       <c r="C187" s="172"/>
       <c r="D187" s="172"/>
@@ -8258,7 +8295,7 @@
       <c r="W187" s="172"/>
       <c r="X187" s="172"/>
     </row>
-    <row r="188" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:25" customFormat="1">
       <c r="B188" s="110"/>
       <c r="C188" s="172"/>
       <c r="D188" s="172" t="s">
@@ -8285,7 +8322,7 @@
       <c r="W188" s="172"/>
       <c r="X188" s="172"/>
     </row>
-    <row r="189" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:25" customFormat="1">
       <c r="B189" s="110"/>
       <c r="C189" s="172"/>
       <c r="D189" s="172"/>
@@ -8297,7 +8334,7 @@
         <v>17.600000000000001</v>
       </c>
       <c r="H189" s="172" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I189" s="172"/>
       <c r="J189" s="172"/>
@@ -8316,7 +8353,7 @@
       <c r="W189" s="172"/>
       <c r="X189" s="172"/>
     </row>
-    <row r="190" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:25" customFormat="1">
       <c r="B190" s="110"/>
       <c r="C190" s="172"/>
       <c r="D190" s="175"/>
@@ -8342,7 +8379,7 @@
       <c r="W190" s="172"/>
       <c r="X190" s="172"/>
     </row>
-    <row r="191" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:25" customFormat="1">
       <c r="B191" s="110"/>
       <c r="C191" s="172"/>
       <c r="D191" s="175"/>
@@ -8371,7 +8408,7 @@
       <c r="W191" s="172"/>
       <c r="X191" s="172"/>
     </row>
-    <row r="192" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:25" customFormat="1">
       <c r="B192" s="110"/>
       <c r="C192" s="172"/>
       <c r="D192" s="175"/>
@@ -8400,7 +8437,7 @@
       <c r="W192" s="172"/>
       <c r="X192" s="172"/>
     </row>
-    <row r="193" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:24" customFormat="1">
       <c r="B193" s="110"/>
       <c r="C193" s="172"/>
       <c r="D193" s="175"/>
@@ -8429,7 +8466,7 @@
       <c r="W193" s="172"/>
       <c r="X193" s="172"/>
     </row>
-    <row r="194" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:24" customFormat="1">
       <c r="B194" s="110"/>
       <c r="C194" s="172"/>
       <c r="D194" s="175"/>
@@ -8458,7 +8495,7 @@
       <c r="W194" s="172"/>
       <c r="X194" s="172"/>
     </row>
-    <row r="195" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:24" customFormat="1">
       <c r="B195" s="110"/>
       <c r="C195" s="172"/>
       <c r="D195" s="175"/>
@@ -8491,7 +8528,7 @@
       <c r="W195" s="172"/>
       <c r="X195" s="172"/>
     </row>
-    <row r="196" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:24" customFormat="1">
       <c r="B196" s="110"/>
       <c r="C196" s="172"/>
       <c r="D196" s="175"/>
@@ -8523,7 +8560,7 @@
       <c r="W196" s="172"/>
       <c r="X196" s="172"/>
     </row>
-    <row r="197" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:24" customFormat="1">
       <c r="B197" s="110"/>
       <c r="C197" s="172"/>
       <c r="D197" s="175"/>
@@ -8561,7 +8598,7 @@
       <c r="W197" s="172"/>
       <c r="X197" s="172"/>
     </row>
-    <row r="198" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:24" customFormat="1">
       <c r="B198" s="110"/>
       <c r="C198" s="172"/>
       <c r="D198" s="175"/>
@@ -8586,7 +8623,7 @@
       <c r="W198" s="172"/>
       <c r="X198" s="172"/>
     </row>
-    <row r="199" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:24" customFormat="1">
       <c r="B199" s="110"/>
       <c r="C199" s="172"/>
       <c r="D199" s="175"/>
@@ -8611,7 +8648,7 @@
       <c r="W199" s="172"/>
       <c r="X199" s="172"/>
     </row>
-    <row r="200" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:24" customFormat="1">
       <c r="B200" s="110"/>
       <c r="C200" s="172"/>
       <c r="D200" s="172"/>
@@ -8636,7 +8673,7 @@
       <c r="W200" s="172"/>
       <c r="X200" s="172"/>
     </row>
-    <row r="201" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:24" customFormat="1">
       <c r="B201" s="110"/>
       <c r="C201" s="172"/>
       <c r="D201" s="172"/>
@@ -8661,7 +8698,7 @@
       <c r="W201" s="172"/>
       <c r="X201" s="172"/>
     </row>
-    <row r="202" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:24" customFormat="1">
       <c r="B202" s="110"/>
       <c r="C202" s="172"/>
       <c r="D202" s="172"/>
@@ -8686,7 +8723,7 @@
       <c r="W202" s="172"/>
       <c r="X202" s="172"/>
     </row>
-    <row r="203" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:24" customFormat="1">
       <c r="B203" s="110"/>
       <c r="C203" s="172"/>
       <c r="D203" s="172"/>
@@ -8711,7 +8748,7 @@
       <c r="W203" s="172"/>
       <c r="X203" s="172"/>
     </row>
-    <row r="204" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:24" customFormat="1">
       <c r="B204" s="110"/>
       <c r="C204" s="172"/>
       <c r="D204" s="172"/>
@@ -8736,7 +8773,7 @@
       <c r="W204" s="172"/>
       <c r="X204" s="172"/>
     </row>
-    <row r="205" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:24" customFormat="1">
       <c r="B205" s="110"/>
       <c r="C205" s="172"/>
       <c r="D205" s="172"/>
@@ -8761,7 +8798,7 @@
       <c r="W205" s="172"/>
       <c r="X205" s="172"/>
     </row>
-    <row r="206" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:24" customFormat="1">
       <c r="B206" s="110"/>
       <c r="C206" s="172"/>
       <c r="D206" s="172"/>
@@ -8786,7 +8823,7 @@
       <c r="W206" s="172"/>
       <c r="X206" s="172"/>
     </row>
-    <row r="207" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:24" customFormat="1">
       <c r="B207" s="110"/>
       <c r="C207" s="172"/>
       <c r="D207" s="172"/>
@@ -8811,7 +8848,7 @@
       <c r="W207" s="172"/>
       <c r="X207" s="172"/>
     </row>
-    <row r="208" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:24" customFormat="1">
       <c r="B208" s="110"/>
       <c r="C208" s="172"/>
       <c r="D208" s="172"/>
@@ -8836,7 +8873,7 @@
       <c r="W208" s="172"/>
       <c r="X208" s="172"/>
     </row>
-    <row r="209" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:24" customFormat="1">
       <c r="B209" s="110"/>
       <c r="C209" s="172"/>
       <c r="D209" s="172"/>
@@ -8861,7 +8898,7 @@
       <c r="W209" s="172"/>
       <c r="X209" s="172"/>
     </row>
-    <row r="210" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:24" customFormat="1">
       <c r="B210" s="110"/>
       <c r="C210" s="172"/>
       <c r="D210" s="172"/>
@@ -8886,7 +8923,7 @@
       <c r="W210" s="172"/>
       <c r="X210" s="172"/>
     </row>
-    <row r="211" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:24" customFormat="1">
       <c r="B211" s="110"/>
       <c r="C211" s="172"/>
       <c r="D211" s="172"/>
@@ -8911,7 +8948,7 @@
       <c r="W211" s="172"/>
       <c r="X211" s="172"/>
     </row>
-    <row r="212" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:24" customFormat="1">
       <c r="B212" s="110"/>
       <c r="C212" s="172"/>
       <c r="D212" s="172"/>
@@ -8936,7 +8973,7 @@
       <c r="W212" s="172"/>
       <c r="X212" s="172"/>
     </row>
-    <row r="213" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:24" customFormat="1">
       <c r="B213" s="110"/>
       <c r="C213" s="172"/>
       <c r="D213" s="172"/>
@@ -8961,7 +8998,7 @@
       <c r="W213" s="172"/>
       <c r="X213" s="172"/>
     </row>
-    <row r="214" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:24" customFormat="1">
       <c r="B214" s="110"/>
       <c r="C214" s="172"/>
       <c r="D214" s="172"/>
@@ -8986,7 +9023,7 @@
       <c r="W214" s="172"/>
       <c r="X214" s="172"/>
     </row>
-    <row r="215" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:24" customFormat="1">
       <c r="B215" s="110"/>
       <c r="C215" s="172"/>
       <c r="D215" s="172"/>
@@ -9011,7 +9048,7 @@
       <c r="W215" s="172"/>
       <c r="X215" s="172"/>
     </row>
-    <row r="216" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:24" customFormat="1">
       <c r="B216" s="110"/>
       <c r="C216" s="172"/>
       <c r="D216" s="172"/>
@@ -9036,7 +9073,7 @@
       <c r="W216" s="172"/>
       <c r="X216" s="172"/>
     </row>
-    <row r="217" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:24" customFormat="1">
       <c r="B217" s="110"/>
       <c r="C217" s="172"/>
       <c r="D217" s="172"/>
@@ -9061,7 +9098,7 @@
       <c r="W217" s="172"/>
       <c r="X217" s="172"/>
     </row>
-    <row r="218" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:24" customFormat="1">
       <c r="B218" s="110"/>
       <c r="C218" s="172"/>
       <c r="D218" s="172"/>
@@ -9086,7 +9123,7 @@
       <c r="W218" s="172"/>
       <c r="X218" s="172"/>
     </row>
-    <row r="219" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:24" customFormat="1">
       <c r="B219" s="110"/>
       <c r="C219" s="172"/>
       <c r="D219" s="172"/>
@@ -9111,7 +9148,7 @@
       <c r="W219" s="172"/>
       <c r="X219" s="172"/>
     </row>
-    <row r="220" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:24" customFormat="1">
       <c r="B220" s="110"/>
       <c r="C220" s="172"/>
       <c r="D220" s="172"/>
@@ -9136,7 +9173,7 @@
       <c r="W220" s="172"/>
       <c r="X220" s="172"/>
     </row>
-    <row r="221" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:24" customFormat="1">
       <c r="B221" s="110"/>
       <c r="C221" s="172"/>
       <c r="D221" s="172"/>
@@ -9161,7 +9198,7 @@
       <c r="W221" s="172"/>
       <c r="X221" s="172"/>
     </row>
-    <row r="222" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:24" customFormat="1">
       <c r="B222" s="110"/>
       <c r="C222" s="172"/>
       <c r="D222" s="172"/>
@@ -9186,7 +9223,7 @@
       <c r="W222" s="172"/>
       <c r="X222" s="172"/>
     </row>
-    <row r="223" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:24" customFormat="1">
       <c r="B223" s="110"/>
       <c r="C223" s="172"/>
       <c r="D223" s="172"/>
@@ -9211,7 +9248,7 @@
       <c r="W223" s="172"/>
       <c r="X223" s="172"/>
     </row>
-    <row r="224" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:24" customFormat="1">
       <c r="B224" s="110"/>
       <c r="C224" s="172"/>
       <c r="D224" s="172"/>
@@ -9236,7 +9273,7 @@
       <c r="W224" s="172"/>
       <c r="X224" s="172"/>
     </row>
-    <row r="225" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:25" customFormat="1">
       <c r="B225" s="110"/>
       <c r="C225" s="172"/>
       <c r="D225" s="172"/>
@@ -9262,7 +9299,7 @@
       <c r="X225" s="172"/>
       <c r="Y225" s="172"/>
     </row>
-    <row r="226" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:25" customFormat="1">
       <c r="B226" s="110"/>
       <c r="C226" s="172"/>
       <c r="D226" s="172"/>
@@ -9288,7 +9325,7 @@
       <c r="X226" s="172"/>
       <c r="Y226" s="172"/>
     </row>
-    <row r="227" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:25" customFormat="1">
       <c r="B227" s="110"/>
       <c r="C227" s="172"/>
       <c r="D227" s="172"/>
@@ -9314,7 +9351,7 @@
       <c r="X227" s="172"/>
       <c r="Y227" s="172"/>
     </row>
-    <row r="228" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:25" customFormat="1">
       <c r="B228" s="110"/>
       <c r="C228" s="172"/>
       <c r="D228" s="172"/>
@@ -9340,10 +9377,10 @@
       <c r="X228" s="172"/>
       <c r="Y228" s="172"/>
     </row>
-    <row r="229" spans="1:25" s="139" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:25" s="139" customFormat="1" ht="17" thickBot="1">
       <c r="B229" s="110"/>
     </row>
-    <row r="230" spans="1:25" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:25" s="139" customFormat="1">
       <c r="B230" s="112"/>
       <c r="C230" s="113" t="s">
         <v>25</v>
@@ -9371,7 +9408,7 @@
       <c r="T230" s="113"/>
       <c r="U230" s="113"/>
     </row>
-    <row r="231" spans="1:25" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:25" s="139" customFormat="1">
       <c r="B231" s="110"/>
       <c r="C231" s="170"/>
       <c r="D231" s="171"/>
@@ -9393,7 +9430,7 @@
       <c r="T231" s="171"/>
       <c r="U231" s="171"/>
     </row>
-    <row r="232" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:25" customFormat="1">
       <c r="A232" s="139"/>
       <c r="B232" s="110"/>
       <c r="C232" s="172" t="s">
@@ -9421,7 +9458,7 @@
       <c r="W232" s="172"/>
       <c r="X232" s="172"/>
     </row>
-    <row r="233" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:25" customFormat="1">
       <c r="B233" s="110"/>
       <c r="C233" s="109"/>
       <c r="D233" s="174">
@@ -9448,7 +9485,7 @@
       <c r="W233" s="172"/>
       <c r="X233" s="172"/>
     </row>
-    <row r="234" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:25" customFormat="1">
       <c r="B234" s="110"/>
       <c r="C234" s="172"/>
       <c r="D234" s="172"/>
@@ -9473,7 +9510,7 @@
       <c r="W234" s="172"/>
       <c r="X234" s="172"/>
     </row>
-    <row r="235" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:25" customFormat="1">
       <c r="B235" s="110"/>
       <c r="C235" s="172"/>
       <c r="D235" s="172"/>
@@ -9505,7 +9542,7 @@
       <c r="W235" s="172"/>
       <c r="X235" s="172"/>
     </row>
-    <row r="236" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:25" customFormat="1">
       <c r="B236" s="110"/>
       <c r="C236" s="172"/>
       <c r="D236" s="172"/>
@@ -9537,7 +9574,7 @@
       <c r="W236" s="172"/>
       <c r="X236" s="172"/>
     </row>
-    <row r="237" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:25" customFormat="1">
       <c r="B237" s="110"/>
       <c r="C237" s="172"/>
       <c r="D237" s="172"/>
@@ -9562,7 +9599,7 @@
       <c r="W237" s="172"/>
       <c r="X237" s="172"/>
     </row>
-    <row r="238" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:25" customFormat="1">
       <c r="B238" s="110"/>
       <c r="C238" s="172"/>
       <c r="D238" s="172"/>
@@ -9587,7 +9624,7 @@
       <c r="W238" s="172"/>
       <c r="X238" s="172"/>
     </row>
-    <row r="239" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:25" customFormat="1">
       <c r="B239" s="110"/>
       <c r="C239" s="172"/>
       <c r="D239" s="172"/>
@@ -9612,7 +9649,7 @@
       <c r="W239" s="172"/>
       <c r="X239" s="172"/>
     </row>
-    <row r="240" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:25" customFormat="1">
       <c r="B240" s="110"/>
       <c r="C240" s="172"/>
       <c r="D240" s="172"/>
@@ -9637,7 +9674,7 @@
       <c r="W240" s="172"/>
       <c r="X240" s="172"/>
     </row>
-    <row r="241" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="2:24" customFormat="1">
       <c r="B241" s="110"/>
       <c r="C241" s="172"/>
       <c r="D241" s="172"/>
@@ -9662,7 +9699,7 @@
       <c r="W241" s="172"/>
       <c r="X241" s="172"/>
     </row>
-    <row r="242" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="2:24" customFormat="1">
       <c r="B242" s="110"/>
       <c r="C242" s="172"/>
       <c r="D242" s="172"/>
@@ -9687,7 +9724,7 @@
       <c r="W242" s="172"/>
       <c r="X242" s="172"/>
     </row>
-    <row r="243" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="2:24" customFormat="1">
       <c r="B243" s="110"/>
       <c r="C243" s="172"/>
       <c r="D243" s="172"/>
@@ -9712,7 +9749,7 @@
       <c r="W243" s="172"/>
       <c r="X243" s="172"/>
     </row>
-    <row r="244" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="2:24" customFormat="1">
       <c r="B244" s="110"/>
       <c r="C244" s="172"/>
       <c r="D244" s="172"/>
@@ -9737,7 +9774,7 @@
       <c r="W244" s="172"/>
       <c r="X244" s="172"/>
     </row>
-    <row r="245" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:24" customFormat="1">
       <c r="B245" s="110"/>
       <c r="C245" s="172"/>
       <c r="D245" s="172"/>
@@ -9762,7 +9799,7 @@
       <c r="W245" s="172"/>
       <c r="X245" s="172"/>
     </row>
-    <row r="246" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="2:24" customFormat="1">
       <c r="B246" s="110"/>
       <c r="C246" s="172"/>
       <c r="D246" s="172"/>
@@ -9787,7 +9824,7 @@
       <c r="W246" s="172"/>
       <c r="X246" s="172"/>
     </row>
-    <row r="247" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="2:24" customFormat="1">
       <c r="B247" s="110"/>
       <c r="C247" s="172"/>
       <c r="D247" s="172"/>
@@ -9812,7 +9849,7 @@
       <c r="W247" s="172"/>
       <c r="X247" s="172"/>
     </row>
-    <row r="248" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="2:24" customFormat="1">
       <c r="B248" s="110"/>
       <c r="C248" s="172"/>
       <c r="D248" s="172"/>
@@ -9837,7 +9874,7 @@
       <c r="W248" s="172"/>
       <c r="X248" s="172"/>
     </row>
-    <row r="249" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="2:24" customFormat="1">
       <c r="B249" s="110"/>
       <c r="C249" s="172"/>
       <c r="D249" s="172"/>
@@ -9862,7 +9899,7 @@
       <c r="W249" s="172"/>
       <c r="X249" s="172"/>
     </row>
-    <row r="250" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="2:24" customFormat="1">
       <c r="B250" s="110"/>
       <c r="C250" s="172"/>
       <c r="D250" s="172"/>
@@ -9887,7 +9924,7 @@
       <c r="W250" s="172"/>
       <c r="X250" s="172"/>
     </row>
-    <row r="251" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="2:24" customFormat="1">
       <c r="B251" s="110"/>
       <c r="C251" s="172"/>
       <c r="D251" s="172"/>
@@ -9912,7 +9949,7 @@
       <c r="W251" s="172"/>
       <c r="X251" s="172"/>
     </row>
-    <row r="252" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="2:24" customFormat="1">
       <c r="B252" s="110"/>
       <c r="C252" s="172"/>
       <c r="D252" s="172"/>
@@ -9937,7 +9974,7 @@
       <c r="W252" s="172"/>
       <c r="X252" s="172"/>
     </row>
-    <row r="253" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="2:24" customFormat="1">
       <c r="B253" s="110"/>
       <c r="C253" s="172"/>
       <c r="D253" s="172"/>
@@ -9962,7 +9999,7 @@
       <c r="W253" s="172"/>
       <c r="X253" s="172"/>
     </row>
-    <row r="254" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="2:24" customFormat="1">
       <c r="B254" s="110"/>
       <c r="C254" s="172"/>
       <c r="D254" s="172"/>
@@ -9987,7 +10024,7 @@
       <c r="W254" s="172"/>
       <c r="X254" s="172"/>
     </row>
-    <row r="255" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="2:24" customFormat="1">
       <c r="B255" s="110"/>
       <c r="C255" s="172"/>
       <c r="D255" s="172"/>
@@ -9997,7 +10034,7 @@
       <c r="H255" s="172"/>
       <c r="I255" s="175"/>
       <c r="J255" s="175" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K255" s="175" t="s">
         <v>97</v>
@@ -10005,7 +10042,7 @@
       <c r="L255" s="175"/>
       <c r="M255" s="175"/>
       <c r="N255" s="175" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O255" s="175" t="s">
         <v>98</v>
@@ -10020,7 +10057,7 @@
       <c r="W255" s="172"/>
       <c r="X255" s="172"/>
     </row>
-    <row r="256" spans="2:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="2:24" customFormat="1">
       <c r="B256" s="110"/>
       <c r="C256" s="172"/>
       <c r="D256" s="172"/>
@@ -10053,7 +10090,7 @@
       <c r="W256" s="172"/>
       <c r="X256" s="172"/>
     </row>
-    <row r="257" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:25" customFormat="1">
       <c r="B257" s="110"/>
       <c r="C257" s="172"/>
       <c r="D257" s="172"/>
@@ -10088,7 +10125,7 @@
       <c r="W257" s="172"/>
       <c r="X257" s="172"/>
     </row>
-    <row r="258" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:25" customFormat="1">
       <c r="B258" s="110"/>
       <c r="C258" s="172"/>
       <c r="D258" s="172"/>
@@ -10123,7 +10160,7 @@
       <c r="W258" s="172"/>
       <c r="X258" s="172"/>
     </row>
-    <row r="259" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:25" customFormat="1">
       <c r="B259" s="110"/>
       <c r="C259" s="172"/>
       <c r="D259" s="172"/>
@@ -10148,7 +10185,7 @@
       <c r="W259" s="172"/>
       <c r="X259" s="172"/>
     </row>
-    <row r="260" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:25" customFormat="1">
       <c r="B260" s="110"/>
       <c r="C260" s="172"/>
       <c r="D260" s="172"/>
@@ -10173,7 +10210,7 @@
       <c r="W260" s="172"/>
       <c r="X260" s="172"/>
     </row>
-    <row r="261" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:25" customFormat="1">
       <c r="B261" s="110"/>
       <c r="C261" s="172"/>
       <c r="D261" s="172"/>
@@ -10202,7 +10239,7 @@
       <c r="W261" s="172"/>
       <c r="X261" s="172"/>
     </row>
-    <row r="262" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:25" customFormat="1">
       <c r="B262" s="110"/>
       <c r="C262" s="172"/>
       <c r="D262" s="172"/>
@@ -10227,7 +10264,7 @@
       <c r="W262" s="172"/>
       <c r="X262" s="172"/>
     </row>
-    <row r="263" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:25" customFormat="1">
       <c r="B263" s="110"/>
       <c r="C263" s="172"/>
       <c r="D263" s="172"/>
@@ -10252,7 +10289,7 @@
       <c r="W263" s="172"/>
       <c r="X263" s="172"/>
     </row>
-    <row r="264" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:25">
       <c r="A264"/>
       <c r="B264" s="110"/>
       <c r="C264" s="172"/>
@@ -10274,7 +10311,7 @@
       <c r="S264" s="172"/>
       <c r="T264" s="172"/>
     </row>
-    <row r="265" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:25">
       <c r="A265"/>
       <c r="B265" s="110"/>
       <c r="C265" s="172"/>
@@ -10296,13 +10333,13 @@
       <c r="S265" s="172"/>
       <c r="T265" s="172"/>
     </row>
-    <row r="266" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:25">
       <c r="B266" s="110"/>
     </row>
-    <row r="267" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:25" ht="17" thickBot="1">
       <c r="B267" s="110"/>
     </row>
-    <row r="268" spans="1:25" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:25" s="26" customFormat="1">
       <c r="A268"/>
       <c r="B268" s="112"/>
       <c r="C268" s="113" t="s">
@@ -10331,7 +10368,7 @@
       <c r="T268" s="113"/>
       <c r="U268" s="113"/>
     </row>
-    <row r="269" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:25" customFormat="1">
       <c r="B269" s="110"/>
       <c r="C269" s="125"/>
       <c r="D269" s="122"/>
@@ -10357,25 +10394,25 @@
       <c r="X269" s="122"/>
       <c r="Y269" s="122"/>
     </row>
-    <row r="270" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:25">
       <c r="B270" s="110"/>
       <c r="C270" s="61" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="271" spans="1:25" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:25" s="139" customFormat="1">
       <c r="B271" s="110"/>
     </row>
-    <row r="272" spans="1:25" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:25" s="139" customFormat="1">
       <c r="B272" s="110"/>
     </row>
-    <row r="273" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="2:10" s="139" customFormat="1">
       <c r="B273" s="110"/>
       <c r="D273" s="139">
         <v>9</v>
       </c>
     </row>
-    <row r="274" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="2:10" s="139" customFormat="1">
       <c r="B274" s="110"/>
       <c r="F274" s="180" t="s">
         <v>105</v>
@@ -10387,7 +10424,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="275" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="2:10" s="139" customFormat="1">
       <c r="B275" s="110"/>
       <c r="H275" s="181">
         <f>H289*H274</f>
@@ -10397,7 +10434,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="276" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="2:10" s="139" customFormat="1">
       <c r="B276" s="110"/>
       <c r="H276" s="181">
         <f>H275*100</f>
@@ -10410,7 +10447,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="277" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="2:10" s="139" customFormat="1">
       <c r="B277" s="110"/>
       <c r="H277" s="181">
         <f>H276*H67</f>
@@ -10423,37 +10460,37 @@
         <v>138</v>
       </c>
     </row>
-    <row r="278" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="2:10" s="139" customFormat="1">
       <c r="B278" s="110"/>
     </row>
-    <row r="279" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="2:10" s="139" customFormat="1">
       <c r="B279" s="110"/>
     </row>
-    <row r="280" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="2:10" s="139" customFormat="1">
       <c r="B280" s="110"/>
     </row>
-    <row r="281" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="2:10" s="139" customFormat="1">
       <c r="B281" s="110"/>
     </row>
-    <row r="282" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="2:10" s="139" customFormat="1">
       <c r="B282" s="110"/>
     </row>
-    <row r="283" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="2:10" s="139" customFormat="1">
       <c r="B283" s="110"/>
     </row>
-    <row r="284" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="2:10" s="139" customFormat="1">
       <c r="B284" s="110"/>
     </row>
-    <row r="285" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="2:10" s="139" customFormat="1">
       <c r="B285" s="110"/>
     </row>
-    <row r="286" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="2:10" s="139" customFormat="1">
       <c r="B286" s="110"/>
     </row>
-    <row r="287" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="2:10" s="139" customFormat="1">
       <c r="B287" s="110"/>
     </row>
-    <row r="288" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="2:10" s="139" customFormat="1">
       <c r="B288" s="110"/>
       <c r="F288" s="140" t="s">
         <v>89</v>
@@ -10465,7 +10502,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="289" spans="2:9" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="2:9" s="139" customFormat="1">
       <c r="B289" s="110"/>
       <c r="H289" s="139">
         <f>H288*1000</f>
@@ -10475,169 +10512,169 @@
         <v>91</v>
       </c>
     </row>
-    <row r="290" spans="2:9" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="2:9" s="139" customFormat="1">
       <c r="B290" s="110"/>
     </row>
-    <row r="291" spans="2:9" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="2:9" s="139" customFormat="1">
       <c r="B291" s="110"/>
     </row>
-    <row r="292" spans="2:9" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="2:9" s="139" customFormat="1">
       <c r="B292" s="110"/>
     </row>
-    <row r="293" spans="2:9" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="2:9" s="139" customFormat="1">
       <c r="B293" s="110"/>
     </row>
-    <row r="294" spans="2:9" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="2:9" s="139" customFormat="1">
       <c r="B294" s="110"/>
     </row>
-    <row r="295" spans="2:9" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="2:9" s="139" customFormat="1">
       <c r="B295" s="110"/>
     </row>
-    <row r="296" spans="2:9" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="2:9" s="139" customFormat="1">
       <c r="B296" s="110"/>
     </row>
-    <row r="297" spans="2:9" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="2:9" s="139" customFormat="1">
       <c r="B297" s="110"/>
     </row>
-    <row r="298" spans="2:9" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="2:9" s="139" customFormat="1">
       <c r="B298" s="110"/>
     </row>
-    <row r="299" spans="2:9" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="2:9" s="139" customFormat="1">
       <c r="B299" s="110"/>
     </row>
-    <row r="300" spans="2:9" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="2:9" s="139" customFormat="1">
       <c r="B300" s="110"/>
     </row>
-    <row r="301" spans="2:9" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="2:9" s="139" customFormat="1">
       <c r="B301" s="110"/>
     </row>
-    <row r="302" spans="2:9" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="2:9" s="139" customFormat="1">
       <c r="B302" s="110"/>
     </row>
-    <row r="303" spans="2:9" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="2:9" s="139" customFormat="1">
       <c r="B303" s="110"/>
     </row>
-    <row r="304" spans="2:9" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="2:9" s="139" customFormat="1">
       <c r="B304" s="110"/>
     </row>
-    <row r="305" spans="2:2" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="2:2" s="139" customFormat="1">
       <c r="B305" s="110"/>
     </row>
-    <row r="306" spans="2:2" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="2:2" s="139" customFormat="1">
       <c r="B306" s="110"/>
     </row>
-    <row r="307" spans="2:2" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="2:2" s="139" customFormat="1">
       <c r="B307" s="110"/>
     </row>
-    <row r="308" spans="2:2" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="2:2" s="139" customFormat="1">
       <c r="B308" s="110"/>
     </row>
-    <row r="309" spans="2:2" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="2:2" s="139" customFormat="1">
       <c r="B309" s="110"/>
     </row>
-    <row r="310" spans="2:2" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="2:2" s="139" customFormat="1">
       <c r="B310" s="110"/>
     </row>
-    <row r="311" spans="2:2" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="2:2" s="139" customFormat="1">
       <c r="B311" s="110"/>
     </row>
-    <row r="312" spans="2:2" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="2:2" s="139" customFormat="1">
       <c r="B312" s="110"/>
     </row>
-    <row r="313" spans="2:2" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="2:2" s="139" customFormat="1">
       <c r="B313" s="110"/>
     </row>
-    <row r="314" spans="2:2" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="2:2" s="139" customFormat="1">
       <c r="B314" s="110"/>
     </row>
-    <row r="315" spans="2:2" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="2:2" s="139" customFormat="1">
       <c r="B315" s="110"/>
     </row>
-    <row r="316" spans="2:2" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="2:2" s="139" customFormat="1">
       <c r="B316" s="110"/>
     </row>
-    <row r="317" spans="2:2" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="2:2" s="139" customFormat="1">
       <c r="B317" s="110"/>
     </row>
-    <row r="318" spans="2:2" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="2:2" s="139" customFormat="1">
       <c r="B318" s="110"/>
     </row>
-    <row r="319" spans="2:2" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="2:2" s="139" customFormat="1">
       <c r="B319" s="110"/>
     </row>
-    <row r="320" spans="2:2" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="2:2" s="139" customFormat="1">
       <c r="B320" s="110"/>
     </row>
-    <row r="321" spans="2:2" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="2:2" s="139" customFormat="1">
       <c r="B321" s="110"/>
     </row>
-    <row r="322" spans="2:2" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="2:2" s="139" customFormat="1">
       <c r="B322" s="110"/>
     </row>
-    <row r="323" spans="2:2" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="2:2" s="139" customFormat="1">
       <c r="B323" s="110"/>
     </row>
-    <row r="324" spans="2:2" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="2:2" s="139" customFormat="1">
       <c r="B324" s="110"/>
     </row>
-    <row r="325" spans="2:2" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="2:2" s="139" customFormat="1">
       <c r="B325" s="110"/>
     </row>
-    <row r="326" spans="2:2" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="2:2" s="139" customFormat="1">
       <c r="B326" s="110"/>
     </row>
-    <row r="327" spans="2:2" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="2:2" s="139" customFormat="1">
       <c r="B327" s="110"/>
     </row>
-    <row r="328" spans="2:2" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="2:2" s="139" customFormat="1">
       <c r="B328" s="110"/>
     </row>
-    <row r="329" spans="2:2" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="2:2" s="139" customFormat="1">
       <c r="B329" s="110"/>
     </row>
-    <row r="330" spans="2:2" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="2:2" s="139" customFormat="1">
       <c r="B330" s="110"/>
     </row>
-    <row r="331" spans="2:2" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="2:2" s="139" customFormat="1">
       <c r="B331" s="110"/>
     </row>
-    <row r="332" spans="2:2" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="2:2" s="139" customFormat="1">
       <c r="B332" s="110"/>
     </row>
-    <row r="333" spans="2:2" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="2:2" s="139" customFormat="1">
       <c r="B333" s="110"/>
     </row>
-    <row r="334" spans="2:2" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="2:2" s="139" customFormat="1">
       <c r="B334" s="110"/>
     </row>
-    <row r="335" spans="2:2" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="2:2" s="139" customFormat="1">
       <c r="B335" s="110"/>
     </row>
-    <row r="336" spans="2:2" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="2:2" s="139" customFormat="1">
       <c r="B336" s="110"/>
     </row>
-    <row r="337" spans="2:23" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="2:23" s="139" customFormat="1">
       <c r="B337" s="110"/>
     </row>
-    <row r="338" spans="2:23" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="2:23" s="139" customFormat="1">
       <c r="B338" s="110"/>
     </row>
-    <row r="339" spans="2:23" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="2:23" s="139" customFormat="1">
       <c r="B339" s="110"/>
     </row>
-    <row r="340" spans="2:23" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="2:23" s="139" customFormat="1">
       <c r="B340" s="110"/>
     </row>
-    <row r="341" spans="2:23" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="2:23" s="139" customFormat="1">
       <c r="B341" s="110"/>
     </row>
-    <row r="342" spans="2:23" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="2:23" s="139" customFormat="1">
       <c r="B342" s="110"/>
     </row>
-    <row r="343" spans="2:23" s="139" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:23" s="139" customFormat="1" ht="17" thickBot="1">
       <c r="B343" s="110"/>
     </row>
-    <row r="344" spans="2:23" s="139" customFormat="1" ht="151" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:23" s="139" customFormat="1" ht="157" thickBot="1">
       <c r="B344" s="110"/>
       <c r="O344" s="141"/>
       <c r="P344" s="167" t="s">
@@ -10663,7 +10700,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="345" spans="2:23" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="2:23" s="139" customFormat="1">
       <c r="B345" s="110"/>
       <c r="O345" s="143" t="s">
         <v>74</v>
@@ -10679,7 +10716,7 @@
       <c r="V345" s="145"/>
       <c r="W345" s="146"/>
     </row>
-    <row r="346" spans="2:23" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="2:23" s="139" customFormat="1">
       <c r="B346" s="110"/>
       <c r="F346" s="139" t="s">
         <v>44</v>
@@ -10710,7 +10747,7 @@
       <c r="V346" s="149"/>
       <c r="W346" s="150"/>
     </row>
-    <row r="347" spans="2:23" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="2:23" s="139" customFormat="1">
       <c r="B347" s="110"/>
       <c r="F347" s="139" t="s">
         <v>45</v>
@@ -10738,7 +10775,7 @@
       <c r="V347" s="149"/>
       <c r="W347" s="150"/>
     </row>
-    <row r="348" spans="2:23" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="2:23" s="139" customFormat="1">
       <c r="B348" s="110"/>
       <c r="F348" s="139" t="s">
         <v>48</v>
@@ -10768,7 +10805,7 @@
       <c r="V348" s="154"/>
       <c r="W348" s="150"/>
     </row>
-    <row r="349" spans="2:23" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="2:23" s="139" customFormat="1">
       <c r="B349" s="110"/>
       <c r="F349" s="139" t="s">
         <v>47</v>
@@ -10798,7 +10835,7 @@
       <c r="V349" s="149"/>
       <c r="W349" s="155"/>
     </row>
-    <row r="350" spans="2:23" s="139" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:23" s="139" customFormat="1" ht="17" thickBot="1">
       <c r="B350" s="110"/>
       <c r="F350" s="139" t="s">
         <v>40</v>
@@ -10822,7 +10859,7 @@
       <c r="V350" s="157"/>
       <c r="W350" s="158"/>
     </row>
-    <row r="351" spans="2:23" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="2:23" s="139" customFormat="1">
       <c r="B351" s="110"/>
       <c r="F351" s="139" t="s">
         <v>46</v>
@@ -10847,7 +10884,7 @@
       <c r="V351" s="145"/>
       <c r="W351" s="146"/>
     </row>
-    <row r="352" spans="2:23" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="2:23" s="139" customFormat="1">
       <c r="B352" s="110"/>
       <c r="O352" s="147" t="s">
         <v>75</v>
@@ -10863,7 +10900,7 @@
       <c r="V352" s="149"/>
       <c r="W352" s="150"/>
     </row>
-    <row r="353" spans="2:23" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="2:23" s="139" customFormat="1">
       <c r="B353" s="110"/>
       <c r="O353" s="147" t="s">
         <v>77</v>
@@ -10883,7 +10920,7 @@
       <c r="V353" s="149"/>
       <c r="W353" s="150"/>
     </row>
-    <row r="354" spans="2:23" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="2:23" s="139" customFormat="1">
       <c r="B354" s="110"/>
       <c r="O354" s="147" t="s">
         <v>79</v>
@@ -10897,7 +10934,7 @@
       <c r="V354" s="149"/>
       <c r="W354" s="150"/>
     </row>
-    <row r="355" spans="2:23" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="2:23" s="139" customFormat="1">
       <c r="B355" s="110"/>
       <c r="O355" s="147" t="s">
         <v>80</v>
@@ -10917,7 +10954,7 @@
       <c r="V355" s="149"/>
       <c r="W355" s="155"/>
     </row>
-    <row r="356" spans="2:23" s="139" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:23" s="139" customFormat="1" ht="17" thickBot="1">
       <c r="B356" s="110"/>
       <c r="O356" s="135" t="s">
         <v>81</v>
@@ -10933,7 +10970,7 @@
       <c r="V356" s="157"/>
       <c r="W356" s="158"/>
     </row>
-    <row r="357" spans="2:23" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="2:23" s="139" customFormat="1">
       <c r="B357" s="110"/>
       <c r="O357" s="143" t="s">
         <v>83</v>
@@ -10949,7 +10986,7 @@
       <c r="V357" s="145"/>
       <c r="W357" s="146"/>
     </row>
-    <row r="358" spans="2:23" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="2:23" s="139" customFormat="1">
       <c r="B358" s="110"/>
       <c r="O358" s="147" t="s">
         <v>75</v>
@@ -10969,7 +11006,7 @@
       <c r="V358" s="149"/>
       <c r="W358" s="155"/>
     </row>
-    <row r="359" spans="2:23" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="2:23" s="139" customFormat="1">
       <c r="B359" s="110"/>
       <c r="O359" s="147" t="s">
         <v>77</v>
@@ -10985,7 +11022,7 @@
       <c r="V359" s="149"/>
       <c r="W359" s="155"/>
     </row>
-    <row r="360" spans="2:23" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="2:23" s="139" customFormat="1">
       <c r="B360" s="110"/>
       <c r="O360" s="147" t="s">
         <v>79</v>
@@ -10999,7 +11036,7 @@
       <c r="V360" s="149"/>
       <c r="W360" s="155"/>
     </row>
-    <row r="361" spans="2:23" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="2:23" s="139" customFormat="1">
       <c r="B361" s="110"/>
       <c r="O361" s="147" t="s">
         <v>80</v>
@@ -11019,7 +11056,7 @@
       <c r="V361" s="149"/>
       <c r="W361" s="155"/>
     </row>
-    <row r="362" spans="2:23" s="139" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:23" s="139" customFormat="1" ht="17" thickBot="1">
       <c r="B362" s="110"/>
       <c r="O362" s="135" t="s">
         <v>81</v>
@@ -11033,7 +11070,7 @@
       <c r="V362" s="157"/>
       <c r="W362" s="158"/>
     </row>
-    <row r="363" spans="2:23" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="2:23" s="139" customFormat="1">
       <c r="B363" s="110"/>
       <c r="O363" s="143" t="s">
         <v>84</v>
@@ -11049,7 +11086,7 @@
       <c r="V363" s="162"/>
       <c r="W363" s="163"/>
     </row>
-    <row r="364" spans="2:23" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="2:23" s="139" customFormat="1">
       <c r="B364" s="110"/>
       <c r="O364" s="147" t="s">
         <v>75</v>
@@ -11065,7 +11102,7 @@
       <c r="V364" s="149"/>
       <c r="W364" s="155"/>
     </row>
-    <row r="365" spans="2:23" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="2:23" s="139" customFormat="1">
       <c r="B365" s="110"/>
       <c r="O365" s="147" t="s">
         <v>77</v>
@@ -11085,7 +11122,7 @@
         <v>2.8648369907752248E-2</v>
       </c>
     </row>
-    <row r="366" spans="2:23" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="2:23" s="139" customFormat="1">
       <c r="B366" s="110"/>
       <c r="O366" s="147" t="s">
         <v>79</v>
@@ -11099,7 +11136,7 @@
       <c r="V366" s="149"/>
       <c r="W366" s="155"/>
     </row>
-    <row r="367" spans="2:23" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="2:23" s="139" customFormat="1">
       <c r="B367" s="110"/>
       <c r="O367" s="147" t="s">
         <v>80</v>
@@ -11119,7 +11156,7 @@
       <c r="V367" s="149"/>
       <c r="W367" s="155"/>
     </row>
-    <row r="368" spans="2:23" s="139" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:23" s="139" customFormat="1" ht="17" thickBot="1">
       <c r="B368" s="110"/>
       <c r="O368" s="135" t="s">
         <v>81</v>
@@ -11137,7 +11174,7 @@
       <c r="V368" s="165"/>
       <c r="W368" s="166"/>
     </row>
-    <row r="369" spans="1:25" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:25" s="139" customFormat="1">
       <c r="B369" s="110"/>
       <c r="O369" s="143" t="s">
         <v>85</v>
@@ -11153,7 +11190,7 @@
       <c r="V369" s="145"/>
       <c r="W369" s="146"/>
     </row>
-    <row r="370" spans="1:25" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:25" s="139" customFormat="1">
       <c r="B370" s="110"/>
       <c r="O370" s="147" t="s">
         <v>75</v>
@@ -11169,7 +11206,7 @@
       <c r="V370" s="149"/>
       <c r="W370" s="150"/>
     </row>
-    <row r="371" spans="1:25" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:25" s="139" customFormat="1">
       <c r="B371" s="110"/>
       <c r="O371" s="147" t="s">
         <v>77</v>
@@ -11185,7 +11222,7 @@
       <c r="V371" s="149"/>
       <c r="W371" s="150"/>
     </row>
-    <row r="372" spans="1:25" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:25" s="139" customFormat="1">
       <c r="B372" s="110"/>
       <c r="O372" s="147" t="s">
         <v>79</v>
@@ -11199,7 +11236,7 @@
       <c r="V372" s="149"/>
       <c r="W372" s="150"/>
     </row>
-    <row r="373" spans="1:25" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:25" s="139" customFormat="1">
       <c r="B373" s="110"/>
       <c r="O373" s="147" t="s">
         <v>80</v>
@@ -11213,7 +11250,7 @@
       <c r="V373" s="149"/>
       <c r="W373" s="150"/>
     </row>
-    <row r="374" spans="1:25" s="139" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:25" s="139" customFormat="1" ht="17" thickBot="1">
       <c r="B374" s="110"/>
       <c r="O374" s="135" t="s">
         <v>81</v>
@@ -11227,16 +11264,16 @@
       <c r="V374" s="157"/>
       <c r="W374" s="158"/>
     </row>
-    <row r="375" spans="1:25" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:25" s="139" customFormat="1">
       <c r="B375" s="110"/>
     </row>
-    <row r="376" spans="1:25" s="139" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:25" s="139" customFormat="1">
       <c r="B376" s="110"/>
     </row>
-    <row r="377" spans="1:25" s="139" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:25" s="139" customFormat="1" ht="17" thickBot="1">
       <c r="B377" s="110"/>
     </row>
-    <row r="378" spans="1:25" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:25" s="26" customFormat="1">
       <c r="A378"/>
       <c r="B378" s="112"/>
       <c r="C378" s="113" t="s">
@@ -11265,7 +11302,7 @@
       <c r="T378" s="113"/>
       <c r="U378" s="113"/>
     </row>
-    <row r="379" spans="1:25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:25" customFormat="1" ht="17" thickBot="1">
       <c r="B379" s="110"/>
       <c r="C379" s="125"/>
       <c r="D379" s="122"/>
@@ -11291,23 +11328,23 @@
       <c r="X379" s="122"/>
       <c r="Y379" s="122"/>
     </row>
-    <row r="380" spans="1:25" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:25" customFormat="1" ht="18" thickTop="1" thickBot="1">
       <c r="B380" s="110"/>
-      <c r="C380" s="248" t="s">
-        <v>177</v>
+      <c r="C380" s="234" t="s">
+        <v>176</v>
       </c>
       <c r="D380" s="122"/>
       <c r="E380" s="122"/>
-      <c r="F380" s="259">
+      <c r="F380" s="242">
         <v>158.06</v>
       </c>
       <c r="G380" s="122" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H380" s="122"/>
       <c r="I380" s="122"/>
-      <c r="J380" s="192" t="s">
-        <v>178</v>
+      <c r="J380" s="191" t="s">
+        <v>177</v>
       </c>
       <c r="K380" s="122"/>
       <c r="L380" s="122"/>
@@ -11325,17 +11362,17 @@
       <c r="X380" s="122"/>
       <c r="Y380" s="122"/>
     </row>
-    <row r="381" spans="1:25" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:25" customFormat="1" ht="18" thickTop="1" thickBot="1">
       <c r="B381" s="110"/>
       <c r="C381" s="125"/>
       <c r="D381" s="122"/>
       <c r="E381" s="122"/>
-      <c r="F381" s="259">
+      <c r="F381" s="242">
         <f>Exchange_rates!E9</f>
         <v>1.1718999999999999</v>
       </c>
       <c r="G381" s="122" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H381" s="122"/>
       <c r="I381" s="122"/>
@@ -11356,7 +11393,7 @@
       <c r="X381" s="122"/>
       <c r="Y381" s="122"/>
     </row>
-    <row r="382" spans="1:25" customFormat="1" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:25" customFormat="1" ht="17" thickTop="1">
       <c r="B382" s="110"/>
       <c r="C382" s="125"/>
       <c r="D382" s="122"/>
@@ -11382,148 +11419,148 @@
       <c r="X382" s="122"/>
       <c r="Y382" s="122"/>
     </row>
-    <row r="383" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:25">
       <c r="B383" s="110"/>
-      <c r="F383" s="189">
+      <c r="F383" s="188">
         <f>F380/F381</f>
         <v>134.8749893335609</v>
       </c>
       <c r="G383" s="172" t="s">
-        <v>155</v>
-      </c>
-      <c r="H383" s="190"/>
-      <c r="I383" s="191"/>
-    </row>
-    <row r="384" spans="1:25" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+      <c r="H383" s="189"/>
+      <c r="I383" s="190"/>
+    </row>
+    <row r="384" spans="1:25">
       <c r="B384" s="110"/>
-      <c r="F384" s="205">
+      <c r="F384" s="204">
         <f>'Research data'!G8</f>
         <v>18</v>
       </c>
       <c r="G384" s="172" t="s">
         <v>53</v>
       </c>
-      <c r="H384" s="188"/>
-    </row>
-    <row r="385" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="H384" s="187"/>
+    </row>
+    <row r="385" spans="2:35">
       <c r="B385" s="110"/>
       <c r="F385" s="109">
         <f>F384*1000</f>
         <v>18000</v>
       </c>
-      <c r="G385" s="204" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="386" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="G385" s="203" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="386" spans="2:35">
       <c r="B386" s="110"/>
-      <c r="F386" s="206">
+      <c r="F386" s="205">
         <f>F383/F385</f>
         <v>7.4930549629756062E-3</v>
       </c>
     </row>
-    <row r="387" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="387" spans="2:35">
       <c r="B387" s="110"/>
     </row>
-    <row r="388" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="388" spans="2:35">
       <c r="B388" s="110"/>
     </row>
-    <row r="389" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="389" spans="2:35">
       <c r="B389" s="110"/>
     </row>
-    <row r="390" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="390" spans="2:35">
       <c r="B390" s="110"/>
     </row>
-    <row r="391" spans="2:35" s="225" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="392" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B392" s="226"/>
-      <c r="C392" s="227" t="s">
+    <row r="391" spans="2:35" s="223" customFormat="1" ht="17" thickBot="1"/>
+    <row r="392" spans="2:35" s="223" customFormat="1">
+      <c r="B392" s="224"/>
+      <c r="C392" s="225" t="s">
         <v>25</v>
       </c>
-      <c r="D392" s="227" t="s">
+      <c r="D392" s="225" t="s">
         <v>57</v>
       </c>
-      <c r="E392" s="227"/>
-      <c r="F392" s="227" t="s">
+      <c r="E392" s="225"/>
+      <c r="F392" s="225" t="s">
         <v>32</v>
       </c>
-      <c r="G392" s="227"/>
-      <c r="H392" s="227"/>
-      <c r="I392" s="227"/>
-      <c r="J392" s="227"/>
-      <c r="K392" s="227"/>
-      <c r="L392" s="227"/>
-      <c r="M392" s="227"/>
-      <c r="N392" s="227"/>
-      <c r="O392" s="227"/>
-      <c r="P392" s="227"/>
-      <c r="Q392" s="227"/>
-      <c r="R392" s="227"/>
-      <c r="S392" s="227"/>
-      <c r="T392" s="227"/>
-      <c r="U392" s="227"/>
-      <c r="V392" s="228"/>
-      <c r="W392" s="228"/>
-      <c r="X392" s="228"/>
-      <c r="Y392" s="228"/>
-      <c r="Z392" s="228"/>
-      <c r="AA392" s="228"/>
-      <c r="AB392" s="228"/>
-      <c r="AC392" s="228"/>
-      <c r="AD392" s="228"/>
-      <c r="AE392" s="228"/>
-      <c r="AF392" s="228"/>
-      <c r="AG392" s="228"/>
-      <c r="AH392" s="228"/>
-      <c r="AI392" s="228"/>
-    </row>
-    <row r="393" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B393" s="229"/>
-      <c r="C393" s="219"/>
-      <c r="D393" s="219"/>
-      <c r="E393" s="219"/>
-      <c r="F393" s="219"/>
-      <c r="G393" s="219"/>
-      <c r="H393" s="219"/>
-      <c r="I393" s="219"/>
-      <c r="J393" s="219"/>
-      <c r="K393" s="219"/>
-      <c r="L393" s="219"/>
-      <c r="M393" s="219"/>
-      <c r="N393" s="219"/>
-      <c r="O393" s="219"/>
-      <c r="P393" s="219"/>
-      <c r="Q393" s="219"/>
-      <c r="R393" s="219"/>
-      <c r="S393" s="219"/>
-      <c r="T393" s="219"/>
-      <c r="U393" s="219"/>
-      <c r="V393" s="219"/>
-      <c r="W393" s="219"/>
-      <c r="X393" s="219"/>
-      <c r="Y393" s="219"/>
-      <c r="Z393" s="219"/>
-      <c r="AA393" s="219"/>
-      <c r="AB393" s="219"/>
-      <c r="AC393" s="219"/>
-      <c r="AD393" s="219"/>
-      <c r="AE393" s="219"/>
-      <c r="AF393" s="219"/>
-      <c r="AG393" s="219"/>
-      <c r="AH393" s="219"/>
-      <c r="AI393" s="219"/>
-    </row>
-    <row r="394" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B394" s="229"/>
-      <c r="C394" s="230" t="s">
-        <v>172</v>
-      </c>
-      <c r="D394" s="231"/>
-      <c r="E394" s="231"/>
-      <c r="F394" s="231"/>
-      <c r="G394" s="231"/>
-      <c r="H394" s="231"/>
-      <c r="I394" s="231"/>
+      <c r="G392" s="225"/>
+      <c r="H392" s="225"/>
+      <c r="I392" s="225"/>
+      <c r="J392" s="225"/>
+      <c r="K392" s="225"/>
+      <c r="L392" s="225"/>
+      <c r="M392" s="225"/>
+      <c r="N392" s="225"/>
+      <c r="O392" s="225"/>
+      <c r="P392" s="225"/>
+      <c r="Q392" s="225"/>
+      <c r="R392" s="225"/>
+      <c r="S392" s="225"/>
+      <c r="T392" s="225"/>
+      <c r="U392" s="225"/>
+      <c r="V392" s="226"/>
+      <c r="W392" s="226"/>
+      <c r="X392" s="226"/>
+      <c r="Y392" s="226"/>
+      <c r="Z392" s="226"/>
+      <c r="AA392" s="226"/>
+      <c r="AB392" s="226"/>
+      <c r="AC392" s="226"/>
+      <c r="AD392" s="226"/>
+      <c r="AE392" s="226"/>
+      <c r="AF392" s="226"/>
+      <c r="AG392" s="226"/>
+      <c r="AH392" s="226"/>
+      <c r="AI392" s="226"/>
+    </row>
+    <row r="393" spans="2:35" s="223" customFormat="1">
+      <c r="B393" s="227"/>
+      <c r="C393" s="217"/>
+      <c r="D393" s="217"/>
+      <c r="E393" s="217"/>
+      <c r="F393" s="217"/>
+      <c r="G393" s="217"/>
+      <c r="H393" s="217"/>
+      <c r="I393" s="217"/>
+      <c r="J393" s="217"/>
+      <c r="K393" s="217"/>
+      <c r="L393" s="217"/>
+      <c r="M393" s="217"/>
+      <c r="N393" s="217"/>
+      <c r="O393" s="217"/>
+      <c r="P393" s="217"/>
+      <c r="Q393" s="217"/>
+      <c r="R393" s="217"/>
+      <c r="S393" s="217"/>
+      <c r="T393" s="217"/>
+      <c r="U393" s="217"/>
+      <c r="V393" s="217"/>
+      <c r="W393" s="217"/>
+      <c r="X393" s="217"/>
+      <c r="Y393" s="217"/>
+      <c r="Z393" s="217"/>
+      <c r="AA393" s="217"/>
+      <c r="AB393" s="217"/>
+      <c r="AC393" s="217"/>
+      <c r="AD393" s="217"/>
+      <c r="AE393" s="217"/>
+      <c r="AF393" s="217"/>
+      <c r="AG393" s="217"/>
+      <c r="AH393" s="217"/>
+      <c r="AI393" s="217"/>
+    </row>
+    <row r="394" spans="2:35" s="223" customFormat="1">
+      <c r="B394" s="227"/>
+      <c r="C394" s="228" t="s">
+        <v>171</v>
+      </c>
+      <c r="D394" s="229"/>
+      <c r="E394" s="229"/>
+      <c r="F394" s="229"/>
+      <c r="G394" s="229"/>
+      <c r="H394" s="229"/>
+      <c r="I394" s="229"/>
       <c r="J394" s="122"/>
       <c r="K394" s="122"/>
       <c r="L394" s="122"/>
@@ -11540,26 +11577,26 @@
       <c r="W394" s="122"/>
       <c r="X394" s="122"/>
       <c r="Y394" s="122"/>
-      <c r="Z394" s="232"/>
-      <c r="AA394" s="232"/>
-      <c r="AB394" s="232"/>
-      <c r="AC394" s="232"/>
-      <c r="AD394" s="232"/>
-      <c r="AE394" s="232"/>
-      <c r="AF394" s="232"/>
-      <c r="AG394" s="232"/>
-      <c r="AH394" s="232"/>
-      <c r="AI394" s="232"/>
-    </row>
-    <row r="395" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B395" s="229"/>
-      <c r="C395" s="231"/>
-      <c r="D395" s="231"/>
-      <c r="E395" s="231"/>
-      <c r="F395" s="231"/>
-      <c r="G395" s="231"/>
-      <c r="H395" s="231"/>
-      <c r="I395" s="231"/>
+      <c r="Z394" s="230"/>
+      <c r="AA394" s="230"/>
+      <c r="AB394" s="230"/>
+      <c r="AC394" s="230"/>
+      <c r="AD394" s="230"/>
+      <c r="AE394" s="230"/>
+      <c r="AF394" s="230"/>
+      <c r="AG394" s="230"/>
+      <c r="AH394" s="230"/>
+      <c r="AI394" s="230"/>
+    </row>
+    <row r="395" spans="2:35" s="223" customFormat="1">
+      <c r="B395" s="227"/>
+      <c r="C395" s="229"/>
+      <c r="D395" s="229"/>
+      <c r="E395" s="229"/>
+      <c r="F395" s="229"/>
+      <c r="G395" s="229"/>
+      <c r="H395" s="229"/>
+      <c r="I395" s="229"/>
       <c r="J395" s="122"/>
       <c r="K395" s="122"/>
       <c r="L395" s="122"/>
@@ -11576,26 +11613,26 @@
       <c r="W395" s="122"/>
       <c r="X395" s="122"/>
       <c r="Y395" s="122"/>
-      <c r="Z395" s="232"/>
-      <c r="AA395" s="232"/>
-      <c r="AB395" s="232"/>
-      <c r="AC395" s="232"/>
-      <c r="AD395" s="232"/>
-      <c r="AE395" s="232"/>
-      <c r="AF395" s="232"/>
-      <c r="AG395" s="232"/>
-      <c r="AH395" s="232"/>
-      <c r="AI395" s="232"/>
-    </row>
-    <row r="396" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B396" s="229"/>
-      <c r="C396" s="231"/>
-      <c r="D396" s="231"/>
-      <c r="E396" s="231"/>
-      <c r="F396" s="231"/>
-      <c r="G396" s="231"/>
-      <c r="H396" s="231"/>
-      <c r="I396" s="231"/>
+      <c r="Z395" s="230"/>
+      <c r="AA395" s="230"/>
+      <c r="AB395" s="230"/>
+      <c r="AC395" s="230"/>
+      <c r="AD395" s="230"/>
+      <c r="AE395" s="230"/>
+      <c r="AF395" s="230"/>
+      <c r="AG395" s="230"/>
+      <c r="AH395" s="230"/>
+      <c r="AI395" s="230"/>
+    </row>
+    <row r="396" spans="2:35" s="223" customFormat="1">
+      <c r="B396" s="227"/>
+      <c r="C396" s="229"/>
+      <c r="D396" s="229"/>
+      <c r="E396" s="229"/>
+      <c r="F396" s="229"/>
+      <c r="G396" s="229"/>
+      <c r="H396" s="229"/>
+      <c r="I396" s="229"/>
       <c r="J396" s="122"/>
       <c r="K396" s="122"/>
       <c r="L396" s="122"/>
@@ -11612,26 +11649,26 @@
       <c r="W396" s="122"/>
       <c r="X396" s="122"/>
       <c r="Y396" s="122"/>
-      <c r="Z396" s="232"/>
-      <c r="AA396" s="232"/>
-      <c r="AB396" s="232"/>
-      <c r="AC396" s="232"/>
-      <c r="AD396" s="232"/>
-      <c r="AE396" s="232"/>
-      <c r="AF396" s="232"/>
-      <c r="AG396" s="232"/>
-      <c r="AH396" s="232"/>
-      <c r="AI396" s="232"/>
-    </row>
-    <row r="397" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B397" s="229"/>
-      <c r="C397" s="231"/>
-      <c r="D397" s="231"/>
-      <c r="E397" s="231"/>
-      <c r="F397" s="231"/>
-      <c r="G397" s="231"/>
-      <c r="H397" s="231"/>
-      <c r="I397" s="231"/>
+      <c r="Z396" s="230"/>
+      <c r="AA396" s="230"/>
+      <c r="AB396" s="230"/>
+      <c r="AC396" s="230"/>
+      <c r="AD396" s="230"/>
+      <c r="AE396" s="230"/>
+      <c r="AF396" s="230"/>
+      <c r="AG396" s="230"/>
+      <c r="AH396" s="230"/>
+      <c r="AI396" s="230"/>
+    </row>
+    <row r="397" spans="2:35" s="223" customFormat="1">
+      <c r="B397" s="227"/>
+      <c r="C397" s="229"/>
+      <c r="D397" s="229"/>
+      <c r="E397" s="229"/>
+      <c r="F397" s="229"/>
+      <c r="G397" s="229"/>
+      <c r="H397" s="229"/>
+      <c r="I397" s="229"/>
       <c r="J397" s="122"/>
       <c r="K397" s="122"/>
       <c r="L397" s="122"/>
@@ -11648,26 +11685,26 @@
       <c r="W397" s="122"/>
       <c r="X397" s="122"/>
       <c r="Y397" s="122"/>
-      <c r="Z397" s="232"/>
-      <c r="AA397" s="232"/>
-      <c r="AB397" s="232"/>
-      <c r="AC397" s="232"/>
-      <c r="AD397" s="232"/>
-      <c r="AE397" s="232"/>
-      <c r="AF397" s="232"/>
-      <c r="AG397" s="232"/>
-      <c r="AH397" s="232"/>
-      <c r="AI397" s="232"/>
-    </row>
-    <row r="398" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B398" s="229"/>
-      <c r="C398" s="231"/>
-      <c r="D398" s="231"/>
-      <c r="E398" s="231"/>
-      <c r="F398" s="231"/>
-      <c r="G398" s="231"/>
-      <c r="H398" s="231"/>
-      <c r="I398" s="231"/>
+      <c r="Z397" s="230"/>
+      <c r="AA397" s="230"/>
+      <c r="AB397" s="230"/>
+      <c r="AC397" s="230"/>
+      <c r="AD397" s="230"/>
+      <c r="AE397" s="230"/>
+      <c r="AF397" s="230"/>
+      <c r="AG397" s="230"/>
+      <c r="AH397" s="230"/>
+      <c r="AI397" s="230"/>
+    </row>
+    <row r="398" spans="2:35" s="223" customFormat="1">
+      <c r="B398" s="227"/>
+      <c r="C398" s="229"/>
+      <c r="D398" s="229"/>
+      <c r="E398" s="229"/>
+      <c r="F398" s="229"/>
+      <c r="G398" s="229"/>
+      <c r="H398" s="229"/>
+      <c r="I398" s="229"/>
       <c r="J398" s="122"/>
       <c r="K398" s="122"/>
       <c r="L398" s="122"/>
@@ -11684,21 +11721,21 @@
       <c r="W398" s="122"/>
       <c r="X398" s="122"/>
       <c r="Y398" s="122"/>
-      <c r="Z398" s="232"/>
-      <c r="AA398" s="232"/>
-      <c r="AB398" s="232"/>
-      <c r="AC398" s="232"/>
-      <c r="AD398" s="232"/>
-      <c r="AE398" s="232"/>
-      <c r="AF398" s="232"/>
-      <c r="AG398" s="232"/>
-      <c r="AH398" s="232"/>
-      <c r="AI398" s="232"/>
-    </row>
-    <row r="399" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B399" s="229"/>
-      <c r="C399" s="231"/>
-      <c r="I399" s="231"/>
+      <c r="Z398" s="230"/>
+      <c r="AA398" s="230"/>
+      <c r="AB398" s="230"/>
+      <c r="AC398" s="230"/>
+      <c r="AD398" s="230"/>
+      <c r="AE398" s="230"/>
+      <c r="AF398" s="230"/>
+      <c r="AG398" s="230"/>
+      <c r="AH398" s="230"/>
+      <c r="AI398" s="230"/>
+    </row>
+    <row r="399" spans="2:35" s="223" customFormat="1">
+      <c r="B399" s="227"/>
+      <c r="C399" s="229"/>
+      <c r="I399" s="229"/>
       <c r="J399" s="122"/>
       <c r="K399" s="122"/>
       <c r="L399" s="122"/>
@@ -11715,21 +11752,21 @@
       <c r="W399" s="122"/>
       <c r="X399" s="122"/>
       <c r="Y399" s="122"/>
-      <c r="Z399" s="232"/>
-      <c r="AA399" s="232"/>
-      <c r="AB399" s="232"/>
-      <c r="AC399" s="232"/>
-      <c r="AD399" s="232"/>
-      <c r="AE399" s="232"/>
-      <c r="AF399" s="232"/>
-      <c r="AG399" s="232"/>
-      <c r="AH399" s="232"/>
-      <c r="AI399" s="232"/>
-    </row>
-    <row r="400" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B400" s="229"/>
-      <c r="C400" s="231"/>
-      <c r="I400" s="231"/>
+      <c r="Z399" s="230"/>
+      <c r="AA399" s="230"/>
+      <c r="AB399" s="230"/>
+      <c r="AC399" s="230"/>
+      <c r="AD399" s="230"/>
+      <c r="AE399" s="230"/>
+      <c r="AF399" s="230"/>
+      <c r="AG399" s="230"/>
+      <c r="AH399" s="230"/>
+      <c r="AI399" s="230"/>
+    </row>
+    <row r="400" spans="2:35" s="223" customFormat="1">
+      <c r="B400" s="227"/>
+      <c r="C400" s="229"/>
+      <c r="I400" s="229"/>
       <c r="J400" s="122"/>
       <c r="K400" s="122"/>
       <c r="L400" s="122"/>
@@ -11746,21 +11783,21 @@
       <c r="W400" s="122"/>
       <c r="X400" s="122"/>
       <c r="Y400" s="122"/>
-      <c r="Z400" s="232"/>
-      <c r="AA400" s="232"/>
-      <c r="AB400" s="232"/>
-      <c r="AC400" s="232"/>
-      <c r="AD400" s="232"/>
-      <c r="AE400" s="232"/>
-      <c r="AF400" s="232"/>
-      <c r="AG400" s="232"/>
-      <c r="AH400" s="232"/>
-      <c r="AI400" s="232"/>
-    </row>
-    <row r="401" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B401" s="229"/>
-      <c r="C401" s="231"/>
-      <c r="I401" s="231"/>
+      <c r="Z400" s="230"/>
+      <c r="AA400" s="230"/>
+      <c r="AB400" s="230"/>
+      <c r="AC400" s="230"/>
+      <c r="AD400" s="230"/>
+      <c r="AE400" s="230"/>
+      <c r="AF400" s="230"/>
+      <c r="AG400" s="230"/>
+      <c r="AH400" s="230"/>
+      <c r="AI400" s="230"/>
+    </row>
+    <row r="401" spans="2:35" s="223" customFormat="1">
+      <c r="B401" s="227"/>
+      <c r="C401" s="229"/>
+      <c r="I401" s="229"/>
       <c r="J401" s="122"/>
       <c r="K401" s="122"/>
       <c r="L401" s="122"/>
@@ -11777,19 +11814,19 @@
       <c r="W401" s="122"/>
       <c r="X401" s="122"/>
       <c r="Y401" s="122"/>
-      <c r="Z401" s="232"/>
-      <c r="AA401" s="232"/>
-      <c r="AB401" s="232"/>
-      <c r="AC401" s="232"/>
-      <c r="AD401" s="232"/>
-      <c r="AE401" s="232"/>
-      <c r="AF401" s="232"/>
-      <c r="AG401" s="232"/>
-      <c r="AH401" s="232"/>
-      <c r="AI401" s="232"/>
-    </row>
-    <row r="402" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B402" s="229"/>
+      <c r="Z401" s="230"/>
+      <c r="AA401" s="230"/>
+      <c r="AB401" s="230"/>
+      <c r="AC401" s="230"/>
+      <c r="AD401" s="230"/>
+      <c r="AE401" s="230"/>
+      <c r="AF401" s="230"/>
+      <c r="AG401" s="230"/>
+      <c r="AH401" s="230"/>
+      <c r="AI401" s="230"/>
+    </row>
+    <row r="402" spans="2:35" s="223" customFormat="1">
+      <c r="B402" s="227"/>
       <c r="C402" s="122"/>
       <c r="D402" s="122"/>
       <c r="E402" s="122"/>
@@ -11813,19 +11850,19 @@
       <c r="W402" s="122"/>
       <c r="X402" s="122"/>
       <c r="Y402" s="122"/>
-      <c r="Z402" s="232"/>
-      <c r="AA402" s="232"/>
-      <c r="AB402" s="232"/>
-      <c r="AC402" s="232"/>
-      <c r="AD402" s="232"/>
-      <c r="AE402" s="232"/>
-      <c r="AF402" s="232"/>
-      <c r="AG402" s="232"/>
-      <c r="AH402" s="232"/>
-      <c r="AI402" s="232"/>
-    </row>
-    <row r="403" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B403" s="229"/>
+      <c r="Z402" s="230"/>
+      <c r="AA402" s="230"/>
+      <c r="AB402" s="230"/>
+      <c r="AC402" s="230"/>
+      <c r="AD402" s="230"/>
+      <c r="AE402" s="230"/>
+      <c r="AF402" s="230"/>
+      <c r="AG402" s="230"/>
+      <c r="AH402" s="230"/>
+      <c r="AI402" s="230"/>
+    </row>
+    <row r="403" spans="2:35" s="223" customFormat="1">
+      <c r="B403" s="227"/>
       <c r="C403" s="122"/>
       <c r="D403" s="122"/>
       <c r="E403" s="122"/>
@@ -11849,19 +11886,19 @@
       <c r="W403" s="122"/>
       <c r="X403" s="122"/>
       <c r="Y403" s="122"/>
-      <c r="Z403" s="232"/>
-      <c r="AA403" s="232"/>
-      <c r="AB403" s="232"/>
-      <c r="AC403" s="232"/>
-      <c r="AD403" s="232"/>
-      <c r="AE403" s="232"/>
-      <c r="AF403" s="232"/>
-      <c r="AG403" s="232"/>
-      <c r="AH403" s="232"/>
-      <c r="AI403" s="232"/>
-    </row>
-    <row r="404" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B404" s="229"/>
+      <c r="Z403" s="230"/>
+      <c r="AA403" s="230"/>
+      <c r="AB403" s="230"/>
+      <c r="AC403" s="230"/>
+      <c r="AD403" s="230"/>
+      <c r="AE403" s="230"/>
+      <c r="AF403" s="230"/>
+      <c r="AG403" s="230"/>
+      <c r="AH403" s="230"/>
+      <c r="AI403" s="230"/>
+    </row>
+    <row r="404" spans="2:35" s="223" customFormat="1">
+      <c r="B404" s="227"/>
       <c r="C404" s="122"/>
       <c r="D404" s="122"/>
       <c r="E404" s="122"/>
@@ -11885,19 +11922,19 @@
       <c r="W404" s="122"/>
       <c r="X404" s="122"/>
       <c r="Y404" s="122"/>
-      <c r="Z404" s="232"/>
-      <c r="AA404" s="232"/>
-      <c r="AB404" s="232"/>
-      <c r="AC404" s="232"/>
-      <c r="AD404" s="232"/>
-      <c r="AE404" s="232"/>
-      <c r="AF404" s="232"/>
-      <c r="AG404" s="232"/>
-      <c r="AH404" s="232"/>
-      <c r="AI404" s="232"/>
-    </row>
-    <row r="405" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B405" s="229"/>
+      <c r="Z404" s="230"/>
+      <c r="AA404" s="230"/>
+      <c r="AB404" s="230"/>
+      <c r="AC404" s="230"/>
+      <c r="AD404" s="230"/>
+      <c r="AE404" s="230"/>
+      <c r="AF404" s="230"/>
+      <c r="AG404" s="230"/>
+      <c r="AH404" s="230"/>
+      <c r="AI404" s="230"/>
+    </row>
+    <row r="405" spans="2:35" s="223" customFormat="1">
+      <c r="B405" s="227"/>
       <c r="C405" s="122"/>
       <c r="D405" s="122"/>
       <c r="E405" s="122"/>
@@ -11921,19 +11958,19 @@
       <c r="W405" s="122"/>
       <c r="X405" s="122"/>
       <c r="Y405" s="122"/>
-      <c r="Z405" s="232"/>
-      <c r="AA405" s="232"/>
-      <c r="AB405" s="232"/>
-      <c r="AC405" s="232"/>
-      <c r="AD405" s="232"/>
-      <c r="AE405" s="232"/>
-      <c r="AF405" s="232"/>
-      <c r="AG405" s="232"/>
-      <c r="AH405" s="232"/>
-      <c r="AI405" s="232"/>
-    </row>
-    <row r="406" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B406" s="229"/>
+      <c r="Z405" s="230"/>
+      <c r="AA405" s="230"/>
+      <c r="AB405" s="230"/>
+      <c r="AC405" s="230"/>
+      <c r="AD405" s="230"/>
+      <c r="AE405" s="230"/>
+      <c r="AF405" s="230"/>
+      <c r="AG405" s="230"/>
+      <c r="AH405" s="230"/>
+      <c r="AI405" s="230"/>
+    </row>
+    <row r="406" spans="2:35" s="223" customFormat="1">
+      <c r="B406" s="227"/>
       <c r="C406" s="122"/>
       <c r="D406" s="122"/>
       <c r="E406" s="122"/>
@@ -11957,19 +11994,19 @@
       <c r="W406" s="122"/>
       <c r="X406" s="122"/>
       <c r="Y406" s="122"/>
-      <c r="Z406" s="232"/>
-      <c r="AA406" s="232"/>
-      <c r="AB406" s="232"/>
-      <c r="AC406" s="232"/>
-      <c r="AD406" s="232"/>
-      <c r="AE406" s="232"/>
-      <c r="AF406" s="232"/>
-      <c r="AG406" s="232"/>
-      <c r="AH406" s="232"/>
-      <c r="AI406" s="232"/>
-    </row>
-    <row r="407" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B407" s="229"/>
+      <c r="Z406" s="230"/>
+      <c r="AA406" s="230"/>
+      <c r="AB406" s="230"/>
+      <c r="AC406" s="230"/>
+      <c r="AD406" s="230"/>
+      <c r="AE406" s="230"/>
+      <c r="AF406" s="230"/>
+      <c r="AG406" s="230"/>
+      <c r="AH406" s="230"/>
+      <c r="AI406" s="230"/>
+    </row>
+    <row r="407" spans="2:35" s="223" customFormat="1">
+      <c r="B407" s="227"/>
       <c r="C407" s="122"/>
       <c r="D407" s="122"/>
       <c r="E407" s="122"/>
@@ -11993,19 +12030,19 @@
       <c r="W407" s="122"/>
       <c r="X407" s="122"/>
       <c r="Y407" s="122"/>
-      <c r="Z407" s="232"/>
-      <c r="AA407" s="232"/>
-      <c r="AB407" s="232"/>
-      <c r="AC407" s="232"/>
-      <c r="AD407" s="232"/>
-      <c r="AE407" s="232"/>
-      <c r="AF407" s="232"/>
-      <c r="AG407" s="232"/>
-      <c r="AH407" s="232"/>
-      <c r="AI407" s="232"/>
-    </row>
-    <row r="408" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B408" s="229"/>
+      <c r="Z407" s="230"/>
+      <c r="AA407" s="230"/>
+      <c r="AB407" s="230"/>
+      <c r="AC407" s="230"/>
+      <c r="AD407" s="230"/>
+      <c r="AE407" s="230"/>
+      <c r="AF407" s="230"/>
+      <c r="AG407" s="230"/>
+      <c r="AH407" s="230"/>
+      <c r="AI407" s="230"/>
+    </row>
+    <row r="408" spans="2:35" s="223" customFormat="1">
+      <c r="B408" s="227"/>
       <c r="C408" s="122"/>
       <c r="D408" s="122"/>
       <c r="E408" s="122"/>
@@ -12029,19 +12066,19 @@
       <c r="W408" s="122"/>
       <c r="X408" s="122"/>
       <c r="Y408" s="122"/>
-      <c r="Z408" s="232"/>
-      <c r="AA408" s="232"/>
-      <c r="AB408" s="232"/>
-      <c r="AC408" s="232"/>
-      <c r="AD408" s="232"/>
-      <c r="AE408" s="232"/>
-      <c r="AF408" s="232"/>
-      <c r="AG408" s="232"/>
-      <c r="AH408" s="232"/>
-      <c r="AI408" s="232"/>
-    </row>
-    <row r="409" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B409" s="229"/>
+      <c r="Z408" s="230"/>
+      <c r="AA408" s="230"/>
+      <c r="AB408" s="230"/>
+      <c r="AC408" s="230"/>
+      <c r="AD408" s="230"/>
+      <c r="AE408" s="230"/>
+      <c r="AF408" s="230"/>
+      <c r="AG408" s="230"/>
+      <c r="AH408" s="230"/>
+      <c r="AI408" s="230"/>
+    </row>
+    <row r="409" spans="2:35" s="223" customFormat="1">
+      <c r="B409" s="227"/>
       <c r="C409" s="122"/>
       <c r="D409" s="122"/>
       <c r="E409" s="122"/>
@@ -12065,19 +12102,19 @@
       <c r="W409" s="122"/>
       <c r="X409" s="122"/>
       <c r="Y409" s="122"/>
-      <c r="Z409" s="232"/>
-      <c r="AA409" s="232"/>
-      <c r="AB409" s="232"/>
-      <c r="AC409" s="232"/>
-      <c r="AD409" s="232"/>
-      <c r="AE409" s="232"/>
-      <c r="AF409" s="232"/>
-      <c r="AG409" s="232"/>
-      <c r="AH409" s="232"/>
-      <c r="AI409" s="232"/>
-    </row>
-    <row r="410" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B410" s="229"/>
+      <c r="Z409" s="230"/>
+      <c r="AA409" s="230"/>
+      <c r="AB409" s="230"/>
+      <c r="AC409" s="230"/>
+      <c r="AD409" s="230"/>
+      <c r="AE409" s="230"/>
+      <c r="AF409" s="230"/>
+      <c r="AG409" s="230"/>
+      <c r="AH409" s="230"/>
+      <c r="AI409" s="230"/>
+    </row>
+    <row r="410" spans="2:35" s="223" customFormat="1">
+      <c r="B410" s="227"/>
       <c r="C410" s="122"/>
       <c r="D410" s="122"/>
       <c r="E410" s="122"/>
@@ -12101,19 +12138,19 @@
       <c r="W410" s="122"/>
       <c r="X410" s="122"/>
       <c r="Y410" s="122"/>
-      <c r="Z410" s="232"/>
-      <c r="AA410" s="232"/>
-      <c r="AB410" s="232"/>
-      <c r="AC410" s="232"/>
-      <c r="AD410" s="232"/>
-      <c r="AE410" s="232"/>
-      <c r="AF410" s="232"/>
-      <c r="AG410" s="232"/>
-      <c r="AH410" s="232"/>
-      <c r="AI410" s="232"/>
-    </row>
-    <row r="411" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B411" s="229"/>
+      <c r="Z410" s="230"/>
+      <c r="AA410" s="230"/>
+      <c r="AB410" s="230"/>
+      <c r="AC410" s="230"/>
+      <c r="AD410" s="230"/>
+      <c r="AE410" s="230"/>
+      <c r="AF410" s="230"/>
+      <c r="AG410" s="230"/>
+      <c r="AH410" s="230"/>
+      <c r="AI410" s="230"/>
+    </row>
+    <row r="411" spans="2:35" s="223" customFormat="1">
+      <c r="B411" s="227"/>
       <c r="C411" s="122"/>
       <c r="D411" s="122"/>
       <c r="E411" s="122"/>
@@ -12137,19 +12174,19 @@
       <c r="W411" s="122"/>
       <c r="X411" s="122"/>
       <c r="Y411" s="122"/>
-      <c r="Z411" s="232"/>
-      <c r="AA411" s="232"/>
-      <c r="AB411" s="232"/>
-      <c r="AC411" s="232"/>
-      <c r="AD411" s="232"/>
-      <c r="AE411" s="232"/>
-      <c r="AF411" s="232"/>
-      <c r="AG411" s="232"/>
-      <c r="AH411" s="232"/>
-      <c r="AI411" s="232"/>
-    </row>
-    <row r="412" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B412" s="229"/>
+      <c r="Z411" s="230"/>
+      <c r="AA411" s="230"/>
+      <c r="AB411" s="230"/>
+      <c r="AC411" s="230"/>
+      <c r="AD411" s="230"/>
+      <c r="AE411" s="230"/>
+      <c r="AF411" s="230"/>
+      <c r="AG411" s="230"/>
+      <c r="AH411" s="230"/>
+      <c r="AI411" s="230"/>
+    </row>
+    <row r="412" spans="2:35" s="223" customFormat="1">
+      <c r="B412" s="227"/>
       <c r="C412" s="122"/>
       <c r="D412" s="122"/>
       <c r="E412" s="122"/>
@@ -12173,19 +12210,19 @@
       <c r="W412" s="122"/>
       <c r="X412" s="122"/>
       <c r="Y412" s="122"/>
-      <c r="Z412" s="232"/>
-      <c r="AA412" s="232"/>
-      <c r="AB412" s="232"/>
-      <c r="AC412" s="232"/>
-      <c r="AD412" s="232"/>
-      <c r="AE412" s="232"/>
-      <c r="AF412" s="232"/>
-      <c r="AG412" s="232"/>
-      <c r="AH412" s="232"/>
-      <c r="AI412" s="232"/>
-    </row>
-    <row r="413" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B413" s="229"/>
+      <c r="Z412" s="230"/>
+      <c r="AA412" s="230"/>
+      <c r="AB412" s="230"/>
+      <c r="AC412" s="230"/>
+      <c r="AD412" s="230"/>
+      <c r="AE412" s="230"/>
+      <c r="AF412" s="230"/>
+      <c r="AG412" s="230"/>
+      <c r="AH412" s="230"/>
+      <c r="AI412" s="230"/>
+    </row>
+    <row r="413" spans="2:35" s="223" customFormat="1">
+      <c r="B413" s="227"/>
       <c r="C413" s="122"/>
       <c r="D413" s="122"/>
       <c r="E413" s="122"/>
@@ -12209,19 +12246,19 @@
       <c r="W413" s="122"/>
       <c r="X413" s="122"/>
       <c r="Y413" s="122"/>
-      <c r="Z413" s="232"/>
-      <c r="AA413" s="232"/>
-      <c r="AB413" s="232"/>
-      <c r="AC413" s="232"/>
-      <c r="AD413" s="232"/>
-      <c r="AE413" s="232"/>
-      <c r="AF413" s="232"/>
-      <c r="AG413" s="232"/>
-      <c r="AH413" s="232"/>
-      <c r="AI413" s="232"/>
-    </row>
-    <row r="414" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B414" s="229"/>
+      <c r="Z413" s="230"/>
+      <c r="AA413" s="230"/>
+      <c r="AB413" s="230"/>
+      <c r="AC413" s="230"/>
+      <c r="AD413" s="230"/>
+      <c r="AE413" s="230"/>
+      <c r="AF413" s="230"/>
+      <c r="AG413" s="230"/>
+      <c r="AH413" s="230"/>
+      <c r="AI413" s="230"/>
+    </row>
+    <row r="414" spans="2:35" s="223" customFormat="1">
+      <c r="B414" s="227"/>
       <c r="C414" s="122"/>
       <c r="D414" s="122"/>
       <c r="E414" s="122"/>
@@ -12245,33 +12282,33 @@
       <c r="W414" s="122"/>
       <c r="X414" s="122"/>
       <c r="Y414" s="122"/>
-      <c r="Z414" s="232"/>
-      <c r="AA414" s="232"/>
-      <c r="AB414" s="232"/>
-      <c r="AC414" s="232"/>
-      <c r="AD414" s="232"/>
-      <c r="AE414" s="232"/>
-      <c r="AF414" s="232"/>
-      <c r="AG414" s="232"/>
-      <c r="AH414" s="232"/>
-      <c r="AI414" s="232"/>
-    </row>
-    <row r="415" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B415" s="229"/>
+      <c r="Z414" s="230"/>
+      <c r="AA414" s="230"/>
+      <c r="AB414" s="230"/>
+      <c r="AC414" s="230"/>
+      <c r="AD414" s="230"/>
+      <c r="AE414" s="230"/>
+      <c r="AF414" s="230"/>
+      <c r="AG414" s="230"/>
+      <c r="AH414" s="230"/>
+      <c r="AI414" s="230"/>
+    </row>
+    <row r="415" spans="2:35" s="223" customFormat="1">
+      <c r="B415" s="227"/>
       <c r="C415" s="122"/>
-      <c r="D415" s="231">
+      <c r="D415" s="229">
         <v>1.24</v>
       </c>
-      <c r="E415" s="233"/>
-      <c r="F415" s="231"/>
-      <c r="G415" s="231">
+      <c r="E415" s="231"/>
+      <c r="F415" s="229"/>
+      <c r="G415" s="229">
         <v>112000</v>
       </c>
-      <c r="H415" s="231" t="s">
-        <v>173</v>
+      <c r="H415" s="229" t="s">
+        <v>172</v>
       </c>
       <c r="I415" s="122" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J415" s="122"/>
       <c r="K415" s="122"/>
@@ -12289,31 +12326,31 @@
       <c r="W415" s="122"/>
       <c r="X415" s="122"/>
       <c r="Y415" s="122"/>
-      <c r="Z415" s="232"/>
-      <c r="AA415" s="232"/>
-      <c r="AB415" s="232"/>
-      <c r="AC415" s="232"/>
-      <c r="AD415" s="232"/>
-      <c r="AE415" s="232"/>
-      <c r="AF415" s="232"/>
-      <c r="AG415" s="232"/>
-      <c r="AH415" s="232"/>
-      <c r="AI415" s="232"/>
-    </row>
-    <row r="416" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B416" s="229"/>
+      <c r="Z415" s="230"/>
+      <c r="AA415" s="230"/>
+      <c r="AB415" s="230"/>
+      <c r="AC415" s="230"/>
+      <c r="AD415" s="230"/>
+      <c r="AE415" s="230"/>
+      <c r="AF415" s="230"/>
+      <c r="AG415" s="230"/>
+      <c r="AH415" s="230"/>
+      <c r="AI415" s="230"/>
+    </row>
+    <row r="416" spans="2:35" s="223" customFormat="1">
+      <c r="B416" s="227"/>
       <c r="C416" s="122"/>
-      <c r="D416" s="231"/>
-      <c r="E416" s="233"/>
-      <c r="F416" s="231"/>
-      <c r="G416" s="231">
+      <c r="D416" s="229"/>
+      <c r="E416" s="231"/>
+      <c r="F416" s="229"/>
+      <c r="G416" s="229">
         <f>10^6</f>
         <v>1000000</v>
       </c>
-      <c r="H416" s="231" t="s">
-        <v>174</v>
-      </c>
-      <c r="I416" s="234"/>
+      <c r="H416" s="229" t="s">
+        <v>173</v>
+      </c>
+      <c r="I416" s="232"/>
       <c r="J416" s="122"/>
       <c r="K416" s="122"/>
       <c r="L416" s="122"/>
@@ -12330,29 +12367,29 @@
       <c r="W416" s="122"/>
       <c r="X416" s="122"/>
       <c r="Y416" s="122"/>
-      <c r="Z416" s="232"/>
-      <c r="AA416" s="232"/>
-      <c r="AB416" s="232"/>
-      <c r="AC416" s="232"/>
-      <c r="AD416" s="232"/>
-      <c r="AE416" s="232"/>
-      <c r="AF416" s="232"/>
-      <c r="AG416" s="232"/>
-      <c r="AH416" s="232"/>
-      <c r="AI416" s="232"/>
-    </row>
-    <row r="417" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B417" s="229"/>
+      <c r="Z416" s="230"/>
+      <c r="AA416" s="230"/>
+      <c r="AB416" s="230"/>
+      <c r="AC416" s="230"/>
+      <c r="AD416" s="230"/>
+      <c r="AE416" s="230"/>
+      <c r="AF416" s="230"/>
+      <c r="AG416" s="230"/>
+      <c r="AH416" s="230"/>
+      <c r="AI416" s="230"/>
+    </row>
+    <row r="417" spans="2:35" s="223" customFormat="1">
+      <c r="B417" s="227"/>
       <c r="C417" s="122"/>
-      <c r="D417" s="231"/>
-      <c r="E417" s="233"/>
-      <c r="F417" s="231"/>
-      <c r="G417" s="231">
+      <c r="D417" s="229"/>
+      <c r="E417" s="231"/>
+      <c r="F417" s="229"/>
+      <c r="G417" s="229">
         <f>G415/G416</f>
         <v>0.112</v>
       </c>
-      <c r="H417" s="231" t="s">
-        <v>173</v>
+      <c r="H417" s="229" t="s">
+        <v>172</v>
       </c>
       <c r="I417" s="122"/>
       <c r="J417" s="122"/>
@@ -12371,19 +12408,19 @@
       <c r="W417" s="122"/>
       <c r="X417" s="122"/>
       <c r="Y417" s="122"/>
-      <c r="Z417" s="232"/>
-      <c r="AA417" s="232"/>
-      <c r="AB417" s="232"/>
-      <c r="AC417" s="232"/>
-      <c r="AD417" s="232"/>
-      <c r="AE417" s="232"/>
-      <c r="AF417" s="232"/>
-      <c r="AG417" s="232"/>
-      <c r="AH417" s="232"/>
-      <c r="AI417" s="232"/>
-    </row>
-    <row r="418" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B418" s="229"/>
+      <c r="Z417" s="230"/>
+      <c r="AA417" s="230"/>
+      <c r="AB417" s="230"/>
+      <c r="AC417" s="230"/>
+      <c r="AD417" s="230"/>
+      <c r="AE417" s="230"/>
+      <c r="AF417" s="230"/>
+      <c r="AG417" s="230"/>
+      <c r="AH417" s="230"/>
+      <c r="AI417" s="230"/>
+    </row>
+    <row r="418" spans="2:35" s="223" customFormat="1">
+      <c r="B418" s="227"/>
       <c r="C418" s="122"/>
       <c r="D418" s="122"/>
       <c r="E418" s="122"/>
@@ -12407,1206 +12444,1206 @@
       <c r="W418" s="122"/>
       <c r="X418" s="122"/>
       <c r="Y418" s="122"/>
-      <c r="Z418" s="232"/>
-      <c r="AA418" s="232"/>
-      <c r="AB418" s="232"/>
-      <c r="AC418" s="232"/>
-      <c r="AD418" s="232"/>
-      <c r="AE418" s="232"/>
-      <c r="AF418" s="232"/>
-      <c r="AG418" s="232"/>
-      <c r="AH418" s="232"/>
-      <c r="AI418" s="232"/>
-    </row>
-    <row r="419" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B419" s="229"/>
-      <c r="C419" s="232"/>
-      <c r="D419" s="232"/>
-      <c r="E419" s="232"/>
-      <c r="F419" s="232"/>
-      <c r="G419" s="232"/>
-      <c r="H419" s="232"/>
-      <c r="I419" s="232"/>
-      <c r="J419" s="232"/>
-      <c r="K419" s="232"/>
-      <c r="L419" s="232"/>
-      <c r="M419" s="232"/>
-      <c r="N419" s="232"/>
-      <c r="O419" s="232"/>
-      <c r="P419" s="232"/>
-      <c r="Q419" s="232"/>
-      <c r="R419" s="232"/>
-      <c r="S419" s="232"/>
-      <c r="T419" s="232"/>
-      <c r="U419" s="232"/>
-      <c r="V419" s="232"/>
-      <c r="W419" s="232"/>
-      <c r="X419" s="232"/>
-      <c r="Y419" s="232"/>
-      <c r="Z419" s="232"/>
-      <c r="AA419" s="232"/>
-      <c r="AB419" s="232"/>
-      <c r="AC419" s="232"/>
-      <c r="AD419" s="232"/>
-      <c r="AE419" s="232"/>
-      <c r="AF419" s="232"/>
-      <c r="AG419" s="232"/>
-      <c r="AH419" s="232"/>
-      <c r="AI419" s="232"/>
-    </row>
-    <row r="420" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B420" s="229"/>
-      <c r="C420" s="232"/>
-      <c r="D420" s="232"/>
-      <c r="E420" s="232"/>
-      <c r="F420" s="232"/>
-      <c r="G420" s="232"/>
-      <c r="H420" s="232"/>
-      <c r="I420" s="232"/>
-      <c r="J420" s="232"/>
-      <c r="K420" s="232"/>
-      <c r="L420" s="232"/>
-      <c r="M420" s="232"/>
-      <c r="N420" s="232"/>
-      <c r="O420" s="232"/>
-      <c r="P420" s="232"/>
-      <c r="Q420" s="232"/>
-      <c r="R420" s="232"/>
-      <c r="S420" s="232"/>
-      <c r="T420" s="232"/>
-      <c r="U420" s="232"/>
-      <c r="V420" s="232"/>
-      <c r="W420" s="232"/>
-      <c r="X420" s="232"/>
-      <c r="Y420" s="232"/>
-      <c r="Z420" s="232"/>
-      <c r="AA420" s="232"/>
-      <c r="AB420" s="232"/>
-      <c r="AC420" s="232"/>
-      <c r="AD420" s="232"/>
-      <c r="AE420" s="232"/>
-      <c r="AF420" s="232"/>
-      <c r="AG420" s="232"/>
-      <c r="AH420" s="232"/>
-      <c r="AI420" s="232"/>
-    </row>
-    <row r="421" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B421" s="229"/>
-      <c r="C421" s="232"/>
-      <c r="D421" s="232"/>
-      <c r="E421" s="232"/>
-      <c r="F421" s="232"/>
-      <c r="G421" s="232"/>
-      <c r="H421" s="232"/>
-      <c r="I421" s="232"/>
-      <c r="J421" s="232"/>
-      <c r="K421" s="232"/>
-      <c r="L421" s="232"/>
-      <c r="M421" s="232"/>
-      <c r="N421" s="232"/>
-      <c r="O421" s="232"/>
-      <c r="P421" s="232"/>
-      <c r="Q421" s="232"/>
-      <c r="R421" s="232"/>
-      <c r="S421" s="232"/>
-      <c r="T421" s="232"/>
-      <c r="U421" s="232"/>
-      <c r="V421" s="232"/>
-      <c r="W421" s="232"/>
-      <c r="X421" s="232"/>
-      <c r="Y421" s="232"/>
-      <c r="Z421" s="232"/>
-      <c r="AA421" s="232"/>
-      <c r="AB421" s="232"/>
-      <c r="AC421" s="232"/>
-      <c r="AD421" s="232"/>
-      <c r="AE421" s="232"/>
-      <c r="AF421" s="232"/>
-      <c r="AG421" s="232"/>
-      <c r="AH421" s="232"/>
-      <c r="AI421" s="232"/>
-    </row>
-    <row r="422" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B422" s="229"/>
-      <c r="C422" s="232"/>
-      <c r="D422" s="232"/>
-      <c r="E422" s="232"/>
-      <c r="F422" s="232"/>
-      <c r="G422" s="232"/>
-      <c r="H422" s="232"/>
-      <c r="I422" s="232"/>
-      <c r="J422" s="232"/>
-      <c r="K422" s="232"/>
-      <c r="L422" s="232"/>
-      <c r="M422" s="232"/>
-      <c r="N422" s="232"/>
-      <c r="O422" s="232"/>
-      <c r="P422" s="232"/>
-      <c r="Q422" s="232"/>
-      <c r="R422" s="232"/>
-      <c r="S422" s="232"/>
-      <c r="T422" s="232"/>
-      <c r="U422" s="232"/>
-      <c r="V422" s="232"/>
-      <c r="W422" s="232"/>
-      <c r="X422" s="232"/>
-      <c r="Y422" s="232"/>
-      <c r="Z422" s="232"/>
-      <c r="AA422" s="232"/>
-      <c r="AB422" s="232"/>
-      <c r="AC422" s="232"/>
-      <c r="AD422" s="232"/>
-      <c r="AE422" s="232"/>
-      <c r="AF422" s="232"/>
-      <c r="AG422" s="232"/>
-      <c r="AH422" s="232"/>
-      <c r="AI422" s="232"/>
-    </row>
-    <row r="423" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B423" s="229"/>
-      <c r="C423" s="232"/>
-      <c r="D423" s="232"/>
-      <c r="E423" s="232"/>
-      <c r="F423" s="232"/>
-      <c r="G423" s="232"/>
-      <c r="H423" s="232"/>
-      <c r="I423" s="232"/>
-      <c r="J423" s="232"/>
-      <c r="K423" s="232"/>
-      <c r="L423" s="232"/>
-      <c r="M423" s="232"/>
-      <c r="N423" s="232"/>
-      <c r="O423" s="232"/>
-      <c r="P423" s="232"/>
-      <c r="Q423" s="232"/>
-      <c r="R423" s="232"/>
-      <c r="S423" s="232"/>
-      <c r="T423" s="232"/>
-      <c r="U423" s="232"/>
-      <c r="V423" s="232"/>
-      <c r="W423" s="232"/>
-      <c r="X423" s="232"/>
-      <c r="Y423" s="232"/>
-      <c r="Z423" s="232"/>
-      <c r="AA423" s="232"/>
-      <c r="AB423" s="232"/>
-      <c r="AC423" s="232"/>
-      <c r="AD423" s="232"/>
-      <c r="AE423" s="232"/>
-      <c r="AF423" s="232"/>
-      <c r="AG423" s="232"/>
-      <c r="AH423" s="232"/>
-      <c r="AI423" s="232"/>
-    </row>
-    <row r="424" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B424" s="229"/>
-      <c r="C424" s="232"/>
-      <c r="D424" s="232"/>
-      <c r="E424" s="232"/>
-      <c r="F424" s="232"/>
-      <c r="G424" s="232"/>
-      <c r="H424" s="232"/>
-      <c r="I424" s="232"/>
-      <c r="J424" s="232"/>
-      <c r="K424" s="232"/>
-      <c r="L424" s="232"/>
-      <c r="M424" s="232"/>
-      <c r="N424" s="232"/>
-      <c r="O424" s="232"/>
-      <c r="P424" s="232"/>
-      <c r="Q424" s="232"/>
-      <c r="R424" s="232"/>
-      <c r="S424" s="232"/>
-      <c r="T424" s="232"/>
-      <c r="U424" s="232"/>
-      <c r="V424" s="232"/>
-      <c r="W424" s="232"/>
-      <c r="X424" s="232"/>
-      <c r="Y424" s="232"/>
-      <c r="Z424" s="232"/>
-      <c r="AA424" s="232"/>
-      <c r="AB424" s="232"/>
-      <c r="AC424" s="232"/>
-      <c r="AD424" s="232"/>
-      <c r="AE424" s="232"/>
-      <c r="AF424" s="232"/>
-      <c r="AG424" s="232"/>
-      <c r="AH424" s="232"/>
-      <c r="AI424" s="232"/>
-    </row>
-    <row r="425" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B425" s="229"/>
-      <c r="C425" s="232"/>
-      <c r="D425" s="232"/>
-      <c r="E425" s="232"/>
-      <c r="F425" s="232"/>
-      <c r="G425" s="232"/>
-      <c r="H425" s="232"/>
-      <c r="I425" s="232"/>
-      <c r="J425" s="232"/>
-      <c r="K425" s="232"/>
-      <c r="L425" s="232"/>
-      <c r="M425" s="232"/>
-      <c r="N425" s="232"/>
-      <c r="O425" s="232"/>
-      <c r="P425" s="232"/>
-      <c r="Q425" s="232"/>
-      <c r="R425" s="232"/>
-      <c r="S425" s="232"/>
-      <c r="T425" s="232"/>
-      <c r="U425" s="232"/>
-      <c r="V425" s="232"/>
-      <c r="W425" s="232"/>
-      <c r="X425" s="232"/>
-      <c r="Y425" s="232"/>
-      <c r="Z425" s="232"/>
-      <c r="AA425" s="232"/>
-      <c r="AB425" s="232"/>
-      <c r="AC425" s="232"/>
-      <c r="AD425" s="232"/>
-      <c r="AE425" s="232"/>
-      <c r="AF425" s="232"/>
-      <c r="AG425" s="232"/>
-      <c r="AH425" s="232"/>
-      <c r="AI425" s="232"/>
-    </row>
-    <row r="426" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B426" s="229"/>
-      <c r="C426" s="232"/>
-      <c r="D426" s="232"/>
-      <c r="E426" s="232"/>
-      <c r="F426" s="232"/>
-      <c r="G426" s="232"/>
-      <c r="H426" s="232"/>
-      <c r="I426" s="232"/>
-      <c r="J426" s="232"/>
-      <c r="K426" s="232"/>
-      <c r="L426" s="232"/>
-      <c r="M426" s="232"/>
-      <c r="N426" s="232"/>
-      <c r="O426" s="232"/>
-      <c r="P426" s="232"/>
-      <c r="Q426" s="232"/>
-      <c r="R426" s="232"/>
-      <c r="S426" s="232"/>
-      <c r="T426" s="232"/>
-      <c r="U426" s="232"/>
-      <c r="V426" s="232"/>
-      <c r="W426" s="232"/>
-      <c r="X426" s="232"/>
-      <c r="Y426" s="232"/>
-      <c r="Z426" s="232"/>
-      <c r="AA426" s="232"/>
-      <c r="AB426" s="232"/>
-      <c r="AC426" s="232"/>
-      <c r="AD426" s="232"/>
-      <c r="AE426" s="232"/>
-      <c r="AF426" s="232"/>
-      <c r="AG426" s="232"/>
-      <c r="AH426" s="232"/>
-      <c r="AI426" s="232"/>
-    </row>
-    <row r="427" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B427" s="229"/>
-      <c r="C427" s="232"/>
-      <c r="D427" s="232"/>
-      <c r="E427" s="232"/>
-      <c r="F427" s="232"/>
-      <c r="G427" s="232"/>
-      <c r="H427" s="232"/>
-      <c r="I427" s="232"/>
-      <c r="J427" s="232"/>
-      <c r="K427" s="232"/>
-      <c r="L427" s="232"/>
-      <c r="M427" s="232"/>
-      <c r="N427" s="232"/>
-      <c r="O427" s="232"/>
-      <c r="P427" s="232"/>
-      <c r="Q427" s="232"/>
-      <c r="R427" s="232"/>
-      <c r="S427" s="232"/>
-      <c r="T427" s="232"/>
-      <c r="U427" s="232"/>
-      <c r="V427" s="232"/>
-      <c r="W427" s="232"/>
-      <c r="X427" s="232"/>
-      <c r="Y427" s="232"/>
-      <c r="Z427" s="232"/>
-      <c r="AA427" s="232"/>
-      <c r="AB427" s="232"/>
-      <c r="AC427" s="232"/>
-      <c r="AD427" s="232"/>
-      <c r="AE427" s="232"/>
-      <c r="AF427" s="232"/>
-      <c r="AG427" s="232"/>
-      <c r="AH427" s="232"/>
-      <c r="AI427" s="232"/>
-    </row>
-    <row r="428" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B428" s="229"/>
-      <c r="C428" s="232"/>
-      <c r="D428" s="232"/>
-      <c r="E428" s="232"/>
-      <c r="F428" s="232"/>
-      <c r="G428" s="232"/>
-      <c r="H428" s="232"/>
-      <c r="I428" s="232"/>
-      <c r="J428" s="232"/>
-      <c r="K428" s="232"/>
-      <c r="L428" s="232"/>
-      <c r="M428" s="232"/>
-      <c r="N428" s="232"/>
-      <c r="O428" s="232"/>
-      <c r="P428" s="232"/>
-      <c r="Q428" s="232"/>
-      <c r="R428" s="232"/>
-      <c r="S428" s="232"/>
-      <c r="T428" s="232"/>
-      <c r="U428" s="232"/>
-      <c r="V428" s="232"/>
-      <c r="W428" s="232"/>
-      <c r="X428" s="232"/>
-      <c r="Y428" s="232"/>
-      <c r="Z428" s="232"/>
-      <c r="AA428" s="232"/>
-      <c r="AB428" s="232"/>
-      <c r="AC428" s="232"/>
-      <c r="AD428" s="232"/>
-      <c r="AE428" s="232"/>
-      <c r="AF428" s="232"/>
-      <c r="AG428" s="232"/>
-      <c r="AH428" s="232"/>
-      <c r="AI428" s="232"/>
-    </row>
-    <row r="429" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B429" s="229"/>
-      <c r="C429" s="232"/>
-      <c r="D429" s="232"/>
-      <c r="E429" s="232"/>
-      <c r="F429" s="232"/>
-      <c r="G429" s="232"/>
-      <c r="H429" s="232"/>
-      <c r="I429" s="232"/>
-      <c r="J429" s="232"/>
-      <c r="K429" s="232"/>
-      <c r="L429" s="232"/>
-      <c r="M429" s="232"/>
-      <c r="N429" s="232"/>
-      <c r="O429" s="232"/>
-      <c r="P429" s="232"/>
-      <c r="Q429" s="232"/>
-      <c r="R429" s="232"/>
-      <c r="S429" s="232"/>
-      <c r="T429" s="232"/>
-      <c r="U429" s="232"/>
-      <c r="V429" s="232"/>
-      <c r="W429" s="232"/>
-      <c r="X429" s="232"/>
-      <c r="Y429" s="232"/>
-      <c r="Z429" s="232"/>
-      <c r="AA429" s="232"/>
-      <c r="AB429" s="232"/>
-      <c r="AC429" s="232"/>
-      <c r="AD429" s="232"/>
-      <c r="AE429" s="232"/>
-      <c r="AF429" s="232"/>
-      <c r="AG429" s="232"/>
-      <c r="AH429" s="232"/>
-      <c r="AI429" s="232"/>
-    </row>
-    <row r="430" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B430" s="229"/>
-      <c r="C430" s="232"/>
-      <c r="D430" s="232"/>
-      <c r="E430" s="232"/>
-      <c r="F430" s="232"/>
-      <c r="G430" s="232"/>
-      <c r="H430" s="232"/>
-      <c r="I430" s="232"/>
-      <c r="J430" s="232"/>
-      <c r="K430" s="232"/>
-      <c r="L430" s="232"/>
-      <c r="M430" s="232"/>
-      <c r="N430" s="232"/>
-      <c r="O430" s="232"/>
-      <c r="P430" s="232"/>
-      <c r="Q430" s="232"/>
-      <c r="R430" s="232"/>
-      <c r="S430" s="232"/>
-      <c r="T430" s="232"/>
-      <c r="U430" s="232"/>
-      <c r="V430" s="232"/>
-      <c r="W430" s="232"/>
-      <c r="X430" s="232"/>
-      <c r="Y430" s="232"/>
-      <c r="Z430" s="232"/>
-      <c r="AA430" s="232"/>
-      <c r="AB430" s="232"/>
-      <c r="AC430" s="232"/>
-      <c r="AD430" s="232"/>
-      <c r="AE430" s="232"/>
-      <c r="AF430" s="232"/>
-      <c r="AG430" s="232"/>
-      <c r="AH430" s="232"/>
-      <c r="AI430" s="232"/>
-    </row>
-    <row r="431" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B431" s="229"/>
-      <c r="C431" s="232"/>
-      <c r="D431" s="232"/>
-      <c r="E431" s="232"/>
-      <c r="F431" s="232"/>
-      <c r="G431" s="232"/>
-      <c r="H431" s="232"/>
-      <c r="I431" s="232"/>
-      <c r="J431" s="232"/>
-      <c r="K431" s="232"/>
-      <c r="L431" s="232"/>
-      <c r="M431" s="232"/>
-      <c r="N431" s="232"/>
-      <c r="O431" s="232"/>
-      <c r="P431" s="232"/>
-      <c r="Q431" s="232"/>
-      <c r="R431" s="232"/>
-      <c r="S431" s="232"/>
-      <c r="T431" s="232"/>
-      <c r="U431" s="232"/>
-      <c r="V431" s="232"/>
-      <c r="W431" s="232"/>
-      <c r="X431" s="232"/>
-      <c r="Y431" s="232"/>
-      <c r="Z431" s="232"/>
-      <c r="AA431" s="232"/>
-      <c r="AB431" s="232"/>
-      <c r="AC431" s="232"/>
-      <c r="AD431" s="232"/>
-      <c r="AE431" s="232"/>
-      <c r="AF431" s="232"/>
-      <c r="AG431" s="232"/>
-      <c r="AH431" s="232"/>
-      <c r="AI431" s="232"/>
-    </row>
-    <row r="432" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B432" s="229"/>
-      <c r="C432" s="232"/>
-      <c r="D432" s="232"/>
-      <c r="E432" s="232"/>
-      <c r="F432" s="232"/>
-      <c r="G432" s="232"/>
-      <c r="H432" s="232"/>
-      <c r="I432" s="232"/>
-      <c r="J432" s="232"/>
-      <c r="K432" s="232"/>
-      <c r="L432" s="232"/>
-      <c r="M432" s="232"/>
-      <c r="N432" s="232"/>
-      <c r="O432" s="232"/>
-      <c r="P432" s="232"/>
-      <c r="Q432" s="232"/>
-      <c r="R432" s="232"/>
-      <c r="S432" s="232"/>
-      <c r="T432" s="232"/>
-      <c r="U432" s="232"/>
-      <c r="V432" s="232"/>
-      <c r="W432" s="232"/>
-      <c r="X432" s="232"/>
-      <c r="Y432" s="232"/>
-      <c r="Z432" s="232"/>
-      <c r="AA432" s="232"/>
-      <c r="AB432" s="232"/>
-      <c r="AC432" s="232"/>
-      <c r="AD432" s="232"/>
-      <c r="AE432" s="232"/>
-      <c r="AF432" s="232"/>
-      <c r="AG432" s="232"/>
-      <c r="AH432" s="232"/>
-      <c r="AI432" s="232"/>
-    </row>
-    <row r="433" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B433" s="229"/>
-      <c r="C433" s="232"/>
-      <c r="D433" s="232"/>
-      <c r="E433" s="232"/>
-      <c r="F433" s="232"/>
-      <c r="G433" s="232"/>
-      <c r="H433" s="232"/>
-      <c r="I433" s="232"/>
-      <c r="J433" s="232"/>
-      <c r="K433" s="232"/>
-      <c r="L433" s="232"/>
-      <c r="M433" s="232"/>
-      <c r="N433" s="232"/>
-      <c r="O433" s="232"/>
-      <c r="P433" s="232"/>
-      <c r="Q433" s="232"/>
-      <c r="R433" s="232"/>
-      <c r="S433" s="232"/>
-      <c r="T433" s="232"/>
-      <c r="U433" s="232"/>
-      <c r="V433" s="232"/>
-      <c r="W433" s="232"/>
-      <c r="X433" s="232"/>
-      <c r="Y433" s="232"/>
-      <c r="Z433" s="232"/>
-      <c r="AA433" s="232"/>
-      <c r="AB433" s="232"/>
-      <c r="AC433" s="232"/>
-      <c r="AD433" s="232"/>
-      <c r="AE433" s="232"/>
-      <c r="AF433" s="232"/>
-      <c r="AG433" s="232"/>
-      <c r="AH433" s="232"/>
-      <c r="AI433" s="232"/>
-    </row>
-    <row r="434" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B434" s="229"/>
-      <c r="C434" s="232"/>
-      <c r="D434" s="232"/>
-      <c r="E434" s="232"/>
-      <c r="F434" s="232"/>
-      <c r="G434" s="232"/>
-      <c r="H434" s="232"/>
-      <c r="I434" s="232"/>
-      <c r="J434" s="232"/>
-      <c r="K434" s="232"/>
-      <c r="L434" s="232"/>
-      <c r="M434" s="232"/>
-      <c r="N434" s="232"/>
-      <c r="O434" s="232"/>
-      <c r="P434" s="232"/>
-      <c r="Q434" s="232"/>
-      <c r="R434" s="232"/>
-      <c r="S434" s="232"/>
-      <c r="T434" s="232"/>
-      <c r="U434" s="232"/>
-      <c r="V434" s="232"/>
-      <c r="W434" s="232"/>
-      <c r="X434" s="232"/>
-      <c r="Y434" s="232"/>
-      <c r="Z434" s="232"/>
-      <c r="AA434" s="232"/>
-      <c r="AB434" s="232"/>
-      <c r="AC434" s="232"/>
-      <c r="AD434" s="232"/>
-      <c r="AE434" s="232"/>
-      <c r="AF434" s="232"/>
-      <c r="AG434" s="232"/>
-      <c r="AH434" s="232"/>
-      <c r="AI434" s="232"/>
-    </row>
-    <row r="435" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B435" s="229"/>
-      <c r="C435" s="232"/>
-      <c r="D435" s="232"/>
-      <c r="E435" s="232"/>
-      <c r="F435" s="232"/>
-      <c r="G435" s="232"/>
-      <c r="H435" s="232"/>
-      <c r="I435" s="232"/>
-      <c r="J435" s="232"/>
-      <c r="K435" s="232"/>
-      <c r="L435" s="232"/>
-      <c r="M435" s="232"/>
-      <c r="N435" s="232"/>
-      <c r="O435" s="232"/>
-      <c r="P435" s="232"/>
-      <c r="Q435" s="232"/>
-      <c r="R435" s="232"/>
-      <c r="S435" s="232"/>
-      <c r="T435" s="232"/>
-      <c r="U435" s="232"/>
-      <c r="V435" s="232"/>
-      <c r="W435" s="232"/>
-      <c r="X435" s="232"/>
-      <c r="Y435" s="232"/>
-      <c r="Z435" s="232"/>
-      <c r="AA435" s="232"/>
-      <c r="AB435" s="232"/>
-      <c r="AC435" s="232"/>
-      <c r="AD435" s="232"/>
-      <c r="AE435" s="232"/>
-      <c r="AF435" s="232"/>
-      <c r="AG435" s="232"/>
-      <c r="AH435" s="232"/>
-      <c r="AI435" s="232"/>
-    </row>
-    <row r="436" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B436" s="229"/>
-      <c r="C436" s="232"/>
-      <c r="D436" s="232"/>
-      <c r="E436" s="232"/>
-      <c r="F436" s="232"/>
-      <c r="G436" s="232"/>
-      <c r="H436" s="232"/>
-      <c r="I436" s="232"/>
-      <c r="J436" s="232"/>
-      <c r="K436" s="232"/>
-      <c r="L436" s="232"/>
-      <c r="M436" s="232"/>
-      <c r="N436" s="232"/>
-      <c r="O436" s="232"/>
-      <c r="P436" s="232"/>
-      <c r="Q436" s="232"/>
-      <c r="R436" s="232"/>
-      <c r="S436" s="232"/>
-      <c r="T436" s="232"/>
-      <c r="U436" s="232"/>
-      <c r="V436" s="232"/>
-      <c r="W436" s="232"/>
-      <c r="X436" s="232"/>
-      <c r="Y436" s="232"/>
-      <c r="Z436" s="232"/>
-      <c r="AA436" s="232"/>
-      <c r="AB436" s="232"/>
-      <c r="AC436" s="232"/>
-      <c r="AD436" s="232"/>
-      <c r="AE436" s="232"/>
-      <c r="AF436" s="232"/>
-      <c r="AG436" s="232"/>
-      <c r="AH436" s="232"/>
-      <c r="AI436" s="232"/>
-    </row>
-    <row r="437" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B437" s="229"/>
-      <c r="C437" s="232"/>
-      <c r="D437" s="232"/>
-      <c r="E437" s="232"/>
-      <c r="F437" s="232"/>
-      <c r="G437" s="232"/>
-      <c r="H437" s="232"/>
-      <c r="I437" s="232"/>
-      <c r="J437" s="232"/>
-      <c r="K437" s="232"/>
-      <c r="L437" s="232"/>
-      <c r="M437" s="232"/>
-      <c r="N437" s="232"/>
-      <c r="O437" s="232"/>
-      <c r="P437" s="232"/>
-      <c r="Q437" s="232"/>
-      <c r="R437" s="232"/>
-      <c r="S437" s="232"/>
-      <c r="T437" s="232"/>
-      <c r="U437" s="232"/>
-      <c r="V437" s="232"/>
-      <c r="W437" s="232"/>
-      <c r="X437" s="232"/>
-      <c r="Y437" s="232"/>
-      <c r="Z437" s="232"/>
-      <c r="AA437" s="232"/>
-      <c r="AB437" s="232"/>
-      <c r="AC437" s="232"/>
-      <c r="AD437" s="232"/>
-      <c r="AE437" s="232"/>
-      <c r="AF437" s="232"/>
-      <c r="AG437" s="232"/>
-      <c r="AH437" s="232"/>
-      <c r="AI437" s="232"/>
-    </row>
-    <row r="438" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B438" s="229"/>
-      <c r="C438" s="232"/>
-      <c r="D438" s="232"/>
-      <c r="E438" s="232"/>
-      <c r="F438" s="232"/>
-      <c r="G438" s="232"/>
-      <c r="H438" s="232"/>
-      <c r="I438" s="232"/>
-      <c r="J438" s="232"/>
-      <c r="K438" s="232"/>
-      <c r="L438" s="232"/>
-      <c r="M438" s="232"/>
-      <c r="N438" s="232"/>
-      <c r="O438" s="232"/>
-      <c r="P438" s="232"/>
-      <c r="Q438" s="232"/>
-      <c r="R438" s="232"/>
-      <c r="S438" s="232"/>
-      <c r="T438" s="232"/>
-      <c r="U438" s="232"/>
-      <c r="V438" s="232"/>
-      <c r="W438" s="232"/>
-      <c r="X438" s="232"/>
-      <c r="Y438" s="232"/>
-      <c r="Z438" s="232"/>
-      <c r="AA438" s="232"/>
-      <c r="AB438" s="232"/>
-      <c r="AC438" s="232"/>
-      <c r="AD438" s="232"/>
-      <c r="AE438" s="232"/>
-      <c r="AF438" s="232"/>
-      <c r="AG438" s="232"/>
-      <c r="AH438" s="232"/>
-      <c r="AI438" s="232"/>
-    </row>
-    <row r="439" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B439" s="229"/>
-      <c r="C439" s="232"/>
-      <c r="D439" s="232"/>
-      <c r="E439" s="232"/>
-      <c r="F439" s="232"/>
-      <c r="G439" s="232"/>
-      <c r="H439" s="232"/>
-      <c r="I439" s="232"/>
-      <c r="J439" s="232"/>
-      <c r="K439" s="232"/>
-      <c r="L439" s="232"/>
-      <c r="M439" s="232"/>
-      <c r="N439" s="232"/>
-      <c r="O439" s="232"/>
-      <c r="P439" s="232"/>
-      <c r="Q439" s="232"/>
-      <c r="R439" s="232"/>
-      <c r="S439" s="232"/>
-      <c r="T439" s="232"/>
-      <c r="U439" s="232"/>
-      <c r="V439" s="232"/>
-      <c r="W439" s="232"/>
-      <c r="X439" s="232"/>
-      <c r="Y439" s="232"/>
-      <c r="Z439" s="232"/>
-      <c r="AA439" s="232"/>
-      <c r="AB439" s="232"/>
-      <c r="AC439" s="232"/>
-      <c r="AD439" s="232"/>
-      <c r="AE439" s="232"/>
-      <c r="AF439" s="232"/>
-      <c r="AG439" s="232"/>
-      <c r="AH439" s="232"/>
-      <c r="AI439" s="232"/>
-    </row>
-    <row r="440" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B440" s="229"/>
-      <c r="C440" s="232"/>
-      <c r="D440" s="232"/>
-      <c r="E440" s="232"/>
-      <c r="F440" s="232"/>
-      <c r="G440" s="232"/>
-      <c r="H440" s="232"/>
-      <c r="I440" s="232"/>
-      <c r="J440" s="232"/>
-      <c r="K440" s="232"/>
-      <c r="L440" s="232"/>
-      <c r="M440" s="232"/>
-      <c r="N440" s="232"/>
-      <c r="O440" s="232"/>
-      <c r="P440" s="232"/>
-      <c r="Q440" s="232"/>
-      <c r="R440" s="232"/>
-      <c r="S440" s="232"/>
-      <c r="T440" s="232"/>
-      <c r="U440" s="232"/>
-      <c r="V440" s="232"/>
-      <c r="W440" s="232"/>
-      <c r="X440" s="232"/>
-      <c r="Y440" s="232"/>
-      <c r="Z440" s="232"/>
-      <c r="AA440" s="232"/>
-      <c r="AB440" s="232"/>
-      <c r="AC440" s="232"/>
-      <c r="AD440" s="232"/>
-      <c r="AE440" s="232"/>
-      <c r="AF440" s="232"/>
-      <c r="AG440" s="232"/>
-      <c r="AH440" s="232"/>
-      <c r="AI440" s="232"/>
-    </row>
-    <row r="441" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B441" s="229"/>
-      <c r="C441" s="232"/>
-      <c r="D441" s="232"/>
-      <c r="E441" s="232"/>
-      <c r="F441" s="232"/>
-      <c r="G441" s="232"/>
-      <c r="H441" s="232"/>
-      <c r="I441" s="232"/>
-      <c r="J441" s="232"/>
-      <c r="K441" s="232"/>
-      <c r="L441" s="232"/>
-      <c r="M441" s="232"/>
-      <c r="N441" s="232"/>
-      <c r="O441" s="232"/>
-      <c r="P441" s="232"/>
-      <c r="Q441" s="232"/>
-      <c r="R441" s="232"/>
-      <c r="S441" s="232"/>
-      <c r="T441" s="232"/>
-      <c r="U441" s="232"/>
-      <c r="V441" s="232"/>
-      <c r="W441" s="232"/>
-      <c r="X441" s="232"/>
-      <c r="Y441" s="232"/>
-      <c r="Z441" s="232"/>
-      <c r="AA441" s="232"/>
-      <c r="AB441" s="232"/>
-      <c r="AC441" s="232"/>
-      <c r="AD441" s="232"/>
-      <c r="AE441" s="232"/>
-      <c r="AF441" s="232"/>
-      <c r="AG441" s="232"/>
-      <c r="AH441" s="232"/>
-      <c r="AI441" s="232"/>
-    </row>
-    <row r="442" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B442" s="229"/>
-      <c r="C442" s="232"/>
-      <c r="D442" s="232"/>
-      <c r="E442" s="232"/>
-      <c r="F442" s="232"/>
-      <c r="G442" s="232"/>
-      <c r="H442" s="232"/>
-      <c r="I442" s="232"/>
-      <c r="J442" s="232"/>
-      <c r="K442" s="232"/>
-      <c r="L442" s="232"/>
-      <c r="M442" s="232"/>
-      <c r="N442" s="232"/>
-      <c r="O442" s="232"/>
-      <c r="P442" s="232"/>
-      <c r="Q442" s="232"/>
-      <c r="R442" s="232"/>
-      <c r="S442" s="232"/>
-      <c r="T442" s="232"/>
-      <c r="U442" s="232"/>
-      <c r="V442" s="232"/>
-      <c r="W442" s="232"/>
-      <c r="X442" s="232"/>
-      <c r="Y442" s="232"/>
-      <c r="Z442" s="232"/>
-      <c r="AA442" s="232"/>
-      <c r="AB442" s="232"/>
-      <c r="AC442" s="232"/>
-      <c r="AD442" s="232"/>
-      <c r="AE442" s="232"/>
-      <c r="AF442" s="232"/>
-      <c r="AG442" s="232"/>
-      <c r="AH442" s="232"/>
-      <c r="AI442" s="232"/>
-    </row>
-    <row r="443" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B443" s="229"/>
-      <c r="C443" s="232"/>
-      <c r="D443" s="232"/>
-      <c r="E443" s="232"/>
-      <c r="F443" s="232"/>
-      <c r="G443" s="232"/>
-      <c r="H443" s="232"/>
-      <c r="I443" s="232"/>
-      <c r="J443" s="232"/>
-      <c r="K443" s="232"/>
-      <c r="L443" s="232"/>
-      <c r="M443" s="232"/>
-      <c r="N443" s="232"/>
-      <c r="O443" s="232"/>
-      <c r="P443" s="232"/>
-      <c r="Q443" s="232"/>
-      <c r="R443" s="232"/>
-      <c r="S443" s="232"/>
-      <c r="T443" s="232"/>
-      <c r="U443" s="232"/>
-      <c r="V443" s="232"/>
-      <c r="W443" s="232"/>
-      <c r="X443" s="232"/>
-      <c r="Y443" s="232"/>
-      <c r="Z443" s="232"/>
-      <c r="AA443" s="232"/>
-      <c r="AB443" s="232"/>
-      <c r="AC443" s="232"/>
-      <c r="AD443" s="232"/>
-      <c r="AE443" s="232"/>
-      <c r="AF443" s="232"/>
-      <c r="AG443" s="232"/>
-      <c r="AH443" s="232"/>
-      <c r="AI443" s="232"/>
-    </row>
-    <row r="444" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B444" s="229"/>
-      <c r="C444" s="232"/>
-      <c r="D444" s="232"/>
-      <c r="E444" s="232"/>
-      <c r="F444" s="232"/>
-      <c r="G444" s="232"/>
-      <c r="H444" s="232"/>
-      <c r="I444" s="232"/>
-      <c r="J444" s="232"/>
-      <c r="K444" s="232"/>
-      <c r="L444" s="232"/>
-      <c r="M444" s="232"/>
-      <c r="N444" s="232"/>
-      <c r="O444" s="232"/>
-      <c r="P444" s="232"/>
-      <c r="Q444" s="232"/>
-      <c r="R444" s="232"/>
-      <c r="S444" s="232"/>
-      <c r="T444" s="232"/>
-      <c r="U444" s="232"/>
-      <c r="V444" s="232"/>
-      <c r="W444" s="232"/>
-      <c r="X444" s="232"/>
-      <c r="Y444" s="232"/>
-      <c r="Z444" s="232"/>
-      <c r="AA444" s="232"/>
-      <c r="AB444" s="232"/>
-      <c r="AC444" s="232"/>
-      <c r="AD444" s="232"/>
-      <c r="AE444" s="232"/>
-      <c r="AF444" s="232"/>
-      <c r="AG444" s="232"/>
-      <c r="AH444" s="232"/>
-      <c r="AI444" s="232"/>
-    </row>
-    <row r="445" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B445" s="229"/>
-      <c r="C445" s="232"/>
-      <c r="D445" s="232"/>
-      <c r="E445" s="232"/>
-      <c r="F445" s="232"/>
-      <c r="G445" s="232"/>
-      <c r="H445" s="232"/>
-      <c r="I445" s="232"/>
-      <c r="J445" s="232"/>
-      <c r="K445" s="232"/>
-      <c r="L445" s="232"/>
-      <c r="M445" s="232"/>
-      <c r="N445" s="232"/>
-      <c r="O445" s="232"/>
-      <c r="P445" s="232"/>
-      <c r="Q445" s="232"/>
-      <c r="R445" s="232"/>
-      <c r="S445" s="232"/>
-      <c r="T445" s="232"/>
-      <c r="U445" s="232"/>
-      <c r="V445" s="232"/>
-      <c r="W445" s="232"/>
-      <c r="X445" s="232"/>
-      <c r="Y445" s="232"/>
-      <c r="Z445" s="232"/>
-      <c r="AA445" s="232"/>
-      <c r="AB445" s="232"/>
-      <c r="AC445" s="232"/>
-      <c r="AD445" s="232"/>
-      <c r="AE445" s="232"/>
-      <c r="AF445" s="232"/>
-      <c r="AG445" s="232"/>
-      <c r="AH445" s="232"/>
-      <c r="AI445" s="232"/>
-    </row>
-    <row r="446" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B446" s="229"/>
-      <c r="C446" s="232"/>
-      <c r="D446" s="232"/>
-      <c r="E446" s="232"/>
-      <c r="F446" s="232"/>
-      <c r="G446" s="232"/>
-      <c r="H446" s="232"/>
-      <c r="I446" s="232"/>
-      <c r="J446" s="232"/>
-      <c r="K446" s="232"/>
-      <c r="L446" s="232"/>
-      <c r="M446" s="232"/>
-      <c r="N446" s="232"/>
-      <c r="O446" s="232"/>
-      <c r="P446" s="232"/>
-      <c r="Q446" s="232"/>
-      <c r="R446" s="232"/>
-      <c r="S446" s="232"/>
-      <c r="T446" s="232"/>
-      <c r="U446" s="232"/>
-      <c r="V446" s="232"/>
-      <c r="W446" s="232"/>
-      <c r="X446" s="232"/>
-      <c r="Y446" s="232"/>
-      <c r="Z446" s="232"/>
-      <c r="AA446" s="232"/>
-      <c r="AB446" s="232"/>
-      <c r="AC446" s="232"/>
-      <c r="AD446" s="232"/>
-      <c r="AE446" s="232"/>
-      <c r="AF446" s="232"/>
-      <c r="AG446" s="232"/>
-      <c r="AH446" s="232"/>
-      <c r="AI446" s="232"/>
-    </row>
-    <row r="447" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B447" s="229"/>
-      <c r="C447" s="232"/>
-      <c r="D447" s="232"/>
-      <c r="E447" s="232"/>
-      <c r="F447" s="232"/>
-      <c r="G447" s="232"/>
-      <c r="H447" s="232"/>
-      <c r="I447" s="232"/>
-      <c r="J447" s="232"/>
-      <c r="K447" s="232"/>
-      <c r="L447" s="232"/>
-      <c r="M447" s="232"/>
-      <c r="N447" s="232"/>
-      <c r="O447" s="232"/>
-      <c r="P447" s="232"/>
-      <c r="Q447" s="232"/>
-      <c r="R447" s="232"/>
-      <c r="S447" s="232"/>
-      <c r="T447" s="232"/>
-      <c r="U447" s="232"/>
-      <c r="V447" s="232"/>
-      <c r="W447" s="232"/>
-      <c r="X447" s="232"/>
-      <c r="Y447" s="232"/>
-      <c r="Z447" s="232"/>
-      <c r="AA447" s="232"/>
-      <c r="AB447" s="232"/>
-      <c r="AC447" s="232"/>
-      <c r="AD447" s="232"/>
-      <c r="AE447" s="232"/>
-      <c r="AF447" s="232"/>
-      <c r="AG447" s="232"/>
-      <c r="AH447" s="232"/>
-      <c r="AI447" s="232"/>
-    </row>
-    <row r="448" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B448" s="229"/>
-      <c r="C448" s="232"/>
-      <c r="D448" s="232"/>
-      <c r="E448" s="232"/>
-      <c r="F448" s="232"/>
-      <c r="G448" s="232"/>
-      <c r="H448" s="232"/>
-      <c r="I448" s="232"/>
-      <c r="J448" s="232"/>
-      <c r="K448" s="232"/>
-      <c r="L448" s="232"/>
-      <c r="M448" s="232"/>
-      <c r="N448" s="232"/>
-      <c r="O448" s="232"/>
-      <c r="P448" s="232"/>
-      <c r="Q448" s="232"/>
-      <c r="R448" s="232"/>
-      <c r="S448" s="232"/>
-      <c r="T448" s="232"/>
-      <c r="U448" s="232"/>
-      <c r="V448" s="232"/>
-      <c r="W448" s="232"/>
-      <c r="X448" s="232"/>
-      <c r="Y448" s="232"/>
-      <c r="Z448" s="232"/>
-      <c r="AA448" s="232"/>
-      <c r="AB448" s="232"/>
-      <c r="AC448" s="232"/>
-      <c r="AD448" s="232"/>
-      <c r="AE448" s="232"/>
-      <c r="AF448" s="232"/>
-      <c r="AG448" s="232"/>
-      <c r="AH448" s="232"/>
-      <c r="AI448" s="232"/>
-    </row>
-    <row r="449" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B449" s="229"/>
-      <c r="C449" s="232"/>
-      <c r="D449" s="232"/>
-      <c r="E449" s="232"/>
-      <c r="F449" s="232"/>
-      <c r="G449" s="232"/>
-      <c r="H449" s="232"/>
-      <c r="I449" s="232"/>
-      <c r="J449" s="232"/>
-      <c r="K449" s="232"/>
-      <c r="L449" s="232"/>
-      <c r="M449" s="232"/>
-      <c r="N449" s="232"/>
-      <c r="O449" s="232"/>
-      <c r="P449" s="232"/>
-      <c r="Q449" s="232"/>
-      <c r="R449" s="232"/>
-      <c r="S449" s="232"/>
-      <c r="T449" s="232"/>
-      <c r="U449" s="232"/>
-      <c r="V449" s="232"/>
-      <c r="W449" s="232"/>
-      <c r="X449" s="232"/>
-      <c r="Y449" s="232"/>
-      <c r="Z449" s="232"/>
-      <c r="AA449" s="232"/>
-      <c r="AB449" s="232"/>
-      <c r="AC449" s="232"/>
-      <c r="AD449" s="232"/>
-      <c r="AE449" s="232"/>
-      <c r="AF449" s="232"/>
-      <c r="AG449" s="232"/>
-      <c r="AH449" s="232"/>
-      <c r="AI449" s="232"/>
-    </row>
-    <row r="450" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B450" s="229"/>
-      <c r="C450" s="232"/>
-      <c r="D450" s="232"/>
-      <c r="E450" s="232"/>
-      <c r="F450" s="232"/>
-      <c r="G450" s="232"/>
-      <c r="H450" s="232"/>
-      <c r="I450" s="232"/>
-      <c r="J450" s="232"/>
-      <c r="K450" s="232"/>
-      <c r="L450" s="232"/>
-      <c r="M450" s="232"/>
-      <c r="N450" s="232"/>
-      <c r="O450" s="232"/>
-      <c r="P450" s="232"/>
-      <c r="Q450" s="232"/>
-      <c r="R450" s="232"/>
-      <c r="S450" s="232"/>
-      <c r="T450" s="232"/>
-      <c r="U450" s="232"/>
-      <c r="V450" s="232"/>
-      <c r="W450" s="232"/>
-      <c r="X450" s="232"/>
-      <c r="Y450" s="232"/>
-      <c r="Z450" s="232"/>
-      <c r="AA450" s="232"/>
-      <c r="AB450" s="232"/>
-      <c r="AC450" s="232"/>
-      <c r="AD450" s="232"/>
-      <c r="AE450" s="232"/>
-      <c r="AF450" s="232"/>
-      <c r="AG450" s="232"/>
-      <c r="AH450" s="232"/>
-      <c r="AI450" s="232"/>
-    </row>
-    <row r="451" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B451" s="229"/>
-      <c r="C451" s="232"/>
-      <c r="D451" s="232"/>
-      <c r="E451" s="232"/>
-      <c r="F451" s="232"/>
-      <c r="G451" s="232"/>
-      <c r="H451" s="232"/>
-      <c r="I451" s="232"/>
-      <c r="J451" s="232"/>
-      <c r="K451" s="232"/>
-      <c r="L451" s="232"/>
-      <c r="M451" s="232"/>
-      <c r="N451" s="232"/>
-      <c r="O451" s="232"/>
-      <c r="P451" s="232"/>
-      <c r="Q451" s="232"/>
-      <c r="R451" s="232"/>
-      <c r="S451" s="232"/>
-      <c r="T451" s="232"/>
-      <c r="U451" s="232"/>
-      <c r="V451" s="232"/>
-      <c r="W451" s="232"/>
-      <c r="X451" s="232"/>
-      <c r="Y451" s="232"/>
-      <c r="Z451" s="232"/>
-      <c r="AA451" s="232"/>
-      <c r="AB451" s="232"/>
-      <c r="AC451" s="232"/>
-      <c r="AD451" s="232"/>
-      <c r="AE451" s="232"/>
-      <c r="AF451" s="232"/>
-      <c r="AG451" s="232"/>
-      <c r="AH451" s="232"/>
-      <c r="AI451" s="232"/>
-    </row>
-    <row r="452" spans="2:35" s="225" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="Z418" s="230"/>
+      <c r="AA418" s="230"/>
+      <c r="AB418" s="230"/>
+      <c r="AC418" s="230"/>
+      <c r="AD418" s="230"/>
+      <c r="AE418" s="230"/>
+      <c r="AF418" s="230"/>
+      <c r="AG418" s="230"/>
+      <c r="AH418" s="230"/>
+      <c r="AI418" s="230"/>
+    </row>
+    <row r="419" spans="2:35" s="223" customFormat="1">
+      <c r="B419" s="227"/>
+      <c r="C419" s="230"/>
+      <c r="D419" s="230"/>
+      <c r="E419" s="230"/>
+      <c r="F419" s="230"/>
+      <c r="G419" s="230"/>
+      <c r="H419" s="230"/>
+      <c r="I419" s="230"/>
+      <c r="J419" s="230"/>
+      <c r="K419" s="230"/>
+      <c r="L419" s="230"/>
+      <c r="M419" s="230"/>
+      <c r="N419" s="230"/>
+      <c r="O419" s="230"/>
+      <c r="P419" s="230"/>
+      <c r="Q419" s="230"/>
+      <c r="R419" s="230"/>
+      <c r="S419" s="230"/>
+      <c r="T419" s="230"/>
+      <c r="U419" s="230"/>
+      <c r="V419" s="230"/>
+      <c r="W419" s="230"/>
+      <c r="X419" s="230"/>
+      <c r="Y419" s="230"/>
+      <c r="Z419" s="230"/>
+      <c r="AA419" s="230"/>
+      <c r="AB419" s="230"/>
+      <c r="AC419" s="230"/>
+      <c r="AD419" s="230"/>
+      <c r="AE419" s="230"/>
+      <c r="AF419" s="230"/>
+      <c r="AG419" s="230"/>
+      <c r="AH419" s="230"/>
+      <c r="AI419" s="230"/>
+    </row>
+    <row r="420" spans="2:35" s="223" customFormat="1">
+      <c r="B420" s="227"/>
+      <c r="C420" s="230"/>
+      <c r="D420" s="230"/>
+      <c r="E420" s="230"/>
+      <c r="F420" s="230"/>
+      <c r="G420" s="230"/>
+      <c r="H420" s="230"/>
+      <c r="I420" s="230"/>
+      <c r="J420" s="230"/>
+      <c r="K420" s="230"/>
+      <c r="L420" s="230"/>
+      <c r="M420" s="230"/>
+      <c r="N420" s="230"/>
+      <c r="O420" s="230"/>
+      <c r="P420" s="230"/>
+      <c r="Q420" s="230"/>
+      <c r="R420" s="230"/>
+      <c r="S420" s="230"/>
+      <c r="T420" s="230"/>
+      <c r="U420" s="230"/>
+      <c r="V420" s="230"/>
+      <c r="W420" s="230"/>
+      <c r="X420" s="230"/>
+      <c r="Y420" s="230"/>
+      <c r="Z420" s="230"/>
+      <c r="AA420" s="230"/>
+      <c r="AB420" s="230"/>
+      <c r="AC420" s="230"/>
+      <c r="AD420" s="230"/>
+      <c r="AE420" s="230"/>
+      <c r="AF420" s="230"/>
+      <c r="AG420" s="230"/>
+      <c r="AH420" s="230"/>
+      <c r="AI420" s="230"/>
+    </row>
+    <row r="421" spans="2:35" s="223" customFormat="1">
+      <c r="B421" s="227"/>
+      <c r="C421" s="230"/>
+      <c r="D421" s="230"/>
+      <c r="E421" s="230"/>
+      <c r="F421" s="230"/>
+      <c r="G421" s="230"/>
+      <c r="H421" s="230"/>
+      <c r="I421" s="230"/>
+      <c r="J421" s="230"/>
+      <c r="K421" s="230"/>
+      <c r="L421" s="230"/>
+      <c r="M421" s="230"/>
+      <c r="N421" s="230"/>
+      <c r="O421" s="230"/>
+      <c r="P421" s="230"/>
+      <c r="Q421" s="230"/>
+      <c r="R421" s="230"/>
+      <c r="S421" s="230"/>
+      <c r="T421" s="230"/>
+      <c r="U421" s="230"/>
+      <c r="V421" s="230"/>
+      <c r="W421" s="230"/>
+      <c r="X421" s="230"/>
+      <c r="Y421" s="230"/>
+      <c r="Z421" s="230"/>
+      <c r="AA421" s="230"/>
+      <c r="AB421" s="230"/>
+      <c r="AC421" s="230"/>
+      <c r="AD421" s="230"/>
+      <c r="AE421" s="230"/>
+      <c r="AF421" s="230"/>
+      <c r="AG421" s="230"/>
+      <c r="AH421" s="230"/>
+      <c r="AI421" s="230"/>
+    </row>
+    <row r="422" spans="2:35" s="223" customFormat="1">
+      <c r="B422" s="227"/>
+      <c r="C422" s="230"/>
+      <c r="D422" s="230"/>
+      <c r="E422" s="230"/>
+      <c r="F422" s="230"/>
+      <c r="G422" s="230"/>
+      <c r="H422" s="230"/>
+      <c r="I422" s="230"/>
+      <c r="J422" s="230"/>
+      <c r="K422" s="230"/>
+      <c r="L422" s="230"/>
+      <c r="M422" s="230"/>
+      <c r="N422" s="230"/>
+      <c r="O422" s="230"/>
+      <c r="P422" s="230"/>
+      <c r="Q422" s="230"/>
+      <c r="R422" s="230"/>
+      <c r="S422" s="230"/>
+      <c r="T422" s="230"/>
+      <c r="U422" s="230"/>
+      <c r="V422" s="230"/>
+      <c r="W422" s="230"/>
+      <c r="X422" s="230"/>
+      <c r="Y422" s="230"/>
+      <c r="Z422" s="230"/>
+      <c r="AA422" s="230"/>
+      <c r="AB422" s="230"/>
+      <c r="AC422" s="230"/>
+      <c r="AD422" s="230"/>
+      <c r="AE422" s="230"/>
+      <c r="AF422" s="230"/>
+      <c r="AG422" s="230"/>
+      <c r="AH422" s="230"/>
+      <c r="AI422" s="230"/>
+    </row>
+    <row r="423" spans="2:35" s="223" customFormat="1">
+      <c r="B423" s="227"/>
+      <c r="C423" s="230"/>
+      <c r="D423" s="230"/>
+      <c r="E423" s="230"/>
+      <c r="F423" s="230"/>
+      <c r="G423" s="230"/>
+      <c r="H423" s="230"/>
+      <c r="I423" s="230"/>
+      <c r="J423" s="230"/>
+      <c r="K423" s="230"/>
+      <c r="L423" s="230"/>
+      <c r="M423" s="230"/>
+      <c r="N423" s="230"/>
+      <c r="O423" s="230"/>
+      <c r="P423" s="230"/>
+      <c r="Q423" s="230"/>
+      <c r="R423" s="230"/>
+      <c r="S423" s="230"/>
+      <c r="T423" s="230"/>
+      <c r="U423" s="230"/>
+      <c r="V423" s="230"/>
+      <c r="W423" s="230"/>
+      <c r="X423" s="230"/>
+      <c r="Y423" s="230"/>
+      <c r="Z423" s="230"/>
+      <c r="AA423" s="230"/>
+      <c r="AB423" s="230"/>
+      <c r="AC423" s="230"/>
+      <c r="AD423" s="230"/>
+      <c r="AE423" s="230"/>
+      <c r="AF423" s="230"/>
+      <c r="AG423" s="230"/>
+      <c r="AH423" s="230"/>
+      <c r="AI423" s="230"/>
+    </row>
+    <row r="424" spans="2:35" s="223" customFormat="1">
+      <c r="B424" s="227"/>
+      <c r="C424" s="230"/>
+      <c r="D424" s="230"/>
+      <c r="E424" s="230"/>
+      <c r="F424" s="230"/>
+      <c r="G424" s="230"/>
+      <c r="H424" s="230"/>
+      <c r="I424" s="230"/>
+      <c r="J424" s="230"/>
+      <c r="K424" s="230"/>
+      <c r="L424" s="230"/>
+      <c r="M424" s="230"/>
+      <c r="N424" s="230"/>
+      <c r="O424" s="230"/>
+      <c r="P424" s="230"/>
+      <c r="Q424" s="230"/>
+      <c r="R424" s="230"/>
+      <c r="S424" s="230"/>
+      <c r="T424" s="230"/>
+      <c r="U424" s="230"/>
+      <c r="V424" s="230"/>
+      <c r="W424" s="230"/>
+      <c r="X424" s="230"/>
+      <c r="Y424" s="230"/>
+      <c r="Z424" s="230"/>
+      <c r="AA424" s="230"/>
+      <c r="AB424" s="230"/>
+      <c r="AC424" s="230"/>
+      <c r="AD424" s="230"/>
+      <c r="AE424" s="230"/>
+      <c r="AF424" s="230"/>
+      <c r="AG424" s="230"/>
+      <c r="AH424" s="230"/>
+      <c r="AI424" s="230"/>
+    </row>
+    <row r="425" spans="2:35" s="223" customFormat="1">
+      <c r="B425" s="227"/>
+      <c r="C425" s="230"/>
+      <c r="D425" s="230"/>
+      <c r="E425" s="230"/>
+      <c r="F425" s="230"/>
+      <c r="G425" s="230"/>
+      <c r="H425" s="230"/>
+      <c r="I425" s="230"/>
+      <c r="J425" s="230"/>
+      <c r="K425" s="230"/>
+      <c r="L425" s="230"/>
+      <c r="M425" s="230"/>
+      <c r="N425" s="230"/>
+      <c r="O425" s="230"/>
+      <c r="P425" s="230"/>
+      <c r="Q425" s="230"/>
+      <c r="R425" s="230"/>
+      <c r="S425" s="230"/>
+      <c r="T425" s="230"/>
+      <c r="U425" s="230"/>
+      <c r="V425" s="230"/>
+      <c r="W425" s="230"/>
+      <c r="X425" s="230"/>
+      <c r="Y425" s="230"/>
+      <c r="Z425" s="230"/>
+      <c r="AA425" s="230"/>
+      <c r="AB425" s="230"/>
+      <c r="AC425" s="230"/>
+      <c r="AD425" s="230"/>
+      <c r="AE425" s="230"/>
+      <c r="AF425" s="230"/>
+      <c r="AG425" s="230"/>
+      <c r="AH425" s="230"/>
+      <c r="AI425" s="230"/>
+    </row>
+    <row r="426" spans="2:35" s="223" customFormat="1">
+      <c r="B426" s="227"/>
+      <c r="C426" s="230"/>
+      <c r="D426" s="230"/>
+      <c r="E426" s="230"/>
+      <c r="F426" s="230"/>
+      <c r="G426" s="230"/>
+      <c r="H426" s="230"/>
+      <c r="I426" s="230"/>
+      <c r="J426" s="230"/>
+      <c r="K426" s="230"/>
+      <c r="L426" s="230"/>
+      <c r="M426" s="230"/>
+      <c r="N426" s="230"/>
+      <c r="O426" s="230"/>
+      <c r="P426" s="230"/>
+      <c r="Q426" s="230"/>
+      <c r="R426" s="230"/>
+      <c r="S426" s="230"/>
+      <c r="T426" s="230"/>
+      <c r="U426" s="230"/>
+      <c r="V426" s="230"/>
+      <c r="W426" s="230"/>
+      <c r="X426" s="230"/>
+      <c r="Y426" s="230"/>
+      <c r="Z426" s="230"/>
+      <c r="AA426" s="230"/>
+      <c r="AB426" s="230"/>
+      <c r="AC426" s="230"/>
+      <c r="AD426" s="230"/>
+      <c r="AE426" s="230"/>
+      <c r="AF426" s="230"/>
+      <c r="AG426" s="230"/>
+      <c r="AH426" s="230"/>
+      <c r="AI426" s="230"/>
+    </row>
+    <row r="427" spans="2:35" s="223" customFormat="1">
+      <c r="B427" s="227"/>
+      <c r="C427" s="230"/>
+      <c r="D427" s="230"/>
+      <c r="E427" s="230"/>
+      <c r="F427" s="230"/>
+      <c r="G427" s="230"/>
+      <c r="H427" s="230"/>
+      <c r="I427" s="230"/>
+      <c r="J427" s="230"/>
+      <c r="K427" s="230"/>
+      <c r="L427" s="230"/>
+      <c r="M427" s="230"/>
+      <c r="N427" s="230"/>
+      <c r="O427" s="230"/>
+      <c r="P427" s="230"/>
+      <c r="Q427" s="230"/>
+      <c r="R427" s="230"/>
+      <c r="S427" s="230"/>
+      <c r="T427" s="230"/>
+      <c r="U427" s="230"/>
+      <c r="V427" s="230"/>
+      <c r="W427" s="230"/>
+      <c r="X427" s="230"/>
+      <c r="Y427" s="230"/>
+      <c r="Z427" s="230"/>
+      <c r="AA427" s="230"/>
+      <c r="AB427" s="230"/>
+      <c r="AC427" s="230"/>
+      <c r="AD427" s="230"/>
+      <c r="AE427" s="230"/>
+      <c r="AF427" s="230"/>
+      <c r="AG427" s="230"/>
+      <c r="AH427" s="230"/>
+      <c r="AI427" s="230"/>
+    </row>
+    <row r="428" spans="2:35" s="223" customFormat="1">
+      <c r="B428" s="227"/>
+      <c r="C428" s="230"/>
+      <c r="D428" s="230"/>
+      <c r="E428" s="230"/>
+      <c r="F428" s="230"/>
+      <c r="G428" s="230"/>
+      <c r="H428" s="230"/>
+      <c r="I428" s="230"/>
+      <c r="J428" s="230"/>
+      <c r="K428" s="230"/>
+      <c r="L428" s="230"/>
+      <c r="M428" s="230"/>
+      <c r="N428" s="230"/>
+      <c r="O428" s="230"/>
+      <c r="P428" s="230"/>
+      <c r="Q428" s="230"/>
+      <c r="R428" s="230"/>
+      <c r="S428" s="230"/>
+      <c r="T428" s="230"/>
+      <c r="U428" s="230"/>
+      <c r="V428" s="230"/>
+      <c r="W428" s="230"/>
+      <c r="X428" s="230"/>
+      <c r="Y428" s="230"/>
+      <c r="Z428" s="230"/>
+      <c r="AA428" s="230"/>
+      <c r="AB428" s="230"/>
+      <c r="AC428" s="230"/>
+      <c r="AD428" s="230"/>
+      <c r="AE428" s="230"/>
+      <c r="AF428" s="230"/>
+      <c r="AG428" s="230"/>
+      <c r="AH428" s="230"/>
+      <c r="AI428" s="230"/>
+    </row>
+    <row r="429" spans="2:35" s="223" customFormat="1">
+      <c r="B429" s="227"/>
+      <c r="C429" s="230"/>
+      <c r="D429" s="230"/>
+      <c r="E429" s="230"/>
+      <c r="F429" s="230"/>
+      <c r="G429" s="230"/>
+      <c r="H429" s="230"/>
+      <c r="I429" s="230"/>
+      <c r="J429" s="230"/>
+      <c r="K429" s="230"/>
+      <c r="L429" s="230"/>
+      <c r="M429" s="230"/>
+      <c r="N429" s="230"/>
+      <c r="O429" s="230"/>
+      <c r="P429" s="230"/>
+      <c r="Q429" s="230"/>
+      <c r="R429" s="230"/>
+      <c r="S429" s="230"/>
+      <c r="T429" s="230"/>
+      <c r="U429" s="230"/>
+      <c r="V429" s="230"/>
+      <c r="W429" s="230"/>
+      <c r="X429" s="230"/>
+      <c r="Y429" s="230"/>
+      <c r="Z429" s="230"/>
+      <c r="AA429" s="230"/>
+      <c r="AB429" s="230"/>
+      <c r="AC429" s="230"/>
+      <c r="AD429" s="230"/>
+      <c r="AE429" s="230"/>
+      <c r="AF429" s="230"/>
+      <c r="AG429" s="230"/>
+      <c r="AH429" s="230"/>
+      <c r="AI429" s="230"/>
+    </row>
+    <row r="430" spans="2:35" s="223" customFormat="1">
+      <c r="B430" s="227"/>
+      <c r="C430" s="230"/>
+      <c r="D430" s="230"/>
+      <c r="E430" s="230"/>
+      <c r="F430" s="230"/>
+      <c r="G430" s="230"/>
+      <c r="H430" s="230"/>
+      <c r="I430" s="230"/>
+      <c r="J430" s="230"/>
+      <c r="K430" s="230"/>
+      <c r="L430" s="230"/>
+      <c r="M430" s="230"/>
+      <c r="N430" s="230"/>
+      <c r="O430" s="230"/>
+      <c r="P430" s="230"/>
+      <c r="Q430" s="230"/>
+      <c r="R430" s="230"/>
+      <c r="S430" s="230"/>
+      <c r="T430" s="230"/>
+      <c r="U430" s="230"/>
+      <c r="V430" s="230"/>
+      <c r="W430" s="230"/>
+      <c r="X430" s="230"/>
+      <c r="Y430" s="230"/>
+      <c r="Z430" s="230"/>
+      <c r="AA430" s="230"/>
+      <c r="AB430" s="230"/>
+      <c r="AC430" s="230"/>
+      <c r="AD430" s="230"/>
+      <c r="AE430" s="230"/>
+      <c r="AF430" s="230"/>
+      <c r="AG430" s="230"/>
+      <c r="AH430" s="230"/>
+      <c r="AI430" s="230"/>
+    </row>
+    <row r="431" spans="2:35" s="223" customFormat="1">
+      <c r="B431" s="227"/>
+      <c r="C431" s="230"/>
+      <c r="D431" s="230"/>
+      <c r="E431" s="230"/>
+      <c r="F431" s="230"/>
+      <c r="G431" s="230"/>
+      <c r="H431" s="230"/>
+      <c r="I431" s="230"/>
+      <c r="J431" s="230"/>
+      <c r="K431" s="230"/>
+      <c r="L431" s="230"/>
+      <c r="M431" s="230"/>
+      <c r="N431" s="230"/>
+      <c r="O431" s="230"/>
+      <c r="P431" s="230"/>
+      <c r="Q431" s="230"/>
+      <c r="R431" s="230"/>
+      <c r="S431" s="230"/>
+      <c r="T431" s="230"/>
+      <c r="U431" s="230"/>
+      <c r="V431" s="230"/>
+      <c r="W431" s="230"/>
+      <c r="X431" s="230"/>
+      <c r="Y431" s="230"/>
+      <c r="Z431" s="230"/>
+      <c r="AA431" s="230"/>
+      <c r="AB431" s="230"/>
+      <c r="AC431" s="230"/>
+      <c r="AD431" s="230"/>
+      <c r="AE431" s="230"/>
+      <c r="AF431" s="230"/>
+      <c r="AG431" s="230"/>
+      <c r="AH431" s="230"/>
+      <c r="AI431" s="230"/>
+    </row>
+    <row r="432" spans="2:35" s="223" customFormat="1">
+      <c r="B432" s="227"/>
+      <c r="C432" s="230"/>
+      <c r="D432" s="230"/>
+      <c r="E432" s="230"/>
+      <c r="F432" s="230"/>
+      <c r="G432" s="230"/>
+      <c r="H432" s="230"/>
+      <c r="I432" s="230"/>
+      <c r="J432" s="230"/>
+      <c r="K432" s="230"/>
+      <c r="L432" s="230"/>
+      <c r="M432" s="230"/>
+      <c r="N432" s="230"/>
+      <c r="O432" s="230"/>
+      <c r="P432" s="230"/>
+      <c r="Q432" s="230"/>
+      <c r="R432" s="230"/>
+      <c r="S432" s="230"/>
+      <c r="T432" s="230"/>
+      <c r="U432" s="230"/>
+      <c r="V432" s="230"/>
+      <c r="W432" s="230"/>
+      <c r="X432" s="230"/>
+      <c r="Y432" s="230"/>
+      <c r="Z432" s="230"/>
+      <c r="AA432" s="230"/>
+      <c r="AB432" s="230"/>
+      <c r="AC432" s="230"/>
+      <c r="AD432" s="230"/>
+      <c r="AE432" s="230"/>
+      <c r="AF432" s="230"/>
+      <c r="AG432" s="230"/>
+      <c r="AH432" s="230"/>
+      <c r="AI432" s="230"/>
+    </row>
+    <row r="433" spans="2:35" s="223" customFormat="1">
+      <c r="B433" s="227"/>
+      <c r="C433" s="230"/>
+      <c r="D433" s="230"/>
+      <c r="E433" s="230"/>
+      <c r="F433" s="230"/>
+      <c r="G433" s="230"/>
+      <c r="H433" s="230"/>
+      <c r="I433" s="230"/>
+      <c r="J433" s="230"/>
+      <c r="K433" s="230"/>
+      <c r="L433" s="230"/>
+      <c r="M433" s="230"/>
+      <c r="N433" s="230"/>
+      <c r="O433" s="230"/>
+      <c r="P433" s="230"/>
+      <c r="Q433" s="230"/>
+      <c r="R433" s="230"/>
+      <c r="S433" s="230"/>
+      <c r="T433" s="230"/>
+      <c r="U433" s="230"/>
+      <c r="V433" s="230"/>
+      <c r="W433" s="230"/>
+      <c r="X433" s="230"/>
+      <c r="Y433" s="230"/>
+      <c r="Z433" s="230"/>
+      <c r="AA433" s="230"/>
+      <c r="AB433" s="230"/>
+      <c r="AC433" s="230"/>
+      <c r="AD433" s="230"/>
+      <c r="AE433" s="230"/>
+      <c r="AF433" s="230"/>
+      <c r="AG433" s="230"/>
+      <c r="AH433" s="230"/>
+      <c r="AI433" s="230"/>
+    </row>
+    <row r="434" spans="2:35" s="223" customFormat="1">
+      <c r="B434" s="227"/>
+      <c r="C434" s="230"/>
+      <c r="D434" s="230"/>
+      <c r="E434" s="230"/>
+      <c r="F434" s="230"/>
+      <c r="G434" s="230"/>
+      <c r="H434" s="230"/>
+      <c r="I434" s="230"/>
+      <c r="J434" s="230"/>
+      <c r="K434" s="230"/>
+      <c r="L434" s="230"/>
+      <c r="M434" s="230"/>
+      <c r="N434" s="230"/>
+      <c r="O434" s="230"/>
+      <c r="P434" s="230"/>
+      <c r="Q434" s="230"/>
+      <c r="R434" s="230"/>
+      <c r="S434" s="230"/>
+      <c r="T434" s="230"/>
+      <c r="U434" s="230"/>
+      <c r="V434" s="230"/>
+      <c r="W434" s="230"/>
+      <c r="X434" s="230"/>
+      <c r="Y434" s="230"/>
+      <c r="Z434" s="230"/>
+      <c r="AA434" s="230"/>
+      <c r="AB434" s="230"/>
+      <c r="AC434" s="230"/>
+      <c r="AD434" s="230"/>
+      <c r="AE434" s="230"/>
+      <c r="AF434" s="230"/>
+      <c r="AG434" s="230"/>
+      <c r="AH434" s="230"/>
+      <c r="AI434" s="230"/>
+    </row>
+    <row r="435" spans="2:35" s="223" customFormat="1">
+      <c r="B435" s="227"/>
+      <c r="C435" s="230"/>
+      <c r="D435" s="230"/>
+      <c r="E435" s="230"/>
+      <c r="F435" s="230"/>
+      <c r="G435" s="230"/>
+      <c r="H435" s="230"/>
+      <c r="I435" s="230"/>
+      <c r="J435" s="230"/>
+      <c r="K435" s="230"/>
+      <c r="L435" s="230"/>
+      <c r="M435" s="230"/>
+      <c r="N435" s="230"/>
+      <c r="O435" s="230"/>
+      <c r="P435" s="230"/>
+      <c r="Q435" s="230"/>
+      <c r="R435" s="230"/>
+      <c r="S435" s="230"/>
+      <c r="T435" s="230"/>
+      <c r="U435" s="230"/>
+      <c r="V435" s="230"/>
+      <c r="W435" s="230"/>
+      <c r="X435" s="230"/>
+      <c r="Y435" s="230"/>
+      <c r="Z435" s="230"/>
+      <c r="AA435" s="230"/>
+      <c r="AB435" s="230"/>
+      <c r="AC435" s="230"/>
+      <c r="AD435" s="230"/>
+      <c r="AE435" s="230"/>
+      <c r="AF435" s="230"/>
+      <c r="AG435" s="230"/>
+      <c r="AH435" s="230"/>
+      <c r="AI435" s="230"/>
+    </row>
+    <row r="436" spans="2:35" s="223" customFormat="1">
+      <c r="B436" s="227"/>
+      <c r="C436" s="230"/>
+      <c r="D436" s="230"/>
+      <c r="E436" s="230"/>
+      <c r="F436" s="230"/>
+      <c r="G436" s="230"/>
+      <c r="H436" s="230"/>
+      <c r="I436" s="230"/>
+      <c r="J436" s="230"/>
+      <c r="K436" s="230"/>
+      <c r="L436" s="230"/>
+      <c r="M436" s="230"/>
+      <c r="N436" s="230"/>
+      <c r="O436" s="230"/>
+      <c r="P436" s="230"/>
+      <c r="Q436" s="230"/>
+      <c r="R436" s="230"/>
+      <c r="S436" s="230"/>
+      <c r="T436" s="230"/>
+      <c r="U436" s="230"/>
+      <c r="V436" s="230"/>
+      <c r="W436" s="230"/>
+      <c r="X436" s="230"/>
+      <c r="Y436" s="230"/>
+      <c r="Z436" s="230"/>
+      <c r="AA436" s="230"/>
+      <c r="AB436" s="230"/>
+      <c r="AC436" s="230"/>
+      <c r="AD436" s="230"/>
+      <c r="AE436" s="230"/>
+      <c r="AF436" s="230"/>
+      <c r="AG436" s="230"/>
+      <c r="AH436" s="230"/>
+      <c r="AI436" s="230"/>
+    </row>
+    <row r="437" spans="2:35" s="223" customFormat="1">
+      <c r="B437" s="227"/>
+      <c r="C437" s="230"/>
+      <c r="D437" s="230"/>
+      <c r="E437" s="230"/>
+      <c r="F437" s="230"/>
+      <c r="G437" s="230"/>
+      <c r="H437" s="230"/>
+      <c r="I437" s="230"/>
+      <c r="J437" s="230"/>
+      <c r="K437" s="230"/>
+      <c r="L437" s="230"/>
+      <c r="M437" s="230"/>
+      <c r="N437" s="230"/>
+      <c r="O437" s="230"/>
+      <c r="P437" s="230"/>
+      <c r="Q437" s="230"/>
+      <c r="R437" s="230"/>
+      <c r="S437" s="230"/>
+      <c r="T437" s="230"/>
+      <c r="U437" s="230"/>
+      <c r="V437" s="230"/>
+      <c r="W437" s="230"/>
+      <c r="X437" s="230"/>
+      <c r="Y437" s="230"/>
+      <c r="Z437" s="230"/>
+      <c r="AA437" s="230"/>
+      <c r="AB437" s="230"/>
+      <c r="AC437" s="230"/>
+      <c r="AD437" s="230"/>
+      <c r="AE437" s="230"/>
+      <c r="AF437" s="230"/>
+      <c r="AG437" s="230"/>
+      <c r="AH437" s="230"/>
+      <c r="AI437" s="230"/>
+    </row>
+    <row r="438" spans="2:35" s="223" customFormat="1">
+      <c r="B438" s="227"/>
+      <c r="C438" s="230"/>
+      <c r="D438" s="230"/>
+      <c r="E438" s="230"/>
+      <c r="F438" s="230"/>
+      <c r="G438" s="230"/>
+      <c r="H438" s="230"/>
+      <c r="I438" s="230"/>
+      <c r="J438" s="230"/>
+      <c r="K438" s="230"/>
+      <c r="L438" s="230"/>
+      <c r="M438" s="230"/>
+      <c r="N438" s="230"/>
+      <c r="O438" s="230"/>
+      <c r="P438" s="230"/>
+      <c r="Q438" s="230"/>
+      <c r="R438" s="230"/>
+      <c r="S438" s="230"/>
+      <c r="T438" s="230"/>
+      <c r="U438" s="230"/>
+      <c r="V438" s="230"/>
+      <c r="W438" s="230"/>
+      <c r="X438" s="230"/>
+      <c r="Y438" s="230"/>
+      <c r="Z438" s="230"/>
+      <c r="AA438" s="230"/>
+      <c r="AB438" s="230"/>
+      <c r="AC438" s="230"/>
+      <c r="AD438" s="230"/>
+      <c r="AE438" s="230"/>
+      <c r="AF438" s="230"/>
+      <c r="AG438" s="230"/>
+      <c r="AH438" s="230"/>
+      <c r="AI438" s="230"/>
+    </row>
+    <row r="439" spans="2:35" s="223" customFormat="1">
+      <c r="B439" s="227"/>
+      <c r="C439" s="230"/>
+      <c r="D439" s="230"/>
+      <c r="E439" s="230"/>
+      <c r="F439" s="230"/>
+      <c r="G439" s="230"/>
+      <c r="H439" s="230"/>
+      <c r="I439" s="230"/>
+      <c r="J439" s="230"/>
+      <c r="K439" s="230"/>
+      <c r="L439" s="230"/>
+      <c r="M439" s="230"/>
+      <c r="N439" s="230"/>
+      <c r="O439" s="230"/>
+      <c r="P439" s="230"/>
+      <c r="Q439" s="230"/>
+      <c r="R439" s="230"/>
+      <c r="S439" s="230"/>
+      <c r="T439" s="230"/>
+      <c r="U439" s="230"/>
+      <c r="V439" s="230"/>
+      <c r="W439" s="230"/>
+      <c r="X439" s="230"/>
+      <c r="Y439" s="230"/>
+      <c r="Z439" s="230"/>
+      <c r="AA439" s="230"/>
+      <c r="AB439" s="230"/>
+      <c r="AC439" s="230"/>
+      <c r="AD439" s="230"/>
+      <c r="AE439" s="230"/>
+      <c r="AF439" s="230"/>
+      <c r="AG439" s="230"/>
+      <c r="AH439" s="230"/>
+      <c r="AI439" s="230"/>
+    </row>
+    <row r="440" spans="2:35" s="223" customFormat="1">
+      <c r="B440" s="227"/>
+      <c r="C440" s="230"/>
+      <c r="D440" s="230"/>
+      <c r="E440" s="230"/>
+      <c r="F440" s="230"/>
+      <c r="G440" s="230"/>
+      <c r="H440" s="230"/>
+      <c r="I440" s="230"/>
+      <c r="J440" s="230"/>
+      <c r="K440" s="230"/>
+      <c r="L440" s="230"/>
+      <c r="M440" s="230"/>
+      <c r="N440" s="230"/>
+      <c r="O440" s="230"/>
+      <c r="P440" s="230"/>
+      <c r="Q440" s="230"/>
+      <c r="R440" s="230"/>
+      <c r="S440" s="230"/>
+      <c r="T440" s="230"/>
+      <c r="U440" s="230"/>
+      <c r="V440" s="230"/>
+      <c r="W440" s="230"/>
+      <c r="X440" s="230"/>
+      <c r="Y440" s="230"/>
+      <c r="Z440" s="230"/>
+      <c r="AA440" s="230"/>
+      <c r="AB440" s="230"/>
+      <c r="AC440" s="230"/>
+      <c r="AD440" s="230"/>
+      <c r="AE440" s="230"/>
+      <c r="AF440" s="230"/>
+      <c r="AG440" s="230"/>
+      <c r="AH440" s="230"/>
+      <c r="AI440" s="230"/>
+    </row>
+    <row r="441" spans="2:35" s="223" customFormat="1">
+      <c r="B441" s="227"/>
+      <c r="C441" s="230"/>
+      <c r="D441" s="230"/>
+      <c r="E441" s="230"/>
+      <c r="F441" s="230"/>
+      <c r="G441" s="230"/>
+      <c r="H441" s="230"/>
+      <c r="I441" s="230"/>
+      <c r="J441" s="230"/>
+      <c r="K441" s="230"/>
+      <c r="L441" s="230"/>
+      <c r="M441" s="230"/>
+      <c r="N441" s="230"/>
+      <c r="O441" s="230"/>
+      <c r="P441" s="230"/>
+      <c r="Q441" s="230"/>
+      <c r="R441" s="230"/>
+      <c r="S441" s="230"/>
+      <c r="T441" s="230"/>
+      <c r="U441" s="230"/>
+      <c r="V441" s="230"/>
+      <c r="W441" s="230"/>
+      <c r="X441" s="230"/>
+      <c r="Y441" s="230"/>
+      <c r="Z441" s="230"/>
+      <c r="AA441" s="230"/>
+      <c r="AB441" s="230"/>
+      <c r="AC441" s="230"/>
+      <c r="AD441" s="230"/>
+      <c r="AE441" s="230"/>
+      <c r="AF441" s="230"/>
+      <c r="AG441" s="230"/>
+      <c r="AH441" s="230"/>
+      <c r="AI441" s="230"/>
+    </row>
+    <row r="442" spans="2:35" s="223" customFormat="1">
+      <c r="B442" s="227"/>
+      <c r="C442" s="230"/>
+      <c r="D442" s="230"/>
+      <c r="E442" s="230"/>
+      <c r="F442" s="230"/>
+      <c r="G442" s="230"/>
+      <c r="H442" s="230"/>
+      <c r="I442" s="230"/>
+      <c r="J442" s="230"/>
+      <c r="K442" s="230"/>
+      <c r="L442" s="230"/>
+      <c r="M442" s="230"/>
+      <c r="N442" s="230"/>
+      <c r="O442" s="230"/>
+      <c r="P442" s="230"/>
+      <c r="Q442" s="230"/>
+      <c r="R442" s="230"/>
+      <c r="S442" s="230"/>
+      <c r="T442" s="230"/>
+      <c r="U442" s="230"/>
+      <c r="V442" s="230"/>
+      <c r="W442" s="230"/>
+      <c r="X442" s="230"/>
+      <c r="Y442" s="230"/>
+      <c r="Z442" s="230"/>
+      <c r="AA442" s="230"/>
+      <c r="AB442" s="230"/>
+      <c r="AC442" s="230"/>
+      <c r="AD442" s="230"/>
+      <c r="AE442" s="230"/>
+      <c r="AF442" s="230"/>
+      <c r="AG442" s="230"/>
+      <c r="AH442" s="230"/>
+      <c r="AI442" s="230"/>
+    </row>
+    <row r="443" spans="2:35" s="223" customFormat="1">
+      <c r="B443" s="227"/>
+      <c r="C443" s="230"/>
+      <c r="D443" s="230"/>
+      <c r="E443" s="230"/>
+      <c r="F443" s="230"/>
+      <c r="G443" s="230"/>
+      <c r="H443" s="230"/>
+      <c r="I443" s="230"/>
+      <c r="J443" s="230"/>
+      <c r="K443" s="230"/>
+      <c r="L443" s="230"/>
+      <c r="M443" s="230"/>
+      <c r="N443" s="230"/>
+      <c r="O443" s="230"/>
+      <c r="P443" s="230"/>
+      <c r="Q443" s="230"/>
+      <c r="R443" s="230"/>
+      <c r="S443" s="230"/>
+      <c r="T443" s="230"/>
+      <c r="U443" s="230"/>
+      <c r="V443" s="230"/>
+      <c r="W443" s="230"/>
+      <c r="X443" s="230"/>
+      <c r="Y443" s="230"/>
+      <c r="Z443" s="230"/>
+      <c r="AA443" s="230"/>
+      <c r="AB443" s="230"/>
+      <c r="AC443" s="230"/>
+      <c r="AD443" s="230"/>
+      <c r="AE443" s="230"/>
+      <c r="AF443" s="230"/>
+      <c r="AG443" s="230"/>
+      <c r="AH443" s="230"/>
+      <c r="AI443" s="230"/>
+    </row>
+    <row r="444" spans="2:35" s="223" customFormat="1">
+      <c r="B444" s="227"/>
+      <c r="C444" s="230"/>
+      <c r="D444" s="230"/>
+      <c r="E444" s="230"/>
+      <c r="F444" s="230"/>
+      <c r="G444" s="230"/>
+      <c r="H444" s="230"/>
+      <c r="I444" s="230"/>
+      <c r="J444" s="230"/>
+      <c r="K444" s="230"/>
+      <c r="L444" s="230"/>
+      <c r="M444" s="230"/>
+      <c r="N444" s="230"/>
+      <c r="O444" s="230"/>
+      <c r="P444" s="230"/>
+      <c r="Q444" s="230"/>
+      <c r="R444" s="230"/>
+      <c r="S444" s="230"/>
+      <c r="T444" s="230"/>
+      <c r="U444" s="230"/>
+      <c r="V444" s="230"/>
+      <c r="W444" s="230"/>
+      <c r="X444" s="230"/>
+      <c r="Y444" s="230"/>
+      <c r="Z444" s="230"/>
+      <c r="AA444" s="230"/>
+      <c r="AB444" s="230"/>
+      <c r="AC444" s="230"/>
+      <c r="AD444" s="230"/>
+      <c r="AE444" s="230"/>
+      <c r="AF444" s="230"/>
+      <c r="AG444" s="230"/>
+      <c r="AH444" s="230"/>
+      <c r="AI444" s="230"/>
+    </row>
+    <row r="445" spans="2:35" s="223" customFormat="1">
+      <c r="B445" s="227"/>
+      <c r="C445" s="230"/>
+      <c r="D445" s="230"/>
+      <c r="E445" s="230"/>
+      <c r="F445" s="230"/>
+      <c r="G445" s="230"/>
+      <c r="H445" s="230"/>
+      <c r="I445" s="230"/>
+      <c r="J445" s="230"/>
+      <c r="K445" s="230"/>
+      <c r="L445" s="230"/>
+      <c r="M445" s="230"/>
+      <c r="N445" s="230"/>
+      <c r="O445" s="230"/>
+      <c r="P445" s="230"/>
+      <c r="Q445" s="230"/>
+      <c r="R445" s="230"/>
+      <c r="S445" s="230"/>
+      <c r="T445" s="230"/>
+      <c r="U445" s="230"/>
+      <c r="V445" s="230"/>
+      <c r="W445" s="230"/>
+      <c r="X445" s="230"/>
+      <c r="Y445" s="230"/>
+      <c r="Z445" s="230"/>
+      <c r="AA445" s="230"/>
+      <c r="AB445" s="230"/>
+      <c r="AC445" s="230"/>
+      <c r="AD445" s="230"/>
+      <c r="AE445" s="230"/>
+      <c r="AF445" s="230"/>
+      <c r="AG445" s="230"/>
+      <c r="AH445" s="230"/>
+      <c r="AI445" s="230"/>
+    </row>
+    <row r="446" spans="2:35" s="223" customFormat="1">
+      <c r="B446" s="227"/>
+      <c r="C446" s="230"/>
+      <c r="D446" s="230"/>
+      <c r="E446" s="230"/>
+      <c r="F446" s="230"/>
+      <c r="G446" s="230"/>
+      <c r="H446" s="230"/>
+      <c r="I446" s="230"/>
+      <c r="J446" s="230"/>
+      <c r="K446" s="230"/>
+      <c r="L446" s="230"/>
+      <c r="M446" s="230"/>
+      <c r="N446" s="230"/>
+      <c r="O446" s="230"/>
+      <c r="P446" s="230"/>
+      <c r="Q446" s="230"/>
+      <c r="R446" s="230"/>
+      <c r="S446" s="230"/>
+      <c r="T446" s="230"/>
+      <c r="U446" s="230"/>
+      <c r="V446" s="230"/>
+      <c r="W446" s="230"/>
+      <c r="X446" s="230"/>
+      <c r="Y446" s="230"/>
+      <c r="Z446" s="230"/>
+      <c r="AA446" s="230"/>
+      <c r="AB446" s="230"/>
+      <c r="AC446" s="230"/>
+      <c r="AD446" s="230"/>
+      <c r="AE446" s="230"/>
+      <c r="AF446" s="230"/>
+      <c r="AG446" s="230"/>
+      <c r="AH446" s="230"/>
+      <c r="AI446" s="230"/>
+    </row>
+    <row r="447" spans="2:35" s="223" customFormat="1">
+      <c r="B447" s="227"/>
+      <c r="C447" s="230"/>
+      <c r="D447" s="230"/>
+      <c r="E447" s="230"/>
+      <c r="F447" s="230"/>
+      <c r="G447" s="230"/>
+      <c r="H447" s="230"/>
+      <c r="I447" s="230"/>
+      <c r="J447" s="230"/>
+      <c r="K447" s="230"/>
+      <c r="L447" s="230"/>
+      <c r="M447" s="230"/>
+      <c r="N447" s="230"/>
+      <c r="O447" s="230"/>
+      <c r="P447" s="230"/>
+      <c r="Q447" s="230"/>
+      <c r="R447" s="230"/>
+      <c r="S447" s="230"/>
+      <c r="T447" s="230"/>
+      <c r="U447" s="230"/>
+      <c r="V447" s="230"/>
+      <c r="W447" s="230"/>
+      <c r="X447" s="230"/>
+      <c r="Y447" s="230"/>
+      <c r="Z447" s="230"/>
+      <c r="AA447" s="230"/>
+      <c r="AB447" s="230"/>
+      <c r="AC447" s="230"/>
+      <c r="AD447" s="230"/>
+      <c r="AE447" s="230"/>
+      <c r="AF447" s="230"/>
+      <c r="AG447" s="230"/>
+      <c r="AH447" s="230"/>
+      <c r="AI447" s="230"/>
+    </row>
+    <row r="448" spans="2:35" s="223" customFormat="1">
+      <c r="B448" s="227"/>
+      <c r="C448" s="230"/>
+      <c r="D448" s="230"/>
+      <c r="E448" s="230"/>
+      <c r="F448" s="230"/>
+      <c r="G448" s="230"/>
+      <c r="H448" s="230"/>
+      <c r="I448" s="230"/>
+      <c r="J448" s="230"/>
+      <c r="K448" s="230"/>
+      <c r="L448" s="230"/>
+      <c r="M448" s="230"/>
+      <c r="N448" s="230"/>
+      <c r="O448" s="230"/>
+      <c r="P448" s="230"/>
+      <c r="Q448" s="230"/>
+      <c r="R448" s="230"/>
+      <c r="S448" s="230"/>
+      <c r="T448" s="230"/>
+      <c r="U448" s="230"/>
+      <c r="V448" s="230"/>
+      <c r="W448" s="230"/>
+      <c r="X448" s="230"/>
+      <c r="Y448" s="230"/>
+      <c r="Z448" s="230"/>
+      <c r="AA448" s="230"/>
+      <c r="AB448" s="230"/>
+      <c r="AC448" s="230"/>
+      <c r="AD448" s="230"/>
+      <c r="AE448" s="230"/>
+      <c r="AF448" s="230"/>
+      <c r="AG448" s="230"/>
+      <c r="AH448" s="230"/>
+      <c r="AI448" s="230"/>
+    </row>
+    <row r="449" spans="2:35" s="223" customFormat="1">
+      <c r="B449" s="227"/>
+      <c r="C449" s="230"/>
+      <c r="D449" s="230"/>
+      <c r="E449" s="230"/>
+      <c r="F449" s="230"/>
+      <c r="G449" s="230"/>
+      <c r="H449" s="230"/>
+      <c r="I449" s="230"/>
+      <c r="J449" s="230"/>
+      <c r="K449" s="230"/>
+      <c r="L449" s="230"/>
+      <c r="M449" s="230"/>
+      <c r="N449" s="230"/>
+      <c r="O449" s="230"/>
+      <c r="P449" s="230"/>
+      <c r="Q449" s="230"/>
+      <c r="R449" s="230"/>
+      <c r="S449" s="230"/>
+      <c r="T449" s="230"/>
+      <c r="U449" s="230"/>
+      <c r="V449" s="230"/>
+      <c r="W449" s="230"/>
+      <c r="X449" s="230"/>
+      <c r="Y449" s="230"/>
+      <c r="Z449" s="230"/>
+      <c r="AA449" s="230"/>
+      <c r="AB449" s="230"/>
+      <c r="AC449" s="230"/>
+      <c r="AD449" s="230"/>
+      <c r="AE449" s="230"/>
+      <c r="AF449" s="230"/>
+      <c r="AG449" s="230"/>
+      <c r="AH449" s="230"/>
+      <c r="AI449" s="230"/>
+    </row>
+    <row r="450" spans="2:35" s="223" customFormat="1">
+      <c r="B450" s="227"/>
+      <c r="C450" s="230"/>
+      <c r="D450" s="230"/>
+      <c r="E450" s="230"/>
+      <c r="F450" s="230"/>
+      <c r="G450" s="230"/>
+      <c r="H450" s="230"/>
+      <c r="I450" s="230"/>
+      <c r="J450" s="230"/>
+      <c r="K450" s="230"/>
+      <c r="L450" s="230"/>
+      <c r="M450" s="230"/>
+      <c r="N450" s="230"/>
+      <c r="O450" s="230"/>
+      <c r="P450" s="230"/>
+      <c r="Q450" s="230"/>
+      <c r="R450" s="230"/>
+      <c r="S450" s="230"/>
+      <c r="T450" s="230"/>
+      <c r="U450" s="230"/>
+      <c r="V450" s="230"/>
+      <c r="W450" s="230"/>
+      <c r="X450" s="230"/>
+      <c r="Y450" s="230"/>
+      <c r="Z450" s="230"/>
+      <c r="AA450" s="230"/>
+      <c r="AB450" s="230"/>
+      <c r="AC450" s="230"/>
+      <c r="AD450" s="230"/>
+      <c r="AE450" s="230"/>
+      <c r="AF450" s="230"/>
+      <c r="AG450" s="230"/>
+      <c r="AH450" s="230"/>
+      <c r="AI450" s="230"/>
+    </row>
+    <row r="451" spans="2:35" s="223" customFormat="1">
+      <c r="B451" s="227"/>
+      <c r="C451" s="230"/>
+      <c r="D451" s="230"/>
+      <c r="E451" s="230"/>
+      <c r="F451" s="230"/>
+      <c r="G451" s="230"/>
+      <c r="H451" s="230"/>
+      <c r="I451" s="230"/>
+      <c r="J451" s="230"/>
+      <c r="K451" s="230"/>
+      <c r="L451" s="230"/>
+      <c r="M451" s="230"/>
+      <c r="N451" s="230"/>
+      <c r="O451" s="230"/>
+      <c r="P451" s="230"/>
+      <c r="Q451" s="230"/>
+      <c r="R451" s="230"/>
+      <c r="S451" s="230"/>
+      <c r="T451" s="230"/>
+      <c r="U451" s="230"/>
+      <c r="V451" s="230"/>
+      <c r="W451" s="230"/>
+      <c r="X451" s="230"/>
+      <c r="Y451" s="230"/>
+      <c r="Z451" s="230"/>
+      <c r="AA451" s="230"/>
+      <c r="AB451" s="230"/>
+      <c r="AC451" s="230"/>
+      <c r="AD451" s="230"/>
+      <c r="AE451" s="230"/>
+      <c r="AF451" s="230"/>
+      <c r="AG451" s="230"/>
+      <c r="AH451" s="230"/>
+      <c r="AI451" s="230"/>
+    </row>
+    <row r="452" spans="2:35" s="223" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -13615,14 +13652,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="3.1640625" customWidth="1"/>
     <col min="3" max="3" width="46" customWidth="1"/>
@@ -13633,55 +13670,55 @@
     <col min="9" max="9" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" s="248" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D1" s="249"/>
-      <c r="E1" s="249"/>
-      <c r="F1" s="249"/>
-      <c r="G1" s="249"/>
-    </row>
-    <row r="2" spans="2:9" s="248" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="236" t="s">
-        <v>180</v>
-      </c>
-      <c r="C2" s="237"/>
-      <c r="D2" s="237"/>
-      <c r="E2" s="250"/>
-      <c r="F2" s="249"/>
-      <c r="G2" s="249"/>
-    </row>
-    <row r="3" spans="2:9" s="248" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="239"/>
-      <c r="C3" s="240"/>
-      <c r="D3" s="240"/>
-      <c r="E3" s="251"/>
-      <c r="F3" s="249"/>
-      <c r="G3" s="249"/>
-    </row>
-    <row r="4" spans="2:9" s="248" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="242"/>
-      <c r="C4" s="243"/>
-      <c r="D4" s="243"/>
-      <c r="E4" s="252"/>
-      <c r="F4" s="249"/>
-      <c r="G4" s="249"/>
-    </row>
-    <row r="5" spans="2:9" s="248" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="249"/>
-    </row>
-    <row r="6" spans="2:9" s="248" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="253"/>
+    <row r="1" spans="2:9" s="234" customFormat="1">
+      <c r="D1" s="235"/>
+      <c r="E1" s="235"/>
+      <c r="F1" s="235"/>
+      <c r="G1" s="235"/>
+    </row>
+    <row r="2" spans="2:9" s="234" customFormat="1">
+      <c r="B2" s="243" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" s="244"/>
+      <c r="D2" s="244"/>
+      <c r="E2" s="255"/>
+      <c r="F2" s="235"/>
+      <c r="G2" s="235"/>
+    </row>
+    <row r="3" spans="2:9" s="234" customFormat="1">
+      <c r="B3" s="246"/>
+      <c r="C3" s="247"/>
+      <c r="D3" s="247"/>
+      <c r="E3" s="256"/>
+      <c r="F3" s="235"/>
+      <c r="G3" s="235"/>
+    </row>
+    <row r="4" spans="2:9" s="234" customFormat="1">
+      <c r="B4" s="249"/>
+      <c r="C4" s="250"/>
+      <c r="D4" s="250"/>
+      <c r="E4" s="257"/>
+      <c r="F4" s="235"/>
+      <c r="G4" s="235"/>
+    </row>
+    <row r="5" spans="2:9" s="234" customFormat="1" ht="17" thickBot="1">
+      <c r="D5" s="235"/>
+    </row>
+    <row r="6" spans="2:9" s="234" customFormat="1">
+      <c r="B6" s="236"/>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
       <c r="H6" s="22"/>
-      <c r="I6" s="254"/>
-    </row>
-    <row r="7" spans="2:9" s="44" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="I6" s="237"/>
+    </row>
+    <row r="7" spans="2:9" s="44" customFormat="1" ht="19">
       <c r="B7" s="97"/>
       <c r="C7" s="21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D7" s="98" t="s">
         <v>5</v>
@@ -13693,36 +13730,36 @@
         <v>4</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H7" s="21" t="s">
         <v>0</v>
       </c>
       <c r="I7" s="101"/>
     </row>
-    <row r="8" spans="2:9" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" ht="20" thickBot="1">
       <c r="B8" s="25"/>
       <c r="I8" s="45"/>
     </row>
-    <row r="9" spans="2:9" s="44" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" s="44" customFormat="1" ht="20" thickBot="1">
       <c r="B9" s="25"/>
-      <c r="C9" s="255" t="s">
+      <c r="C9" s="238" t="s">
+        <v>182</v>
+      </c>
+      <c r="D9" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="E9" s="239">
+        <v>1.1718999999999999</v>
+      </c>
+      <c r="F9" s="238" t="s">
         <v>184</v>
       </c>
-      <c r="E9" s="256">
-        <v>1.1718999999999999</v>
-      </c>
-      <c r="F9" s="255" t="s">
+      <c r="G9" s="240">
+        <v>43068</v>
+      </c>
+      <c r="H9" s="241" t="s">
         <v>185</v>
-      </c>
-      <c r="G9" s="257">
-        <v>43068</v>
-      </c>
-      <c r="H9" s="258" t="s">
-        <v>186</v>
       </c>
       <c r="I9" s="45"/>
     </row>

--- a/carriers_source_analyses/wood_pellets.carrier.xlsx
+++ b/carriers_source_analyses/wood_pellets.carrier.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieldenhaan/Projects/etdataset/carriers_source_analyses/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlottevonm/Code/etdataset/carriers_source_analyses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F42673-23CE-484C-BA04-4CFC9D31DCD9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245727A5-20AD-454C-9164-94DA177514D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27780" windowHeight="16100" tabRatio="762" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27780" windowHeight="16100" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -44,6 +44,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -52,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="184">
   <si>
     <t>Source</t>
   </si>
@@ -549,12 +558,6 @@
   </si>
   <si>
     <t>Sikkema</t>
-  </si>
-  <si>
-    <t>CO2 emission from biomass is defined as 0</t>
-  </si>
-  <si>
-    <t>Actual CO2 emission from biomass</t>
   </si>
   <si>
     <t>potential_co2_conversion_per_mj</t>
@@ -648,7 +651,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="12">
+  <numFmts count="11">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
@@ -660,21 +663,13 @@
     <numFmt numFmtId="172" formatCode="0.00000000000000000"/>
     <numFmt numFmtId="173" formatCode="0.000000000000"/>
     <numFmt numFmtId="174" formatCode="#,##0.0000000000"/>
-    <numFmt numFmtId="175" formatCode="0.0000000000000000"/>
   </numFmts>
-  <fonts count="53">
+  <fonts count="52">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1533,760 +1528,758 @@
   </borders>
   <cellStyleXfs count="412">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="258">
+  <cellXfs count="256">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="25" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="24" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="20" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="31" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="31" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="30" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="183" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="183" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="24" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="23" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="19" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="18" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="20" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="20" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="183" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="183" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="20" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="20" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="20" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="38" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="38" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="38" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="37" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="37" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="37" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="4" fontId="38" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="38" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="38" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="37" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="37" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="37" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="170" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="38" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="38" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="37" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="37" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="38" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="38" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="38" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="37" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="37" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="37" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="183" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="183" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="17" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="45" fillId="13" borderId="0" xfId="396" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="45" fillId="13" borderId="0" xfId="396" applyFill="1"/>
-    <xf numFmtId="14" fontId="45" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" xfId="183" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="166" fontId="20" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="17" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="44" fillId="13" borderId="0" xfId="396" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="44" fillId="13" borderId="0" xfId="396" applyFill="1"/>
+    <xf numFmtId="14" fontId="44" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" xfId="183" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="173" fontId="16" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="20" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="20" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="173" fontId="15" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="174" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="24" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="174" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="23" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="49" fontId="34" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="33" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="47" fillId="4" borderId="0" xfId="183" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="48" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="48" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="48" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="46" fillId="4" borderId="0" xfId="183" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="47" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="47" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="47" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2295,50 +2288,50 @@
     <xf numFmtId="166" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4026,13 +4019,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="31" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="23" customWidth="1"/>
-    <col min="3" max="3" width="44.1640625" style="23" customWidth="1"/>
-    <col min="4" max="4" width="1.83203125" style="23" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="23"/>
+    <col min="1" max="1" width="3.42578125" style="31" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="1.85546875" style="23" customWidth="1"/>
+    <col min="5" max="16384" width="10.85546875" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="29" customFormat="1">
@@ -4224,25 +4217,25 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:J15"/>
+  <dimension ref="B1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="37" customWidth="1"/>
-    <col min="2" max="2" width="3.6640625" style="37" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="37" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="37" customWidth="1"/>
     <col min="3" max="3" width="46" style="37" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="37" customWidth="1"/>
-    <col min="5" max="5" width="26.5" style="37" customWidth="1"/>
-    <col min="6" max="6" width="4.5" style="37" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="37" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" style="37" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" style="37" customWidth="1"/>
     <col min="7" max="7" width="45" style="37" customWidth="1"/>
-    <col min="8" max="8" width="5.1640625" style="37" customWidth="1"/>
-    <col min="9" max="9" width="51.5" style="37" customWidth="1"/>
-    <col min="10" max="10" width="5.5" style="37" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="37"/>
+    <col min="8" max="8" width="5.140625" style="37" customWidth="1"/>
+    <col min="9" max="9" width="51.42578125" style="37" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="37" customWidth="1"/>
+    <col min="11" max="16384" width="10.85546875" style="37"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10">
@@ -4252,30 +4245,30 @@
       <c r="G1" s="35"/>
     </row>
     <row r="2" spans="2:10" ht="15" customHeight="1">
-      <c r="B2" s="243" t="s">
-        <v>175</v>
-      </c>
-      <c r="C2" s="244"/>
-      <c r="D2" s="244"/>
-      <c r="E2" s="244"/>
-      <c r="F2" s="244"/>
-      <c r="G2" s="245"/>
+      <c r="B2" s="241" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2" s="242"/>
+      <c r="D2" s="242"/>
+      <c r="E2" s="242"/>
+      <c r="F2" s="242"/>
+      <c r="G2" s="243"/>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="246"/>
-      <c r="C3" s="247"/>
-      <c r="D3" s="247"/>
-      <c r="E3" s="247"/>
-      <c r="F3" s="247"/>
-      <c r="G3" s="248"/>
+      <c r="B3" s="244"/>
+      <c r="C3" s="245"/>
+      <c r="D3" s="245"/>
+      <c r="E3" s="245"/>
+      <c r="F3" s="245"/>
+      <c r="G3" s="246"/>
     </row>
     <row r="4" spans="2:10" ht="64" customHeight="1">
-      <c r="B4" s="249"/>
-      <c r="C4" s="250"/>
-      <c r="D4" s="250"/>
-      <c r="E4" s="250"/>
-      <c r="F4" s="250"/>
-      <c r="G4" s="251"/>
+      <c r="B4" s="247"/>
+      <c r="C4" s="248"/>
+      <c r="D4" s="248"/>
+      <c r="E4" s="248"/>
+      <c r="F4" s="248"/>
+      <c r="G4" s="249"/>
     </row>
     <row r="5" spans="2:10" ht="17" thickBot="1">
       <c r="D5" s="35"/>
@@ -4361,97 +4354,33 @@
     <row r="11" spans="2:10" s="44" customFormat="1" ht="20" thickBot="1">
       <c r="B11" s="25"/>
       <c r="C11" s="114" t="s">
-        <v>39</v>
+        <v>149</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="207">
-        <f>'Research data'!G7</f>
-        <v>7.4930549629756062E-3</v>
+        <v>53</v>
+      </c>
+      <c r="E11" s="47">
+        <f>'Research data'!G8</f>
+        <v>18</v>
       </c>
       <c r="F11" s="36"/>
       <c r="G11" s="114"/>
       <c r="H11" s="32"/>
       <c r="I11" s="197" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="J11" s="45"/>
     </row>
-    <row r="12" spans="2:10" s="44" customFormat="1" ht="20" thickBot="1">
-      <c r="B12" s="25"/>
-      <c r="C12" s="114" t="s">
-        <v>149</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="47">
-        <f>'Research data'!G8</f>
-        <v>18</v>
-      </c>
-      <c r="F12" s="36"/>
-      <c r="G12" s="114"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="197" t="s">
-        <v>148</v>
-      </c>
-      <c r="J12" s="45"/>
-    </row>
-    <row r="13" spans="2:10" s="44" customFormat="1" ht="20" thickBot="1">
-      <c r="B13" s="25"/>
-      <c r="C13" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="192">
-        <f>nl_fce!E16</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="36"/>
-      <c r="G13" s="210" t="s">
-        <v>162</v>
-      </c>
-      <c r="H13" s="32"/>
-      <c r="I13" s="197" t="s">
-        <v>51</v>
-      </c>
-      <c r="J13" s="45"/>
-    </row>
-    <row r="14" spans="2:10" s="44" customFormat="1" ht="20" thickBot="1">
-      <c r="B14" s="25"/>
-      <c r="C14" s="210" t="s">
-        <v>164</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="192">
-        <f>'Research data'!G10</f>
-        <v>0.112</v>
-      </c>
-      <c r="F14" s="36"/>
-      <c r="G14" s="210" t="s">
-        <v>163</v>
-      </c>
-      <c r="H14" s="32"/>
-      <c r="I14" s="233" t="s">
-        <v>168</v>
-      </c>
-      <c r="J14" s="45"/>
-    </row>
-    <row r="15" spans="2:10" ht="20" customHeight="1" thickBot="1">
-      <c r="B15" s="41"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="43"/>
+    <row r="12" spans="2:10" ht="20" customHeight="1" thickBot="1">
+      <c r="B12" s="41"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4471,19 +4400,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="37" customWidth="1"/>
-    <col min="2" max="2" width="3.6640625" style="37" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="37" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="37" customWidth="1"/>
     <col min="3" max="3" width="46" style="37" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="37" customWidth="1"/>
-    <col min="5" max="5" width="17.5" style="37" customWidth="1"/>
-    <col min="6" max="6" width="4.5" style="37" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="37" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="37" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" style="37" customWidth="1"/>
     <col min="7" max="7" width="45" style="37" customWidth="1"/>
-    <col min="8" max="8" width="5.1640625" style="37" customWidth="1"/>
-    <col min="9" max="9" width="51.5" style="37" customWidth="1"/>
-    <col min="10" max="10" width="5.5" style="37" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="37"/>
+    <col min="8" max="8" width="5.140625" style="37" customWidth="1"/>
+    <col min="9" max="9" width="51.42578125" style="37" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="37" customWidth="1"/>
+    <col min="11" max="16384" width="10.85546875" style="37"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10">
@@ -4493,28 +4422,28 @@
       <c r="G1" s="35"/>
     </row>
     <row r="2" spans="2:10" ht="15" customHeight="1">
-      <c r="B2" s="243" t="s">
+      <c r="B2" s="241" t="s">
         <v>153</v>
       </c>
-      <c r="C2" s="244"/>
-      <c r="D2" s="244"/>
-      <c r="E2" s="245"/>
+      <c r="C2" s="242"/>
+      <c r="D2" s="242"/>
+      <c r="E2" s="243"/>
       <c r="F2" s="35"/>
       <c r="G2" s="35"/>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="246"/>
-      <c r="C3" s="247"/>
-      <c r="D3" s="247"/>
-      <c r="E3" s="248"/>
+      <c r="B3" s="244"/>
+      <c r="C3" s="245"/>
+      <c r="D3" s="245"/>
+      <c r="E3" s="246"/>
       <c r="F3" s="35"/>
       <c r="G3" s="35"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="252"/>
-      <c r="C4" s="253"/>
-      <c r="D4" s="253"/>
-      <c r="E4" s="254"/>
+      <c r="B4" s="250"/>
+      <c r="C4" s="251"/>
+      <c r="D4" s="251"/>
+      <c r="E4" s="252"/>
       <c r="F4" s="35"/>
       <c r="G4" s="35"/>
     </row>
@@ -4590,7 +4519,7 @@
     </row>
     <row r="11" spans="2:10" ht="17" thickBot="1">
       <c r="B11" s="40"/>
-      <c r="C11" s="208" t="s">
+      <c r="C11" s="207" t="s">
         <v>156</v>
       </c>
       <c r="D11" s="114"/>
@@ -4735,7 +4664,7 @@
     </row>
     <row r="18" spans="2:10" ht="17" thickBot="1">
       <c r="B18" s="40"/>
-      <c r="C18" s="209" t="s">
+      <c r="C18" s="208" t="s">
         <v>157</v>
       </c>
       <c r="D18" s="24" t="s">
@@ -4780,34 +4709,34 @@
   </sheetPr>
   <dimension ref="B1:W22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="3.5" style="65" customWidth="1"/>
-    <col min="3" max="3" width="35.83203125" style="65" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="65" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" style="65" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="65" customWidth="1"/>
-    <col min="7" max="7" width="12.83203125" style="65" customWidth="1"/>
-    <col min="8" max="8" width="4.6640625" style="65" customWidth="1"/>
-    <col min="9" max="9" width="9.83203125" style="66" customWidth="1"/>
+    <col min="1" max="2" width="3.42578125" style="65" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="65" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="65" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="65" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="65" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="65" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" style="65" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" style="66" customWidth="1"/>
     <col min="10" max="10" width="3" style="66" customWidth="1"/>
-    <col min="11" max="11" width="8.5" style="66" customWidth="1"/>
-    <col min="12" max="12" width="2.6640625" style="66" customWidth="1"/>
-    <col min="13" max="13" width="8.5" style="66" customWidth="1"/>
-    <col min="14" max="14" width="2.6640625" style="66" customWidth="1"/>
-    <col min="15" max="15" width="8.5" style="66" customWidth="1"/>
-    <col min="16" max="16" width="2.6640625" style="66" customWidth="1"/>
-    <col min="17" max="17" width="8.5" style="66" customWidth="1"/>
-    <col min="18" max="18" width="2.6640625" style="66" customWidth="1"/>
-    <col min="19" max="19" width="9.5" style="66" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="9.5" style="66" customWidth="1"/>
-    <col min="22" max="22" width="2.6640625" style="66" customWidth="1"/>
+    <col min="11" max="11" width="8.42578125" style="66" customWidth="1"/>
+    <col min="12" max="12" width="2.7109375" style="66" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" style="66" customWidth="1"/>
+    <col min="14" max="14" width="2.7109375" style="66" customWidth="1"/>
+    <col min="15" max="15" width="8.42578125" style="66" customWidth="1"/>
+    <col min="16" max="16" width="2.7109375" style="66" customWidth="1"/>
+    <col min="17" max="17" width="8.42578125" style="66" customWidth="1"/>
+    <col min="18" max="18" width="2.7109375" style="66" customWidth="1"/>
+    <col min="19" max="19" width="9.42578125" style="66" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="9.42578125" style="66" customWidth="1"/>
+    <col min="22" max="22" width="2.7109375" style="66" customWidth="1"/>
     <col min="23" max="23" width="60" style="65" customWidth="1"/>
-    <col min="24" max="16384" width="10.83203125" style="65"/>
+    <col min="24" max="16384" width="10.85546875" style="65"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:23" ht="17" thickBot="1"/>
@@ -4873,10 +4802,10 @@
         <v>143</v>
       </c>
       <c r="T3" s="64" t="s">
+        <v>164</v>
+      </c>
+      <c r="U3" s="64" t="s">
         <v>166</v>
-      </c>
-      <c r="U3" s="64" t="s">
-        <v>168</v>
       </c>
       <c r="V3" s="64"/>
       <c r="W3" s="1" t="s">
@@ -5000,8 +4929,8 @@
         <f>Notes!F386</f>
         <v>7.4930549629756062E-3</v>
       </c>
-      <c r="T7" s="212"/>
-      <c r="U7" s="212"/>
+      <c r="T7" s="211"/>
+      <c r="U7" s="211"/>
       <c r="V7" s="16"/>
       <c r="W7" s="185" t="s">
         <v>142</v>
@@ -5084,19 +5013,19 @@
       <c r="Q9" s="16"/>
       <c r="R9" s="16"/>
       <c r="S9" s="16"/>
-      <c r="T9" s="214">
+      <c r="T9" s="213">
         <v>0</v>
       </c>
       <c r="U9" s="16"/>
       <c r="V9" s="16"/>
-      <c r="W9" s="213" t="s">
-        <v>167</v>
+      <c r="W9" s="212" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="2:23" s="6" customFormat="1" ht="17" thickBot="1">
       <c r="B10" s="5"/>
-      <c r="C10" s="211" t="s">
-        <v>165</v>
+      <c r="C10" s="210" t="s">
+        <v>163</v>
       </c>
       <c r="D10" s="120"/>
       <c r="E10" s="120"/>
@@ -5399,7 +5328,7 @@
       </c>
       <c r="E22" s="192"/>
       <c r="F22" s="36"/>
-      <c r="G22" s="210"/>
+      <c r="G22" s="209"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5418,19 +5347,19 @@
       <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="48" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="48" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" style="48" customWidth="1"/>
-    <col min="4" max="4" width="3.1640625" style="48" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" style="48" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="48" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="48" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" style="48" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" style="48" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="48" customWidth="1"/>
     <col min="6" max="6" width="5" style="48" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" style="48" customWidth="1"/>
-    <col min="8" max="10" width="12.1640625" style="48" customWidth="1"/>
-    <col min="11" max="11" width="33.1640625" style="49" customWidth="1"/>
-    <col min="12" max="12" width="87.33203125" style="48" customWidth="1"/>
-    <col min="13" max="16384" width="33.1640625" style="48"/>
+    <col min="7" max="7" width="10.28515625" style="48" customWidth="1"/>
+    <col min="8" max="10" width="12.140625" style="48" customWidth="1"/>
+    <col min="11" max="11" width="33.140625" style="49" customWidth="1"/>
+    <col min="12" max="12" width="87.28515625" style="48" customWidth="1"/>
+    <col min="13" max="16384" width="33.140625" style="48"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17" thickBot="1"/>
@@ -5522,14 +5451,14 @@
       <c r="C7" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="234" t="s">
-        <v>176</v>
+      <c r="E7" s="232" t="s">
+        <v>174</v>
       </c>
       <c r="H7" s="48">
         <v>2017</v>
       </c>
       <c r="L7" s="49" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -5594,29 +5523,29 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="222" customFormat="1">
-      <c r="A12" s="215"/>
-      <c r="B12" s="216"/>
-      <c r="C12" s="217" t="s">
-        <v>164</v>
-      </c>
-      <c r="D12" s="218"/>
-      <c r="E12" s="217" t="s">
+    <row r="12" spans="1:12" s="221" customFormat="1">
+      <c r="A12" s="214"/>
+      <c r="B12" s="215"/>
+      <c r="C12" s="216" t="s">
+        <v>162</v>
+      </c>
+      <c r="D12" s="217"/>
+      <c r="E12" s="216" t="s">
+        <v>166</v>
+      </c>
+      <c r="F12" s="216"/>
+      <c r="G12" s="214" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="218" t="s">
+        <v>167</v>
+      </c>
+      <c r="I12" s="218"/>
+      <c r="J12" s="218"/>
+      <c r="K12" s="220" t="s">
         <v>168</v>
       </c>
-      <c r="F12" s="217"/>
-      <c r="G12" s="215" t="s">
-        <v>64</v>
-      </c>
-      <c r="H12" s="219" t="s">
-        <v>169</v>
-      </c>
-      <c r="I12" s="219"/>
-      <c r="J12" s="219"/>
-      <c r="K12" s="221" t="s">
-        <v>170</v>
-      </c>
-      <c r="L12" s="220"/>
+      <c r="L12" s="219"/>
     </row>
     <row r="13" spans="1:12">
       <c r="B13" s="53"/>
@@ -5747,15 +5676,15 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="109" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="109" customWidth="1"/>
     <col min="2" max="2" width="5" style="109" customWidth="1"/>
     <col min="3" max="5" width="7" style="109"/>
-    <col min="6" max="6" width="20.33203125" style="109" customWidth="1"/>
-    <col min="7" max="7" width="7.1640625" style="109" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.1640625" style="109" customWidth="1"/>
-    <col min="9" max="9" width="7.6640625" style="109" customWidth="1"/>
-    <col min="10" max="10" width="16.5" style="109" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.83203125" style="109" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" style="109" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" style="109" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" style="109" customWidth="1"/>
+    <col min="9" max="9" width="7.7109375" style="109" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" style="109" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.85546875" style="109" customWidth="1"/>
     <col min="12" max="16384" width="7" style="109"/>
   </cols>
   <sheetData>
@@ -11330,21 +11259,21 @@
     </row>
     <row r="380" spans="1:25" customFormat="1" ht="18" thickTop="1" thickBot="1">
       <c r="B380" s="110"/>
-      <c r="C380" s="234" t="s">
-        <v>176</v>
+      <c r="C380" s="232" t="s">
+        <v>174</v>
       </c>
       <c r="D380" s="122"/>
       <c r="E380" s="122"/>
-      <c r="F380" s="242">
+      <c r="F380" s="240">
         <v>158.06</v>
       </c>
       <c r="G380" s="122" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H380" s="122"/>
       <c r="I380" s="122"/>
       <c r="J380" s="191" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K380" s="122"/>
       <c r="L380" s="122"/>
@@ -11367,12 +11296,12 @@
       <c r="C381" s="125"/>
       <c r="D381" s="122"/>
       <c r="E381" s="122"/>
-      <c r="F381" s="242">
+      <c r="F381" s="240">
         <f>Exchange_rates!E9</f>
         <v>1.1718999999999999</v>
       </c>
       <c r="G381" s="122" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H381" s="122"/>
       <c r="I381" s="122"/>
@@ -11471,96 +11400,96 @@
     <row r="390" spans="2:35">
       <c r="B390" s="110"/>
     </row>
-    <row r="391" spans="2:35" s="223" customFormat="1" ht="17" thickBot="1"/>
-    <row r="392" spans="2:35" s="223" customFormat="1">
-      <c r="B392" s="224"/>
-      <c r="C392" s="225" t="s">
+    <row r="391" spans="2:35" s="222" customFormat="1" ht="17" thickBot="1"/>
+    <row r="392" spans="2:35" s="222" customFormat="1">
+      <c r="B392" s="223"/>
+      <c r="C392" s="224" t="s">
         <v>25</v>
       </c>
-      <c r="D392" s="225" t="s">
+      <c r="D392" s="224" t="s">
         <v>57</v>
       </c>
-      <c r="E392" s="225"/>
-      <c r="F392" s="225" t="s">
+      <c r="E392" s="224"/>
+      <c r="F392" s="224" t="s">
         <v>32</v>
       </c>
-      <c r="G392" s="225"/>
-      <c r="H392" s="225"/>
-      <c r="I392" s="225"/>
-      <c r="J392" s="225"/>
-      <c r="K392" s="225"/>
-      <c r="L392" s="225"/>
-      <c r="M392" s="225"/>
-      <c r="N392" s="225"/>
-      <c r="O392" s="225"/>
-      <c r="P392" s="225"/>
-      <c r="Q392" s="225"/>
-      <c r="R392" s="225"/>
-      <c r="S392" s="225"/>
-      <c r="T392" s="225"/>
-      <c r="U392" s="225"/>
-      <c r="V392" s="226"/>
-      <c r="W392" s="226"/>
-      <c r="X392" s="226"/>
-      <c r="Y392" s="226"/>
-      <c r="Z392" s="226"/>
-      <c r="AA392" s="226"/>
-      <c r="AB392" s="226"/>
-      <c r="AC392" s="226"/>
-      <c r="AD392" s="226"/>
-      <c r="AE392" s="226"/>
-      <c r="AF392" s="226"/>
-      <c r="AG392" s="226"/>
-      <c r="AH392" s="226"/>
-      <c r="AI392" s="226"/>
-    </row>
-    <row r="393" spans="2:35" s="223" customFormat="1">
-      <c r="B393" s="227"/>
-      <c r="C393" s="217"/>
-      <c r="D393" s="217"/>
-      <c r="E393" s="217"/>
-      <c r="F393" s="217"/>
-      <c r="G393" s="217"/>
-      <c r="H393" s="217"/>
-      <c r="I393" s="217"/>
-      <c r="J393" s="217"/>
-      <c r="K393" s="217"/>
-      <c r="L393" s="217"/>
-      <c r="M393" s="217"/>
-      <c r="N393" s="217"/>
-      <c r="O393" s="217"/>
-      <c r="P393" s="217"/>
-      <c r="Q393" s="217"/>
-      <c r="R393" s="217"/>
-      <c r="S393" s="217"/>
-      <c r="T393" s="217"/>
-      <c r="U393" s="217"/>
-      <c r="V393" s="217"/>
-      <c r="W393" s="217"/>
-      <c r="X393" s="217"/>
-      <c r="Y393" s="217"/>
-      <c r="Z393" s="217"/>
-      <c r="AA393" s="217"/>
-      <c r="AB393" s="217"/>
-      <c r="AC393" s="217"/>
-      <c r="AD393" s="217"/>
-      <c r="AE393" s="217"/>
-      <c r="AF393" s="217"/>
-      <c r="AG393" s="217"/>
-      <c r="AH393" s="217"/>
-      <c r="AI393" s="217"/>
-    </row>
-    <row r="394" spans="2:35" s="223" customFormat="1">
-      <c r="B394" s="227"/>
-      <c r="C394" s="228" t="s">
-        <v>171</v>
-      </c>
-      <c r="D394" s="229"/>
-      <c r="E394" s="229"/>
-      <c r="F394" s="229"/>
-      <c r="G394" s="229"/>
-      <c r="H394" s="229"/>
-      <c r="I394" s="229"/>
+      <c r="G392" s="224"/>
+      <c r="H392" s="224"/>
+      <c r="I392" s="224"/>
+      <c r="J392" s="224"/>
+      <c r="K392" s="224"/>
+      <c r="L392" s="224"/>
+      <c r="M392" s="224"/>
+      <c r="N392" s="224"/>
+      <c r="O392" s="224"/>
+      <c r="P392" s="224"/>
+      <c r="Q392" s="224"/>
+      <c r="R392" s="224"/>
+      <c r="S392" s="224"/>
+      <c r="T392" s="224"/>
+      <c r="U392" s="224"/>
+      <c r="V392" s="225"/>
+      <c r="W392" s="225"/>
+      <c r="X392" s="225"/>
+      <c r="Y392" s="225"/>
+      <c r="Z392" s="225"/>
+      <c r="AA392" s="225"/>
+      <c r="AB392" s="225"/>
+      <c r="AC392" s="225"/>
+      <c r="AD392" s="225"/>
+      <c r="AE392" s="225"/>
+      <c r="AF392" s="225"/>
+      <c r="AG392" s="225"/>
+      <c r="AH392" s="225"/>
+      <c r="AI392" s="225"/>
+    </row>
+    <row r="393" spans="2:35" s="222" customFormat="1">
+      <c r="B393" s="226"/>
+      <c r="C393" s="216"/>
+      <c r="D393" s="216"/>
+      <c r="E393" s="216"/>
+      <c r="F393" s="216"/>
+      <c r="G393" s="216"/>
+      <c r="H393" s="216"/>
+      <c r="I393" s="216"/>
+      <c r="J393" s="216"/>
+      <c r="K393" s="216"/>
+      <c r="L393" s="216"/>
+      <c r="M393" s="216"/>
+      <c r="N393" s="216"/>
+      <c r="O393" s="216"/>
+      <c r="P393" s="216"/>
+      <c r="Q393" s="216"/>
+      <c r="R393" s="216"/>
+      <c r="S393" s="216"/>
+      <c r="T393" s="216"/>
+      <c r="U393" s="216"/>
+      <c r="V393" s="216"/>
+      <c r="W393" s="216"/>
+      <c r="X393" s="216"/>
+      <c r="Y393" s="216"/>
+      <c r="Z393" s="216"/>
+      <c r="AA393" s="216"/>
+      <c r="AB393" s="216"/>
+      <c r="AC393" s="216"/>
+      <c r="AD393" s="216"/>
+      <c r="AE393" s="216"/>
+      <c r="AF393" s="216"/>
+      <c r="AG393" s="216"/>
+      <c r="AH393" s="216"/>
+      <c r="AI393" s="216"/>
+    </row>
+    <row r="394" spans="2:35" s="222" customFormat="1">
+      <c r="B394" s="226"/>
+      <c r="C394" s="227" t="s">
+        <v>169</v>
+      </c>
+      <c r="D394" s="228"/>
+      <c r="E394" s="228"/>
+      <c r="F394" s="228"/>
+      <c r="G394" s="228"/>
+      <c r="H394" s="228"/>
+      <c r="I394" s="228"/>
       <c r="J394" s="122"/>
       <c r="K394" s="122"/>
       <c r="L394" s="122"/>
@@ -11577,26 +11506,26 @@
       <c r="W394" s="122"/>
       <c r="X394" s="122"/>
       <c r="Y394" s="122"/>
-      <c r="Z394" s="230"/>
-      <c r="AA394" s="230"/>
-      <c r="AB394" s="230"/>
-      <c r="AC394" s="230"/>
-      <c r="AD394" s="230"/>
-      <c r="AE394" s="230"/>
-      <c r="AF394" s="230"/>
-      <c r="AG394" s="230"/>
-      <c r="AH394" s="230"/>
-      <c r="AI394" s="230"/>
-    </row>
-    <row r="395" spans="2:35" s="223" customFormat="1">
-      <c r="B395" s="227"/>
-      <c r="C395" s="229"/>
-      <c r="D395" s="229"/>
-      <c r="E395" s="229"/>
-      <c r="F395" s="229"/>
-      <c r="G395" s="229"/>
-      <c r="H395" s="229"/>
-      <c r="I395" s="229"/>
+      <c r="Z394" s="229"/>
+      <c r="AA394" s="229"/>
+      <c r="AB394" s="229"/>
+      <c r="AC394" s="229"/>
+      <c r="AD394" s="229"/>
+      <c r="AE394" s="229"/>
+      <c r="AF394" s="229"/>
+      <c r="AG394" s="229"/>
+      <c r="AH394" s="229"/>
+      <c r="AI394" s="229"/>
+    </row>
+    <row r="395" spans="2:35" s="222" customFormat="1">
+      <c r="B395" s="226"/>
+      <c r="C395" s="228"/>
+      <c r="D395" s="228"/>
+      <c r="E395" s="228"/>
+      <c r="F395" s="228"/>
+      <c r="G395" s="228"/>
+      <c r="H395" s="228"/>
+      <c r="I395" s="228"/>
       <c r="J395" s="122"/>
       <c r="K395" s="122"/>
       <c r="L395" s="122"/>
@@ -11613,26 +11542,26 @@
       <c r="W395" s="122"/>
       <c r="X395" s="122"/>
       <c r="Y395" s="122"/>
-      <c r="Z395" s="230"/>
-      <c r="AA395" s="230"/>
-      <c r="AB395" s="230"/>
-      <c r="AC395" s="230"/>
-      <c r="AD395" s="230"/>
-      <c r="AE395" s="230"/>
-      <c r="AF395" s="230"/>
-      <c r="AG395" s="230"/>
-      <c r="AH395" s="230"/>
-      <c r="AI395" s="230"/>
-    </row>
-    <row r="396" spans="2:35" s="223" customFormat="1">
-      <c r="B396" s="227"/>
-      <c r="C396" s="229"/>
-      <c r="D396" s="229"/>
-      <c r="E396" s="229"/>
-      <c r="F396" s="229"/>
-      <c r="G396" s="229"/>
-      <c r="H396" s="229"/>
-      <c r="I396" s="229"/>
+      <c r="Z395" s="229"/>
+      <c r="AA395" s="229"/>
+      <c r="AB395" s="229"/>
+      <c r="AC395" s="229"/>
+      <c r="AD395" s="229"/>
+      <c r="AE395" s="229"/>
+      <c r="AF395" s="229"/>
+      <c r="AG395" s="229"/>
+      <c r="AH395" s="229"/>
+      <c r="AI395" s="229"/>
+    </row>
+    <row r="396" spans="2:35" s="222" customFormat="1">
+      <c r="B396" s="226"/>
+      <c r="C396" s="228"/>
+      <c r="D396" s="228"/>
+      <c r="E396" s="228"/>
+      <c r="F396" s="228"/>
+      <c r="G396" s="228"/>
+      <c r="H396" s="228"/>
+      <c r="I396" s="228"/>
       <c r="J396" s="122"/>
       <c r="K396" s="122"/>
       <c r="L396" s="122"/>
@@ -11649,26 +11578,26 @@
       <c r="W396" s="122"/>
       <c r="X396" s="122"/>
       <c r="Y396" s="122"/>
-      <c r="Z396" s="230"/>
-      <c r="AA396" s="230"/>
-      <c r="AB396" s="230"/>
-      <c r="AC396" s="230"/>
-      <c r="AD396" s="230"/>
-      <c r="AE396" s="230"/>
-      <c r="AF396" s="230"/>
-      <c r="AG396" s="230"/>
-      <c r="AH396" s="230"/>
-      <c r="AI396" s="230"/>
-    </row>
-    <row r="397" spans="2:35" s="223" customFormat="1">
-      <c r="B397" s="227"/>
-      <c r="C397" s="229"/>
-      <c r="D397" s="229"/>
-      <c r="E397" s="229"/>
-      <c r="F397" s="229"/>
-      <c r="G397" s="229"/>
-      <c r="H397" s="229"/>
-      <c r="I397" s="229"/>
+      <c r="Z396" s="229"/>
+      <c r="AA396" s="229"/>
+      <c r="AB396" s="229"/>
+      <c r="AC396" s="229"/>
+      <c r="AD396" s="229"/>
+      <c r="AE396" s="229"/>
+      <c r="AF396" s="229"/>
+      <c r="AG396" s="229"/>
+      <c r="AH396" s="229"/>
+      <c r="AI396" s="229"/>
+    </row>
+    <row r="397" spans="2:35" s="222" customFormat="1">
+      <c r="B397" s="226"/>
+      <c r="C397" s="228"/>
+      <c r="D397" s="228"/>
+      <c r="E397" s="228"/>
+      <c r="F397" s="228"/>
+      <c r="G397" s="228"/>
+      <c r="H397" s="228"/>
+      <c r="I397" s="228"/>
       <c r="J397" s="122"/>
       <c r="K397" s="122"/>
       <c r="L397" s="122"/>
@@ -11685,26 +11614,26 @@
       <c r="W397" s="122"/>
       <c r="X397" s="122"/>
       <c r="Y397" s="122"/>
-      <c r="Z397" s="230"/>
-      <c r="AA397" s="230"/>
-      <c r="AB397" s="230"/>
-      <c r="AC397" s="230"/>
-      <c r="AD397" s="230"/>
-      <c r="AE397" s="230"/>
-      <c r="AF397" s="230"/>
-      <c r="AG397" s="230"/>
-      <c r="AH397" s="230"/>
-      <c r="AI397" s="230"/>
-    </row>
-    <row r="398" spans="2:35" s="223" customFormat="1">
-      <c r="B398" s="227"/>
-      <c r="C398" s="229"/>
-      <c r="D398" s="229"/>
-      <c r="E398" s="229"/>
-      <c r="F398" s="229"/>
-      <c r="G398" s="229"/>
-      <c r="H398" s="229"/>
-      <c r="I398" s="229"/>
+      <c r="Z397" s="229"/>
+      <c r="AA397" s="229"/>
+      <c r="AB397" s="229"/>
+      <c r="AC397" s="229"/>
+      <c r="AD397" s="229"/>
+      <c r="AE397" s="229"/>
+      <c r="AF397" s="229"/>
+      <c r="AG397" s="229"/>
+      <c r="AH397" s="229"/>
+      <c r="AI397" s="229"/>
+    </row>
+    <row r="398" spans="2:35" s="222" customFormat="1">
+      <c r="B398" s="226"/>
+      <c r="C398" s="228"/>
+      <c r="D398" s="228"/>
+      <c r="E398" s="228"/>
+      <c r="F398" s="228"/>
+      <c r="G398" s="228"/>
+      <c r="H398" s="228"/>
+      <c r="I398" s="228"/>
       <c r="J398" s="122"/>
       <c r="K398" s="122"/>
       <c r="L398" s="122"/>
@@ -11721,21 +11650,21 @@
       <c r="W398" s="122"/>
       <c r="X398" s="122"/>
       <c r="Y398" s="122"/>
-      <c r="Z398" s="230"/>
-      <c r="AA398" s="230"/>
-      <c r="AB398" s="230"/>
-      <c r="AC398" s="230"/>
-      <c r="AD398" s="230"/>
-      <c r="AE398" s="230"/>
-      <c r="AF398" s="230"/>
-      <c r="AG398" s="230"/>
-      <c r="AH398" s="230"/>
-      <c r="AI398" s="230"/>
-    </row>
-    <row r="399" spans="2:35" s="223" customFormat="1">
-      <c r="B399" s="227"/>
-      <c r="C399" s="229"/>
-      <c r="I399" s="229"/>
+      <c r="Z398" s="229"/>
+      <c r="AA398" s="229"/>
+      <c r="AB398" s="229"/>
+      <c r="AC398" s="229"/>
+      <c r="AD398" s="229"/>
+      <c r="AE398" s="229"/>
+      <c r="AF398" s="229"/>
+      <c r="AG398" s="229"/>
+      <c r="AH398" s="229"/>
+      <c r="AI398" s="229"/>
+    </row>
+    <row r="399" spans="2:35" s="222" customFormat="1">
+      <c r="B399" s="226"/>
+      <c r="C399" s="228"/>
+      <c r="I399" s="228"/>
       <c r="J399" s="122"/>
       <c r="K399" s="122"/>
       <c r="L399" s="122"/>
@@ -11752,21 +11681,21 @@
       <c r="W399" s="122"/>
       <c r="X399" s="122"/>
       <c r="Y399" s="122"/>
-      <c r="Z399" s="230"/>
-      <c r="AA399" s="230"/>
-      <c r="AB399" s="230"/>
-      <c r="AC399" s="230"/>
-      <c r="AD399" s="230"/>
-      <c r="AE399" s="230"/>
-      <c r="AF399" s="230"/>
-      <c r="AG399" s="230"/>
-      <c r="AH399" s="230"/>
-      <c r="AI399" s="230"/>
-    </row>
-    <row r="400" spans="2:35" s="223" customFormat="1">
-      <c r="B400" s="227"/>
-      <c r="C400" s="229"/>
-      <c r="I400" s="229"/>
+      <c r="Z399" s="229"/>
+      <c r="AA399" s="229"/>
+      <c r="AB399" s="229"/>
+      <c r="AC399" s="229"/>
+      <c r="AD399" s="229"/>
+      <c r="AE399" s="229"/>
+      <c r="AF399" s="229"/>
+      <c r="AG399" s="229"/>
+      <c r="AH399" s="229"/>
+      <c r="AI399" s="229"/>
+    </row>
+    <row r="400" spans="2:35" s="222" customFormat="1">
+      <c r="B400" s="226"/>
+      <c r="C400" s="228"/>
+      <c r="I400" s="228"/>
       <c r="J400" s="122"/>
       <c r="K400" s="122"/>
       <c r="L400" s="122"/>
@@ -11783,21 +11712,21 @@
       <c r="W400" s="122"/>
       <c r="X400" s="122"/>
       <c r="Y400" s="122"/>
-      <c r="Z400" s="230"/>
-      <c r="AA400" s="230"/>
-      <c r="AB400" s="230"/>
-      <c r="AC400" s="230"/>
-      <c r="AD400" s="230"/>
-      <c r="AE400" s="230"/>
-      <c r="AF400" s="230"/>
-      <c r="AG400" s="230"/>
-      <c r="AH400" s="230"/>
-      <c r="AI400" s="230"/>
-    </row>
-    <row r="401" spans="2:35" s="223" customFormat="1">
-      <c r="B401" s="227"/>
-      <c r="C401" s="229"/>
-      <c r="I401" s="229"/>
+      <c r="Z400" s="229"/>
+      <c r="AA400" s="229"/>
+      <c r="AB400" s="229"/>
+      <c r="AC400" s="229"/>
+      <c r="AD400" s="229"/>
+      <c r="AE400" s="229"/>
+      <c r="AF400" s="229"/>
+      <c r="AG400" s="229"/>
+      <c r="AH400" s="229"/>
+      <c r="AI400" s="229"/>
+    </row>
+    <row r="401" spans="2:35" s="222" customFormat="1">
+      <c r="B401" s="226"/>
+      <c r="C401" s="228"/>
+      <c r="I401" s="228"/>
       <c r="J401" s="122"/>
       <c r="K401" s="122"/>
       <c r="L401" s="122"/>
@@ -11814,19 +11743,19 @@
       <c r="W401" s="122"/>
       <c r="X401" s="122"/>
       <c r="Y401" s="122"/>
-      <c r="Z401" s="230"/>
-      <c r="AA401" s="230"/>
-      <c r="AB401" s="230"/>
-      <c r="AC401" s="230"/>
-      <c r="AD401" s="230"/>
-      <c r="AE401" s="230"/>
-      <c r="AF401" s="230"/>
-      <c r="AG401" s="230"/>
-      <c r="AH401" s="230"/>
-      <c r="AI401" s="230"/>
-    </row>
-    <row r="402" spans="2:35" s="223" customFormat="1">
-      <c r="B402" s="227"/>
+      <c r="Z401" s="229"/>
+      <c r="AA401" s="229"/>
+      <c r="AB401" s="229"/>
+      <c r="AC401" s="229"/>
+      <c r="AD401" s="229"/>
+      <c r="AE401" s="229"/>
+      <c r="AF401" s="229"/>
+      <c r="AG401" s="229"/>
+      <c r="AH401" s="229"/>
+      <c r="AI401" s="229"/>
+    </row>
+    <row r="402" spans="2:35" s="222" customFormat="1">
+      <c r="B402" s="226"/>
       <c r="C402" s="122"/>
       <c r="D402" s="122"/>
       <c r="E402" s="122"/>
@@ -11850,19 +11779,19 @@
       <c r="W402" s="122"/>
       <c r="X402" s="122"/>
       <c r="Y402" s="122"/>
-      <c r="Z402" s="230"/>
-      <c r="AA402" s="230"/>
-      <c r="AB402" s="230"/>
-      <c r="AC402" s="230"/>
-      <c r="AD402" s="230"/>
-      <c r="AE402" s="230"/>
-      <c r="AF402" s="230"/>
-      <c r="AG402" s="230"/>
-      <c r="AH402" s="230"/>
-      <c r="AI402" s="230"/>
-    </row>
-    <row r="403" spans="2:35" s="223" customFormat="1">
-      <c r="B403" s="227"/>
+      <c r="Z402" s="229"/>
+      <c r="AA402" s="229"/>
+      <c r="AB402" s="229"/>
+      <c r="AC402" s="229"/>
+      <c r="AD402" s="229"/>
+      <c r="AE402" s="229"/>
+      <c r="AF402" s="229"/>
+      <c r="AG402" s="229"/>
+      <c r="AH402" s="229"/>
+      <c r="AI402" s="229"/>
+    </row>
+    <row r="403" spans="2:35" s="222" customFormat="1">
+      <c r="B403" s="226"/>
       <c r="C403" s="122"/>
       <c r="D403" s="122"/>
       <c r="E403" s="122"/>
@@ -11886,19 +11815,19 @@
       <c r="W403" s="122"/>
       <c r="X403" s="122"/>
       <c r="Y403" s="122"/>
-      <c r="Z403" s="230"/>
-      <c r="AA403" s="230"/>
-      <c r="AB403" s="230"/>
-      <c r="AC403" s="230"/>
-      <c r="AD403" s="230"/>
-      <c r="AE403" s="230"/>
-      <c r="AF403" s="230"/>
-      <c r="AG403" s="230"/>
-      <c r="AH403" s="230"/>
-      <c r="AI403" s="230"/>
-    </row>
-    <row r="404" spans="2:35" s="223" customFormat="1">
-      <c r="B404" s="227"/>
+      <c r="Z403" s="229"/>
+      <c r="AA403" s="229"/>
+      <c r="AB403" s="229"/>
+      <c r="AC403" s="229"/>
+      <c r="AD403" s="229"/>
+      <c r="AE403" s="229"/>
+      <c r="AF403" s="229"/>
+      <c r="AG403" s="229"/>
+      <c r="AH403" s="229"/>
+      <c r="AI403" s="229"/>
+    </row>
+    <row r="404" spans="2:35" s="222" customFormat="1">
+      <c r="B404" s="226"/>
       <c r="C404" s="122"/>
       <c r="D404" s="122"/>
       <c r="E404" s="122"/>
@@ -11922,19 +11851,19 @@
       <c r="W404" s="122"/>
       <c r="X404" s="122"/>
       <c r="Y404" s="122"/>
-      <c r="Z404" s="230"/>
-      <c r="AA404" s="230"/>
-      <c r="AB404" s="230"/>
-      <c r="AC404" s="230"/>
-      <c r="AD404" s="230"/>
-      <c r="AE404" s="230"/>
-      <c r="AF404" s="230"/>
-      <c r="AG404" s="230"/>
-      <c r="AH404" s="230"/>
-      <c r="AI404" s="230"/>
-    </row>
-    <row r="405" spans="2:35" s="223" customFormat="1">
-      <c r="B405" s="227"/>
+      <c r="Z404" s="229"/>
+      <c r="AA404" s="229"/>
+      <c r="AB404" s="229"/>
+      <c r="AC404" s="229"/>
+      <c r="AD404" s="229"/>
+      <c r="AE404" s="229"/>
+      <c r="AF404" s="229"/>
+      <c r="AG404" s="229"/>
+      <c r="AH404" s="229"/>
+      <c r="AI404" s="229"/>
+    </row>
+    <row r="405" spans="2:35" s="222" customFormat="1">
+      <c r="B405" s="226"/>
       <c r="C405" s="122"/>
       <c r="D405" s="122"/>
       <c r="E405" s="122"/>
@@ -11958,19 +11887,19 @@
       <c r="W405" s="122"/>
       <c r="X405" s="122"/>
       <c r="Y405" s="122"/>
-      <c r="Z405" s="230"/>
-      <c r="AA405" s="230"/>
-      <c r="AB405" s="230"/>
-      <c r="AC405" s="230"/>
-      <c r="AD405" s="230"/>
-      <c r="AE405" s="230"/>
-      <c r="AF405" s="230"/>
-      <c r="AG405" s="230"/>
-      <c r="AH405" s="230"/>
-      <c r="AI405" s="230"/>
-    </row>
-    <row r="406" spans="2:35" s="223" customFormat="1">
-      <c r="B406" s="227"/>
+      <c r="Z405" s="229"/>
+      <c r="AA405" s="229"/>
+      <c r="AB405" s="229"/>
+      <c r="AC405" s="229"/>
+      <c r="AD405" s="229"/>
+      <c r="AE405" s="229"/>
+      <c r="AF405" s="229"/>
+      <c r="AG405" s="229"/>
+      <c r="AH405" s="229"/>
+      <c r="AI405" s="229"/>
+    </row>
+    <row r="406" spans="2:35" s="222" customFormat="1">
+      <c r="B406" s="226"/>
       <c r="C406" s="122"/>
       <c r="D406" s="122"/>
       <c r="E406" s="122"/>
@@ -11994,19 +11923,19 @@
       <c r="W406" s="122"/>
       <c r="X406" s="122"/>
       <c r="Y406" s="122"/>
-      <c r="Z406" s="230"/>
-      <c r="AA406" s="230"/>
-      <c r="AB406" s="230"/>
-      <c r="AC406" s="230"/>
-      <c r="AD406" s="230"/>
-      <c r="AE406" s="230"/>
-      <c r="AF406" s="230"/>
-      <c r="AG406" s="230"/>
-      <c r="AH406" s="230"/>
-      <c r="AI406" s="230"/>
-    </row>
-    <row r="407" spans="2:35" s="223" customFormat="1">
-      <c r="B407" s="227"/>
+      <c r="Z406" s="229"/>
+      <c r="AA406" s="229"/>
+      <c r="AB406" s="229"/>
+      <c r="AC406" s="229"/>
+      <c r="AD406" s="229"/>
+      <c r="AE406" s="229"/>
+      <c r="AF406" s="229"/>
+      <c r="AG406" s="229"/>
+      <c r="AH406" s="229"/>
+      <c r="AI406" s="229"/>
+    </row>
+    <row r="407" spans="2:35" s="222" customFormat="1">
+      <c r="B407" s="226"/>
       <c r="C407" s="122"/>
       <c r="D407" s="122"/>
       <c r="E407" s="122"/>
@@ -12030,19 +11959,19 @@
       <c r="W407" s="122"/>
       <c r="X407" s="122"/>
       <c r="Y407" s="122"/>
-      <c r="Z407" s="230"/>
-      <c r="AA407" s="230"/>
-      <c r="AB407" s="230"/>
-      <c r="AC407" s="230"/>
-      <c r="AD407" s="230"/>
-      <c r="AE407" s="230"/>
-      <c r="AF407" s="230"/>
-      <c r="AG407" s="230"/>
-      <c r="AH407" s="230"/>
-      <c r="AI407" s="230"/>
-    </row>
-    <row r="408" spans="2:35" s="223" customFormat="1">
-      <c r="B408" s="227"/>
+      <c r="Z407" s="229"/>
+      <c r="AA407" s="229"/>
+      <c r="AB407" s="229"/>
+      <c r="AC407" s="229"/>
+      <c r="AD407" s="229"/>
+      <c r="AE407" s="229"/>
+      <c r="AF407" s="229"/>
+      <c r="AG407" s="229"/>
+      <c r="AH407" s="229"/>
+      <c r="AI407" s="229"/>
+    </row>
+    <row r="408" spans="2:35" s="222" customFormat="1">
+      <c r="B408" s="226"/>
       <c r="C408" s="122"/>
       <c r="D408" s="122"/>
       <c r="E408" s="122"/>
@@ -12066,19 +11995,19 @@
       <c r="W408" s="122"/>
       <c r="X408" s="122"/>
       <c r="Y408" s="122"/>
-      <c r="Z408" s="230"/>
-      <c r="AA408" s="230"/>
-      <c r="AB408" s="230"/>
-      <c r="AC408" s="230"/>
-      <c r="AD408" s="230"/>
-      <c r="AE408" s="230"/>
-      <c r="AF408" s="230"/>
-      <c r="AG408" s="230"/>
-      <c r="AH408" s="230"/>
-      <c r="AI408" s="230"/>
-    </row>
-    <row r="409" spans="2:35" s="223" customFormat="1">
-      <c r="B409" s="227"/>
+      <c r="Z408" s="229"/>
+      <c r="AA408" s="229"/>
+      <c r="AB408" s="229"/>
+      <c r="AC408" s="229"/>
+      <c r="AD408" s="229"/>
+      <c r="AE408" s="229"/>
+      <c r="AF408" s="229"/>
+      <c r="AG408" s="229"/>
+      <c r="AH408" s="229"/>
+      <c r="AI408" s="229"/>
+    </row>
+    <row r="409" spans="2:35" s="222" customFormat="1">
+      <c r="B409" s="226"/>
       <c r="C409" s="122"/>
       <c r="D409" s="122"/>
       <c r="E409" s="122"/>
@@ -12102,19 +12031,19 @@
       <c r="W409" s="122"/>
       <c r="X409" s="122"/>
       <c r="Y409" s="122"/>
-      <c r="Z409" s="230"/>
-      <c r="AA409" s="230"/>
-      <c r="AB409" s="230"/>
-      <c r="AC409" s="230"/>
-      <c r="AD409" s="230"/>
-      <c r="AE409" s="230"/>
-      <c r="AF409" s="230"/>
-      <c r="AG409" s="230"/>
-      <c r="AH409" s="230"/>
-      <c r="AI409" s="230"/>
-    </row>
-    <row r="410" spans="2:35" s="223" customFormat="1">
-      <c r="B410" s="227"/>
+      <c r="Z409" s="229"/>
+      <c r="AA409" s="229"/>
+      <c r="AB409" s="229"/>
+      <c r="AC409" s="229"/>
+      <c r="AD409" s="229"/>
+      <c r="AE409" s="229"/>
+      <c r="AF409" s="229"/>
+      <c r="AG409" s="229"/>
+      <c r="AH409" s="229"/>
+      <c r="AI409" s="229"/>
+    </row>
+    <row r="410" spans="2:35" s="222" customFormat="1">
+      <c r="B410" s="226"/>
       <c r="C410" s="122"/>
       <c r="D410" s="122"/>
       <c r="E410" s="122"/>
@@ -12138,19 +12067,19 @@
       <c r="W410" s="122"/>
       <c r="X410" s="122"/>
       <c r="Y410" s="122"/>
-      <c r="Z410" s="230"/>
-      <c r="AA410" s="230"/>
-      <c r="AB410" s="230"/>
-      <c r="AC410" s="230"/>
-      <c r="AD410" s="230"/>
-      <c r="AE410" s="230"/>
-      <c r="AF410" s="230"/>
-      <c r="AG410" s="230"/>
-      <c r="AH410" s="230"/>
-      <c r="AI410" s="230"/>
-    </row>
-    <row r="411" spans="2:35" s="223" customFormat="1">
-      <c r="B411" s="227"/>
+      <c r="Z410" s="229"/>
+      <c r="AA410" s="229"/>
+      <c r="AB410" s="229"/>
+      <c r="AC410" s="229"/>
+      <c r="AD410" s="229"/>
+      <c r="AE410" s="229"/>
+      <c r="AF410" s="229"/>
+      <c r="AG410" s="229"/>
+      <c r="AH410" s="229"/>
+      <c r="AI410" s="229"/>
+    </row>
+    <row r="411" spans="2:35" s="222" customFormat="1">
+      <c r="B411" s="226"/>
       <c r="C411" s="122"/>
       <c r="D411" s="122"/>
       <c r="E411" s="122"/>
@@ -12174,19 +12103,19 @@
       <c r="W411" s="122"/>
       <c r="X411" s="122"/>
       <c r="Y411" s="122"/>
-      <c r="Z411" s="230"/>
-      <c r="AA411" s="230"/>
-      <c r="AB411" s="230"/>
-      <c r="AC411" s="230"/>
-      <c r="AD411" s="230"/>
-      <c r="AE411" s="230"/>
-      <c r="AF411" s="230"/>
-      <c r="AG411" s="230"/>
-      <c r="AH411" s="230"/>
-      <c r="AI411" s="230"/>
-    </row>
-    <row r="412" spans="2:35" s="223" customFormat="1">
-      <c r="B412" s="227"/>
+      <c r="Z411" s="229"/>
+      <c r="AA411" s="229"/>
+      <c r="AB411" s="229"/>
+      <c r="AC411" s="229"/>
+      <c r="AD411" s="229"/>
+      <c r="AE411" s="229"/>
+      <c r="AF411" s="229"/>
+      <c r="AG411" s="229"/>
+      <c r="AH411" s="229"/>
+      <c r="AI411" s="229"/>
+    </row>
+    <row r="412" spans="2:35" s="222" customFormat="1">
+      <c r="B412" s="226"/>
       <c r="C412" s="122"/>
       <c r="D412" s="122"/>
       <c r="E412" s="122"/>
@@ -12210,19 +12139,19 @@
       <c r="W412" s="122"/>
       <c r="X412" s="122"/>
       <c r="Y412" s="122"/>
-      <c r="Z412" s="230"/>
-      <c r="AA412" s="230"/>
-      <c r="AB412" s="230"/>
-      <c r="AC412" s="230"/>
-      <c r="AD412" s="230"/>
-      <c r="AE412" s="230"/>
-      <c r="AF412" s="230"/>
-      <c r="AG412" s="230"/>
-      <c r="AH412" s="230"/>
-      <c r="AI412" s="230"/>
-    </row>
-    <row r="413" spans="2:35" s="223" customFormat="1">
-      <c r="B413" s="227"/>
+      <c r="Z412" s="229"/>
+      <c r="AA412" s="229"/>
+      <c r="AB412" s="229"/>
+      <c r="AC412" s="229"/>
+      <c r="AD412" s="229"/>
+      <c r="AE412" s="229"/>
+      <c r="AF412" s="229"/>
+      <c r="AG412" s="229"/>
+      <c r="AH412" s="229"/>
+      <c r="AI412" s="229"/>
+    </row>
+    <row r="413" spans="2:35" s="222" customFormat="1">
+      <c r="B413" s="226"/>
       <c r="C413" s="122"/>
       <c r="D413" s="122"/>
       <c r="E413" s="122"/>
@@ -12246,19 +12175,19 @@
       <c r="W413" s="122"/>
       <c r="X413" s="122"/>
       <c r="Y413" s="122"/>
-      <c r="Z413" s="230"/>
-      <c r="AA413" s="230"/>
-      <c r="AB413" s="230"/>
-      <c r="AC413" s="230"/>
-      <c r="AD413" s="230"/>
-      <c r="AE413" s="230"/>
-      <c r="AF413" s="230"/>
-      <c r="AG413" s="230"/>
-      <c r="AH413" s="230"/>
-      <c r="AI413" s="230"/>
-    </row>
-    <row r="414" spans="2:35" s="223" customFormat="1">
-      <c r="B414" s="227"/>
+      <c r="Z413" s="229"/>
+      <c r="AA413" s="229"/>
+      <c r="AB413" s="229"/>
+      <c r="AC413" s="229"/>
+      <c r="AD413" s="229"/>
+      <c r="AE413" s="229"/>
+      <c r="AF413" s="229"/>
+      <c r="AG413" s="229"/>
+      <c r="AH413" s="229"/>
+      <c r="AI413" s="229"/>
+    </row>
+    <row r="414" spans="2:35" s="222" customFormat="1">
+      <c r="B414" s="226"/>
       <c r="C414" s="122"/>
       <c r="D414" s="122"/>
       <c r="E414" s="122"/>
@@ -12282,33 +12211,33 @@
       <c r="W414" s="122"/>
       <c r="X414" s="122"/>
       <c r="Y414" s="122"/>
-      <c r="Z414" s="230"/>
-      <c r="AA414" s="230"/>
-      <c r="AB414" s="230"/>
-      <c r="AC414" s="230"/>
-      <c r="AD414" s="230"/>
-      <c r="AE414" s="230"/>
-      <c r="AF414" s="230"/>
-      <c r="AG414" s="230"/>
-      <c r="AH414" s="230"/>
-      <c r="AI414" s="230"/>
-    </row>
-    <row r="415" spans="2:35" s="223" customFormat="1">
-      <c r="B415" s="227"/>
+      <c r="Z414" s="229"/>
+      <c r="AA414" s="229"/>
+      <c r="AB414" s="229"/>
+      <c r="AC414" s="229"/>
+      <c r="AD414" s="229"/>
+      <c r="AE414" s="229"/>
+      <c r="AF414" s="229"/>
+      <c r="AG414" s="229"/>
+      <c r="AH414" s="229"/>
+      <c r="AI414" s="229"/>
+    </row>
+    <row r="415" spans="2:35" s="222" customFormat="1">
+      <c r="B415" s="226"/>
       <c r="C415" s="122"/>
-      <c r="D415" s="229">
+      <c r="D415" s="228">
         <v>1.24</v>
       </c>
-      <c r="E415" s="231"/>
-      <c r="F415" s="229"/>
-      <c r="G415" s="229">
+      <c r="E415" s="230"/>
+      <c r="F415" s="228"/>
+      <c r="G415" s="228">
         <v>112000</v>
       </c>
-      <c r="H415" s="229" t="s">
+      <c r="H415" s="228" t="s">
+        <v>170</v>
+      </c>
+      <c r="I415" s="122" t="s">
         <v>172</v>
-      </c>
-      <c r="I415" s="122" t="s">
-        <v>174</v>
       </c>
       <c r="J415" s="122"/>
       <c r="K415" s="122"/>
@@ -12326,31 +12255,31 @@
       <c r="W415" s="122"/>
       <c r="X415" s="122"/>
       <c r="Y415" s="122"/>
-      <c r="Z415" s="230"/>
-      <c r="AA415" s="230"/>
-      <c r="AB415" s="230"/>
-      <c r="AC415" s="230"/>
-      <c r="AD415" s="230"/>
-      <c r="AE415" s="230"/>
-      <c r="AF415" s="230"/>
-      <c r="AG415" s="230"/>
-      <c r="AH415" s="230"/>
-      <c r="AI415" s="230"/>
-    </row>
-    <row r="416" spans="2:35" s="223" customFormat="1">
-      <c r="B416" s="227"/>
+      <c r="Z415" s="229"/>
+      <c r="AA415" s="229"/>
+      <c r="AB415" s="229"/>
+      <c r="AC415" s="229"/>
+      <c r="AD415" s="229"/>
+      <c r="AE415" s="229"/>
+      <c r="AF415" s="229"/>
+      <c r="AG415" s="229"/>
+      <c r="AH415" s="229"/>
+      <c r="AI415" s="229"/>
+    </row>
+    <row r="416" spans="2:35" s="222" customFormat="1">
+      <c r="B416" s="226"/>
       <c r="C416" s="122"/>
-      <c r="D416" s="229"/>
-      <c r="E416" s="231"/>
-      <c r="F416" s="229"/>
-      <c r="G416" s="229">
+      <c r="D416" s="228"/>
+      <c r="E416" s="230"/>
+      <c r="F416" s="228"/>
+      <c r="G416" s="228">
         <f>10^6</f>
         <v>1000000</v>
       </c>
-      <c r="H416" s="229" t="s">
-        <v>173</v>
-      </c>
-      <c r="I416" s="232"/>
+      <c r="H416" s="228" t="s">
+        <v>171</v>
+      </c>
+      <c r="I416" s="231"/>
       <c r="J416" s="122"/>
       <c r="K416" s="122"/>
       <c r="L416" s="122"/>
@@ -12367,29 +12296,29 @@
       <c r="W416" s="122"/>
       <c r="X416" s="122"/>
       <c r="Y416" s="122"/>
-      <c r="Z416" s="230"/>
-      <c r="AA416" s="230"/>
-      <c r="AB416" s="230"/>
-      <c r="AC416" s="230"/>
-      <c r="AD416" s="230"/>
-      <c r="AE416" s="230"/>
-      <c r="AF416" s="230"/>
-      <c r="AG416" s="230"/>
-      <c r="AH416" s="230"/>
-      <c r="AI416" s="230"/>
-    </row>
-    <row r="417" spans="2:35" s="223" customFormat="1">
-      <c r="B417" s="227"/>
+      <c r="Z416" s="229"/>
+      <c r="AA416" s="229"/>
+      <c r="AB416" s="229"/>
+      <c r="AC416" s="229"/>
+      <c r="AD416" s="229"/>
+      <c r="AE416" s="229"/>
+      <c r="AF416" s="229"/>
+      <c r="AG416" s="229"/>
+      <c r="AH416" s="229"/>
+      <c r="AI416" s="229"/>
+    </row>
+    <row r="417" spans="2:35" s="222" customFormat="1">
+      <c r="B417" s="226"/>
       <c r="C417" s="122"/>
-      <c r="D417" s="229"/>
-      <c r="E417" s="231"/>
-      <c r="F417" s="229"/>
-      <c r="G417" s="229">
+      <c r="D417" s="228"/>
+      <c r="E417" s="230"/>
+      <c r="F417" s="228"/>
+      <c r="G417" s="228">
         <f>G415/G416</f>
         <v>0.112</v>
       </c>
-      <c r="H417" s="229" t="s">
-        <v>172</v>
+      <c r="H417" s="228" t="s">
+        <v>170</v>
       </c>
       <c r="I417" s="122"/>
       <c r="J417" s="122"/>
@@ -12408,19 +12337,19 @@
       <c r="W417" s="122"/>
       <c r="X417" s="122"/>
       <c r="Y417" s="122"/>
-      <c r="Z417" s="230"/>
-      <c r="AA417" s="230"/>
-      <c r="AB417" s="230"/>
-      <c r="AC417" s="230"/>
-      <c r="AD417" s="230"/>
-      <c r="AE417" s="230"/>
-      <c r="AF417" s="230"/>
-      <c r="AG417" s="230"/>
-      <c r="AH417" s="230"/>
-      <c r="AI417" s="230"/>
-    </row>
-    <row r="418" spans="2:35" s="223" customFormat="1">
-      <c r="B418" s="227"/>
+      <c r="Z417" s="229"/>
+      <c r="AA417" s="229"/>
+      <c r="AB417" s="229"/>
+      <c r="AC417" s="229"/>
+      <c r="AD417" s="229"/>
+      <c r="AE417" s="229"/>
+      <c r="AF417" s="229"/>
+      <c r="AG417" s="229"/>
+      <c r="AH417" s="229"/>
+      <c r="AI417" s="229"/>
+    </row>
+    <row r="418" spans="2:35" s="222" customFormat="1">
+      <c r="B418" s="226"/>
       <c r="C418" s="122"/>
       <c r="D418" s="122"/>
       <c r="E418" s="122"/>
@@ -12444,1206 +12373,1206 @@
       <c r="W418" s="122"/>
       <c r="X418" s="122"/>
       <c r="Y418" s="122"/>
-      <c r="Z418" s="230"/>
-      <c r="AA418" s="230"/>
-      <c r="AB418" s="230"/>
-      <c r="AC418" s="230"/>
-      <c r="AD418" s="230"/>
-      <c r="AE418" s="230"/>
-      <c r="AF418" s="230"/>
-      <c r="AG418" s="230"/>
-      <c r="AH418" s="230"/>
-      <c r="AI418" s="230"/>
-    </row>
-    <row r="419" spans="2:35" s="223" customFormat="1">
-      <c r="B419" s="227"/>
-      <c r="C419" s="230"/>
-      <c r="D419" s="230"/>
-      <c r="E419" s="230"/>
-      <c r="F419" s="230"/>
-      <c r="G419" s="230"/>
-      <c r="H419" s="230"/>
-      <c r="I419" s="230"/>
-      <c r="J419" s="230"/>
-      <c r="K419" s="230"/>
-      <c r="L419" s="230"/>
-      <c r="M419" s="230"/>
-      <c r="N419" s="230"/>
-      <c r="O419" s="230"/>
-      <c r="P419" s="230"/>
-      <c r="Q419" s="230"/>
-      <c r="R419" s="230"/>
-      <c r="S419" s="230"/>
-      <c r="T419" s="230"/>
-      <c r="U419" s="230"/>
-      <c r="V419" s="230"/>
-      <c r="W419" s="230"/>
-      <c r="X419" s="230"/>
-      <c r="Y419" s="230"/>
-      <c r="Z419" s="230"/>
-      <c r="AA419" s="230"/>
-      <c r="AB419" s="230"/>
-      <c r="AC419" s="230"/>
-      <c r="AD419" s="230"/>
-      <c r="AE419" s="230"/>
-      <c r="AF419" s="230"/>
-      <c r="AG419" s="230"/>
-      <c r="AH419" s="230"/>
-      <c r="AI419" s="230"/>
-    </row>
-    <row r="420" spans="2:35" s="223" customFormat="1">
-      <c r="B420" s="227"/>
-      <c r="C420" s="230"/>
-      <c r="D420" s="230"/>
-      <c r="E420" s="230"/>
-      <c r="F420" s="230"/>
-      <c r="G420" s="230"/>
-      <c r="H420" s="230"/>
-      <c r="I420" s="230"/>
-      <c r="J420" s="230"/>
-      <c r="K420" s="230"/>
-      <c r="L420" s="230"/>
-      <c r="M420" s="230"/>
-      <c r="N420" s="230"/>
-      <c r="O420" s="230"/>
-      <c r="P420" s="230"/>
-      <c r="Q420" s="230"/>
-      <c r="R420" s="230"/>
-      <c r="S420" s="230"/>
-      <c r="T420" s="230"/>
-      <c r="U420" s="230"/>
-      <c r="V420" s="230"/>
-      <c r="W420" s="230"/>
-      <c r="X420" s="230"/>
-      <c r="Y420" s="230"/>
-      <c r="Z420" s="230"/>
-      <c r="AA420" s="230"/>
-      <c r="AB420" s="230"/>
-      <c r="AC420" s="230"/>
-      <c r="AD420" s="230"/>
-      <c r="AE420" s="230"/>
-      <c r="AF420" s="230"/>
-      <c r="AG420" s="230"/>
-      <c r="AH420" s="230"/>
-      <c r="AI420" s="230"/>
-    </row>
-    <row r="421" spans="2:35" s="223" customFormat="1">
-      <c r="B421" s="227"/>
-      <c r="C421" s="230"/>
-      <c r="D421" s="230"/>
-      <c r="E421" s="230"/>
-      <c r="F421" s="230"/>
-      <c r="G421" s="230"/>
-      <c r="H421" s="230"/>
-      <c r="I421" s="230"/>
-      <c r="J421" s="230"/>
-      <c r="K421" s="230"/>
-      <c r="L421" s="230"/>
-      <c r="M421" s="230"/>
-      <c r="N421" s="230"/>
-      <c r="O421" s="230"/>
-      <c r="P421" s="230"/>
-      <c r="Q421" s="230"/>
-      <c r="R421" s="230"/>
-      <c r="S421" s="230"/>
-      <c r="T421" s="230"/>
-      <c r="U421" s="230"/>
-      <c r="V421" s="230"/>
-      <c r="W421" s="230"/>
-      <c r="X421" s="230"/>
-      <c r="Y421" s="230"/>
-      <c r="Z421" s="230"/>
-      <c r="AA421" s="230"/>
-      <c r="AB421" s="230"/>
-      <c r="AC421" s="230"/>
-      <c r="AD421" s="230"/>
-      <c r="AE421" s="230"/>
-      <c r="AF421" s="230"/>
-      <c r="AG421" s="230"/>
-      <c r="AH421" s="230"/>
-      <c r="AI421" s="230"/>
-    </row>
-    <row r="422" spans="2:35" s="223" customFormat="1">
-      <c r="B422" s="227"/>
-      <c r="C422" s="230"/>
-      <c r="D422" s="230"/>
-      <c r="E422" s="230"/>
-      <c r="F422" s="230"/>
-      <c r="G422" s="230"/>
-      <c r="H422" s="230"/>
-      <c r="I422" s="230"/>
-      <c r="J422" s="230"/>
-      <c r="K422" s="230"/>
-      <c r="L422" s="230"/>
-      <c r="M422" s="230"/>
-      <c r="N422" s="230"/>
-      <c r="O422" s="230"/>
-      <c r="P422" s="230"/>
-      <c r="Q422" s="230"/>
-      <c r="R422" s="230"/>
-      <c r="S422" s="230"/>
-      <c r="T422" s="230"/>
-      <c r="U422" s="230"/>
-      <c r="V422" s="230"/>
-      <c r="W422" s="230"/>
-      <c r="X422" s="230"/>
-      <c r="Y422" s="230"/>
-      <c r="Z422" s="230"/>
-      <c r="AA422" s="230"/>
-      <c r="AB422" s="230"/>
-      <c r="AC422" s="230"/>
-      <c r="AD422" s="230"/>
-      <c r="AE422" s="230"/>
-      <c r="AF422" s="230"/>
-      <c r="AG422" s="230"/>
-      <c r="AH422" s="230"/>
-      <c r="AI422" s="230"/>
-    </row>
-    <row r="423" spans="2:35" s="223" customFormat="1">
-      <c r="B423" s="227"/>
-      <c r="C423" s="230"/>
-      <c r="D423" s="230"/>
-      <c r="E423" s="230"/>
-      <c r="F423" s="230"/>
-      <c r="G423" s="230"/>
-      <c r="H423" s="230"/>
-      <c r="I423" s="230"/>
-      <c r="J423" s="230"/>
-      <c r="K423" s="230"/>
-      <c r="L423" s="230"/>
-      <c r="M423" s="230"/>
-      <c r="N423" s="230"/>
-      <c r="O423" s="230"/>
-      <c r="P423" s="230"/>
-      <c r="Q423" s="230"/>
-      <c r="R423" s="230"/>
-      <c r="S423" s="230"/>
-      <c r="T423" s="230"/>
-      <c r="U423" s="230"/>
-      <c r="V423" s="230"/>
-      <c r="W423" s="230"/>
-      <c r="X423" s="230"/>
-      <c r="Y423" s="230"/>
-      <c r="Z423" s="230"/>
-      <c r="AA423" s="230"/>
-      <c r="AB423" s="230"/>
-      <c r="AC423" s="230"/>
-      <c r="AD423" s="230"/>
-      <c r="AE423" s="230"/>
-      <c r="AF423" s="230"/>
-      <c r="AG423" s="230"/>
-      <c r="AH423" s="230"/>
-      <c r="AI423" s="230"/>
-    </row>
-    <row r="424" spans="2:35" s="223" customFormat="1">
-      <c r="B424" s="227"/>
-      <c r="C424" s="230"/>
-      <c r="D424" s="230"/>
-      <c r="E424" s="230"/>
-      <c r="F424" s="230"/>
-      <c r="G424" s="230"/>
-      <c r="H424" s="230"/>
-      <c r="I424" s="230"/>
-      <c r="J424" s="230"/>
-      <c r="K424" s="230"/>
-      <c r="L424" s="230"/>
-      <c r="M424" s="230"/>
-      <c r="N424" s="230"/>
-      <c r="O424" s="230"/>
-      <c r="P424" s="230"/>
-      <c r="Q424" s="230"/>
-      <c r="R424" s="230"/>
-      <c r="S424" s="230"/>
-      <c r="T424" s="230"/>
-      <c r="U424" s="230"/>
-      <c r="V424" s="230"/>
-      <c r="W424" s="230"/>
-      <c r="X424" s="230"/>
-      <c r="Y424" s="230"/>
-      <c r="Z424" s="230"/>
-      <c r="AA424" s="230"/>
-      <c r="AB424" s="230"/>
-      <c r="AC424" s="230"/>
-      <c r="AD424" s="230"/>
-      <c r="AE424" s="230"/>
-      <c r="AF424" s="230"/>
-      <c r="AG424" s="230"/>
-      <c r="AH424" s="230"/>
-      <c r="AI424" s="230"/>
-    </row>
-    <row r="425" spans="2:35" s="223" customFormat="1">
-      <c r="B425" s="227"/>
-      <c r="C425" s="230"/>
-      <c r="D425" s="230"/>
-      <c r="E425" s="230"/>
-      <c r="F425" s="230"/>
-      <c r="G425" s="230"/>
-      <c r="H425" s="230"/>
-      <c r="I425" s="230"/>
-      <c r="J425" s="230"/>
-      <c r="K425" s="230"/>
-      <c r="L425" s="230"/>
-      <c r="M425" s="230"/>
-      <c r="N425" s="230"/>
-      <c r="O425" s="230"/>
-      <c r="P425" s="230"/>
-      <c r="Q425" s="230"/>
-      <c r="R425" s="230"/>
-      <c r="S425" s="230"/>
-      <c r="T425" s="230"/>
-      <c r="U425" s="230"/>
-      <c r="V425" s="230"/>
-      <c r="W425" s="230"/>
-      <c r="X425" s="230"/>
-      <c r="Y425" s="230"/>
-      <c r="Z425" s="230"/>
-      <c r="AA425" s="230"/>
-      <c r="AB425" s="230"/>
-      <c r="AC425" s="230"/>
-      <c r="AD425" s="230"/>
-      <c r="AE425" s="230"/>
-      <c r="AF425" s="230"/>
-      <c r="AG425" s="230"/>
-      <c r="AH425" s="230"/>
-      <c r="AI425" s="230"/>
-    </row>
-    <row r="426" spans="2:35" s="223" customFormat="1">
-      <c r="B426" s="227"/>
-      <c r="C426" s="230"/>
-      <c r="D426" s="230"/>
-      <c r="E426" s="230"/>
-      <c r="F426" s="230"/>
-      <c r="G426" s="230"/>
-      <c r="H426" s="230"/>
-      <c r="I426" s="230"/>
-      <c r="J426" s="230"/>
-      <c r="K426" s="230"/>
-      <c r="L426" s="230"/>
-      <c r="M426" s="230"/>
-      <c r="N426" s="230"/>
-      <c r="O426" s="230"/>
-      <c r="P426" s="230"/>
-      <c r="Q426" s="230"/>
-      <c r="R426" s="230"/>
-      <c r="S426" s="230"/>
-      <c r="T426" s="230"/>
-      <c r="U426" s="230"/>
-      <c r="V426" s="230"/>
-      <c r="W426" s="230"/>
-      <c r="X426" s="230"/>
-      <c r="Y426" s="230"/>
-      <c r="Z426" s="230"/>
-      <c r="AA426" s="230"/>
-      <c r="AB426" s="230"/>
-      <c r="AC426" s="230"/>
-      <c r="AD426" s="230"/>
-      <c r="AE426" s="230"/>
-      <c r="AF426" s="230"/>
-      <c r="AG426" s="230"/>
-      <c r="AH426" s="230"/>
-      <c r="AI426" s="230"/>
-    </row>
-    <row r="427" spans="2:35" s="223" customFormat="1">
-      <c r="B427" s="227"/>
-      <c r="C427" s="230"/>
-      <c r="D427" s="230"/>
-      <c r="E427" s="230"/>
-      <c r="F427" s="230"/>
-      <c r="G427" s="230"/>
-      <c r="H427" s="230"/>
-      <c r="I427" s="230"/>
-      <c r="J427" s="230"/>
-      <c r="K427" s="230"/>
-      <c r="L427" s="230"/>
-      <c r="M427" s="230"/>
-      <c r="N427" s="230"/>
-      <c r="O427" s="230"/>
-      <c r="P427" s="230"/>
-      <c r="Q427" s="230"/>
-      <c r="R427" s="230"/>
-      <c r="S427" s="230"/>
-      <c r="T427" s="230"/>
-      <c r="U427" s="230"/>
-      <c r="V427" s="230"/>
-      <c r="W427" s="230"/>
-      <c r="X427" s="230"/>
-      <c r="Y427" s="230"/>
-      <c r="Z427" s="230"/>
-      <c r="AA427" s="230"/>
-      <c r="AB427" s="230"/>
-      <c r="AC427" s="230"/>
-      <c r="AD427" s="230"/>
-      <c r="AE427" s="230"/>
-      <c r="AF427" s="230"/>
-      <c r="AG427" s="230"/>
-      <c r="AH427" s="230"/>
-      <c r="AI427" s="230"/>
-    </row>
-    <row r="428" spans="2:35" s="223" customFormat="1">
-      <c r="B428" s="227"/>
-      <c r="C428" s="230"/>
-      <c r="D428" s="230"/>
-      <c r="E428" s="230"/>
-      <c r="F428" s="230"/>
-      <c r="G428" s="230"/>
-      <c r="H428" s="230"/>
-      <c r="I428" s="230"/>
-      <c r="J428" s="230"/>
-      <c r="K428" s="230"/>
-      <c r="L428" s="230"/>
-      <c r="M428" s="230"/>
-      <c r="N428" s="230"/>
-      <c r="O428" s="230"/>
-      <c r="P428" s="230"/>
-      <c r="Q428" s="230"/>
-      <c r="R428" s="230"/>
-      <c r="S428" s="230"/>
-      <c r="T428" s="230"/>
-      <c r="U428" s="230"/>
-      <c r="V428" s="230"/>
-      <c r="W428" s="230"/>
-      <c r="X428" s="230"/>
-      <c r="Y428" s="230"/>
-      <c r="Z428" s="230"/>
-      <c r="AA428" s="230"/>
-      <c r="AB428" s="230"/>
-      <c r="AC428" s="230"/>
-      <c r="AD428" s="230"/>
-      <c r="AE428" s="230"/>
-      <c r="AF428" s="230"/>
-      <c r="AG428" s="230"/>
-      <c r="AH428" s="230"/>
-      <c r="AI428" s="230"/>
-    </row>
-    <row r="429" spans="2:35" s="223" customFormat="1">
-      <c r="B429" s="227"/>
-      <c r="C429" s="230"/>
-      <c r="D429" s="230"/>
-      <c r="E429" s="230"/>
-      <c r="F429" s="230"/>
-      <c r="G429" s="230"/>
-      <c r="H429" s="230"/>
-      <c r="I429" s="230"/>
-      <c r="J429" s="230"/>
-      <c r="K429" s="230"/>
-      <c r="L429" s="230"/>
-      <c r="M429" s="230"/>
-      <c r="N429" s="230"/>
-      <c r="O429" s="230"/>
-      <c r="P429" s="230"/>
-      <c r="Q429" s="230"/>
-      <c r="R429" s="230"/>
-      <c r="S429" s="230"/>
-      <c r="T429" s="230"/>
-      <c r="U429" s="230"/>
-      <c r="V429" s="230"/>
-      <c r="W429" s="230"/>
-      <c r="X429" s="230"/>
-      <c r="Y429" s="230"/>
-      <c r="Z429" s="230"/>
-      <c r="AA429" s="230"/>
-      <c r="AB429" s="230"/>
-      <c r="AC429" s="230"/>
-      <c r="AD429" s="230"/>
-      <c r="AE429" s="230"/>
-      <c r="AF429" s="230"/>
-      <c r="AG429" s="230"/>
-      <c r="AH429" s="230"/>
-      <c r="AI429" s="230"/>
-    </row>
-    <row r="430" spans="2:35" s="223" customFormat="1">
-      <c r="B430" s="227"/>
-      <c r="C430" s="230"/>
-      <c r="D430" s="230"/>
-      <c r="E430" s="230"/>
-      <c r="F430" s="230"/>
-      <c r="G430" s="230"/>
-      <c r="H430" s="230"/>
-      <c r="I430" s="230"/>
-      <c r="J430" s="230"/>
-      <c r="K430" s="230"/>
-      <c r="L430" s="230"/>
-      <c r="M430" s="230"/>
-      <c r="N430" s="230"/>
-      <c r="O430" s="230"/>
-      <c r="P430" s="230"/>
-      <c r="Q430" s="230"/>
-      <c r="R430" s="230"/>
-      <c r="S430" s="230"/>
-      <c r="T430" s="230"/>
-      <c r="U430" s="230"/>
-      <c r="V430" s="230"/>
-      <c r="W430" s="230"/>
-      <c r="X430" s="230"/>
-      <c r="Y430" s="230"/>
-      <c r="Z430" s="230"/>
-      <c r="AA430" s="230"/>
-      <c r="AB430" s="230"/>
-      <c r="AC430" s="230"/>
-      <c r="AD430" s="230"/>
-      <c r="AE430" s="230"/>
-      <c r="AF430" s="230"/>
-      <c r="AG430" s="230"/>
-      <c r="AH430" s="230"/>
-      <c r="AI430" s="230"/>
-    </row>
-    <row r="431" spans="2:35" s="223" customFormat="1">
-      <c r="B431" s="227"/>
-      <c r="C431" s="230"/>
-      <c r="D431" s="230"/>
-      <c r="E431" s="230"/>
-      <c r="F431" s="230"/>
-      <c r="G431" s="230"/>
-      <c r="H431" s="230"/>
-      <c r="I431" s="230"/>
-      <c r="J431" s="230"/>
-      <c r="K431" s="230"/>
-      <c r="L431" s="230"/>
-      <c r="M431" s="230"/>
-      <c r="N431" s="230"/>
-      <c r="O431" s="230"/>
-      <c r="P431" s="230"/>
-      <c r="Q431" s="230"/>
-      <c r="R431" s="230"/>
-      <c r="S431" s="230"/>
-      <c r="T431" s="230"/>
-      <c r="U431" s="230"/>
-      <c r="V431" s="230"/>
-      <c r="W431" s="230"/>
-      <c r="X431" s="230"/>
-      <c r="Y431" s="230"/>
-      <c r="Z431" s="230"/>
-      <c r="AA431" s="230"/>
-      <c r="AB431" s="230"/>
-      <c r="AC431" s="230"/>
-      <c r="AD431" s="230"/>
-      <c r="AE431" s="230"/>
-      <c r="AF431" s="230"/>
-      <c r="AG431" s="230"/>
-      <c r="AH431" s="230"/>
-      <c r="AI431" s="230"/>
-    </row>
-    <row r="432" spans="2:35" s="223" customFormat="1">
-      <c r="B432" s="227"/>
-      <c r="C432" s="230"/>
-      <c r="D432" s="230"/>
-      <c r="E432" s="230"/>
-      <c r="F432" s="230"/>
-      <c r="G432" s="230"/>
-      <c r="H432" s="230"/>
-      <c r="I432" s="230"/>
-      <c r="J432" s="230"/>
-      <c r="K432" s="230"/>
-      <c r="L432" s="230"/>
-      <c r="M432" s="230"/>
-      <c r="N432" s="230"/>
-      <c r="O432" s="230"/>
-      <c r="P432" s="230"/>
-      <c r="Q432" s="230"/>
-      <c r="R432" s="230"/>
-      <c r="S432" s="230"/>
-      <c r="T432" s="230"/>
-      <c r="U432" s="230"/>
-      <c r="V432" s="230"/>
-      <c r="W432" s="230"/>
-      <c r="X432" s="230"/>
-      <c r="Y432" s="230"/>
-      <c r="Z432" s="230"/>
-      <c r="AA432" s="230"/>
-      <c r="AB432" s="230"/>
-      <c r="AC432" s="230"/>
-      <c r="AD432" s="230"/>
-      <c r="AE432" s="230"/>
-      <c r="AF432" s="230"/>
-      <c r="AG432" s="230"/>
-      <c r="AH432" s="230"/>
-      <c r="AI432" s="230"/>
-    </row>
-    <row r="433" spans="2:35" s="223" customFormat="1">
-      <c r="B433" s="227"/>
-      <c r="C433" s="230"/>
-      <c r="D433" s="230"/>
-      <c r="E433" s="230"/>
-      <c r="F433" s="230"/>
-      <c r="G433" s="230"/>
-      <c r="H433" s="230"/>
-      <c r="I433" s="230"/>
-      <c r="J433" s="230"/>
-      <c r="K433" s="230"/>
-      <c r="L433" s="230"/>
-      <c r="M433" s="230"/>
-      <c r="N433" s="230"/>
-      <c r="O433" s="230"/>
-      <c r="P433" s="230"/>
-      <c r="Q433" s="230"/>
-      <c r="R433" s="230"/>
-      <c r="S433" s="230"/>
-      <c r="T433" s="230"/>
-      <c r="U433" s="230"/>
-      <c r="V433" s="230"/>
-      <c r="W433" s="230"/>
-      <c r="X433" s="230"/>
-      <c r="Y433" s="230"/>
-      <c r="Z433" s="230"/>
-      <c r="AA433" s="230"/>
-      <c r="AB433" s="230"/>
-      <c r="AC433" s="230"/>
-      <c r="AD433" s="230"/>
-      <c r="AE433" s="230"/>
-      <c r="AF433" s="230"/>
-      <c r="AG433" s="230"/>
-      <c r="AH433" s="230"/>
-      <c r="AI433" s="230"/>
-    </row>
-    <row r="434" spans="2:35" s="223" customFormat="1">
-      <c r="B434" s="227"/>
-      <c r="C434" s="230"/>
-      <c r="D434" s="230"/>
-      <c r="E434" s="230"/>
-      <c r="F434" s="230"/>
-      <c r="G434" s="230"/>
-      <c r="H434" s="230"/>
-      <c r="I434" s="230"/>
-      <c r="J434" s="230"/>
-      <c r="K434" s="230"/>
-      <c r="L434" s="230"/>
-      <c r="M434" s="230"/>
-      <c r="N434" s="230"/>
-      <c r="O434" s="230"/>
-      <c r="P434" s="230"/>
-      <c r="Q434" s="230"/>
-      <c r="R434" s="230"/>
-      <c r="S434" s="230"/>
-      <c r="T434" s="230"/>
-      <c r="U434" s="230"/>
-      <c r="V434" s="230"/>
-      <c r="W434" s="230"/>
-      <c r="X434" s="230"/>
-      <c r="Y434" s="230"/>
-      <c r="Z434" s="230"/>
-      <c r="AA434" s="230"/>
-      <c r="AB434" s="230"/>
-      <c r="AC434" s="230"/>
-      <c r="AD434" s="230"/>
-      <c r="AE434" s="230"/>
-      <c r="AF434" s="230"/>
-      <c r="AG434" s="230"/>
-      <c r="AH434" s="230"/>
-      <c r="AI434" s="230"/>
-    </row>
-    <row r="435" spans="2:35" s="223" customFormat="1">
-      <c r="B435" s="227"/>
-      <c r="C435" s="230"/>
-      <c r="D435" s="230"/>
-      <c r="E435" s="230"/>
-      <c r="F435" s="230"/>
-      <c r="G435" s="230"/>
-      <c r="H435" s="230"/>
-      <c r="I435" s="230"/>
-      <c r="J435" s="230"/>
-      <c r="K435" s="230"/>
-      <c r="L435" s="230"/>
-      <c r="M435" s="230"/>
-      <c r="N435" s="230"/>
-      <c r="O435" s="230"/>
-      <c r="P435" s="230"/>
-      <c r="Q435" s="230"/>
-      <c r="R435" s="230"/>
-      <c r="S435" s="230"/>
-      <c r="T435" s="230"/>
-      <c r="U435" s="230"/>
-      <c r="V435" s="230"/>
-      <c r="W435" s="230"/>
-      <c r="X435" s="230"/>
-      <c r="Y435" s="230"/>
-      <c r="Z435" s="230"/>
-      <c r="AA435" s="230"/>
-      <c r="AB435" s="230"/>
-      <c r="AC435" s="230"/>
-      <c r="AD435" s="230"/>
-      <c r="AE435" s="230"/>
-      <c r="AF435" s="230"/>
-      <c r="AG435" s="230"/>
-      <c r="AH435" s="230"/>
-      <c r="AI435" s="230"/>
-    </row>
-    <row r="436" spans="2:35" s="223" customFormat="1">
-      <c r="B436" s="227"/>
-      <c r="C436" s="230"/>
-      <c r="D436" s="230"/>
-      <c r="E436" s="230"/>
-      <c r="F436" s="230"/>
-      <c r="G436" s="230"/>
-      <c r="H436" s="230"/>
-      <c r="I436" s="230"/>
-      <c r="J436" s="230"/>
-      <c r="K436" s="230"/>
-      <c r="L436" s="230"/>
-      <c r="M436" s="230"/>
-      <c r="N436" s="230"/>
-      <c r="O436" s="230"/>
-      <c r="P436" s="230"/>
-      <c r="Q436" s="230"/>
-      <c r="R436" s="230"/>
-      <c r="S436" s="230"/>
-      <c r="T436" s="230"/>
-      <c r="U436" s="230"/>
-      <c r="V436" s="230"/>
-      <c r="W436" s="230"/>
-      <c r="X436" s="230"/>
-      <c r="Y436" s="230"/>
-      <c r="Z436" s="230"/>
-      <c r="AA436" s="230"/>
-      <c r="AB436" s="230"/>
-      <c r="AC436" s="230"/>
-      <c r="AD436" s="230"/>
-      <c r="AE436" s="230"/>
-      <c r="AF436" s="230"/>
-      <c r="AG436" s="230"/>
-      <c r="AH436" s="230"/>
-      <c r="AI436" s="230"/>
-    </row>
-    <row r="437" spans="2:35" s="223" customFormat="1">
-      <c r="B437" s="227"/>
-      <c r="C437" s="230"/>
-      <c r="D437" s="230"/>
-      <c r="E437" s="230"/>
-      <c r="F437" s="230"/>
-      <c r="G437" s="230"/>
-      <c r="H437" s="230"/>
-      <c r="I437" s="230"/>
-      <c r="J437" s="230"/>
-      <c r="K437" s="230"/>
-      <c r="L437" s="230"/>
-      <c r="M437" s="230"/>
-      <c r="N437" s="230"/>
-      <c r="O437" s="230"/>
-      <c r="P437" s="230"/>
-      <c r="Q437" s="230"/>
-      <c r="R437" s="230"/>
-      <c r="S437" s="230"/>
-      <c r="T437" s="230"/>
-      <c r="U437" s="230"/>
-      <c r="V437" s="230"/>
-      <c r="W437" s="230"/>
-      <c r="X437" s="230"/>
-      <c r="Y437" s="230"/>
-      <c r="Z437" s="230"/>
-      <c r="AA437" s="230"/>
-      <c r="AB437" s="230"/>
-      <c r="AC437" s="230"/>
-      <c r="AD437" s="230"/>
-      <c r="AE437" s="230"/>
-      <c r="AF437" s="230"/>
-      <c r="AG437" s="230"/>
-      <c r="AH437" s="230"/>
-      <c r="AI437" s="230"/>
-    </row>
-    <row r="438" spans="2:35" s="223" customFormat="1">
-      <c r="B438" s="227"/>
-      <c r="C438" s="230"/>
-      <c r="D438" s="230"/>
-      <c r="E438" s="230"/>
-      <c r="F438" s="230"/>
-      <c r="G438" s="230"/>
-      <c r="H438" s="230"/>
-      <c r="I438" s="230"/>
-      <c r="J438" s="230"/>
-      <c r="K438" s="230"/>
-      <c r="L438" s="230"/>
-      <c r="M438" s="230"/>
-      <c r="N438" s="230"/>
-      <c r="O438" s="230"/>
-      <c r="P438" s="230"/>
-      <c r="Q438" s="230"/>
-      <c r="R438" s="230"/>
-      <c r="S438" s="230"/>
-      <c r="T438" s="230"/>
-      <c r="U438" s="230"/>
-      <c r="V438" s="230"/>
-      <c r="W438" s="230"/>
-      <c r="X438" s="230"/>
-      <c r="Y438" s="230"/>
-      <c r="Z438" s="230"/>
-      <c r="AA438" s="230"/>
-      <c r="AB438" s="230"/>
-      <c r="AC438" s="230"/>
-      <c r="AD438" s="230"/>
-      <c r="AE438" s="230"/>
-      <c r="AF438" s="230"/>
-      <c r="AG438" s="230"/>
-      <c r="AH438" s="230"/>
-      <c r="AI438" s="230"/>
-    </row>
-    <row r="439" spans="2:35" s="223" customFormat="1">
-      <c r="B439" s="227"/>
-      <c r="C439" s="230"/>
-      <c r="D439" s="230"/>
-      <c r="E439" s="230"/>
-      <c r="F439" s="230"/>
-      <c r="G439" s="230"/>
-      <c r="H439" s="230"/>
-      <c r="I439" s="230"/>
-      <c r="J439" s="230"/>
-      <c r="K439" s="230"/>
-      <c r="L439" s="230"/>
-      <c r="M439" s="230"/>
-      <c r="N439" s="230"/>
-      <c r="O439" s="230"/>
-      <c r="P439" s="230"/>
-      <c r="Q439" s="230"/>
-      <c r="R439" s="230"/>
-      <c r="S439" s="230"/>
-      <c r="T439" s="230"/>
-      <c r="U439" s="230"/>
-      <c r="V439" s="230"/>
-      <c r="W439" s="230"/>
-      <c r="X439" s="230"/>
-      <c r="Y439" s="230"/>
-      <c r="Z439" s="230"/>
-      <c r="AA439" s="230"/>
-      <c r="AB439" s="230"/>
-      <c r="AC439" s="230"/>
-      <c r="AD439" s="230"/>
-      <c r="AE439" s="230"/>
-      <c r="AF439" s="230"/>
-      <c r="AG439" s="230"/>
-      <c r="AH439" s="230"/>
-      <c r="AI439" s="230"/>
-    </row>
-    <row r="440" spans="2:35" s="223" customFormat="1">
-      <c r="B440" s="227"/>
-      <c r="C440" s="230"/>
-      <c r="D440" s="230"/>
-      <c r="E440" s="230"/>
-      <c r="F440" s="230"/>
-      <c r="G440" s="230"/>
-      <c r="H440" s="230"/>
-      <c r="I440" s="230"/>
-      <c r="J440" s="230"/>
-      <c r="K440" s="230"/>
-      <c r="L440" s="230"/>
-      <c r="M440" s="230"/>
-      <c r="N440" s="230"/>
-      <c r="O440" s="230"/>
-      <c r="P440" s="230"/>
-      <c r="Q440" s="230"/>
-      <c r="R440" s="230"/>
-      <c r="S440" s="230"/>
-      <c r="T440" s="230"/>
-      <c r="U440" s="230"/>
-      <c r="V440" s="230"/>
-      <c r="W440" s="230"/>
-      <c r="X440" s="230"/>
-      <c r="Y440" s="230"/>
-      <c r="Z440" s="230"/>
-      <c r="AA440" s="230"/>
-      <c r="AB440" s="230"/>
-      <c r="AC440" s="230"/>
-      <c r="AD440" s="230"/>
-      <c r="AE440" s="230"/>
-      <c r="AF440" s="230"/>
-      <c r="AG440" s="230"/>
-      <c r="AH440" s="230"/>
-      <c r="AI440" s="230"/>
-    </row>
-    <row r="441" spans="2:35" s="223" customFormat="1">
-      <c r="B441" s="227"/>
-      <c r="C441" s="230"/>
-      <c r="D441" s="230"/>
-      <c r="E441" s="230"/>
-      <c r="F441" s="230"/>
-      <c r="G441" s="230"/>
-      <c r="H441" s="230"/>
-      <c r="I441" s="230"/>
-      <c r="J441" s="230"/>
-      <c r="K441" s="230"/>
-      <c r="L441" s="230"/>
-      <c r="M441" s="230"/>
-      <c r="N441" s="230"/>
-      <c r="O441" s="230"/>
-      <c r="P441" s="230"/>
-      <c r="Q441" s="230"/>
-      <c r="R441" s="230"/>
-      <c r="S441" s="230"/>
-      <c r="T441" s="230"/>
-      <c r="U441" s="230"/>
-      <c r="V441" s="230"/>
-      <c r="W441" s="230"/>
-      <c r="X441" s="230"/>
-      <c r="Y441" s="230"/>
-      <c r="Z441" s="230"/>
-      <c r="AA441" s="230"/>
-      <c r="AB441" s="230"/>
-      <c r="AC441" s="230"/>
-      <c r="AD441" s="230"/>
-      <c r="AE441" s="230"/>
-      <c r="AF441" s="230"/>
-      <c r="AG441" s="230"/>
-      <c r="AH441" s="230"/>
-      <c r="AI441" s="230"/>
-    </row>
-    <row r="442" spans="2:35" s="223" customFormat="1">
-      <c r="B442" s="227"/>
-      <c r="C442" s="230"/>
-      <c r="D442" s="230"/>
-      <c r="E442" s="230"/>
-      <c r="F442" s="230"/>
-      <c r="G442" s="230"/>
-      <c r="H442" s="230"/>
-      <c r="I442" s="230"/>
-      <c r="J442" s="230"/>
-      <c r="K442" s="230"/>
-      <c r="L442" s="230"/>
-      <c r="M442" s="230"/>
-      <c r="N442" s="230"/>
-      <c r="O442" s="230"/>
-      <c r="P442" s="230"/>
-      <c r="Q442" s="230"/>
-      <c r="R442" s="230"/>
-      <c r="S442" s="230"/>
-      <c r="T442" s="230"/>
-      <c r="U442" s="230"/>
-      <c r="V442" s="230"/>
-      <c r="W442" s="230"/>
-      <c r="X442" s="230"/>
-      <c r="Y442" s="230"/>
-      <c r="Z442" s="230"/>
-      <c r="AA442" s="230"/>
-      <c r="AB442" s="230"/>
-      <c r="AC442" s="230"/>
-      <c r="AD442" s="230"/>
-      <c r="AE442" s="230"/>
-      <c r="AF442" s="230"/>
-      <c r="AG442" s="230"/>
-      <c r="AH442" s="230"/>
-      <c r="AI442" s="230"/>
-    </row>
-    <row r="443" spans="2:35" s="223" customFormat="1">
-      <c r="B443" s="227"/>
-      <c r="C443" s="230"/>
-      <c r="D443" s="230"/>
-      <c r="E443" s="230"/>
-      <c r="F443" s="230"/>
-      <c r="G443" s="230"/>
-      <c r="H443" s="230"/>
-      <c r="I443" s="230"/>
-      <c r="J443" s="230"/>
-      <c r="K443" s="230"/>
-      <c r="L443" s="230"/>
-      <c r="M443" s="230"/>
-      <c r="N443" s="230"/>
-      <c r="O443" s="230"/>
-      <c r="P443" s="230"/>
-      <c r="Q443" s="230"/>
-      <c r="R443" s="230"/>
-      <c r="S443" s="230"/>
-      <c r="T443" s="230"/>
-      <c r="U443" s="230"/>
-      <c r="V443" s="230"/>
-      <c r="W443" s="230"/>
-      <c r="X443" s="230"/>
-      <c r="Y443" s="230"/>
-      <c r="Z443" s="230"/>
-      <c r="AA443" s="230"/>
-      <c r="AB443" s="230"/>
-      <c r="AC443" s="230"/>
-      <c r="AD443" s="230"/>
-      <c r="AE443" s="230"/>
-      <c r="AF443" s="230"/>
-      <c r="AG443" s="230"/>
-      <c r="AH443" s="230"/>
-      <c r="AI443" s="230"/>
-    </row>
-    <row r="444" spans="2:35" s="223" customFormat="1">
-      <c r="B444" s="227"/>
-      <c r="C444" s="230"/>
-      <c r="D444" s="230"/>
-      <c r="E444" s="230"/>
-      <c r="F444" s="230"/>
-      <c r="G444" s="230"/>
-      <c r="H444" s="230"/>
-      <c r="I444" s="230"/>
-      <c r="J444" s="230"/>
-      <c r="K444" s="230"/>
-      <c r="L444" s="230"/>
-      <c r="M444" s="230"/>
-      <c r="N444" s="230"/>
-      <c r="O444" s="230"/>
-      <c r="P444" s="230"/>
-      <c r="Q444" s="230"/>
-      <c r="R444" s="230"/>
-      <c r="S444" s="230"/>
-      <c r="T444" s="230"/>
-      <c r="U444" s="230"/>
-      <c r="V444" s="230"/>
-      <c r="W444" s="230"/>
-      <c r="X444" s="230"/>
-      <c r="Y444" s="230"/>
-      <c r="Z444" s="230"/>
-      <c r="AA444" s="230"/>
-      <c r="AB444" s="230"/>
-      <c r="AC444" s="230"/>
-      <c r="AD444" s="230"/>
-      <c r="AE444" s="230"/>
-      <c r="AF444" s="230"/>
-      <c r="AG444" s="230"/>
-      <c r="AH444" s="230"/>
-      <c r="AI444" s="230"/>
-    </row>
-    <row r="445" spans="2:35" s="223" customFormat="1">
-      <c r="B445" s="227"/>
-      <c r="C445" s="230"/>
-      <c r="D445" s="230"/>
-      <c r="E445" s="230"/>
-      <c r="F445" s="230"/>
-      <c r="G445" s="230"/>
-      <c r="H445" s="230"/>
-      <c r="I445" s="230"/>
-      <c r="J445" s="230"/>
-      <c r="K445" s="230"/>
-      <c r="L445" s="230"/>
-      <c r="M445" s="230"/>
-      <c r="N445" s="230"/>
-      <c r="O445" s="230"/>
-      <c r="P445" s="230"/>
-      <c r="Q445" s="230"/>
-      <c r="R445" s="230"/>
-      <c r="S445" s="230"/>
-      <c r="T445" s="230"/>
-      <c r="U445" s="230"/>
-      <c r="V445" s="230"/>
-      <c r="W445" s="230"/>
-      <c r="X445" s="230"/>
-      <c r="Y445" s="230"/>
-      <c r="Z445" s="230"/>
-      <c r="AA445" s="230"/>
-      <c r="AB445" s="230"/>
-      <c r="AC445" s="230"/>
-      <c r="AD445" s="230"/>
-      <c r="AE445" s="230"/>
-      <c r="AF445" s="230"/>
-      <c r="AG445" s="230"/>
-      <c r="AH445" s="230"/>
-      <c r="AI445" s="230"/>
-    </row>
-    <row r="446" spans="2:35" s="223" customFormat="1">
-      <c r="B446" s="227"/>
-      <c r="C446" s="230"/>
-      <c r="D446" s="230"/>
-      <c r="E446" s="230"/>
-      <c r="F446" s="230"/>
-      <c r="G446" s="230"/>
-      <c r="H446" s="230"/>
-      <c r="I446" s="230"/>
-      <c r="J446" s="230"/>
-      <c r="K446" s="230"/>
-      <c r="L446" s="230"/>
-      <c r="M446" s="230"/>
-      <c r="N446" s="230"/>
-      <c r="O446" s="230"/>
-      <c r="P446" s="230"/>
-      <c r="Q446" s="230"/>
-      <c r="R446" s="230"/>
-      <c r="S446" s="230"/>
-      <c r="T446" s="230"/>
-      <c r="U446" s="230"/>
-      <c r="V446" s="230"/>
-      <c r="W446" s="230"/>
-      <c r="X446" s="230"/>
-      <c r="Y446" s="230"/>
-      <c r="Z446" s="230"/>
-      <c r="AA446" s="230"/>
-      <c r="AB446" s="230"/>
-      <c r="AC446" s="230"/>
-      <c r="AD446" s="230"/>
-      <c r="AE446" s="230"/>
-      <c r="AF446" s="230"/>
-      <c r="AG446" s="230"/>
-      <c r="AH446" s="230"/>
-      <c r="AI446" s="230"/>
-    </row>
-    <row r="447" spans="2:35" s="223" customFormat="1">
-      <c r="B447" s="227"/>
-      <c r="C447" s="230"/>
-      <c r="D447" s="230"/>
-      <c r="E447" s="230"/>
-      <c r="F447" s="230"/>
-      <c r="G447" s="230"/>
-      <c r="H447" s="230"/>
-      <c r="I447" s="230"/>
-      <c r="J447" s="230"/>
-      <c r="K447" s="230"/>
-      <c r="L447" s="230"/>
-      <c r="M447" s="230"/>
-      <c r="N447" s="230"/>
-      <c r="O447" s="230"/>
-      <c r="P447" s="230"/>
-      <c r="Q447" s="230"/>
-      <c r="R447" s="230"/>
-      <c r="S447" s="230"/>
-      <c r="T447" s="230"/>
-      <c r="U447" s="230"/>
-      <c r="V447" s="230"/>
-      <c r="W447" s="230"/>
-      <c r="X447" s="230"/>
-      <c r="Y447" s="230"/>
-      <c r="Z447" s="230"/>
-      <c r="AA447" s="230"/>
-      <c r="AB447" s="230"/>
-      <c r="AC447" s="230"/>
-      <c r="AD447" s="230"/>
-      <c r="AE447" s="230"/>
-      <c r="AF447" s="230"/>
-      <c r="AG447" s="230"/>
-      <c r="AH447" s="230"/>
-      <c r="AI447" s="230"/>
-    </row>
-    <row r="448" spans="2:35" s="223" customFormat="1">
-      <c r="B448" s="227"/>
-      <c r="C448" s="230"/>
-      <c r="D448" s="230"/>
-      <c r="E448" s="230"/>
-      <c r="F448" s="230"/>
-      <c r="G448" s="230"/>
-      <c r="H448" s="230"/>
-      <c r="I448" s="230"/>
-      <c r="J448" s="230"/>
-      <c r="K448" s="230"/>
-      <c r="L448" s="230"/>
-      <c r="M448" s="230"/>
-      <c r="N448" s="230"/>
-      <c r="O448" s="230"/>
-      <c r="P448" s="230"/>
-      <c r="Q448" s="230"/>
-      <c r="R448" s="230"/>
-      <c r="S448" s="230"/>
-      <c r="T448" s="230"/>
-      <c r="U448" s="230"/>
-      <c r="V448" s="230"/>
-      <c r="W448" s="230"/>
-      <c r="X448" s="230"/>
-      <c r="Y448" s="230"/>
-      <c r="Z448" s="230"/>
-      <c r="AA448" s="230"/>
-      <c r="AB448" s="230"/>
-      <c r="AC448" s="230"/>
-      <c r="AD448" s="230"/>
-      <c r="AE448" s="230"/>
-      <c r="AF448" s="230"/>
-      <c r="AG448" s="230"/>
-      <c r="AH448" s="230"/>
-      <c r="AI448" s="230"/>
-    </row>
-    <row r="449" spans="2:35" s="223" customFormat="1">
-      <c r="B449" s="227"/>
-      <c r="C449" s="230"/>
-      <c r="D449" s="230"/>
-      <c r="E449" s="230"/>
-      <c r="F449" s="230"/>
-      <c r="G449" s="230"/>
-      <c r="H449" s="230"/>
-      <c r="I449" s="230"/>
-      <c r="J449" s="230"/>
-      <c r="K449" s="230"/>
-      <c r="L449" s="230"/>
-      <c r="M449" s="230"/>
-      <c r="N449" s="230"/>
-      <c r="O449" s="230"/>
-      <c r="P449" s="230"/>
-      <c r="Q449" s="230"/>
-      <c r="R449" s="230"/>
-      <c r="S449" s="230"/>
-      <c r="T449" s="230"/>
-      <c r="U449" s="230"/>
-      <c r="V449" s="230"/>
-      <c r="W449" s="230"/>
-      <c r="X449" s="230"/>
-      <c r="Y449" s="230"/>
-      <c r="Z449" s="230"/>
-      <c r="AA449" s="230"/>
-      <c r="AB449" s="230"/>
-      <c r="AC449" s="230"/>
-      <c r="AD449" s="230"/>
-      <c r="AE449" s="230"/>
-      <c r="AF449" s="230"/>
-      <c r="AG449" s="230"/>
-      <c r="AH449" s="230"/>
-      <c r="AI449" s="230"/>
-    </row>
-    <row r="450" spans="2:35" s="223" customFormat="1">
-      <c r="B450" s="227"/>
-      <c r="C450" s="230"/>
-      <c r="D450" s="230"/>
-      <c r="E450" s="230"/>
-      <c r="F450" s="230"/>
-      <c r="G450" s="230"/>
-      <c r="H450" s="230"/>
-      <c r="I450" s="230"/>
-      <c r="J450" s="230"/>
-      <c r="K450" s="230"/>
-      <c r="L450" s="230"/>
-      <c r="M450" s="230"/>
-      <c r="N450" s="230"/>
-      <c r="O450" s="230"/>
-      <c r="P450" s="230"/>
-      <c r="Q450" s="230"/>
-      <c r="R450" s="230"/>
-      <c r="S450" s="230"/>
-      <c r="T450" s="230"/>
-      <c r="U450" s="230"/>
-      <c r="V450" s="230"/>
-      <c r="W450" s="230"/>
-      <c r="X450" s="230"/>
-      <c r="Y450" s="230"/>
-      <c r="Z450" s="230"/>
-      <c r="AA450" s="230"/>
-      <c r="AB450" s="230"/>
-      <c r="AC450" s="230"/>
-      <c r="AD450" s="230"/>
-      <c r="AE450" s="230"/>
-      <c r="AF450" s="230"/>
-      <c r="AG450" s="230"/>
-      <c r="AH450" s="230"/>
-      <c r="AI450" s="230"/>
-    </row>
-    <row r="451" spans="2:35" s="223" customFormat="1">
-      <c r="B451" s="227"/>
-      <c r="C451" s="230"/>
-      <c r="D451" s="230"/>
-      <c r="E451" s="230"/>
-      <c r="F451" s="230"/>
-      <c r="G451" s="230"/>
-      <c r="H451" s="230"/>
-      <c r="I451" s="230"/>
-      <c r="J451" s="230"/>
-      <c r="K451" s="230"/>
-      <c r="L451" s="230"/>
-      <c r="M451" s="230"/>
-      <c r="N451" s="230"/>
-      <c r="O451" s="230"/>
-      <c r="P451" s="230"/>
-      <c r="Q451" s="230"/>
-      <c r="R451" s="230"/>
-      <c r="S451" s="230"/>
-      <c r="T451" s="230"/>
-      <c r="U451" s="230"/>
-      <c r="V451" s="230"/>
-      <c r="W451" s="230"/>
-      <c r="X451" s="230"/>
-      <c r="Y451" s="230"/>
-      <c r="Z451" s="230"/>
-      <c r="AA451" s="230"/>
-      <c r="AB451" s="230"/>
-      <c r="AC451" s="230"/>
-      <c r="AD451" s="230"/>
-      <c r="AE451" s="230"/>
-      <c r="AF451" s="230"/>
-      <c r="AG451" s="230"/>
-      <c r="AH451" s="230"/>
-      <c r="AI451" s="230"/>
-    </row>
-    <row r="452" spans="2:35" s="223" customFormat="1"/>
+      <c r="Z418" s="229"/>
+      <c r="AA418" s="229"/>
+      <c r="AB418" s="229"/>
+      <c r="AC418" s="229"/>
+      <c r="AD418" s="229"/>
+      <c r="AE418" s="229"/>
+      <c r="AF418" s="229"/>
+      <c r="AG418" s="229"/>
+      <c r="AH418" s="229"/>
+      <c r="AI418" s="229"/>
+    </row>
+    <row r="419" spans="2:35" s="222" customFormat="1">
+      <c r="B419" s="226"/>
+      <c r="C419" s="229"/>
+      <c r="D419" s="229"/>
+      <c r="E419" s="229"/>
+      <c r="F419" s="229"/>
+      <c r="G419" s="229"/>
+      <c r="H419" s="229"/>
+      <c r="I419" s="229"/>
+      <c r="J419" s="229"/>
+      <c r="K419" s="229"/>
+      <c r="L419" s="229"/>
+      <c r="M419" s="229"/>
+      <c r="N419" s="229"/>
+      <c r="O419" s="229"/>
+      <c r="P419" s="229"/>
+      <c r="Q419" s="229"/>
+      <c r="R419" s="229"/>
+      <c r="S419" s="229"/>
+      <c r="T419" s="229"/>
+      <c r="U419" s="229"/>
+      <c r="V419" s="229"/>
+      <c r="W419" s="229"/>
+      <c r="X419" s="229"/>
+      <c r="Y419" s="229"/>
+      <c r="Z419" s="229"/>
+      <c r="AA419" s="229"/>
+      <c r="AB419" s="229"/>
+      <c r="AC419" s="229"/>
+      <c r="AD419" s="229"/>
+      <c r="AE419" s="229"/>
+      <c r="AF419" s="229"/>
+      <c r="AG419" s="229"/>
+      <c r="AH419" s="229"/>
+      <c r="AI419" s="229"/>
+    </row>
+    <row r="420" spans="2:35" s="222" customFormat="1">
+      <c r="B420" s="226"/>
+      <c r="C420" s="229"/>
+      <c r="D420" s="229"/>
+      <c r="E420" s="229"/>
+      <c r="F420" s="229"/>
+      <c r="G420" s="229"/>
+      <c r="H420" s="229"/>
+      <c r="I420" s="229"/>
+      <c r="J420" s="229"/>
+      <c r="K420" s="229"/>
+      <c r="L420" s="229"/>
+      <c r="M420" s="229"/>
+      <c r="N420" s="229"/>
+      <c r="O420" s="229"/>
+      <c r="P420" s="229"/>
+      <c r="Q420" s="229"/>
+      <c r="R420" s="229"/>
+      <c r="S420" s="229"/>
+      <c r="T420" s="229"/>
+      <c r="U420" s="229"/>
+      <c r="V420" s="229"/>
+      <c r="W420" s="229"/>
+      <c r="X420" s="229"/>
+      <c r="Y420" s="229"/>
+      <c r="Z420" s="229"/>
+      <c r="AA420" s="229"/>
+      <c r="AB420" s="229"/>
+      <c r="AC420" s="229"/>
+      <c r="AD420" s="229"/>
+      <c r="AE420" s="229"/>
+      <c r="AF420" s="229"/>
+      <c r="AG420" s="229"/>
+      <c r="AH420" s="229"/>
+      <c r="AI420" s="229"/>
+    </row>
+    <row r="421" spans="2:35" s="222" customFormat="1">
+      <c r="B421" s="226"/>
+      <c r="C421" s="229"/>
+      <c r="D421" s="229"/>
+      <c r="E421" s="229"/>
+      <c r="F421" s="229"/>
+      <c r="G421" s="229"/>
+      <c r="H421" s="229"/>
+      <c r="I421" s="229"/>
+      <c r="J421" s="229"/>
+      <c r="K421" s="229"/>
+      <c r="L421" s="229"/>
+      <c r="M421" s="229"/>
+      <c r="N421" s="229"/>
+      <c r="O421" s="229"/>
+      <c r="P421" s="229"/>
+      <c r="Q421" s="229"/>
+      <c r="R421" s="229"/>
+      <c r="S421" s="229"/>
+      <c r="T421" s="229"/>
+      <c r="U421" s="229"/>
+      <c r="V421" s="229"/>
+      <c r="W421" s="229"/>
+      <c r="X421" s="229"/>
+      <c r="Y421" s="229"/>
+      <c r="Z421" s="229"/>
+      <c r="AA421" s="229"/>
+      <c r="AB421" s="229"/>
+      <c r="AC421" s="229"/>
+      <c r="AD421" s="229"/>
+      <c r="AE421" s="229"/>
+      <c r="AF421" s="229"/>
+      <c r="AG421" s="229"/>
+      <c r="AH421" s="229"/>
+      <c r="AI421" s="229"/>
+    </row>
+    <row r="422" spans="2:35" s="222" customFormat="1">
+      <c r="B422" s="226"/>
+      <c r="C422" s="229"/>
+      <c r="D422" s="229"/>
+      <c r="E422" s="229"/>
+      <c r="F422" s="229"/>
+      <c r="G422" s="229"/>
+      <c r="H422" s="229"/>
+      <c r="I422" s="229"/>
+      <c r="J422" s="229"/>
+      <c r="K422" s="229"/>
+      <c r="L422" s="229"/>
+      <c r="M422" s="229"/>
+      <c r="N422" s="229"/>
+      <c r="O422" s="229"/>
+      <c r="P422" s="229"/>
+      <c r="Q422" s="229"/>
+      <c r="R422" s="229"/>
+      <c r="S422" s="229"/>
+      <c r="T422" s="229"/>
+      <c r="U422" s="229"/>
+      <c r="V422" s="229"/>
+      <c r="W422" s="229"/>
+      <c r="X422" s="229"/>
+      <c r="Y422" s="229"/>
+      <c r="Z422" s="229"/>
+      <c r="AA422" s="229"/>
+      <c r="AB422" s="229"/>
+      <c r="AC422" s="229"/>
+      <c r="AD422" s="229"/>
+      <c r="AE422" s="229"/>
+      <c r="AF422" s="229"/>
+      <c r="AG422" s="229"/>
+      <c r="AH422" s="229"/>
+      <c r="AI422" s="229"/>
+    </row>
+    <row r="423" spans="2:35" s="222" customFormat="1">
+      <c r="B423" s="226"/>
+      <c r="C423" s="229"/>
+      <c r="D423" s="229"/>
+      <c r="E423" s="229"/>
+      <c r="F423" s="229"/>
+      <c r="G423" s="229"/>
+      <c r="H423" s="229"/>
+      <c r="I423" s="229"/>
+      <c r="J423" s="229"/>
+      <c r="K423" s="229"/>
+      <c r="L423" s="229"/>
+      <c r="M423" s="229"/>
+      <c r="N423" s="229"/>
+      <c r="O423" s="229"/>
+      <c r="P423" s="229"/>
+      <c r="Q423" s="229"/>
+      <c r="R423" s="229"/>
+      <c r="S423" s="229"/>
+      <c r="T423" s="229"/>
+      <c r="U423" s="229"/>
+      <c r="V423" s="229"/>
+      <c r="W423" s="229"/>
+      <c r="X423" s="229"/>
+      <c r="Y423" s="229"/>
+      <c r="Z423" s="229"/>
+      <c r="AA423" s="229"/>
+      <c r="AB423" s="229"/>
+      <c r="AC423" s="229"/>
+      <c r="AD423" s="229"/>
+      <c r="AE423" s="229"/>
+      <c r="AF423" s="229"/>
+      <c r="AG423" s="229"/>
+      <c r="AH423" s="229"/>
+      <c r="AI423" s="229"/>
+    </row>
+    <row r="424" spans="2:35" s="222" customFormat="1">
+      <c r="B424" s="226"/>
+      <c r="C424" s="229"/>
+      <c r="D424" s="229"/>
+      <c r="E424" s="229"/>
+      <c r="F424" s="229"/>
+      <c r="G424" s="229"/>
+      <c r="H424" s="229"/>
+      <c r="I424" s="229"/>
+      <c r="J424" s="229"/>
+      <c r="K424" s="229"/>
+      <c r="L424" s="229"/>
+      <c r="M424" s="229"/>
+      <c r="N424" s="229"/>
+      <c r="O424" s="229"/>
+      <c r="P424" s="229"/>
+      <c r="Q424" s="229"/>
+      <c r="R424" s="229"/>
+      <c r="S424" s="229"/>
+      <c r="T424" s="229"/>
+      <c r="U424" s="229"/>
+      <c r="V424" s="229"/>
+      <c r="W424" s="229"/>
+      <c r="X424" s="229"/>
+      <c r="Y424" s="229"/>
+      <c r="Z424" s="229"/>
+      <c r="AA424" s="229"/>
+      <c r="AB424" s="229"/>
+      <c r="AC424" s="229"/>
+      <c r="AD424" s="229"/>
+      <c r="AE424" s="229"/>
+      <c r="AF424" s="229"/>
+      <c r="AG424" s="229"/>
+      <c r="AH424" s="229"/>
+      <c r="AI424" s="229"/>
+    </row>
+    <row r="425" spans="2:35" s="222" customFormat="1">
+      <c r="B425" s="226"/>
+      <c r="C425" s="229"/>
+      <c r="D425" s="229"/>
+      <c r="E425" s="229"/>
+      <c r="F425" s="229"/>
+      <c r="G425" s="229"/>
+      <c r="H425" s="229"/>
+      <c r="I425" s="229"/>
+      <c r="J425" s="229"/>
+      <c r="K425" s="229"/>
+      <c r="L425" s="229"/>
+      <c r="M425" s="229"/>
+      <c r="N425" s="229"/>
+      <c r="O425" s="229"/>
+      <c r="P425" s="229"/>
+      <c r="Q425" s="229"/>
+      <c r="R425" s="229"/>
+      <c r="S425" s="229"/>
+      <c r="T425" s="229"/>
+      <c r="U425" s="229"/>
+      <c r="V425" s="229"/>
+      <c r="W425" s="229"/>
+      <c r="X425" s="229"/>
+      <c r="Y425" s="229"/>
+      <c r="Z425" s="229"/>
+      <c r="AA425" s="229"/>
+      <c r="AB425" s="229"/>
+      <c r="AC425" s="229"/>
+      <c r="AD425" s="229"/>
+      <c r="AE425" s="229"/>
+      <c r="AF425" s="229"/>
+      <c r="AG425" s="229"/>
+      <c r="AH425" s="229"/>
+      <c r="AI425" s="229"/>
+    </row>
+    <row r="426" spans="2:35" s="222" customFormat="1">
+      <c r="B426" s="226"/>
+      <c r="C426" s="229"/>
+      <c r="D426" s="229"/>
+      <c r="E426" s="229"/>
+      <c r="F426" s="229"/>
+      <c r="G426" s="229"/>
+      <c r="H426" s="229"/>
+      <c r="I426" s="229"/>
+      <c r="J426" s="229"/>
+      <c r="K426" s="229"/>
+      <c r="L426" s="229"/>
+      <c r="M426" s="229"/>
+      <c r="N426" s="229"/>
+      <c r="O426" s="229"/>
+      <c r="P426" s="229"/>
+      <c r="Q426" s="229"/>
+      <c r="R426" s="229"/>
+      <c r="S426" s="229"/>
+      <c r="T426" s="229"/>
+      <c r="U426" s="229"/>
+      <c r="V426" s="229"/>
+      <c r="W426" s="229"/>
+      <c r="X426" s="229"/>
+      <c r="Y426" s="229"/>
+      <c r="Z426" s="229"/>
+      <c r="AA426" s="229"/>
+      <c r="AB426" s="229"/>
+      <c r="AC426" s="229"/>
+      <c r="AD426" s="229"/>
+      <c r="AE426" s="229"/>
+      <c r="AF426" s="229"/>
+      <c r="AG426" s="229"/>
+      <c r="AH426" s="229"/>
+      <c r="AI426" s="229"/>
+    </row>
+    <row r="427" spans="2:35" s="222" customFormat="1">
+      <c r="B427" s="226"/>
+      <c r="C427" s="229"/>
+      <c r="D427" s="229"/>
+      <c r="E427" s="229"/>
+      <c r="F427" s="229"/>
+      <c r="G427" s="229"/>
+      <c r="H427" s="229"/>
+      <c r="I427" s="229"/>
+      <c r="J427" s="229"/>
+      <c r="K427" s="229"/>
+      <c r="L427" s="229"/>
+      <c r="M427" s="229"/>
+      <c r="N427" s="229"/>
+      <c r="O427" s="229"/>
+      <c r="P427" s="229"/>
+      <c r="Q427" s="229"/>
+      <c r="R427" s="229"/>
+      <c r="S427" s="229"/>
+      <c r="T427" s="229"/>
+      <c r="U427" s="229"/>
+      <c r="V427" s="229"/>
+      <c r="W427" s="229"/>
+      <c r="X427" s="229"/>
+      <c r="Y427" s="229"/>
+      <c r="Z427" s="229"/>
+      <c r="AA427" s="229"/>
+      <c r="AB427" s="229"/>
+      <c r="AC427" s="229"/>
+      <c r="AD427" s="229"/>
+      <c r="AE427" s="229"/>
+      <c r="AF427" s="229"/>
+      <c r="AG427" s="229"/>
+      <c r="AH427" s="229"/>
+      <c r="AI427" s="229"/>
+    </row>
+    <row r="428" spans="2:35" s="222" customFormat="1">
+      <c r="B428" s="226"/>
+      <c r="C428" s="229"/>
+      <c r="D428" s="229"/>
+      <c r="E428" s="229"/>
+      <c r="F428" s="229"/>
+      <c r="G428" s="229"/>
+      <c r="H428" s="229"/>
+      <c r="I428" s="229"/>
+      <c r="J428" s="229"/>
+      <c r="K428" s="229"/>
+      <c r="L428" s="229"/>
+      <c r="M428" s="229"/>
+      <c r="N428" s="229"/>
+      <c r="O428" s="229"/>
+      <c r="P428" s="229"/>
+      <c r="Q428" s="229"/>
+      <c r="R428" s="229"/>
+      <c r="S428" s="229"/>
+      <c r="T428" s="229"/>
+      <c r="U428" s="229"/>
+      <c r="V428" s="229"/>
+      <c r="W428" s="229"/>
+      <c r="X428" s="229"/>
+      <c r="Y428" s="229"/>
+      <c r="Z428" s="229"/>
+      <c r="AA428" s="229"/>
+      <c r="AB428" s="229"/>
+      <c r="AC428" s="229"/>
+      <c r="AD428" s="229"/>
+      <c r="AE428" s="229"/>
+      <c r="AF428" s="229"/>
+      <c r="AG428" s="229"/>
+      <c r="AH428" s="229"/>
+      <c r="AI428" s="229"/>
+    </row>
+    <row r="429" spans="2:35" s="222" customFormat="1">
+      <c r="B429" s="226"/>
+      <c r="C429" s="229"/>
+      <c r="D429" s="229"/>
+      <c r="E429" s="229"/>
+      <c r="F429" s="229"/>
+      <c r="G429" s="229"/>
+      <c r="H429" s="229"/>
+      <c r="I429" s="229"/>
+      <c r="J429" s="229"/>
+      <c r="K429" s="229"/>
+      <c r="L429" s="229"/>
+      <c r="M429" s="229"/>
+      <c r="N429" s="229"/>
+      <c r="O429" s="229"/>
+      <c r="P429" s="229"/>
+      <c r="Q429" s="229"/>
+      <c r="R429" s="229"/>
+      <c r="S429" s="229"/>
+      <c r="T429" s="229"/>
+      <c r="U429" s="229"/>
+      <c r="V429" s="229"/>
+      <c r="W429" s="229"/>
+      <c r="X429" s="229"/>
+      <c r="Y429" s="229"/>
+      <c r="Z429" s="229"/>
+      <c r="AA429" s="229"/>
+      <c r="AB429" s="229"/>
+      <c r="AC429" s="229"/>
+      <c r="AD429" s="229"/>
+      <c r="AE429" s="229"/>
+      <c r="AF429" s="229"/>
+      <c r="AG429" s="229"/>
+      <c r="AH429" s="229"/>
+      <c r="AI429" s="229"/>
+    </row>
+    <row r="430" spans="2:35" s="222" customFormat="1">
+      <c r="B430" s="226"/>
+      <c r="C430" s="229"/>
+      <c r="D430" s="229"/>
+      <c r="E430" s="229"/>
+      <c r="F430" s="229"/>
+      <c r="G430" s="229"/>
+      <c r="H430" s="229"/>
+      <c r="I430" s="229"/>
+      <c r="J430" s="229"/>
+      <c r="K430" s="229"/>
+      <c r="L430" s="229"/>
+      <c r="M430" s="229"/>
+      <c r="N430" s="229"/>
+      <c r="O430" s="229"/>
+      <c r="P430" s="229"/>
+      <c r="Q430" s="229"/>
+      <c r="R430" s="229"/>
+      <c r="S430" s="229"/>
+      <c r="T430" s="229"/>
+      <c r="U430" s="229"/>
+      <c r="V430" s="229"/>
+      <c r="W430" s="229"/>
+      <c r="X430" s="229"/>
+      <c r="Y430" s="229"/>
+      <c r="Z430" s="229"/>
+      <c r="AA430" s="229"/>
+      <c r="AB430" s="229"/>
+      <c r="AC430" s="229"/>
+      <c r="AD430" s="229"/>
+      <c r="AE430" s="229"/>
+      <c r="AF430" s="229"/>
+      <c r="AG430" s="229"/>
+      <c r="AH430" s="229"/>
+      <c r="AI430" s="229"/>
+    </row>
+    <row r="431" spans="2:35" s="222" customFormat="1">
+      <c r="B431" s="226"/>
+      <c r="C431" s="229"/>
+      <c r="D431" s="229"/>
+      <c r="E431" s="229"/>
+      <c r="F431" s="229"/>
+      <c r="G431" s="229"/>
+      <c r="H431" s="229"/>
+      <c r="I431" s="229"/>
+      <c r="J431" s="229"/>
+      <c r="K431" s="229"/>
+      <c r="L431" s="229"/>
+      <c r="M431" s="229"/>
+      <c r="N431" s="229"/>
+      <c r="O431" s="229"/>
+      <c r="P431" s="229"/>
+      <c r="Q431" s="229"/>
+      <c r="R431" s="229"/>
+      <c r="S431" s="229"/>
+      <c r="T431" s="229"/>
+      <c r="U431" s="229"/>
+      <c r="V431" s="229"/>
+      <c r="W431" s="229"/>
+      <c r="X431" s="229"/>
+      <c r="Y431" s="229"/>
+      <c r="Z431" s="229"/>
+      <c r="AA431" s="229"/>
+      <c r="AB431" s="229"/>
+      <c r="AC431" s="229"/>
+      <c r="AD431" s="229"/>
+      <c r="AE431" s="229"/>
+      <c r="AF431" s="229"/>
+      <c r="AG431" s="229"/>
+      <c r="AH431" s="229"/>
+      <c r="AI431" s="229"/>
+    </row>
+    <row r="432" spans="2:35" s="222" customFormat="1">
+      <c r="B432" s="226"/>
+      <c r="C432" s="229"/>
+      <c r="D432" s="229"/>
+      <c r="E432" s="229"/>
+      <c r="F432" s="229"/>
+      <c r="G432" s="229"/>
+      <c r="H432" s="229"/>
+      <c r="I432" s="229"/>
+      <c r="J432" s="229"/>
+      <c r="K432" s="229"/>
+      <c r="L432" s="229"/>
+      <c r="M432" s="229"/>
+      <c r="N432" s="229"/>
+      <c r="O432" s="229"/>
+      <c r="P432" s="229"/>
+      <c r="Q432" s="229"/>
+      <c r="R432" s="229"/>
+      <c r="S432" s="229"/>
+      <c r="T432" s="229"/>
+      <c r="U432" s="229"/>
+      <c r="V432" s="229"/>
+      <c r="W432" s="229"/>
+      <c r="X432" s="229"/>
+      <c r="Y432" s="229"/>
+      <c r="Z432" s="229"/>
+      <c r="AA432" s="229"/>
+      <c r="AB432" s="229"/>
+      <c r="AC432" s="229"/>
+      <c r="AD432" s="229"/>
+      <c r="AE432" s="229"/>
+      <c r="AF432" s="229"/>
+      <c r="AG432" s="229"/>
+      <c r="AH432" s="229"/>
+      <c r="AI432" s="229"/>
+    </row>
+    <row r="433" spans="2:35" s="222" customFormat="1">
+      <c r="B433" s="226"/>
+      <c r="C433" s="229"/>
+      <c r="D433" s="229"/>
+      <c r="E433" s="229"/>
+      <c r="F433" s="229"/>
+      <c r="G433" s="229"/>
+      <c r="H433" s="229"/>
+      <c r="I433" s="229"/>
+      <c r="J433" s="229"/>
+      <c r="K433" s="229"/>
+      <c r="L433" s="229"/>
+      <c r="M433" s="229"/>
+      <c r="N433" s="229"/>
+      <c r="O433" s="229"/>
+      <c r="P433" s="229"/>
+      <c r="Q433" s="229"/>
+      <c r="R433" s="229"/>
+      <c r="S433" s="229"/>
+      <c r="T433" s="229"/>
+      <c r="U433" s="229"/>
+      <c r="V433" s="229"/>
+      <c r="W433" s="229"/>
+      <c r="X433" s="229"/>
+      <c r="Y433" s="229"/>
+      <c r="Z433" s="229"/>
+      <c r="AA433" s="229"/>
+      <c r="AB433" s="229"/>
+      <c r="AC433" s="229"/>
+      <c r="AD433" s="229"/>
+      <c r="AE433" s="229"/>
+      <c r="AF433" s="229"/>
+      <c r="AG433" s="229"/>
+      <c r="AH433" s="229"/>
+      <c r="AI433" s="229"/>
+    </row>
+    <row r="434" spans="2:35" s="222" customFormat="1">
+      <c r="B434" s="226"/>
+      <c r="C434" s="229"/>
+      <c r="D434" s="229"/>
+      <c r="E434" s="229"/>
+      <c r="F434" s="229"/>
+      <c r="G434" s="229"/>
+      <c r="H434" s="229"/>
+      <c r="I434" s="229"/>
+      <c r="J434" s="229"/>
+      <c r="K434" s="229"/>
+      <c r="L434" s="229"/>
+      <c r="M434" s="229"/>
+      <c r="N434" s="229"/>
+      <c r="O434" s="229"/>
+      <c r="P434" s="229"/>
+      <c r="Q434" s="229"/>
+      <c r="R434" s="229"/>
+      <c r="S434" s="229"/>
+      <c r="T434" s="229"/>
+      <c r="U434" s="229"/>
+      <c r="V434" s="229"/>
+      <c r="W434" s="229"/>
+      <c r="X434" s="229"/>
+      <c r="Y434" s="229"/>
+      <c r="Z434" s="229"/>
+      <c r="AA434" s="229"/>
+      <c r="AB434" s="229"/>
+      <c r="AC434" s="229"/>
+      <c r="AD434" s="229"/>
+      <c r="AE434" s="229"/>
+      <c r="AF434" s="229"/>
+      <c r="AG434" s="229"/>
+      <c r="AH434" s="229"/>
+      <c r="AI434" s="229"/>
+    </row>
+    <row r="435" spans="2:35" s="222" customFormat="1">
+      <c r="B435" s="226"/>
+      <c r="C435" s="229"/>
+      <c r="D435" s="229"/>
+      <c r="E435" s="229"/>
+      <c r="F435" s="229"/>
+      <c r="G435" s="229"/>
+      <c r="H435" s="229"/>
+      <c r="I435" s="229"/>
+      <c r="J435" s="229"/>
+      <c r="K435" s="229"/>
+      <c r="L435" s="229"/>
+      <c r="M435" s="229"/>
+      <c r="N435" s="229"/>
+      <c r="O435" s="229"/>
+      <c r="P435" s="229"/>
+      <c r="Q435" s="229"/>
+      <c r="R435" s="229"/>
+      <c r="S435" s="229"/>
+      <c r="T435" s="229"/>
+      <c r="U435" s="229"/>
+      <c r="V435" s="229"/>
+      <c r="W435" s="229"/>
+      <c r="X435" s="229"/>
+      <c r="Y435" s="229"/>
+      <c r="Z435" s="229"/>
+      <c r="AA435" s="229"/>
+      <c r="AB435" s="229"/>
+      <c r="AC435" s="229"/>
+      <c r="AD435" s="229"/>
+      <c r="AE435" s="229"/>
+      <c r="AF435" s="229"/>
+      <c r="AG435" s="229"/>
+      <c r="AH435" s="229"/>
+      <c r="AI435" s="229"/>
+    </row>
+    <row r="436" spans="2:35" s="222" customFormat="1">
+      <c r="B436" s="226"/>
+      <c r="C436" s="229"/>
+      <c r="D436" s="229"/>
+      <c r="E436" s="229"/>
+      <c r="F436" s="229"/>
+      <c r="G436" s="229"/>
+      <c r="H436" s="229"/>
+      <c r="I436" s="229"/>
+      <c r="J436" s="229"/>
+      <c r="K436" s="229"/>
+      <c r="L436" s="229"/>
+      <c r="M436" s="229"/>
+      <c r="N436" s="229"/>
+      <c r="O436" s="229"/>
+      <c r="P436" s="229"/>
+      <c r="Q436" s="229"/>
+      <c r="R436" s="229"/>
+      <c r="S436" s="229"/>
+      <c r="T436" s="229"/>
+      <c r="U436" s="229"/>
+      <c r="V436" s="229"/>
+      <c r="W436" s="229"/>
+      <c r="X436" s="229"/>
+      <c r="Y436" s="229"/>
+      <c r="Z436" s="229"/>
+      <c r="AA436" s="229"/>
+      <c r="AB436" s="229"/>
+      <c r="AC436" s="229"/>
+      <c r="AD436" s="229"/>
+      <c r="AE436" s="229"/>
+      <c r="AF436" s="229"/>
+      <c r="AG436" s="229"/>
+      <c r="AH436" s="229"/>
+      <c r="AI436" s="229"/>
+    </row>
+    <row r="437" spans="2:35" s="222" customFormat="1">
+      <c r="B437" s="226"/>
+      <c r="C437" s="229"/>
+      <c r="D437" s="229"/>
+      <c r="E437" s="229"/>
+      <c r="F437" s="229"/>
+      <c r="G437" s="229"/>
+      <c r="H437" s="229"/>
+      <c r="I437" s="229"/>
+      <c r="J437" s="229"/>
+      <c r="K437" s="229"/>
+      <c r="L437" s="229"/>
+      <c r="M437" s="229"/>
+      <c r="N437" s="229"/>
+      <c r="O437" s="229"/>
+      <c r="P437" s="229"/>
+      <c r="Q437" s="229"/>
+      <c r="R437" s="229"/>
+      <c r="S437" s="229"/>
+      <c r="T437" s="229"/>
+      <c r="U437" s="229"/>
+      <c r="V437" s="229"/>
+      <c r="W437" s="229"/>
+      <c r="X437" s="229"/>
+      <c r="Y437" s="229"/>
+      <c r="Z437" s="229"/>
+      <c r="AA437" s="229"/>
+      <c r="AB437" s="229"/>
+      <c r="AC437" s="229"/>
+      <c r="AD437" s="229"/>
+      <c r="AE437" s="229"/>
+      <c r="AF437" s="229"/>
+      <c r="AG437" s="229"/>
+      <c r="AH437" s="229"/>
+      <c r="AI437" s="229"/>
+    </row>
+    <row r="438" spans="2:35" s="222" customFormat="1">
+      <c r="B438" s="226"/>
+      <c r="C438" s="229"/>
+      <c r="D438" s="229"/>
+      <c r="E438" s="229"/>
+      <c r="F438" s="229"/>
+      <c r="G438" s="229"/>
+      <c r="H438" s="229"/>
+      <c r="I438" s="229"/>
+      <c r="J438" s="229"/>
+      <c r="K438" s="229"/>
+      <c r="L438" s="229"/>
+      <c r="M438" s="229"/>
+      <c r="N438" s="229"/>
+      <c r="O438" s="229"/>
+      <c r="P438" s="229"/>
+      <c r="Q438" s="229"/>
+      <c r="R438" s="229"/>
+      <c r="S438" s="229"/>
+      <c r="T438" s="229"/>
+      <c r="U438" s="229"/>
+      <c r="V438" s="229"/>
+      <c r="W438" s="229"/>
+      <c r="X438" s="229"/>
+      <c r="Y438" s="229"/>
+      <c r="Z438" s="229"/>
+      <c r="AA438" s="229"/>
+      <c r="AB438" s="229"/>
+      <c r="AC438" s="229"/>
+      <c r="AD438" s="229"/>
+      <c r="AE438" s="229"/>
+      <c r="AF438" s="229"/>
+      <c r="AG438" s="229"/>
+      <c r="AH438" s="229"/>
+      <c r="AI438" s="229"/>
+    </row>
+    <row r="439" spans="2:35" s="222" customFormat="1">
+      <c r="B439" s="226"/>
+      <c r="C439" s="229"/>
+      <c r="D439" s="229"/>
+      <c r="E439" s="229"/>
+      <c r="F439" s="229"/>
+      <c r="G439" s="229"/>
+      <c r="H439" s="229"/>
+      <c r="I439" s="229"/>
+      <c r="J439" s="229"/>
+      <c r="K439" s="229"/>
+      <c r="L439" s="229"/>
+      <c r="M439" s="229"/>
+      <c r="N439" s="229"/>
+      <c r="O439" s="229"/>
+      <c r="P439" s="229"/>
+      <c r="Q439" s="229"/>
+      <c r="R439" s="229"/>
+      <c r="S439" s="229"/>
+      <c r="T439" s="229"/>
+      <c r="U439" s="229"/>
+      <c r="V439" s="229"/>
+      <c r="W439" s="229"/>
+      <c r="X439" s="229"/>
+      <c r="Y439" s="229"/>
+      <c r="Z439" s="229"/>
+      <c r="AA439" s="229"/>
+      <c r="AB439" s="229"/>
+      <c r="AC439" s="229"/>
+      <c r="AD439" s="229"/>
+      <c r="AE439" s="229"/>
+      <c r="AF439" s="229"/>
+      <c r="AG439" s="229"/>
+      <c r="AH439" s="229"/>
+      <c r="AI439" s="229"/>
+    </row>
+    <row r="440" spans="2:35" s="222" customFormat="1">
+      <c r="B440" s="226"/>
+      <c r="C440" s="229"/>
+      <c r="D440" s="229"/>
+      <c r="E440" s="229"/>
+      <c r="F440" s="229"/>
+      <c r="G440" s="229"/>
+      <c r="H440" s="229"/>
+      <c r="I440" s="229"/>
+      <c r="J440" s="229"/>
+      <c r="K440" s="229"/>
+      <c r="L440" s="229"/>
+      <c r="M440" s="229"/>
+      <c r="N440" s="229"/>
+      <c r="O440" s="229"/>
+      <c r="P440" s="229"/>
+      <c r="Q440" s="229"/>
+      <c r="R440" s="229"/>
+      <c r="S440" s="229"/>
+      <c r="T440" s="229"/>
+      <c r="U440" s="229"/>
+      <c r="V440" s="229"/>
+      <c r="W440" s="229"/>
+      <c r="X440" s="229"/>
+      <c r="Y440" s="229"/>
+      <c r="Z440" s="229"/>
+      <c r="AA440" s="229"/>
+      <c r="AB440" s="229"/>
+      <c r="AC440" s="229"/>
+      <c r="AD440" s="229"/>
+      <c r="AE440" s="229"/>
+      <c r="AF440" s="229"/>
+      <c r="AG440" s="229"/>
+      <c r="AH440" s="229"/>
+      <c r="AI440" s="229"/>
+    </row>
+    <row r="441" spans="2:35" s="222" customFormat="1">
+      <c r="B441" s="226"/>
+      <c r="C441" s="229"/>
+      <c r="D441" s="229"/>
+      <c r="E441" s="229"/>
+      <c r="F441" s="229"/>
+      <c r="G441" s="229"/>
+      <c r="H441" s="229"/>
+      <c r="I441" s="229"/>
+      <c r="J441" s="229"/>
+      <c r="K441" s="229"/>
+      <c r="L441" s="229"/>
+      <c r="M441" s="229"/>
+      <c r="N441" s="229"/>
+      <c r="O441" s="229"/>
+      <c r="P441" s="229"/>
+      <c r="Q441" s="229"/>
+      <c r="R441" s="229"/>
+      <c r="S441" s="229"/>
+      <c r="T441" s="229"/>
+      <c r="U441" s="229"/>
+      <c r="V441" s="229"/>
+      <c r="W441" s="229"/>
+      <c r="X441" s="229"/>
+      <c r="Y441" s="229"/>
+      <c r="Z441" s="229"/>
+      <c r="AA441" s="229"/>
+      <c r="AB441" s="229"/>
+      <c r="AC441" s="229"/>
+      <c r="AD441" s="229"/>
+      <c r="AE441" s="229"/>
+      <c r="AF441" s="229"/>
+      <c r="AG441" s="229"/>
+      <c r="AH441" s="229"/>
+      <c r="AI441" s="229"/>
+    </row>
+    <row r="442" spans="2:35" s="222" customFormat="1">
+      <c r="B442" s="226"/>
+      <c r="C442" s="229"/>
+      <c r="D442" s="229"/>
+      <c r="E442" s="229"/>
+      <c r="F442" s="229"/>
+      <c r="G442" s="229"/>
+      <c r="H442" s="229"/>
+      <c r="I442" s="229"/>
+      <c r="J442" s="229"/>
+      <c r="K442" s="229"/>
+      <c r="L442" s="229"/>
+      <c r="M442" s="229"/>
+      <c r="N442" s="229"/>
+      <c r="O442" s="229"/>
+      <c r="P442" s="229"/>
+      <c r="Q442" s="229"/>
+      <c r="R442" s="229"/>
+      <c r="S442" s="229"/>
+      <c r="T442" s="229"/>
+      <c r="U442" s="229"/>
+      <c r="V442" s="229"/>
+      <c r="W442" s="229"/>
+      <c r="X442" s="229"/>
+      <c r="Y442" s="229"/>
+      <c r="Z442" s="229"/>
+      <c r="AA442" s="229"/>
+      <c r="AB442" s="229"/>
+      <c r="AC442" s="229"/>
+      <c r="AD442" s="229"/>
+      <c r="AE442" s="229"/>
+      <c r="AF442" s="229"/>
+      <c r="AG442" s="229"/>
+      <c r="AH442" s="229"/>
+      <c r="AI442" s="229"/>
+    </row>
+    <row r="443" spans="2:35" s="222" customFormat="1">
+      <c r="B443" s="226"/>
+      <c r="C443" s="229"/>
+      <c r="D443" s="229"/>
+      <c r="E443" s="229"/>
+      <c r="F443" s="229"/>
+      <c r="G443" s="229"/>
+      <c r="H443" s="229"/>
+      <c r="I443" s="229"/>
+      <c r="J443" s="229"/>
+      <c r="K443" s="229"/>
+      <c r="L443" s="229"/>
+      <c r="M443" s="229"/>
+      <c r="N443" s="229"/>
+      <c r="O443" s="229"/>
+      <c r="P443" s="229"/>
+      <c r="Q443" s="229"/>
+      <c r="R443" s="229"/>
+      <c r="S443" s="229"/>
+      <c r="T443" s="229"/>
+      <c r="U443" s="229"/>
+      <c r="V443" s="229"/>
+      <c r="W443" s="229"/>
+      <c r="X443" s="229"/>
+      <c r="Y443" s="229"/>
+      <c r="Z443" s="229"/>
+      <c r="AA443" s="229"/>
+      <c r="AB443" s="229"/>
+      <c r="AC443" s="229"/>
+      <c r="AD443" s="229"/>
+      <c r="AE443" s="229"/>
+      <c r="AF443" s="229"/>
+      <c r="AG443" s="229"/>
+      <c r="AH443" s="229"/>
+      <c r="AI443" s="229"/>
+    </row>
+    <row r="444" spans="2:35" s="222" customFormat="1">
+      <c r="B444" s="226"/>
+      <c r="C444" s="229"/>
+      <c r="D444" s="229"/>
+      <c r="E444" s="229"/>
+      <c r="F444" s="229"/>
+      <c r="G444" s="229"/>
+      <c r="H444" s="229"/>
+      <c r="I444" s="229"/>
+      <c r="J444" s="229"/>
+      <c r="K444" s="229"/>
+      <c r="L444" s="229"/>
+      <c r="M444" s="229"/>
+      <c r="N444" s="229"/>
+      <c r="O444" s="229"/>
+      <c r="P444" s="229"/>
+      <c r="Q444" s="229"/>
+      <c r="R444" s="229"/>
+      <c r="S444" s="229"/>
+      <c r="T444" s="229"/>
+      <c r="U444" s="229"/>
+      <c r="V444" s="229"/>
+      <c r="W444" s="229"/>
+      <c r="X444" s="229"/>
+      <c r="Y444" s="229"/>
+      <c r="Z444" s="229"/>
+      <c r="AA444" s="229"/>
+      <c r="AB444" s="229"/>
+      <c r="AC444" s="229"/>
+      <c r="AD444" s="229"/>
+      <c r="AE444" s="229"/>
+      <c r="AF444" s="229"/>
+      <c r="AG444" s="229"/>
+      <c r="AH444" s="229"/>
+      <c r="AI444" s="229"/>
+    </row>
+    <row r="445" spans="2:35" s="222" customFormat="1">
+      <c r="B445" s="226"/>
+      <c r="C445" s="229"/>
+      <c r="D445" s="229"/>
+      <c r="E445" s="229"/>
+      <c r="F445" s="229"/>
+      <c r="G445" s="229"/>
+      <c r="H445" s="229"/>
+      <c r="I445" s="229"/>
+      <c r="J445" s="229"/>
+      <c r="K445" s="229"/>
+      <c r="L445" s="229"/>
+      <c r="M445" s="229"/>
+      <c r="N445" s="229"/>
+      <c r="O445" s="229"/>
+      <c r="P445" s="229"/>
+      <c r="Q445" s="229"/>
+      <c r="R445" s="229"/>
+      <c r="S445" s="229"/>
+      <c r="T445" s="229"/>
+      <c r="U445" s="229"/>
+      <c r="V445" s="229"/>
+      <c r="W445" s="229"/>
+      <c r="X445" s="229"/>
+      <c r="Y445" s="229"/>
+      <c r="Z445" s="229"/>
+      <c r="AA445" s="229"/>
+      <c r="AB445" s="229"/>
+      <c r="AC445" s="229"/>
+      <c r="AD445" s="229"/>
+      <c r="AE445" s="229"/>
+      <c r="AF445" s="229"/>
+      <c r="AG445" s="229"/>
+      <c r="AH445" s="229"/>
+      <c r="AI445" s="229"/>
+    </row>
+    <row r="446" spans="2:35" s="222" customFormat="1">
+      <c r="B446" s="226"/>
+      <c r="C446" s="229"/>
+      <c r="D446" s="229"/>
+      <c r="E446" s="229"/>
+      <c r="F446" s="229"/>
+      <c r="G446" s="229"/>
+      <c r="H446" s="229"/>
+      <c r="I446" s="229"/>
+      <c r="J446" s="229"/>
+      <c r="K446" s="229"/>
+      <c r="L446" s="229"/>
+      <c r="M446" s="229"/>
+      <c r="N446" s="229"/>
+      <c r="O446" s="229"/>
+      <c r="P446" s="229"/>
+      <c r="Q446" s="229"/>
+      <c r="R446" s="229"/>
+      <c r="S446" s="229"/>
+      <c r="T446" s="229"/>
+      <c r="U446" s="229"/>
+      <c r="V446" s="229"/>
+      <c r="W446" s="229"/>
+      <c r="X446" s="229"/>
+      <c r="Y446" s="229"/>
+      <c r="Z446" s="229"/>
+      <c r="AA446" s="229"/>
+      <c r="AB446" s="229"/>
+      <c r="AC446" s="229"/>
+      <c r="AD446" s="229"/>
+      <c r="AE446" s="229"/>
+      <c r="AF446" s="229"/>
+      <c r="AG446" s="229"/>
+      <c r="AH446" s="229"/>
+      <c r="AI446" s="229"/>
+    </row>
+    <row r="447" spans="2:35" s="222" customFormat="1">
+      <c r="B447" s="226"/>
+      <c r="C447" s="229"/>
+      <c r="D447" s="229"/>
+      <c r="E447" s="229"/>
+      <c r="F447" s="229"/>
+      <c r="G447" s="229"/>
+      <c r="H447" s="229"/>
+      <c r="I447" s="229"/>
+      <c r="J447" s="229"/>
+      <c r="K447" s="229"/>
+      <c r="L447" s="229"/>
+      <c r="M447" s="229"/>
+      <c r="N447" s="229"/>
+      <c r="O447" s="229"/>
+      <c r="P447" s="229"/>
+      <c r="Q447" s="229"/>
+      <c r="R447" s="229"/>
+      <c r="S447" s="229"/>
+      <c r="T447" s="229"/>
+      <c r="U447" s="229"/>
+      <c r="V447" s="229"/>
+      <c r="W447" s="229"/>
+      <c r="X447" s="229"/>
+      <c r="Y447" s="229"/>
+      <c r="Z447" s="229"/>
+      <c r="AA447" s="229"/>
+      <c r="AB447" s="229"/>
+      <c r="AC447" s="229"/>
+      <c r="AD447" s="229"/>
+      <c r="AE447" s="229"/>
+      <c r="AF447" s="229"/>
+      <c r="AG447" s="229"/>
+      <c r="AH447" s="229"/>
+      <c r="AI447" s="229"/>
+    </row>
+    <row r="448" spans="2:35" s="222" customFormat="1">
+      <c r="B448" s="226"/>
+      <c r="C448" s="229"/>
+      <c r="D448" s="229"/>
+      <c r="E448" s="229"/>
+      <c r="F448" s="229"/>
+      <c r="G448" s="229"/>
+      <c r="H448" s="229"/>
+      <c r="I448" s="229"/>
+      <c r="J448" s="229"/>
+      <c r="K448" s="229"/>
+      <c r="L448" s="229"/>
+      <c r="M448" s="229"/>
+      <c r="N448" s="229"/>
+      <c r="O448" s="229"/>
+      <c r="P448" s="229"/>
+      <c r="Q448" s="229"/>
+      <c r="R448" s="229"/>
+      <c r="S448" s="229"/>
+      <c r="T448" s="229"/>
+      <c r="U448" s="229"/>
+      <c r="V448" s="229"/>
+      <c r="W448" s="229"/>
+      <c r="X448" s="229"/>
+      <c r="Y448" s="229"/>
+      <c r="Z448" s="229"/>
+      <c r="AA448" s="229"/>
+      <c r="AB448" s="229"/>
+      <c r="AC448" s="229"/>
+      <c r="AD448" s="229"/>
+      <c r="AE448" s="229"/>
+      <c r="AF448" s="229"/>
+      <c r="AG448" s="229"/>
+      <c r="AH448" s="229"/>
+      <c r="AI448" s="229"/>
+    </row>
+    <row r="449" spans="2:35" s="222" customFormat="1">
+      <c r="B449" s="226"/>
+      <c r="C449" s="229"/>
+      <c r="D449" s="229"/>
+      <c r="E449" s="229"/>
+      <c r="F449" s="229"/>
+      <c r="G449" s="229"/>
+      <c r="H449" s="229"/>
+      <c r="I449" s="229"/>
+      <c r="J449" s="229"/>
+      <c r="K449" s="229"/>
+      <c r="L449" s="229"/>
+      <c r="M449" s="229"/>
+      <c r="N449" s="229"/>
+      <c r="O449" s="229"/>
+      <c r="P449" s="229"/>
+      <c r="Q449" s="229"/>
+      <c r="R449" s="229"/>
+      <c r="S449" s="229"/>
+      <c r="T449" s="229"/>
+      <c r="U449" s="229"/>
+      <c r="V449" s="229"/>
+      <c r="W449" s="229"/>
+      <c r="X449" s="229"/>
+      <c r="Y449" s="229"/>
+      <c r="Z449" s="229"/>
+      <c r="AA449" s="229"/>
+      <c r="AB449" s="229"/>
+      <c r="AC449" s="229"/>
+      <c r="AD449" s="229"/>
+      <c r="AE449" s="229"/>
+      <c r="AF449" s="229"/>
+      <c r="AG449" s="229"/>
+      <c r="AH449" s="229"/>
+      <c r="AI449" s="229"/>
+    </row>
+    <row r="450" spans="2:35" s="222" customFormat="1">
+      <c r="B450" s="226"/>
+      <c r="C450" s="229"/>
+      <c r="D450" s="229"/>
+      <c r="E450" s="229"/>
+      <c r="F450" s="229"/>
+      <c r="G450" s="229"/>
+      <c r="H450" s="229"/>
+      <c r="I450" s="229"/>
+      <c r="J450" s="229"/>
+      <c r="K450" s="229"/>
+      <c r="L450" s="229"/>
+      <c r="M450" s="229"/>
+      <c r="N450" s="229"/>
+      <c r="O450" s="229"/>
+      <c r="P450" s="229"/>
+      <c r="Q450" s="229"/>
+      <c r="R450" s="229"/>
+      <c r="S450" s="229"/>
+      <c r="T450" s="229"/>
+      <c r="U450" s="229"/>
+      <c r="V450" s="229"/>
+      <c r="W450" s="229"/>
+      <c r="X450" s="229"/>
+      <c r="Y450" s="229"/>
+      <c r="Z450" s="229"/>
+      <c r="AA450" s="229"/>
+      <c r="AB450" s="229"/>
+      <c r="AC450" s="229"/>
+      <c r="AD450" s="229"/>
+      <c r="AE450" s="229"/>
+      <c r="AF450" s="229"/>
+      <c r="AG450" s="229"/>
+      <c r="AH450" s="229"/>
+      <c r="AI450" s="229"/>
+    </row>
+    <row r="451" spans="2:35" s="222" customFormat="1">
+      <c r="B451" s="226"/>
+      <c r="C451" s="229"/>
+      <c r="D451" s="229"/>
+      <c r="E451" s="229"/>
+      <c r="F451" s="229"/>
+      <c r="G451" s="229"/>
+      <c r="H451" s="229"/>
+      <c r="I451" s="229"/>
+      <c r="J451" s="229"/>
+      <c r="K451" s="229"/>
+      <c r="L451" s="229"/>
+      <c r="M451" s="229"/>
+      <c r="N451" s="229"/>
+      <c r="O451" s="229"/>
+      <c r="P451" s="229"/>
+      <c r="Q451" s="229"/>
+      <c r="R451" s="229"/>
+      <c r="S451" s="229"/>
+      <c r="T451" s="229"/>
+      <c r="U451" s="229"/>
+      <c r="V451" s="229"/>
+      <c r="W451" s="229"/>
+      <c r="X451" s="229"/>
+      <c r="Y451" s="229"/>
+      <c r="Z451" s="229"/>
+      <c r="AA451" s="229"/>
+      <c r="AB451" s="229"/>
+      <c r="AC451" s="229"/>
+      <c r="AD451" s="229"/>
+      <c r="AE451" s="229"/>
+      <c r="AF451" s="229"/>
+      <c r="AG451" s="229"/>
+      <c r="AH451" s="229"/>
+      <c r="AI451" s="229"/>
+    </row>
+    <row r="452" spans="2:35" s="222" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -13661,64 +13590,64 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="3.1640625" customWidth="1"/>
+    <col min="1" max="2" width="3.140625" customWidth="1"/>
     <col min="3" max="3" width="46" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" customWidth="1"/>
-    <col min="6" max="7" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="6" max="7" width="17.7109375" customWidth="1"/>
     <col min="8" max="8" width="55" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.6640625" customWidth="1"/>
+    <col min="9" max="9" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" s="234" customFormat="1">
-      <c r="D1" s="235"/>
-      <c r="E1" s="235"/>
-      <c r="F1" s="235"/>
-      <c r="G1" s="235"/>
-    </row>
-    <row r="2" spans="2:9" s="234" customFormat="1">
-      <c r="B2" s="243" t="s">
-        <v>179</v>
-      </c>
-      <c r="C2" s="244"/>
-      <c r="D2" s="244"/>
-      <c r="E2" s="255"/>
-      <c r="F2" s="235"/>
-      <c r="G2" s="235"/>
-    </row>
-    <row r="3" spans="2:9" s="234" customFormat="1">
-      <c r="B3" s="246"/>
-      <c r="C3" s="247"/>
-      <c r="D3" s="247"/>
-      <c r="E3" s="256"/>
-      <c r="F3" s="235"/>
-      <c r="G3" s="235"/>
-    </row>
-    <row r="4" spans="2:9" s="234" customFormat="1">
-      <c r="B4" s="249"/>
-      <c r="C4" s="250"/>
-      <c r="D4" s="250"/>
-      <c r="E4" s="257"/>
-      <c r="F4" s="235"/>
-      <c r="G4" s="235"/>
-    </row>
-    <row r="5" spans="2:9" s="234" customFormat="1" ht="17" thickBot="1">
-      <c r="D5" s="235"/>
-    </row>
-    <row r="6" spans="2:9" s="234" customFormat="1">
-      <c r="B6" s="236"/>
+    <row r="1" spans="2:9" s="232" customFormat="1">
+      <c r="D1" s="233"/>
+      <c r="E1" s="233"/>
+      <c r="F1" s="233"/>
+      <c r="G1" s="233"/>
+    </row>
+    <row r="2" spans="2:9" s="232" customFormat="1">
+      <c r="B2" s="241" t="s">
+        <v>177</v>
+      </c>
+      <c r="C2" s="242"/>
+      <c r="D2" s="242"/>
+      <c r="E2" s="253"/>
+      <c r="F2" s="233"/>
+      <c r="G2" s="233"/>
+    </row>
+    <row r="3" spans="2:9" s="232" customFormat="1">
+      <c r="B3" s="244"/>
+      <c r="C3" s="245"/>
+      <c r="D3" s="245"/>
+      <c r="E3" s="254"/>
+      <c r="F3" s="233"/>
+      <c r="G3" s="233"/>
+    </row>
+    <row r="4" spans="2:9" s="232" customFormat="1">
+      <c r="B4" s="247"/>
+      <c r="C4" s="248"/>
+      <c r="D4" s="248"/>
+      <c r="E4" s="255"/>
+      <c r="F4" s="233"/>
+      <c r="G4" s="233"/>
+    </row>
+    <row r="5" spans="2:9" s="232" customFormat="1" ht="17" thickBot="1">
+      <c r="D5" s="233"/>
+    </row>
+    <row r="6" spans="2:9" s="232" customFormat="1">
+      <c r="B6" s="234"/>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
       <c r="H6" s="22"/>
-      <c r="I6" s="237"/>
+      <c r="I6" s="235"/>
     </row>
     <row r="7" spans="2:9" s="44" customFormat="1" ht="19">
       <c r="B7" s="97"/>
       <c r="C7" s="21" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D7" s="98" t="s">
         <v>5</v>
@@ -13730,7 +13659,7 @@
         <v>4</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H7" s="21" t="s">
         <v>0</v>
@@ -13743,23 +13672,23 @@
     </row>
     <row r="9" spans="2:9" s="44" customFormat="1" ht="20" thickBot="1">
       <c r="B9" s="25"/>
-      <c r="C9" s="238" t="s">
+      <c r="C9" s="236" t="s">
+        <v>180</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="E9" s="237">
+        <v>1.1718999999999999</v>
+      </c>
+      <c r="F9" s="236" t="s">
         <v>182</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="G9" s="238">
+        <v>43068</v>
+      </c>
+      <c r="H9" s="239" t="s">
         <v>183</v>
-      </c>
-      <c r="E9" s="239">
-        <v>1.1718999999999999</v>
-      </c>
-      <c r="F9" s="238" t="s">
-        <v>184</v>
-      </c>
-      <c r="G9" s="240">
-        <v>43068</v>
-      </c>
-      <c r="H9" s="241" t="s">
-        <v>185</v>
       </c>
       <c r="I9" s="45"/>
     </row>
